--- a/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1254800</v>
+        <v>765000</v>
       </c>
       <c r="E8" s="3">
-        <v>1260900</v>
+        <v>1507100</v>
       </c>
       <c r="F8" s="3">
-        <v>986400</v>
+        <v>1224000</v>
       </c>
       <c r="G8" s="3">
-        <v>1296400</v>
+        <v>1230000</v>
       </c>
       <c r="H8" s="3">
-        <v>1031500</v>
+        <v>962200</v>
       </c>
       <c r="I8" s="3">
+        <v>1264600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1006200</v>
+      </c>
+      <c r="K8" s="3">
         <v>966000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>717900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>969300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>794600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>720700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>482100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1182000</v>
+        <v>789700</v>
       </c>
       <c r="E9" s="3">
-        <v>1186300</v>
+        <v>1417600</v>
       </c>
       <c r="F9" s="3">
-        <v>944400</v>
+        <v>1153000</v>
       </c>
       <c r="G9" s="3">
-        <v>1221200</v>
+        <v>1157200</v>
       </c>
       <c r="H9" s="3">
-        <v>975600</v>
+        <v>921200</v>
       </c>
       <c r="I9" s="3">
+        <v>1191300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>951600</v>
+      </c>
+      <c r="K9" s="3">
         <v>906000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>702200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>926500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>764700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>700900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>502500</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>89500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>71000</v>
+      </c>
+      <c r="G10" s="3">
         <v>72800</v>
       </c>
-      <c r="E10" s="3">
-        <v>74600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>42000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>75200</v>
-      </c>
       <c r="H10" s="3">
-        <v>55900</v>
+        <v>41000</v>
       </c>
       <c r="I10" s="3">
+        <v>73300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K10" s="3">
         <v>59900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>15700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>42800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>29900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>19700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>9300</v>
+        <v>8400</v>
       </c>
       <c r="E12" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F12" s="3">
         <v>9000</v>
       </c>
-      <c r="F12" s="3">
-        <v>7800</v>
-      </c>
       <c r="G12" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N12" s="3">
         <v>8300</v>
       </c>
-      <c r="H12" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>8300</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>4000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1261400</v>
+        <v>870800</v>
       </c>
       <c r="E17" s="3">
-        <v>1269100</v>
+        <v>1504500</v>
       </c>
       <c r="F17" s="3">
-        <v>1021000</v>
+        <v>1230400</v>
       </c>
       <c r="G17" s="3">
-        <v>1303000</v>
+        <v>1237900</v>
       </c>
       <c r="H17" s="3">
-        <v>1053500</v>
+        <v>996000</v>
       </c>
       <c r="I17" s="3">
+        <v>1271000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1027700</v>
+      </c>
+      <c r="K17" s="3">
         <v>981800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>767900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>992900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>865000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>752600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>545600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-6600</v>
+        <v>-105900</v>
       </c>
       <c r="E18" s="3">
-        <v>-8200</v>
+        <v>2600</v>
       </c>
       <c r="F18" s="3">
-        <v>-34700</v>
+        <v>-6400</v>
       </c>
       <c r="G18" s="3">
-        <v>-6500</v>
+        <v>-8000</v>
       </c>
       <c r="H18" s="3">
-        <v>-22000</v>
+        <v>-33800</v>
       </c>
       <c r="I18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-15900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-49900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-23600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-70300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-31900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-63600</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1111,198 +1176,230 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>7900</v>
+        <v>6000</v>
       </c>
       <c r="E20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F20" s="3">
         <v>7700</v>
       </c>
-      <c r="F20" s="3">
-        <v>5500</v>
-      </c>
       <c r="G20" s="3">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="H20" s="3">
-        <v>17800</v>
+        <v>5300</v>
       </c>
       <c r="I20" s="3">
-        <v>6100</v>
+        <v>6700</v>
       </c>
       <c r="J20" s="3">
-        <v>3200</v>
+        <v>17400</v>
       </c>
       <c r="K20" s="3">
         <v>6100</v>
       </c>
       <c r="L20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="N20" s="3">
         <v>3500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-5200</v>
+        <v>-83300</v>
       </c>
       <c r="E21" s="3">
-        <v>3100</v>
+        <v>11700</v>
       </c>
       <c r="F21" s="3">
-        <v>-11100</v>
+        <v>-5100</v>
       </c>
       <c r="G21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="I21" s="3">
         <v>3200</v>
       </c>
-      <c r="H21" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-10400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-30900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>21400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-75900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-16000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-48700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K22" s="3">
         <v>3100</v>
       </c>
-      <c r="H22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-104500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
-        <v>-33000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-12900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-48600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-19700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-68700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-29600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F24" s="3">
         <v>500</v>
       </c>
       <c r="G24" s="3">
+        <v>600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>500</v>
+      </c>
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>500</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>500</v>
+      </c>
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-1000</v>
+        <v>-105100</v>
       </c>
       <c r="E26" s="3">
-        <v>-3200</v>
+        <v>6100</v>
       </c>
       <c r="F26" s="3">
-        <v>-33500</v>
+        <v>-900</v>
       </c>
       <c r="G26" s="3">
-        <v>-3400</v>
+        <v>-3100</v>
       </c>
       <c r="H26" s="3">
-        <v>-7300</v>
+        <v>-32700</v>
       </c>
       <c r="I26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-13400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-48700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-20200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-69300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-30000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-33200</v>
-      </c>
       <c r="G27" s="3">
-        <v>-3400</v>
+        <v>-3100</v>
       </c>
       <c r="H27" s="3">
-        <v>-7300</v>
+        <v>-32300</v>
       </c>
       <c r="I27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-48700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-20300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-69400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-29800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-7900</v>
+        <v>-6000</v>
       </c>
       <c r="E32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7700</v>
       </c>
-      <c r="F32" s="3">
-        <v>-5500</v>
-      </c>
       <c r="G32" s="3">
-        <v>-6900</v>
+        <v>-7500</v>
       </c>
       <c r="H32" s="3">
-        <v>-17800</v>
+        <v>-5300</v>
       </c>
       <c r="I32" s="3">
-        <v>-6100</v>
+        <v>-6700</v>
       </c>
       <c r="J32" s="3">
-        <v>-3200</v>
+        <v>-17400</v>
       </c>
       <c r="K32" s="3">
         <v>-6100</v>
       </c>
       <c r="L32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-3500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-33200</v>
-      </c>
       <c r="G33" s="3">
-        <v>-3400</v>
+        <v>-3100</v>
       </c>
       <c r="H33" s="3">
-        <v>-7300</v>
+        <v>-32300</v>
       </c>
       <c r="I33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-48700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-20300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-69400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-29800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-33200</v>
-      </c>
       <c r="G35" s="3">
-        <v>-3400</v>
+        <v>-3100</v>
       </c>
       <c r="H35" s="3">
-        <v>-7300</v>
+        <v>-32300</v>
       </c>
       <c r="I35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-48700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-20300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-69400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-29800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1794,350 +1965,406 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>306800</v>
+        <v>176700</v>
       </c>
       <c r="E41" s="3">
-        <v>226000</v>
+        <v>279200</v>
       </c>
       <c r="F41" s="3">
-        <v>210900</v>
+        <v>299200</v>
       </c>
       <c r="G41" s="3">
-        <v>233900</v>
+        <v>220500</v>
       </c>
       <c r="H41" s="3">
-        <v>87700</v>
+        <v>205700</v>
       </c>
       <c r="I41" s="3">
+        <v>228200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>85500</v>
+      </c>
+      <c r="K41" s="3">
         <v>254000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>306600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>184100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>149900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>165400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>326200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>171600</v>
+        <v>116100</v>
       </c>
       <c r="E42" s="3">
-        <v>155500</v>
+        <v>148000</v>
       </c>
       <c r="F42" s="3">
-        <v>133000</v>
+        <v>167400</v>
       </c>
       <c r="G42" s="3">
-        <v>144500</v>
+        <v>151600</v>
       </c>
       <c r="H42" s="3">
-        <v>298800</v>
+        <v>129700</v>
       </c>
       <c r="I42" s="3">
+        <v>141000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>291400</v>
+      </c>
+      <c r="K42" s="3">
         <v>171800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>200900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>349300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>552300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>163100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>273500</v>
+        <v>227600</v>
       </c>
       <c r="E43" s="3">
-        <v>271900</v>
+        <v>297700</v>
       </c>
       <c r="F43" s="3">
-        <v>249400</v>
+        <v>266800</v>
       </c>
       <c r="G43" s="3">
-        <v>266600</v>
+        <v>265200</v>
       </c>
       <c r="H43" s="3">
-        <v>194000</v>
+        <v>243300</v>
       </c>
       <c r="I43" s="3">
+        <v>260000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>189200</v>
+      </c>
+      <c r="K43" s="3">
         <v>166500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>133500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>162200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>94800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>82300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>23200</v>
+        <v>21100</v>
       </c>
       <c r="E44" s="3">
-        <v>25200</v>
+        <v>19600</v>
       </c>
       <c r="F44" s="3">
-        <v>24200</v>
+        <v>22700</v>
       </c>
       <c r="G44" s="3">
-        <v>21700</v>
+        <v>24500</v>
       </c>
       <c r="H44" s="3">
         <v>23600</v>
       </c>
       <c r="I44" s="3">
+        <v>21100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K44" s="3">
         <v>25800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>22400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>23300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>28200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>21700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>499900</v>
+        <v>605200</v>
       </c>
       <c r="E45" s="3">
-        <v>462600</v>
+        <v>611500</v>
       </c>
       <c r="F45" s="3">
-        <v>463700</v>
+        <v>487600</v>
       </c>
       <c r="G45" s="3">
-        <v>456700</v>
+        <v>451200</v>
       </c>
       <c r="H45" s="3">
-        <v>434400</v>
+        <v>452300</v>
       </c>
       <c r="I45" s="3">
+        <v>445500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>423700</v>
+      </c>
+      <c r="K45" s="3">
         <v>429300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>386900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>461900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>304500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>310600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>254900</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1275000</v>
+        <v>1146700</v>
       </c>
       <c r="E46" s="3">
-        <v>1141100</v>
+        <v>1356000</v>
       </c>
       <c r="F46" s="3">
-        <v>1081100</v>
+        <v>1243700</v>
       </c>
       <c r="G46" s="3">
-        <v>1123400</v>
+        <v>1113100</v>
       </c>
       <c r="H46" s="3">
-        <v>1038400</v>
+        <v>1054600</v>
       </c>
       <c r="I46" s="3">
+        <v>1095900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1012900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1047300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1050300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1180800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1129600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>743100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>711900</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>196300</v>
+        <v>163400</v>
       </c>
       <c r="E47" s="3">
-        <v>224900</v>
+        <v>183200</v>
       </c>
       <c r="F47" s="3">
-        <v>231200</v>
+        <v>191500</v>
       </c>
       <c r="G47" s="3">
-        <v>236100</v>
+        <v>219300</v>
       </c>
       <c r="H47" s="3">
-        <v>192700</v>
+        <v>225500</v>
       </c>
       <c r="I47" s="3">
+        <v>230300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>188000</v>
+      </c>
+      <c r="K47" s="3">
         <v>157100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>114700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>116700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>5500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>5500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>979800</v>
+        <v>1049000</v>
       </c>
       <c r="E48" s="3">
-        <v>925000</v>
+        <v>1024300</v>
       </c>
       <c r="F48" s="3">
-        <v>937000</v>
+        <v>955700</v>
       </c>
       <c r="G48" s="3">
-        <v>296200</v>
+        <v>902300</v>
       </c>
       <c r="H48" s="3">
-        <v>260900</v>
+        <v>914000</v>
       </c>
       <c r="I48" s="3">
+        <v>289000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>254500</v>
+      </c>
+      <c r="K48" s="3">
         <v>221600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>188200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>194000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>181800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>164000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>88300</v>
+        <v>85500</v>
       </c>
       <c r="E49" s="3">
-        <v>85900</v>
+        <v>85700</v>
       </c>
       <c r="F49" s="3">
-        <v>86900</v>
+        <v>86200</v>
       </c>
       <c r="G49" s="3">
-        <v>87900</v>
+        <v>83800</v>
       </c>
       <c r="H49" s="3">
-        <v>85700</v>
+        <v>84700</v>
       </c>
       <c r="I49" s="3">
+        <v>85800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>83600</v>
+      </c>
+      <c r="K49" s="3">
         <v>86500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>86100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>90100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>84500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>84800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2212,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>67500</v>
+        <v>138400</v>
       </c>
       <c r="E52" s="3">
-        <v>48200</v>
+        <v>79100</v>
       </c>
       <c r="F52" s="3">
-        <v>37100</v>
+        <v>65900</v>
       </c>
       <c r="G52" s="3">
-        <v>30600</v>
+        <v>47000</v>
       </c>
       <c r="H52" s="3">
-        <v>28500</v>
+        <v>36200</v>
       </c>
       <c r="I52" s="3">
+        <v>29800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K52" s="3">
         <v>28000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>32200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>32800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>137900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>110300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>2606900</v>
+        <v>2582800</v>
       </c>
       <c r="E54" s="3">
-        <v>2425000</v>
+        <v>2728200</v>
       </c>
       <c r="F54" s="3">
-        <v>2373200</v>
+        <v>2542900</v>
       </c>
       <c r="G54" s="3">
-        <v>1774300</v>
+        <v>2365500</v>
       </c>
       <c r="H54" s="3">
-        <v>1606200</v>
+        <v>2315000</v>
       </c>
       <c r="I54" s="3">
+        <v>1730800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1566800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1540600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1471500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1614500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1539400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1107700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>972800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2358,236 +2617,274 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>435200</v>
+        <v>362400</v>
       </c>
       <c r="E57" s="3">
-        <v>408900</v>
+        <v>474700</v>
       </c>
       <c r="F57" s="3">
-        <v>397100</v>
+        <v>424500</v>
       </c>
       <c r="G57" s="3">
-        <v>409100</v>
+        <v>398900</v>
       </c>
       <c r="H57" s="3">
-        <v>333800</v>
+        <v>387300</v>
       </c>
       <c r="I57" s="3">
+        <v>399100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>325600</v>
+      </c>
+      <c r="K57" s="3">
         <v>322700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>265300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>354500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>358000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>344400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>222200</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>294100</v>
+        <v>437900</v>
       </c>
       <c r="E58" s="3">
-        <v>347000</v>
+        <v>366200</v>
       </c>
       <c r="F58" s="3">
-        <v>306600</v>
+        <v>286900</v>
       </c>
       <c r="G58" s="3">
-        <v>256200</v>
+        <v>338500</v>
       </c>
       <c r="H58" s="3">
-        <v>209200</v>
+        <v>299100</v>
       </c>
       <c r="I58" s="3">
+        <v>249900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>204000</v>
+      </c>
+      <c r="K58" s="3">
         <v>186500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>234600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>181600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>136100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>159600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>619100</v>
+        <v>645000</v>
       </c>
       <c r="E59" s="3">
-        <v>592200</v>
+        <v>638400</v>
       </c>
       <c r="F59" s="3">
-        <v>580400</v>
+        <v>603900</v>
       </c>
       <c r="G59" s="3">
-        <v>498800</v>
+        <v>577700</v>
       </c>
       <c r="H59" s="3">
-        <v>453900</v>
+        <v>566200</v>
       </c>
       <c r="I59" s="3">
+        <v>486500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>442800</v>
+      </c>
+      <c r="K59" s="3">
         <v>433300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>388100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>410400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>398000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>330500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>314400</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1348400</v>
+        <v>1445300</v>
       </c>
       <c r="E60" s="3">
-        <v>1348100</v>
+        <v>1479300</v>
       </c>
       <c r="F60" s="3">
-        <v>1284100</v>
+        <v>1315300</v>
       </c>
       <c r="G60" s="3">
-        <v>1164100</v>
+        <v>1315100</v>
       </c>
       <c r="H60" s="3">
-        <v>996900</v>
+        <v>1252600</v>
       </c>
       <c r="I60" s="3">
+        <v>1135600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>972500</v>
+      </c>
+      <c r="K60" s="3">
         <v>942500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>888000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>946400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>892100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>834500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>690200</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>200400</v>
+        <v>204600</v>
       </c>
       <c r="E61" s="3">
-        <v>10000</v>
+        <v>190700</v>
       </c>
       <c r="F61" s="3">
+        <v>195500</v>
+      </c>
+      <c r="G61" s="3">
+        <v>9700</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>300</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
       </c>
       <c r="M61" s="3">
+        <v>300</v>
+      </c>
+      <c r="N61" s="3">
+        <v>200</v>
+      </c>
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>503200</v>
+        <v>496400</v>
       </c>
       <c r="E62" s="3">
-        <v>501500</v>
+        <v>510200</v>
       </c>
       <c r="F62" s="3">
-        <v>531400</v>
+        <v>490900</v>
       </c>
       <c r="G62" s="3">
-        <v>16000</v>
+        <v>489200</v>
       </c>
       <c r="H62" s="3">
-        <v>15600</v>
+        <v>518300</v>
       </c>
       <c r="I62" s="3">
         <v>15700</v>
       </c>
       <c r="J62" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>15700</v>
+      </c>
+      <c r="L62" s="3">
         <v>15500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>15900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>13600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>13700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>2052400</v>
+        <v>2144400</v>
       </c>
       <c r="E66" s="3">
-        <v>1859600</v>
+        <v>2179400</v>
       </c>
       <c r="F66" s="3">
-        <v>1816200</v>
+        <v>2002000</v>
       </c>
       <c r="G66" s="3">
-        <v>1180600</v>
+        <v>1814000</v>
       </c>
       <c r="H66" s="3">
-        <v>1013000</v>
+        <v>1771600</v>
       </c>
       <c r="I66" s="3">
+        <v>1151600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>988200</v>
+      </c>
+      <c r="K66" s="3">
         <v>958600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>903700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>962700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>906000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>862000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>691800</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2863,13 +3198,19 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>2351100</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>2351100</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2248800</v>
+        <v>-2298200</v>
       </c>
       <c r="E72" s="3">
-        <v>-2248300</v>
+        <v>-2186400</v>
       </c>
       <c r="F72" s="3">
-        <v>-2245500</v>
+        <v>-2193600</v>
       </c>
       <c r="G72" s="3">
-        <v>-2212400</v>
+        <v>-2193100</v>
       </c>
       <c r="H72" s="3">
-        <v>-2209000</v>
+        <v>-2190400</v>
       </c>
       <c r="I72" s="3">
+        <v>-2158100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-2154800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2201600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2188200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2209300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2189000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2119600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2089800</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>554500</v>
+        <v>438500</v>
       </c>
       <c r="E76" s="3">
-        <v>565500</v>
+        <v>548800</v>
       </c>
       <c r="F76" s="3">
-        <v>557000</v>
+        <v>540900</v>
       </c>
       <c r="G76" s="3">
-        <v>593700</v>
+        <v>551600</v>
       </c>
       <c r="H76" s="3">
-        <v>593200</v>
+        <v>543400</v>
       </c>
       <c r="I76" s="3">
+        <v>579200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>578600</v>
+      </c>
+      <c r="K76" s="3">
         <v>582000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>567800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>651800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>633400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2105500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2070100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-33200</v>
-      </c>
       <c r="G81" s="3">
-        <v>-3400</v>
+        <v>-3100</v>
       </c>
       <c r="H81" s="3">
-        <v>-7300</v>
+        <v>-32300</v>
       </c>
       <c r="I81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-48700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-20300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-69400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-29800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>34100</v>
+        <v>-181000</v>
       </c>
       <c r="E89" s="3">
-        <v>48000</v>
+        <v>68100</v>
       </c>
       <c r="F89" s="3">
-        <v>-29500</v>
+        <v>33200</v>
       </c>
       <c r="G89" s="3">
-        <v>104600</v>
+        <v>46800</v>
       </c>
       <c r="H89" s="3">
-        <v>12400</v>
+        <v>-28800</v>
       </c>
       <c r="I89" s="3">
+        <v>102000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K89" s="3">
         <v>62000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-87600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>16100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>42300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3539,20 +3980,26 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-16600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-79800</v>
+        <v>15900</v>
       </c>
       <c r="E94" s="3">
-        <v>-91600</v>
+        <v>-74000</v>
       </c>
       <c r="F94" s="3">
-        <v>-27100</v>
+        <v>-77900</v>
       </c>
       <c r="G94" s="3">
-        <v>16100</v>
+        <v>-89400</v>
       </c>
       <c r="H94" s="3">
-        <v>-231000</v>
+        <v>-26400</v>
       </c>
       <c r="I94" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-225400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-53000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>91300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>93900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-444500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-204600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-68900</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4318,142 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>128700</v>
+        <v>84700</v>
       </c>
       <c r="E100" s="3">
-        <v>43700</v>
+        <v>63400</v>
       </c>
       <c r="F100" s="3">
-        <v>51200</v>
+        <v>125600</v>
       </c>
       <c r="G100" s="3">
-        <v>46900</v>
+        <v>42600</v>
       </c>
       <c r="H100" s="3">
-        <v>21600</v>
+        <v>49900</v>
       </c>
       <c r="I100" s="3">
+        <v>45800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-47600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>59000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-66600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>416100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>8100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6000</v>
+        <v>3400</v>
       </c>
       <c r="E101" s="3">
-        <v>3900</v>
+        <v>-5100</v>
       </c>
       <c r="F101" s="3">
-        <v>-3900</v>
+        <v>5900</v>
       </c>
       <c r="G101" s="3">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="H101" s="3">
-        <v>7200</v>
+        <v>-3800</v>
       </c>
       <c r="I101" s="3">
+        <v>200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K101" s="3">
         <v>10800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-10600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>8800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-3300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-6600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>89000</v>
+        <v>-77000</v>
       </c>
       <c r="E102" s="3">
-        <v>4000</v>
+        <v>52400</v>
       </c>
       <c r="F102" s="3">
-        <v>-9300</v>
+        <v>86800</v>
       </c>
       <c r="G102" s="3">
-        <v>167900</v>
+        <v>3900</v>
       </c>
       <c r="H102" s="3">
-        <v>-189800</v>
+        <v>-9100</v>
       </c>
       <c r="I102" s="3">
+        <v>163800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-185200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-27700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>52000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>34200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-15600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-160800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-108300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>765000</v>
+        <v>1222600</v>
       </c>
       <c r="E8" s="3">
-        <v>1507100</v>
+        <v>793800</v>
       </c>
       <c r="F8" s="3">
-        <v>1224000</v>
+        <v>1563800</v>
       </c>
       <c r="G8" s="3">
-        <v>1230000</v>
+        <v>1270100</v>
       </c>
       <c r="H8" s="3">
-        <v>962200</v>
+        <v>1276300</v>
       </c>
       <c r="I8" s="3">
-        <v>1264600</v>
+        <v>998400</v>
       </c>
       <c r="J8" s="3">
+        <v>1312200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1006200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>966000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>717900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>969300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>794600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>720700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>482100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>789700</v>
+        <v>1139800</v>
       </c>
       <c r="E9" s="3">
-        <v>1417600</v>
+        <v>819400</v>
       </c>
       <c r="F9" s="3">
-        <v>1153000</v>
+        <v>1471000</v>
       </c>
       <c r="G9" s="3">
-        <v>1157200</v>
+        <v>1196400</v>
       </c>
       <c r="H9" s="3">
-        <v>921200</v>
+        <v>1286400</v>
       </c>
       <c r="I9" s="3">
-        <v>1191300</v>
+        <v>955900</v>
       </c>
       <c r="J9" s="3">
+        <v>1236100</v>
+      </c>
+      <c r="K9" s="3">
         <v>951600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>906000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>702200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>926500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>764700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>700900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>502500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-24700</v>
+        <v>82700</v>
       </c>
       <c r="E10" s="3">
-        <v>89500</v>
+        <v>-25600</v>
       </c>
       <c r="F10" s="3">
-        <v>71000</v>
+        <v>92800</v>
       </c>
       <c r="G10" s="3">
-        <v>72800</v>
+        <v>73600</v>
       </c>
       <c r="H10" s="3">
-        <v>41000</v>
+        <v>-10100</v>
       </c>
       <c r="I10" s="3">
-        <v>73300</v>
+        <v>42500</v>
       </c>
       <c r="J10" s="3">
+        <v>76100</v>
+      </c>
+      <c r="K10" s="3">
         <v>54600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>59900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>42800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J12" s="3">
         <v>8400</v>
       </c>
-      <c r="E12" s="3">
-        <v>8700</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>8100</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>4000</v>
       </c>
       <c r="P12" s="3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>870800</v>
+        <v>1227800</v>
       </c>
       <c r="E17" s="3">
-        <v>1504500</v>
+        <v>903600</v>
       </c>
       <c r="F17" s="3">
-        <v>1230400</v>
+        <v>1561100</v>
       </c>
       <c r="G17" s="3">
-        <v>1237900</v>
+        <v>1276700</v>
       </c>
       <c r="H17" s="3">
-        <v>996000</v>
+        <v>1284600</v>
       </c>
       <c r="I17" s="3">
-        <v>1271000</v>
+        <v>1033500</v>
       </c>
       <c r="J17" s="3">
+        <v>1318900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1027700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>981800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>767900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>992900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>865000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>752600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>545600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-105900</v>
+        <v>-5200</v>
       </c>
       <c r="E18" s="3">
-        <v>2600</v>
+        <v>-109900</v>
       </c>
       <c r="F18" s="3">
-        <v>-6400</v>
+        <v>2700</v>
       </c>
       <c r="G18" s="3">
-        <v>-8000</v>
+        <v>-6700</v>
       </c>
       <c r="H18" s="3">
-        <v>-33800</v>
+        <v>-8300</v>
       </c>
       <c r="I18" s="3">
-        <v>-6400</v>
+        <v>-35100</v>
       </c>
       <c r="J18" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-21500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-49900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-23600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-70300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-31900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-63600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,184 +1211,197 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>6000</v>
+        <v>7400</v>
       </c>
       <c r="E20" s="3">
-        <v>8200</v>
+        <v>6200</v>
       </c>
       <c r="F20" s="3">
-        <v>7700</v>
+        <v>8500</v>
       </c>
       <c r="G20" s="3">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="H20" s="3">
-        <v>5300</v>
+        <v>7800</v>
       </c>
       <c r="I20" s="3">
-        <v>6700</v>
+        <v>5500</v>
       </c>
       <c r="J20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K20" s="3">
         <v>17400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-83300</v>
+        <v>2600</v>
       </c>
       <c r="E21" s="3">
-        <v>11700</v>
+        <v>-86400</v>
       </c>
       <c r="F21" s="3">
-        <v>-5100</v>
+        <v>12200</v>
       </c>
       <c r="G21" s="3">
-        <v>3000</v>
+        <v>-5300</v>
       </c>
       <c r="H21" s="3">
-        <v>-10800</v>
+        <v>3100</v>
       </c>
       <c r="I21" s="3">
-        <v>3200</v>
+        <v>-11200</v>
       </c>
       <c r="J21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-30900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-75900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-16000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-48700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="E22" s="3">
-        <v>3700</v>
+        <v>4800</v>
       </c>
       <c r="F22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
-        <v>3600</v>
-      </c>
       <c r="I22" s="3">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="J22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-104500</v>
+        <v>-3900</v>
       </c>
       <c r="E23" s="3">
-        <v>7000</v>
+        <v>-108400</v>
       </c>
       <c r="F23" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2500</v>
-      </c>
       <c r="H23" s="3">
-        <v>-32100</v>
+        <v>-2600</v>
       </c>
       <c r="I23" s="3">
-        <v>-2600</v>
+        <v>-33400</v>
       </c>
       <c r="J23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-48600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-68700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-29600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1363,43 +1409,46 @@
         <v>600</v>
       </c>
       <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-105100</v>
+        <v>-4500</v>
       </c>
       <c r="E26" s="3">
-        <v>6100</v>
+        <v>-109000</v>
       </c>
       <c r="F26" s="3">
-        <v>-900</v>
+        <v>6300</v>
       </c>
       <c r="G26" s="3">
-        <v>-3100</v>
+        <v>-1000</v>
       </c>
       <c r="H26" s="3">
-        <v>-32700</v>
+        <v>-3200</v>
       </c>
       <c r="I26" s="3">
-        <v>-3300</v>
+        <v>-33900</v>
       </c>
       <c r="J26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-48700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-69300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-30000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-104000</v>
+        <v>-3500</v>
       </c>
       <c r="E27" s="3">
-        <v>8000</v>
+        <v>-107900</v>
       </c>
       <c r="F27" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H27" s="3">
-        <v>-32300</v>
+        <v>-2800</v>
       </c>
       <c r="I27" s="3">
-        <v>-3300</v>
+        <v>-33600</v>
       </c>
       <c r="J27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-7200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-48700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-69400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-29800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-6000</v>
+        <v>-7400</v>
       </c>
       <c r="E32" s="3">
-        <v>-8200</v>
+        <v>-6200</v>
       </c>
       <c r="F32" s="3">
-        <v>-7700</v>
+        <v>-8500</v>
       </c>
       <c r="G32" s="3">
-        <v>-7500</v>
+        <v>-8000</v>
       </c>
       <c r="H32" s="3">
-        <v>-5300</v>
+        <v>-7800</v>
       </c>
       <c r="I32" s="3">
-        <v>-6700</v>
+        <v>-5500</v>
       </c>
       <c r="J32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-17400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-104000</v>
+        <v>-3500</v>
       </c>
       <c r="E33" s="3">
-        <v>8000</v>
+        <v>-107900</v>
       </c>
       <c r="F33" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H33" s="3">
-        <v>-32300</v>
+        <v>-2800</v>
       </c>
       <c r="I33" s="3">
-        <v>-3300</v>
+        <v>-33600</v>
       </c>
       <c r="J33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-7200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-48700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-69400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-29800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-104000</v>
+        <v>-3500</v>
       </c>
       <c r="E35" s="3">
-        <v>8000</v>
+        <v>-107900</v>
       </c>
       <c r="F35" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H35" s="3">
-        <v>-32300</v>
+        <v>-2800</v>
       </c>
       <c r="I35" s="3">
-        <v>-3300</v>
+        <v>-33600</v>
       </c>
       <c r="J35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-7200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-48700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-69400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-29800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1967,404 +2053,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>176700</v>
+        <v>346300</v>
       </c>
       <c r="E41" s="3">
-        <v>279200</v>
+        <v>183300</v>
       </c>
       <c r="F41" s="3">
-        <v>299200</v>
+        <v>289700</v>
       </c>
       <c r="G41" s="3">
-        <v>220500</v>
+        <v>310500</v>
       </c>
       <c r="H41" s="3">
-        <v>205700</v>
+        <v>228800</v>
       </c>
       <c r="I41" s="3">
-        <v>228200</v>
+        <v>213400</v>
       </c>
       <c r="J41" s="3">
+        <v>236800</v>
+      </c>
+      <c r="K41" s="3">
         <v>85500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>254000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>306600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>184100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>149900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>165400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>326200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>116100</v>
+        <v>77300</v>
       </c>
       <c r="E42" s="3">
-        <v>148000</v>
+        <v>120500</v>
       </c>
       <c r="F42" s="3">
-        <v>167400</v>
+        <v>153600</v>
       </c>
       <c r="G42" s="3">
-        <v>151600</v>
+        <v>173700</v>
       </c>
       <c r="H42" s="3">
-        <v>129700</v>
+        <v>157400</v>
       </c>
       <c r="I42" s="3">
-        <v>141000</v>
+        <v>134600</v>
       </c>
       <c r="J42" s="3">
+        <v>146300</v>
+      </c>
+      <c r="K42" s="3">
         <v>291400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>171800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>200900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>349300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>552300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>163100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>227600</v>
+        <v>243100</v>
       </c>
       <c r="E43" s="3">
-        <v>297700</v>
+        <v>236200</v>
       </c>
       <c r="F43" s="3">
-        <v>266800</v>
+        <v>308900</v>
       </c>
       <c r="G43" s="3">
-        <v>265200</v>
+        <v>276900</v>
       </c>
       <c r="H43" s="3">
-        <v>243300</v>
+        <v>275200</v>
       </c>
       <c r="I43" s="3">
-        <v>260000</v>
+        <v>252400</v>
       </c>
       <c r="J43" s="3">
+        <v>269800</v>
+      </c>
+      <c r="K43" s="3">
         <v>189200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>166500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>133500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>162200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>94800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>82300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>21100</v>
+        <v>23100</v>
       </c>
       <c r="E44" s="3">
-        <v>19600</v>
+        <v>21900</v>
       </c>
       <c r="F44" s="3">
-        <v>22700</v>
+        <v>20300</v>
       </c>
       <c r="G44" s="3">
+        <v>23500</v>
+      </c>
+      <c r="H44" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I44" s="3">
         <v>24500</v>
       </c>
-      <c r="H44" s="3">
-        <v>23600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>21100</v>
-      </c>
       <c r="J44" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K44" s="3">
         <v>23000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>25800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>22400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>23300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>28200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>21700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>605200</v>
+        <v>660300</v>
       </c>
       <c r="E45" s="3">
-        <v>611500</v>
+        <v>628000</v>
       </c>
       <c r="F45" s="3">
-        <v>487600</v>
+        <v>634600</v>
       </c>
       <c r="G45" s="3">
-        <v>451200</v>
+        <v>506000</v>
       </c>
       <c r="H45" s="3">
-        <v>452300</v>
+        <v>468200</v>
       </c>
       <c r="I45" s="3">
-        <v>445500</v>
+        <v>469400</v>
       </c>
       <c r="J45" s="3">
+        <v>462300</v>
+      </c>
+      <c r="K45" s="3">
         <v>423700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>429300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>386900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>461900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>304500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>310600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>254900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1146700</v>
+        <v>1350100</v>
       </c>
       <c r="E46" s="3">
-        <v>1356000</v>
+        <v>1189900</v>
       </c>
       <c r="F46" s="3">
-        <v>1243700</v>
+        <v>1407100</v>
       </c>
       <c r="G46" s="3">
-        <v>1113100</v>
+        <v>1290500</v>
       </c>
       <c r="H46" s="3">
-        <v>1054600</v>
+        <v>1155000</v>
       </c>
       <c r="I46" s="3">
-        <v>1095900</v>
+        <v>1094300</v>
       </c>
       <c r="J46" s="3">
+        <v>1137100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1012900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1047300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1050300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1180800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1129600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>743100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>711900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>163400</v>
+        <v>163200</v>
       </c>
       <c r="E47" s="3">
-        <v>183200</v>
+        <v>169500</v>
       </c>
       <c r="F47" s="3">
-        <v>191500</v>
+        <v>190100</v>
       </c>
       <c r="G47" s="3">
-        <v>219300</v>
+        <v>198700</v>
       </c>
       <c r="H47" s="3">
-        <v>225500</v>
+        <v>227600</v>
       </c>
       <c r="I47" s="3">
-        <v>230300</v>
+        <v>234000</v>
       </c>
       <c r="J47" s="3">
+        <v>239000</v>
+      </c>
+      <c r="K47" s="3">
         <v>188000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>157100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>114700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>116700</v>
-      </c>
-      <c r="N47" s="3">
-        <v>5500</v>
       </c>
       <c r="O47" s="3">
         <v>5500</v>
       </c>
       <c r="P47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Q47" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1049000</v>
+        <v>1136600</v>
       </c>
       <c r="E48" s="3">
-        <v>1024300</v>
+        <v>1088500</v>
       </c>
       <c r="F48" s="3">
-        <v>955700</v>
+        <v>1062800</v>
       </c>
       <c r="G48" s="3">
-        <v>902300</v>
+        <v>991700</v>
       </c>
       <c r="H48" s="3">
-        <v>914000</v>
+        <v>936300</v>
       </c>
       <c r="I48" s="3">
-        <v>289000</v>
+        <v>948400</v>
       </c>
       <c r="J48" s="3">
+        <v>299900</v>
+      </c>
+      <c r="K48" s="3">
         <v>254500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>221600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>188200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>194000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>181800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>164000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>85500</v>
+        <v>88800</v>
       </c>
       <c r="E49" s="3">
-        <v>85700</v>
+        <v>88700</v>
       </c>
       <c r="F49" s="3">
-        <v>86200</v>
+        <v>89000</v>
       </c>
       <c r="G49" s="3">
-        <v>83800</v>
+        <v>89400</v>
       </c>
       <c r="H49" s="3">
-        <v>84700</v>
+        <v>87000</v>
       </c>
       <c r="I49" s="3">
-        <v>85800</v>
+        <v>87900</v>
       </c>
       <c r="J49" s="3">
+        <v>89000</v>
+      </c>
+      <c r="K49" s="3">
         <v>83600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>86500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>86100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>90100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>84500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>84800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>138400</v>
+        <v>176700</v>
       </c>
       <c r="E52" s="3">
-        <v>79100</v>
+        <v>143600</v>
       </c>
       <c r="F52" s="3">
-        <v>65900</v>
+        <v>82100</v>
       </c>
       <c r="G52" s="3">
-        <v>47000</v>
+        <v>68300</v>
       </c>
       <c r="H52" s="3">
-        <v>36200</v>
+        <v>48700</v>
       </c>
       <c r="I52" s="3">
-        <v>29800</v>
+        <v>37500</v>
       </c>
       <c r="J52" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K52" s="3">
         <v>27800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>32200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>32800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>137900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>110300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>2582800</v>
+        <v>2915400</v>
       </c>
       <c r="E54" s="3">
-        <v>2728200</v>
+        <v>2680100</v>
       </c>
       <c r="F54" s="3">
-        <v>2542900</v>
+        <v>2830900</v>
       </c>
       <c r="G54" s="3">
-        <v>2365500</v>
+        <v>2638700</v>
       </c>
       <c r="H54" s="3">
-        <v>2315000</v>
+        <v>2454600</v>
       </c>
       <c r="I54" s="3">
-        <v>1730800</v>
+        <v>2402200</v>
       </c>
       <c r="J54" s="3">
+        <v>1796000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1566800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1540600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1471500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1614500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1539400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1107700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>972800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2619,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>362400</v>
+        <v>469400</v>
       </c>
       <c r="E57" s="3">
-        <v>474700</v>
+        <v>376000</v>
       </c>
       <c r="F57" s="3">
-        <v>424500</v>
+        <v>492500</v>
       </c>
       <c r="G57" s="3">
-        <v>398900</v>
+        <v>440500</v>
       </c>
       <c r="H57" s="3">
-        <v>387300</v>
+        <v>413900</v>
       </c>
       <c r="I57" s="3">
-        <v>399100</v>
+        <v>401900</v>
       </c>
       <c r="J57" s="3">
+        <v>414100</v>
+      </c>
+      <c r="K57" s="3">
         <v>325600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>322700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>265300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>354500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>358000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>344400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>222200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>437900</v>
+        <v>394900</v>
       </c>
       <c r="E58" s="3">
-        <v>366200</v>
+        <v>454400</v>
       </c>
       <c r="F58" s="3">
-        <v>286900</v>
+        <v>380000</v>
       </c>
       <c r="G58" s="3">
-        <v>338500</v>
+        <v>297700</v>
       </c>
       <c r="H58" s="3">
-        <v>299100</v>
+        <v>351300</v>
       </c>
       <c r="I58" s="3">
-        <v>249900</v>
+        <v>310300</v>
       </c>
       <c r="J58" s="3">
+        <v>259300</v>
+      </c>
+      <c r="K58" s="3">
         <v>204000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>186500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>234600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>181600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>136100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>159600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>645000</v>
+        <v>700900</v>
       </c>
       <c r="E59" s="3">
-        <v>638400</v>
+        <v>669300</v>
       </c>
       <c r="F59" s="3">
-        <v>603900</v>
+        <v>662500</v>
       </c>
       <c r="G59" s="3">
-        <v>577700</v>
+        <v>626600</v>
       </c>
       <c r="H59" s="3">
-        <v>566200</v>
+        <v>599400</v>
       </c>
       <c r="I59" s="3">
-        <v>486500</v>
+        <v>587500</v>
       </c>
       <c r="J59" s="3">
+        <v>504900</v>
+      </c>
+      <c r="K59" s="3">
         <v>442800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>433300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>388100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>410400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>398000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>330500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>314400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1445300</v>
+        <v>1565100</v>
       </c>
       <c r="E60" s="3">
-        <v>1479300</v>
+        <v>1499700</v>
       </c>
       <c r="F60" s="3">
-        <v>1315300</v>
+        <v>1535000</v>
       </c>
       <c r="G60" s="3">
-        <v>1315100</v>
+        <v>1364800</v>
       </c>
       <c r="H60" s="3">
-        <v>1252600</v>
+        <v>1364600</v>
       </c>
       <c r="I60" s="3">
-        <v>1135600</v>
+        <v>1299800</v>
       </c>
       <c r="J60" s="3">
+        <v>1178300</v>
+      </c>
+      <c r="K60" s="3">
         <v>972500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>942500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>888000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>946400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>892100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>834500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>690200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>204600</v>
+        <v>395700</v>
       </c>
       <c r="E61" s="3">
-        <v>190700</v>
+        <v>212300</v>
       </c>
       <c r="F61" s="3">
-        <v>195500</v>
+        <v>197800</v>
       </c>
       <c r="G61" s="3">
-        <v>9700</v>
+        <v>202900</v>
       </c>
       <c r="H61" s="3">
+        <v>10100</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
       </c>
       <c r="K61" s="3">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>496400</v>
+        <v>509400</v>
       </c>
       <c r="E62" s="3">
-        <v>510200</v>
+        <v>515100</v>
       </c>
       <c r="F62" s="3">
-        <v>490900</v>
+        <v>529500</v>
       </c>
       <c r="G62" s="3">
-        <v>489200</v>
+        <v>509400</v>
       </c>
       <c r="H62" s="3">
-        <v>518300</v>
+        <v>507600</v>
       </c>
       <c r="I62" s="3">
+        <v>537800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>15200</v>
+      </c>
+      <c r="L62" s="3">
         <v>15700</v>
       </c>
-      <c r="J62" s="3">
-        <v>15200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>15700</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>2144400</v>
+        <v>2467400</v>
       </c>
       <c r="E66" s="3">
-        <v>2179400</v>
+        <v>2225100</v>
       </c>
       <c r="F66" s="3">
-        <v>2002000</v>
+        <v>2261500</v>
       </c>
       <c r="G66" s="3">
-        <v>1814000</v>
+        <v>2077400</v>
       </c>
       <c r="H66" s="3">
-        <v>1771600</v>
+        <v>1882300</v>
       </c>
       <c r="I66" s="3">
-        <v>1151600</v>
+        <v>1838300</v>
       </c>
       <c r="J66" s="3">
+        <v>1195000</v>
+      </c>
+      <c r="K66" s="3">
         <v>988200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>958600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>903700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>962700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>906000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>862000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>691800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3204,13 +3372,16 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>2351100</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>2351100</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>2351100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2298200</v>
+        <v>-2388300</v>
       </c>
       <c r="E72" s="3">
-        <v>-2186400</v>
+        <v>-2384700</v>
       </c>
       <c r="F72" s="3">
-        <v>-2193600</v>
+        <v>-2268700</v>
       </c>
       <c r="G72" s="3">
-        <v>-2193100</v>
+        <v>-2276200</v>
       </c>
       <c r="H72" s="3">
-        <v>-2190400</v>
+        <v>-2275700</v>
       </c>
       <c r="I72" s="3">
-        <v>-2158100</v>
+        <v>-2272900</v>
       </c>
       <c r="J72" s="3">
+        <v>-2239300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2154800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2201600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2188200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2209300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2189000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2119600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2089800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>438500</v>
+        <v>448000</v>
       </c>
       <c r="E76" s="3">
-        <v>548800</v>
+        <v>455000</v>
       </c>
       <c r="F76" s="3">
-        <v>540900</v>
+        <v>569400</v>
       </c>
       <c r="G76" s="3">
-        <v>551600</v>
+        <v>561300</v>
       </c>
       <c r="H76" s="3">
-        <v>543400</v>
+        <v>572400</v>
       </c>
       <c r="I76" s="3">
-        <v>579200</v>
+        <v>563800</v>
       </c>
       <c r="J76" s="3">
+        <v>601000</v>
+      </c>
+      <c r="K76" s="3">
         <v>578600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>582000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>567800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>651800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>633400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2105500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2070100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-104000</v>
+        <v>-3500</v>
       </c>
       <c r="E81" s="3">
-        <v>8000</v>
+        <v>-107900</v>
       </c>
       <c r="F81" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H81" s="3">
-        <v>-32300</v>
+        <v>-2800</v>
       </c>
       <c r="I81" s="3">
-        <v>-3300</v>
+        <v>-33600</v>
       </c>
       <c r="J81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-7200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-48700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-69400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-29800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-181000</v>
+        <v>104900</v>
       </c>
       <c r="E89" s="3">
-        <v>68100</v>
+        <v>-187900</v>
       </c>
       <c r="F89" s="3">
-        <v>33200</v>
+        <v>70700</v>
       </c>
       <c r="G89" s="3">
-        <v>46800</v>
+        <v>34500</v>
       </c>
       <c r="H89" s="3">
-        <v>-28800</v>
+        <v>48500</v>
       </c>
       <c r="I89" s="3">
-        <v>102000</v>
+        <v>-29900</v>
       </c>
       <c r="J89" s="3">
+        <v>105900</v>
+      </c>
+      <c r="K89" s="3">
         <v>12100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>62000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-87600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>42300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3986,20 +4207,23 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>78</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P91" s="3">
         <v>-16600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>15900</v>
+        <v>-41100</v>
       </c>
       <c r="E94" s="3">
-        <v>-74000</v>
+        <v>16500</v>
       </c>
       <c r="F94" s="3">
-        <v>-77900</v>
+        <v>-76800</v>
       </c>
       <c r="G94" s="3">
-        <v>-89400</v>
+        <v>-80800</v>
       </c>
       <c r="H94" s="3">
-        <v>-26400</v>
+        <v>-92700</v>
       </c>
       <c r="I94" s="3">
-        <v>15800</v>
+        <v>-27400</v>
       </c>
       <c r="J94" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-225400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-53000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>91300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>93900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-444500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-204600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-68900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>84700</v>
+        <v>110700</v>
       </c>
       <c r="E100" s="3">
-        <v>63400</v>
+        <v>87900</v>
       </c>
       <c r="F100" s="3">
-        <v>125600</v>
+        <v>65800</v>
       </c>
       <c r="G100" s="3">
-        <v>42600</v>
+        <v>130300</v>
       </c>
       <c r="H100" s="3">
-        <v>49900</v>
+        <v>44300</v>
       </c>
       <c r="I100" s="3">
-        <v>45800</v>
+        <v>51800</v>
       </c>
       <c r="J100" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K100" s="3">
         <v>21100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-47600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>59000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-66600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>416100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3400</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>-5100</v>
+        <v>3500</v>
       </c>
       <c r="F101" s="3">
-        <v>5900</v>
+        <v>-5300</v>
       </c>
       <c r="G101" s="3">
-        <v>3800</v>
+        <v>6100</v>
       </c>
       <c r="H101" s="3">
-        <v>-3800</v>
+        <v>4000</v>
       </c>
       <c r="I101" s="3">
-        <v>200</v>
+        <v>-4000</v>
       </c>
       <c r="J101" s="3">
+        <v>300</v>
+      </c>
+      <c r="K101" s="3">
         <v>7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-77000</v>
+        <v>174700</v>
       </c>
       <c r="E102" s="3">
-        <v>52400</v>
+        <v>-79900</v>
       </c>
       <c r="F102" s="3">
-        <v>86800</v>
+        <v>54400</v>
       </c>
       <c r="G102" s="3">
-        <v>3900</v>
+        <v>90100</v>
       </c>
       <c r="H102" s="3">
-        <v>-9100</v>
+        <v>4000</v>
       </c>
       <c r="I102" s="3">
-        <v>163800</v>
+        <v>-9400</v>
       </c>
       <c r="J102" s="3">
+        <v>170000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-185200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-27700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>52000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>34200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-15600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-160800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-108300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1222600</v>
+        <v>1322400</v>
       </c>
       <c r="E8" s="3">
-        <v>793800</v>
+        <v>1280600</v>
       </c>
       <c r="F8" s="3">
-        <v>1563800</v>
+        <v>831400</v>
       </c>
       <c r="G8" s="3">
-        <v>1270100</v>
+        <v>1638000</v>
       </c>
       <c r="H8" s="3">
-        <v>1276300</v>
+        <v>3712900</v>
       </c>
       <c r="I8" s="3">
-        <v>998400</v>
+        <v>1336800</v>
       </c>
       <c r="J8" s="3">
+        <v>1045800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1312200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1006200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>966000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>717900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>969300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>794600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>720700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>482100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1139800</v>
+        <v>1316700</v>
       </c>
       <c r="E9" s="3">
-        <v>819400</v>
+        <v>1193900</v>
       </c>
       <c r="F9" s="3">
-        <v>1471000</v>
+        <v>858300</v>
       </c>
       <c r="G9" s="3">
-        <v>1196400</v>
+        <v>1540800</v>
       </c>
       <c r="H9" s="3">
-        <v>1286400</v>
+        <v>3634900</v>
       </c>
       <c r="I9" s="3">
-        <v>955900</v>
+        <v>1347400</v>
       </c>
       <c r="J9" s="3">
+        <v>1001200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1236100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>951600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>906000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>702200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>926500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>764700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>700900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>502500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>82700</v>
+        <v>5700</v>
       </c>
       <c r="E10" s="3">
-        <v>-25600</v>
+        <v>86700</v>
       </c>
       <c r="F10" s="3">
-        <v>92800</v>
+        <v>-26900</v>
       </c>
       <c r="G10" s="3">
-        <v>73600</v>
+        <v>97200</v>
       </c>
       <c r="H10" s="3">
-        <v>-10100</v>
+        <v>78100</v>
       </c>
       <c r="I10" s="3">
-        <v>42500</v>
+        <v>-10600</v>
       </c>
       <c r="J10" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K10" s="3">
         <v>76100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>59900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>15700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>42800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>29900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7300</v>
+        <v>8100</v>
       </c>
       <c r="E12" s="3">
-        <v>8800</v>
+        <v>7700</v>
       </c>
       <c r="F12" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="G12" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="H12" s="3">
-        <v>9100</v>
+        <v>27500</v>
       </c>
       <c r="I12" s="3">
-        <v>7800</v>
+        <v>9500</v>
       </c>
       <c r="J12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K12" s="3">
         <v>8400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>4000</v>
       </c>
       <c r="Q12" s="3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1227800</v>
+        <v>1418000</v>
       </c>
       <c r="E17" s="3">
-        <v>903600</v>
+        <v>1286100</v>
       </c>
       <c r="F17" s="3">
-        <v>1561100</v>
+        <v>946500</v>
       </c>
       <c r="G17" s="3">
-        <v>1276700</v>
+        <v>1635200</v>
       </c>
       <c r="H17" s="3">
-        <v>1284600</v>
+        <v>3765300</v>
       </c>
       <c r="I17" s="3">
-        <v>1033500</v>
+        <v>1345500</v>
       </c>
       <c r="J17" s="3">
+        <v>1082500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1318900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1027700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>981800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>767900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>992900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>865000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>752600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>545600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-5200</v>
+        <v>-95600</v>
       </c>
       <c r="E18" s="3">
-        <v>-109900</v>
+        <v>-5500</v>
       </c>
       <c r="F18" s="3">
-        <v>2700</v>
+        <v>-115100</v>
       </c>
       <c r="G18" s="3">
-        <v>-6700</v>
+        <v>2800</v>
       </c>
       <c r="H18" s="3">
-        <v>-8300</v>
+        <v>-52400</v>
       </c>
       <c r="I18" s="3">
-        <v>-35100</v>
+        <v>-8700</v>
       </c>
       <c r="J18" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-49900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-23600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-70300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-31900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-63600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>7400</v>
+        <v>6400</v>
       </c>
       <c r="E20" s="3">
-        <v>6200</v>
+        <v>7700</v>
       </c>
       <c r="F20" s="3">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="G20" s="3">
-        <v>8000</v>
+        <v>8900</v>
       </c>
       <c r="H20" s="3">
-        <v>7800</v>
+        <v>22300</v>
       </c>
       <c r="I20" s="3">
-        <v>5500</v>
+        <v>8200</v>
       </c>
       <c r="J20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>17400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2600</v>
+        <v>-86200</v>
       </c>
       <c r="E21" s="3">
-        <v>-86400</v>
+        <v>2700</v>
       </c>
       <c r="F21" s="3">
-        <v>12200</v>
+        <v>-90500</v>
       </c>
       <c r="G21" s="3">
-        <v>-5300</v>
+        <v>12800</v>
       </c>
       <c r="H21" s="3">
-        <v>3100</v>
+        <v>-14000</v>
       </c>
       <c r="I21" s="3">
-        <v>-11200</v>
+        <v>3300</v>
       </c>
       <c r="J21" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K21" s="3">
         <v>3300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-30900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-75900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-48700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>6000</v>
+        <v>7100</v>
       </c>
       <c r="E22" s="3">
-        <v>4800</v>
+        <v>6300</v>
       </c>
       <c r="F22" s="3">
-        <v>3900</v>
+        <v>5000</v>
       </c>
       <c r="G22" s="3">
-        <v>1700</v>
+        <v>4100</v>
       </c>
       <c r="H22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O22" s="3">
         <v>2100</v>
       </c>
-      <c r="I22" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-3900</v>
+        <v>-96300</v>
       </c>
       <c r="E23" s="3">
-        <v>-108400</v>
+        <v>-4100</v>
       </c>
       <c r="F23" s="3">
-        <v>7300</v>
+        <v>-113600</v>
       </c>
       <c r="G23" s="3">
-        <v>-400</v>
+        <v>7600</v>
       </c>
       <c r="H23" s="3">
-        <v>-2600</v>
+        <v>-38100</v>
       </c>
       <c r="I23" s="3">
-        <v>-33400</v>
+        <v>-2700</v>
       </c>
       <c r="J23" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-48600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-68700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-29600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
         <v>600</v>
       </c>
       <c r="F24" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>700</v>
+      </c>
+      <c r="L24" s="3">
+        <v>400</v>
+      </c>
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>500</v>
+      </c>
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
-        <v>500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>700</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
-        <v>500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>600</v>
-      </c>
-      <c r="P24" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-4500</v>
+        <v>-97300</v>
       </c>
       <c r="E26" s="3">
-        <v>-109000</v>
+        <v>-4700</v>
       </c>
       <c r="F26" s="3">
-        <v>6300</v>
+        <v>-114200</v>
       </c>
       <c r="G26" s="3">
-        <v>-1000</v>
+        <v>6600</v>
       </c>
       <c r="H26" s="3">
-        <v>-3200</v>
+        <v>-39900</v>
       </c>
       <c r="I26" s="3">
-        <v>-33900</v>
+        <v>-3400</v>
       </c>
       <c r="J26" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-48700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-69300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-3500</v>
+        <v>-96400</v>
       </c>
       <c r="E27" s="3">
-        <v>-107900</v>
+        <v>-3700</v>
       </c>
       <c r="F27" s="3">
-        <v>8300</v>
+        <v>-113000</v>
       </c>
       <c r="G27" s="3">
-        <v>-500</v>
+        <v>8600</v>
       </c>
       <c r="H27" s="3">
-        <v>-2800</v>
+        <v>-38600</v>
       </c>
       <c r="I27" s="3">
-        <v>-33600</v>
+        <v>-2900</v>
       </c>
       <c r="J27" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-48700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-69400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-7400</v>
+        <v>-6400</v>
       </c>
       <c r="E32" s="3">
-        <v>-6200</v>
+        <v>-7700</v>
       </c>
       <c r="F32" s="3">
-        <v>-8500</v>
+        <v>-6500</v>
       </c>
       <c r="G32" s="3">
-        <v>-8000</v>
+        <v>-8900</v>
       </c>
       <c r="H32" s="3">
-        <v>-7800</v>
+        <v>-22300</v>
       </c>
       <c r="I32" s="3">
-        <v>-5500</v>
+        <v>-8200</v>
       </c>
       <c r="J32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-17400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-3500</v>
+        <v>-96400</v>
       </c>
       <c r="E33" s="3">
-        <v>-107900</v>
+        <v>-3700</v>
       </c>
       <c r="F33" s="3">
-        <v>8300</v>
+        <v>-113000</v>
       </c>
       <c r="G33" s="3">
-        <v>-500</v>
+        <v>8600</v>
       </c>
       <c r="H33" s="3">
-        <v>-2800</v>
+        <v>-38600</v>
       </c>
       <c r="I33" s="3">
-        <v>-33600</v>
+        <v>-2900</v>
       </c>
       <c r="J33" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-48700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-69400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-3500</v>
+        <v>-96400</v>
       </c>
       <c r="E35" s="3">
-        <v>-107900</v>
+        <v>-3700</v>
       </c>
       <c r="F35" s="3">
-        <v>8300</v>
+        <v>-113000</v>
       </c>
       <c r="G35" s="3">
-        <v>-500</v>
+        <v>8600</v>
       </c>
       <c r="H35" s="3">
-        <v>-2800</v>
+        <v>-38600</v>
       </c>
       <c r="I35" s="3">
-        <v>-33600</v>
+        <v>-2900</v>
       </c>
       <c r="J35" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-48700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-69400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2054,431 +2140,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>346300</v>
+        <v>275900</v>
       </c>
       <c r="E41" s="3">
-        <v>183300</v>
+        <v>362800</v>
       </c>
       <c r="F41" s="3">
-        <v>289700</v>
+        <v>192000</v>
       </c>
       <c r="G41" s="3">
-        <v>310500</v>
+        <v>303400</v>
       </c>
       <c r="H41" s="3">
-        <v>228800</v>
+        <v>325200</v>
       </c>
       <c r="I41" s="3">
-        <v>213400</v>
+        <v>239600</v>
       </c>
       <c r="J41" s="3">
+        <v>223600</v>
+      </c>
+      <c r="K41" s="3">
         <v>236800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>85500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>254000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>306600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>184100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>149900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>165400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>326200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>77300</v>
+        <v>46600</v>
       </c>
       <c r="E42" s="3">
-        <v>120500</v>
+        <v>81000</v>
       </c>
       <c r="F42" s="3">
-        <v>153600</v>
+        <v>126200</v>
       </c>
       <c r="G42" s="3">
-        <v>173700</v>
+        <v>160900</v>
       </c>
       <c r="H42" s="3">
-        <v>157400</v>
+        <v>181900</v>
       </c>
       <c r="I42" s="3">
-        <v>134600</v>
+        <v>164800</v>
       </c>
       <c r="J42" s="3">
+        <v>141000</v>
+      </c>
+      <c r="K42" s="3">
         <v>146300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>291400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>171800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>200900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>349300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>552300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>163100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>243100</v>
+        <v>245900</v>
       </c>
       <c r="E43" s="3">
-        <v>236200</v>
+        <v>254600</v>
       </c>
       <c r="F43" s="3">
-        <v>308900</v>
+        <v>247400</v>
       </c>
       <c r="G43" s="3">
-        <v>276900</v>
+        <v>323500</v>
       </c>
       <c r="H43" s="3">
-        <v>275200</v>
+        <v>290000</v>
       </c>
       <c r="I43" s="3">
-        <v>252400</v>
+        <v>288300</v>
       </c>
       <c r="J43" s="3">
+        <v>264400</v>
+      </c>
+      <c r="K43" s="3">
         <v>269800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>189200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>166500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>133500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>162200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>94800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>82300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>23100</v>
+        <v>25300</v>
       </c>
       <c r="E44" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>21300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>24600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>26700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K44" s="3">
         <v>21900</v>
       </c>
-      <c r="F44" s="3">
-        <v>20300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>23500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>25500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>24500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>21900</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>23000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>25800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>22400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>23300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>28200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>21700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>660300</v>
+        <v>820300</v>
       </c>
       <c r="E45" s="3">
-        <v>628000</v>
+        <v>691600</v>
       </c>
       <c r="F45" s="3">
-        <v>634600</v>
+        <v>657800</v>
       </c>
       <c r="G45" s="3">
-        <v>506000</v>
+        <v>664700</v>
       </c>
       <c r="H45" s="3">
-        <v>468200</v>
+        <v>530000</v>
       </c>
       <c r="I45" s="3">
-        <v>469400</v>
+        <v>490400</v>
       </c>
       <c r="J45" s="3">
+        <v>491600</v>
+      </c>
+      <c r="K45" s="3">
         <v>462300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>423700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>429300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>386900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>461900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>304500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>310600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>254900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1350100</v>
+        <v>1414000</v>
       </c>
       <c r="E46" s="3">
-        <v>1189900</v>
+        <v>1414100</v>
       </c>
       <c r="F46" s="3">
-        <v>1407100</v>
+        <v>1246300</v>
       </c>
       <c r="G46" s="3">
-        <v>1290500</v>
+        <v>1473800</v>
       </c>
       <c r="H46" s="3">
-        <v>1155000</v>
+        <v>1351800</v>
       </c>
       <c r="I46" s="3">
-        <v>1094300</v>
+        <v>1209800</v>
       </c>
       <c r="J46" s="3">
+        <v>1146200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1137100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1012900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1047300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1050300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1180800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1129600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>743100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>711900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>163200</v>
+        <v>155900</v>
       </c>
       <c r="E47" s="3">
-        <v>169500</v>
+        <v>170900</v>
       </c>
       <c r="F47" s="3">
-        <v>190100</v>
+        <v>177600</v>
       </c>
       <c r="G47" s="3">
-        <v>198700</v>
+        <v>199100</v>
       </c>
       <c r="H47" s="3">
-        <v>227600</v>
+        <v>208100</v>
       </c>
       <c r="I47" s="3">
-        <v>234000</v>
+        <v>238400</v>
       </c>
       <c r="J47" s="3">
+        <v>245100</v>
+      </c>
+      <c r="K47" s="3">
         <v>239000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>188000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>157100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>114700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>116700</v>
-      </c>
-      <c r="O47" s="3">
-        <v>5500</v>
       </c>
       <c r="P47" s="3">
         <v>5500</v>
       </c>
       <c r="Q47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="R47" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1136600</v>
+        <v>1210900</v>
       </c>
       <c r="E48" s="3">
-        <v>1088500</v>
+        <v>1190500</v>
       </c>
       <c r="F48" s="3">
-        <v>1062800</v>
+        <v>1140100</v>
       </c>
       <c r="G48" s="3">
-        <v>991700</v>
+        <v>1113200</v>
       </c>
       <c r="H48" s="3">
-        <v>936300</v>
+        <v>1038800</v>
       </c>
       <c r="I48" s="3">
-        <v>948400</v>
+        <v>980700</v>
       </c>
       <c r="J48" s="3">
+        <v>993400</v>
+      </c>
+      <c r="K48" s="3">
         <v>299900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>254500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>221600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>188200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>194000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>181800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>164000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>88800</v>
+        <v>93000</v>
       </c>
       <c r="E49" s="3">
-        <v>88700</v>
+        <v>93100</v>
       </c>
       <c r="F49" s="3">
+        <v>92900</v>
+      </c>
+      <c r="G49" s="3">
+        <v>93200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>93600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>91100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K49" s="3">
         <v>89000</v>
       </c>
-      <c r="G49" s="3">
-        <v>89400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>87000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>87900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>89000</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>83600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>86500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>86100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>90100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>84500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>84800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>176700</v>
+        <v>205200</v>
       </c>
       <c r="E52" s="3">
-        <v>143600</v>
+        <v>185100</v>
       </c>
       <c r="F52" s="3">
-        <v>82100</v>
+        <v>150400</v>
       </c>
       <c r="G52" s="3">
-        <v>68300</v>
+        <v>86000</v>
       </c>
       <c r="H52" s="3">
-        <v>48700</v>
+        <v>71600</v>
       </c>
       <c r="I52" s="3">
-        <v>37500</v>
+        <v>51100</v>
       </c>
       <c r="J52" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K52" s="3">
         <v>31000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>28000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>32200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>32800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>137900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>110300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>2915400</v>
+        <v>3078900</v>
       </c>
       <c r="E54" s="3">
-        <v>2680100</v>
+        <v>3053700</v>
       </c>
       <c r="F54" s="3">
-        <v>2830900</v>
+        <v>2807200</v>
       </c>
       <c r="G54" s="3">
-        <v>2638700</v>
+        <v>2965300</v>
       </c>
       <c r="H54" s="3">
-        <v>2454600</v>
+        <v>2763900</v>
       </c>
       <c r="I54" s="3">
-        <v>2402200</v>
+        <v>2571100</v>
       </c>
       <c r="J54" s="3">
+        <v>2516100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1796000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1566800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1540600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1471500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1614500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1539400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1107700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>972800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>469400</v>
+        <v>573600</v>
       </c>
       <c r="E57" s="3">
-        <v>376000</v>
+        <v>491700</v>
       </c>
       <c r="F57" s="3">
-        <v>492500</v>
+        <v>393900</v>
       </c>
       <c r="G57" s="3">
-        <v>440500</v>
+        <v>515900</v>
       </c>
       <c r="H57" s="3">
-        <v>413900</v>
+        <v>461400</v>
       </c>
       <c r="I57" s="3">
-        <v>401900</v>
+        <v>433500</v>
       </c>
       <c r="J57" s="3">
+        <v>421000</v>
+      </c>
+      <c r="K57" s="3">
         <v>414100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>325600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>322700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>265300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>354500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>358000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>344400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>222200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>394900</v>
+        <v>501000</v>
       </c>
       <c r="E58" s="3">
-        <v>454400</v>
+        <v>413600</v>
       </c>
       <c r="F58" s="3">
-        <v>380000</v>
+        <v>476000</v>
       </c>
       <c r="G58" s="3">
-        <v>297700</v>
+        <v>398100</v>
       </c>
       <c r="H58" s="3">
-        <v>351300</v>
+        <v>311800</v>
       </c>
       <c r="I58" s="3">
-        <v>310300</v>
+        <v>367900</v>
       </c>
       <c r="J58" s="3">
+        <v>325100</v>
+      </c>
+      <c r="K58" s="3">
         <v>259300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>204000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>186500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>234600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>181600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>136100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>159600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>700900</v>
+        <v>758700</v>
       </c>
       <c r="E59" s="3">
-        <v>669300</v>
+        <v>734100</v>
       </c>
       <c r="F59" s="3">
-        <v>662500</v>
+        <v>701000</v>
       </c>
       <c r="G59" s="3">
-        <v>626600</v>
+        <v>693900</v>
       </c>
       <c r="H59" s="3">
-        <v>599400</v>
+        <v>656400</v>
       </c>
       <c r="I59" s="3">
-        <v>587500</v>
+        <v>627900</v>
       </c>
       <c r="J59" s="3">
+        <v>615400</v>
+      </c>
+      <c r="K59" s="3">
         <v>504900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>442800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>433300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>388100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>410400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>398000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>330500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>314400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1565100</v>
+        <v>1833300</v>
       </c>
       <c r="E60" s="3">
-        <v>1499700</v>
+        <v>1639400</v>
       </c>
       <c r="F60" s="3">
-        <v>1535000</v>
+        <v>1570900</v>
       </c>
       <c r="G60" s="3">
-        <v>1364800</v>
+        <v>1607900</v>
       </c>
       <c r="H60" s="3">
-        <v>1364600</v>
+        <v>1429600</v>
       </c>
       <c r="I60" s="3">
-        <v>1299800</v>
+        <v>1429300</v>
       </c>
       <c r="J60" s="3">
+        <v>1361400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1178300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>972500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>942500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>888000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>946400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>892100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>834500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>690200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>395700</v>
+        <v>374300</v>
       </c>
       <c r="E61" s="3">
-        <v>212300</v>
+        <v>414500</v>
       </c>
       <c r="F61" s="3">
-        <v>197800</v>
+        <v>222400</v>
       </c>
       <c r="G61" s="3">
-        <v>202900</v>
+        <v>207200</v>
       </c>
       <c r="H61" s="3">
-        <v>10100</v>
+        <v>212500</v>
       </c>
       <c r="I61" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
       </c>
       <c r="L61" s="3">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>509400</v>
+        <v>515400</v>
       </c>
       <c r="E62" s="3">
-        <v>515100</v>
+        <v>533600</v>
       </c>
       <c r="F62" s="3">
-        <v>529500</v>
+        <v>539500</v>
       </c>
       <c r="G62" s="3">
-        <v>509400</v>
+        <v>554600</v>
       </c>
       <c r="H62" s="3">
-        <v>507600</v>
+        <v>533500</v>
       </c>
       <c r="I62" s="3">
-        <v>537800</v>
+        <v>531700</v>
       </c>
       <c r="J62" s="3">
+        <v>563300</v>
+      </c>
+      <c r="K62" s="3">
         <v>16200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>2467400</v>
+        <v>2719800</v>
       </c>
       <c r="E66" s="3">
-        <v>2225100</v>
+        <v>2584500</v>
       </c>
       <c r="F66" s="3">
-        <v>2261500</v>
+        <v>2330700</v>
       </c>
       <c r="G66" s="3">
-        <v>2077400</v>
+        <v>2368800</v>
       </c>
       <c r="H66" s="3">
-        <v>1882300</v>
+        <v>2176000</v>
       </c>
       <c r="I66" s="3">
-        <v>1838300</v>
+        <v>1971600</v>
       </c>
       <c r="J66" s="3">
+        <v>1925600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1195000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>988200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>958600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>903700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>962700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>906000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>862000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>691800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3375,13 +3543,16 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>2351100</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>2351100</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>2351100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2388300</v>
+        <v>-2597900</v>
       </c>
       <c r="E72" s="3">
-        <v>-2384700</v>
+        <v>-2501600</v>
       </c>
       <c r="F72" s="3">
-        <v>-2268700</v>
+        <v>-2497900</v>
       </c>
       <c r="G72" s="3">
-        <v>-2276200</v>
+        <v>-2376400</v>
       </c>
       <c r="H72" s="3">
-        <v>-2275700</v>
+        <v>-2384200</v>
       </c>
       <c r="I72" s="3">
-        <v>-2272900</v>
+        <v>-2383700</v>
       </c>
       <c r="J72" s="3">
+        <v>-2380700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2239300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2154800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2201600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2188200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2209300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2189000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2119600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2089800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>448000</v>
+        <v>359100</v>
       </c>
       <c r="E76" s="3">
-        <v>455000</v>
+        <v>469200</v>
       </c>
       <c r="F76" s="3">
-        <v>569400</v>
+        <v>476500</v>
       </c>
       <c r="G76" s="3">
-        <v>561300</v>
+        <v>596400</v>
       </c>
       <c r="H76" s="3">
-        <v>572400</v>
+        <v>587900</v>
       </c>
       <c r="I76" s="3">
-        <v>563800</v>
+        <v>599500</v>
       </c>
       <c r="J76" s="3">
+        <v>590600</v>
+      </c>
+      <c r="K76" s="3">
         <v>601000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>578600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>582000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>567800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>651800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>633400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2105500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2070100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-3500</v>
+        <v>-96400</v>
       </c>
       <c r="E81" s="3">
-        <v>-107900</v>
+        <v>-3700</v>
       </c>
       <c r="F81" s="3">
-        <v>8300</v>
+        <v>-113000</v>
       </c>
       <c r="G81" s="3">
-        <v>-500</v>
+        <v>8600</v>
       </c>
       <c r="H81" s="3">
-        <v>-2800</v>
+        <v>-38600</v>
       </c>
       <c r="I81" s="3">
-        <v>-33600</v>
+        <v>-2900</v>
       </c>
       <c r="J81" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-48700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-69400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>104900</v>
+        <v>17500</v>
       </c>
       <c r="E89" s="3">
-        <v>-187900</v>
+        <v>109900</v>
       </c>
       <c r="F89" s="3">
-        <v>70700</v>
+        <v>-196800</v>
       </c>
       <c r="G89" s="3">
-        <v>34500</v>
+        <v>74100</v>
       </c>
       <c r="H89" s="3">
-        <v>48500</v>
+        <v>55700</v>
       </c>
       <c r="I89" s="3">
-        <v>-29900</v>
+        <v>50800</v>
       </c>
       <c r="J89" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="K89" s="3">
         <v>105900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>62000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-87600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>42300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4210,20 +4431,23 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>78</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-41100</v>
+        <v>-82100</v>
       </c>
       <c r="E94" s="3">
-        <v>16500</v>
+        <v>-43100</v>
       </c>
       <c r="F94" s="3">
-        <v>-76800</v>
+        <v>17300</v>
       </c>
       <c r="G94" s="3">
-        <v>-80800</v>
+        <v>-80500</v>
       </c>
       <c r="H94" s="3">
-        <v>-92700</v>
+        <v>-210500</v>
       </c>
       <c r="I94" s="3">
-        <v>-27400</v>
+        <v>-97100</v>
       </c>
       <c r="J94" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="K94" s="3">
         <v>16300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-225400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-53000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>91300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>93900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-444500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-204600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-68900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>110700</v>
+        <v>56500</v>
       </c>
       <c r="E100" s="3">
-        <v>87900</v>
+        <v>115900</v>
       </c>
       <c r="F100" s="3">
-        <v>65800</v>
+        <v>92000</v>
       </c>
       <c r="G100" s="3">
-        <v>130300</v>
+        <v>68900</v>
       </c>
       <c r="H100" s="3">
-        <v>44300</v>
+        <v>237100</v>
       </c>
       <c r="I100" s="3">
-        <v>51800</v>
+        <v>46400</v>
       </c>
       <c r="J100" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K100" s="3">
         <v>47500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>21100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-47600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>59000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-66600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>416100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>-16200</v>
       </c>
       <c r="E101" s="3">
-        <v>3500</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>-5300</v>
+        <v>3700</v>
       </c>
       <c r="G101" s="3">
-        <v>6100</v>
+        <v>-5500</v>
       </c>
       <c r="H101" s="3">
-        <v>4000</v>
+        <v>6400</v>
       </c>
       <c r="I101" s="3">
-        <v>-4000</v>
+        <v>4200</v>
       </c>
       <c r="J101" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>174700</v>
+        <v>-24300</v>
       </c>
       <c r="E102" s="3">
-        <v>-79900</v>
+        <v>182900</v>
       </c>
       <c r="F102" s="3">
-        <v>54400</v>
+        <v>-83700</v>
       </c>
       <c r="G102" s="3">
-        <v>90100</v>
+        <v>57000</v>
       </c>
       <c r="H102" s="3">
-        <v>4000</v>
+        <v>88700</v>
       </c>
       <c r="I102" s="3">
-        <v>-9400</v>
+        <v>4200</v>
       </c>
       <c r="J102" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K102" s="3">
         <v>170000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-185200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-27700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>52000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>34200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-15600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-160800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-108300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>BEST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1322400</v>
+        <v>1414000</v>
       </c>
       <c r="E8" s="3">
-        <v>1280600</v>
+        <v>1328200</v>
       </c>
       <c r="F8" s="3">
-        <v>831400</v>
+        <v>1286100</v>
       </c>
       <c r="G8" s="3">
-        <v>1638000</v>
+        <v>835000</v>
       </c>
       <c r="H8" s="3">
-        <v>3712900</v>
+        <v>1645100</v>
       </c>
       <c r="I8" s="3">
-        <v>1336800</v>
+        <v>3729100</v>
       </c>
       <c r="J8" s="3">
+        <v>1342600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1045800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1312200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1006200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>966000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>717900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>969300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>794600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>720700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>482100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1316700</v>
+        <v>1406400</v>
       </c>
       <c r="E9" s="3">
-        <v>1193900</v>
+        <v>1322400</v>
       </c>
       <c r="F9" s="3">
-        <v>858300</v>
+        <v>1199100</v>
       </c>
       <c r="G9" s="3">
-        <v>1540800</v>
+        <v>862000</v>
       </c>
       <c r="H9" s="3">
-        <v>3634900</v>
+        <v>1547500</v>
       </c>
       <c r="I9" s="3">
-        <v>1347400</v>
+        <v>3650600</v>
       </c>
       <c r="J9" s="3">
+        <v>1353200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1001200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1236100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>951600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>906000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>702200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>926500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>764700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>700900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>502500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5700</v>
+        <v>7700</v>
       </c>
       <c r="E10" s="3">
-        <v>86700</v>
+        <v>5800</v>
       </c>
       <c r="F10" s="3">
-        <v>-26900</v>
+        <v>87000</v>
       </c>
       <c r="G10" s="3">
-        <v>97200</v>
+        <v>-27000</v>
       </c>
       <c r="H10" s="3">
-        <v>78100</v>
+        <v>97700</v>
       </c>
       <c r="I10" s="3">
+        <v>78400</v>
+      </c>
+      <c r="J10" s="3">
         <v>-10600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>44500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>76100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>59900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>15700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>42800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="E12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F12" s="3">
         <v>7700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9500</v>
       </c>
-      <c r="H12" s="3">
-        <v>27500</v>
-      </c>
       <c r="I12" s="3">
-        <v>9500</v>
+        <v>27700</v>
       </c>
       <c r="J12" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K12" s="3">
         <v>8200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8300</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>4000</v>
       </c>
       <c r="R12" s="3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1418000</v>
+        <v>1490800</v>
       </c>
       <c r="E17" s="3">
-        <v>1286100</v>
+        <v>1424200</v>
       </c>
       <c r="F17" s="3">
-        <v>946500</v>
+        <v>1291700</v>
       </c>
       <c r="G17" s="3">
-        <v>1635200</v>
+        <v>950600</v>
       </c>
       <c r="H17" s="3">
-        <v>3765300</v>
+        <v>1642300</v>
       </c>
       <c r="I17" s="3">
-        <v>1345500</v>
+        <v>3781700</v>
       </c>
       <c r="J17" s="3">
+        <v>1351300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1082500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1318900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1027700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>981800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>767900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>992900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>865000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>752600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>545600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-95600</v>
+        <v>-76800</v>
       </c>
       <c r="E18" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5500</v>
       </c>
-      <c r="F18" s="3">
-        <v>-115100</v>
-      </c>
       <c r="G18" s="3">
+        <v>-115600</v>
+      </c>
+      <c r="H18" s="3">
         <v>2800</v>
       </c>
-      <c r="H18" s="3">
-        <v>-52400</v>
-      </c>
       <c r="I18" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-8700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-36800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-21500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-49900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-23600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-31900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-63600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,208 +1278,221 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>6400</v>
+        <v>10600</v>
       </c>
       <c r="E20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F20" s="3">
         <v>7700</v>
       </c>
-      <c r="F20" s="3">
-        <v>6500</v>
-      </c>
       <c r="G20" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H20" s="3">
         <v>8900</v>
       </c>
-      <c r="H20" s="3">
-        <v>22300</v>
-      </c>
       <c r="I20" s="3">
+        <v>22400</v>
+      </c>
+      <c r="J20" s="3">
         <v>8200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-86200</v>
+        <v>-65700</v>
       </c>
       <c r="E21" s="3">
+        <v>-86600</v>
+      </c>
+      <c r="F21" s="3">
         <v>2700</v>
       </c>
-      <c r="F21" s="3">
-        <v>-90500</v>
-      </c>
       <c r="G21" s="3">
+        <v>-90900</v>
+      </c>
+      <c r="H21" s="3">
         <v>12800</v>
       </c>
-      <c r="H21" s="3">
-        <v>-14000</v>
-      </c>
       <c r="I21" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="J21" s="3">
         <v>3300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-30900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-16000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-48700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E22" s="3">
         <v>7100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6300</v>
       </c>
-      <c r="F22" s="3">
-        <v>5000</v>
-      </c>
       <c r="G22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H22" s="3">
         <v>4100</v>
       </c>
-      <c r="H22" s="3">
-        <v>8000</v>
-      </c>
       <c r="I22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J22" s="3">
         <v>2200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-96300</v>
+        <v>-74300</v>
       </c>
       <c r="E23" s="3">
+        <v>-96700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-113600</v>
-      </c>
       <c r="G23" s="3">
-        <v>7600</v>
+        <v>-114100</v>
       </c>
       <c r="H23" s="3">
-        <v>-38100</v>
+        <v>7700</v>
       </c>
       <c r="I23" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-48600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-68700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-29600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1455,49 +1500,52 @@
         <v>1000</v>
       </c>
       <c r="E24" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F24" s="3">
         <v>600</v>
       </c>
       <c r="G24" s="3">
+        <v>600</v>
+      </c>
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-97300</v>
+        <v>-75300</v>
       </c>
       <c r="E26" s="3">
+        <v>-97700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-114200</v>
-      </c>
       <c r="G26" s="3">
-        <v>6600</v>
+        <v>-114700</v>
       </c>
       <c r="H26" s="3">
-        <v>-39900</v>
+        <v>6700</v>
       </c>
       <c r="I26" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-35500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-48700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-69300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-30000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-96400</v>
+        <v>-74500</v>
       </c>
       <c r="E27" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-113000</v>
-      </c>
       <c r="G27" s="3">
-        <v>8600</v>
+        <v>-113500</v>
       </c>
       <c r="H27" s="3">
-        <v>-38600</v>
+        <v>8700</v>
       </c>
       <c r="I27" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-35100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-48700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-69400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-29800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1696,31 +1753,34 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-21000</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-6400</v>
+        <v>-10600</v>
       </c>
       <c r="E32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7700</v>
       </c>
-      <c r="F32" s="3">
-        <v>-6500</v>
-      </c>
       <c r="G32" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-8900</v>
       </c>
-      <c r="H32" s="3">
-        <v>-22300</v>
-      </c>
       <c r="I32" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-8200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-96400</v>
+        <v>-95400</v>
       </c>
       <c r="E33" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-113000</v>
-      </c>
       <c r="G33" s="3">
-        <v>8600</v>
+        <v>-113500</v>
       </c>
       <c r="H33" s="3">
-        <v>-38600</v>
+        <v>8700</v>
       </c>
       <c r="I33" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-35100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-48700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-69400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-29800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-96400</v>
+        <v>-95400</v>
       </c>
       <c r="E35" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-113000</v>
-      </c>
       <c r="G35" s="3">
-        <v>8600</v>
+        <v>-113500</v>
       </c>
       <c r="H35" s="3">
-        <v>-38600</v>
+        <v>8700</v>
       </c>
       <c r="I35" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-35100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-48700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-69400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-29800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2141,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>275900</v>
+        <v>211300</v>
       </c>
       <c r="E41" s="3">
-        <v>362800</v>
+        <v>277100</v>
       </c>
       <c r="F41" s="3">
-        <v>192000</v>
+        <v>364300</v>
       </c>
       <c r="G41" s="3">
-        <v>303400</v>
+        <v>192800</v>
       </c>
       <c r="H41" s="3">
-        <v>325200</v>
+        <v>304700</v>
       </c>
       <c r="I41" s="3">
-        <v>239600</v>
+        <v>326700</v>
       </c>
       <c r="J41" s="3">
+        <v>240700</v>
+      </c>
+      <c r="K41" s="3">
         <v>223600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>236800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>85500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>254000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>306600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>184100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>149900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>165400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>326200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>46600</v>
+        <v>41000</v>
       </c>
       <c r="E42" s="3">
-        <v>81000</v>
+        <v>46800</v>
       </c>
       <c r="F42" s="3">
-        <v>126200</v>
+        <v>81400</v>
       </c>
       <c r="G42" s="3">
-        <v>160900</v>
+        <v>126700</v>
       </c>
       <c r="H42" s="3">
-        <v>181900</v>
+        <v>161600</v>
       </c>
       <c r="I42" s="3">
-        <v>164800</v>
+        <v>182700</v>
       </c>
       <c r="J42" s="3">
+        <v>165500</v>
+      </c>
+      <c r="K42" s="3">
         <v>141000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>146300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>291400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>171800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>200900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>349300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>552300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>163100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>245900</v>
+        <v>266700</v>
       </c>
       <c r="E43" s="3">
-        <v>254600</v>
+        <v>246900</v>
       </c>
       <c r="F43" s="3">
-        <v>247400</v>
+        <v>255700</v>
       </c>
       <c r="G43" s="3">
-        <v>323500</v>
+        <v>248400</v>
       </c>
       <c r="H43" s="3">
-        <v>290000</v>
+        <v>324900</v>
       </c>
       <c r="I43" s="3">
-        <v>288300</v>
+        <v>291300</v>
       </c>
       <c r="J43" s="3">
+        <v>289500</v>
+      </c>
+      <c r="K43" s="3">
         <v>264400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>269800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>189200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>166500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>133500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>162200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>94800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>82300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>25300</v>
+        <v>6700</v>
       </c>
       <c r="E44" s="3">
-        <v>24100</v>
+        <v>25400</v>
       </c>
       <c r="F44" s="3">
+        <v>24200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>23100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>21400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>24800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K44" s="3">
+        <v>25700</v>
+      </c>
+      <c r="L44" s="3">
+        <v>21900</v>
+      </c>
+      <c r="M44" s="3">
         <v>23000</v>
       </c>
-      <c r="G44" s="3">
-        <v>21300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>24600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>26700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>25700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>21900</v>
-      </c>
-      <c r="L44" s="3">
-        <v>23000</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>25800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>22400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>23300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>28200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>21700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>820300</v>
+        <v>902200</v>
       </c>
       <c r="E45" s="3">
-        <v>691600</v>
+        <v>823800</v>
       </c>
       <c r="F45" s="3">
-        <v>657800</v>
+        <v>694600</v>
       </c>
       <c r="G45" s="3">
-        <v>664700</v>
+        <v>660700</v>
       </c>
       <c r="H45" s="3">
-        <v>530000</v>
+        <v>667600</v>
       </c>
       <c r="I45" s="3">
-        <v>490400</v>
+        <v>532300</v>
       </c>
       <c r="J45" s="3">
+        <v>492500</v>
+      </c>
+      <c r="K45" s="3">
         <v>491600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>462300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>423700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>429300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>386900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>461900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>304500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>310600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>254900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1414000</v>
+        <v>1428000</v>
       </c>
       <c r="E46" s="3">
-        <v>1414100</v>
+        <v>1420100</v>
       </c>
       <c r="F46" s="3">
-        <v>1246300</v>
+        <v>1420300</v>
       </c>
       <c r="G46" s="3">
-        <v>1473800</v>
+        <v>1251700</v>
       </c>
       <c r="H46" s="3">
-        <v>1351800</v>
+        <v>1480200</v>
       </c>
       <c r="I46" s="3">
-        <v>1209800</v>
+        <v>1357600</v>
       </c>
       <c r="J46" s="3">
+        <v>1215100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1146200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1137100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1012900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1047300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1050300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1180800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1129600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>743100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>711900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>155900</v>
+        <v>132800</v>
       </c>
       <c r="E47" s="3">
-        <v>170900</v>
+        <v>156500</v>
       </c>
       <c r="F47" s="3">
-        <v>177600</v>
+        <v>171600</v>
       </c>
       <c r="G47" s="3">
-        <v>199100</v>
+        <v>178300</v>
       </c>
       <c r="H47" s="3">
-        <v>208100</v>
+        <v>199900</v>
       </c>
       <c r="I47" s="3">
-        <v>238400</v>
+        <v>209000</v>
       </c>
       <c r="J47" s="3">
+        <v>239400</v>
+      </c>
+      <c r="K47" s="3">
         <v>245100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>239000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>188000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>157100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>114700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>116700</v>
-      </c>
-      <c r="P47" s="3">
-        <v>5500</v>
       </c>
       <c r="Q47" s="3">
         <v>5500</v>
       </c>
       <c r="R47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="S47" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1210900</v>
+        <v>1210200</v>
       </c>
       <c r="E48" s="3">
-        <v>1190500</v>
+        <v>1216100</v>
       </c>
       <c r="F48" s="3">
-        <v>1140100</v>
+        <v>1195700</v>
       </c>
       <c r="G48" s="3">
-        <v>1113200</v>
+        <v>1145100</v>
       </c>
       <c r="H48" s="3">
-        <v>1038800</v>
+        <v>1118100</v>
       </c>
       <c r="I48" s="3">
-        <v>980700</v>
+        <v>1043300</v>
       </c>
       <c r="J48" s="3">
+        <v>985000</v>
+      </c>
+      <c r="K48" s="3">
         <v>993400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>299900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>254500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>221600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>188200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>194000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>181800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>164000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>93000</v>
+        <v>47000</v>
       </c>
       <c r="E49" s="3">
-        <v>93100</v>
+        <v>93400</v>
       </c>
       <c r="F49" s="3">
-        <v>92900</v>
+        <v>93500</v>
       </c>
       <c r="G49" s="3">
-        <v>93200</v>
+        <v>93300</v>
       </c>
       <c r="H49" s="3">
         <v>93600</v>
       </c>
       <c r="I49" s="3">
-        <v>91100</v>
+        <v>94100</v>
       </c>
       <c r="J49" s="3">
+        <v>91500</v>
+      </c>
+      <c r="K49" s="3">
         <v>92100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>89000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>83600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>86500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>86100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>90100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>84500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>84800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2691,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>205200</v>
+        <v>211400</v>
       </c>
       <c r="E52" s="3">
-        <v>185100</v>
+        <v>206100</v>
       </c>
       <c r="F52" s="3">
-        <v>150400</v>
+        <v>185900</v>
       </c>
       <c r="G52" s="3">
-        <v>86000</v>
+        <v>151000</v>
       </c>
       <c r="H52" s="3">
-        <v>71600</v>
+        <v>86300</v>
       </c>
       <c r="I52" s="3">
-        <v>51100</v>
+        <v>71900</v>
       </c>
       <c r="J52" s="3">
+        <v>51300</v>
+      </c>
+      <c r="K52" s="3">
         <v>39300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>28000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>32200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>32800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>137900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>110300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3078900</v>
+        <v>3029300</v>
       </c>
       <c r="E54" s="3">
-        <v>3053700</v>
+        <v>3092300</v>
       </c>
       <c r="F54" s="3">
-        <v>2807200</v>
+        <v>3067000</v>
       </c>
       <c r="G54" s="3">
-        <v>2965300</v>
+        <v>2819400</v>
       </c>
       <c r="H54" s="3">
-        <v>2763900</v>
+        <v>2978100</v>
       </c>
       <c r="I54" s="3">
-        <v>2571100</v>
+        <v>2775900</v>
       </c>
       <c r="J54" s="3">
+        <v>2582200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2516100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1796000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1566800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1540600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1471500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1614500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1539400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1107700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>972800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2881,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>573600</v>
+        <v>633200</v>
       </c>
       <c r="E57" s="3">
-        <v>491700</v>
+        <v>576100</v>
       </c>
       <c r="F57" s="3">
-        <v>393900</v>
+        <v>493800</v>
       </c>
       <c r="G57" s="3">
-        <v>515900</v>
+        <v>395600</v>
       </c>
       <c r="H57" s="3">
-        <v>461400</v>
+        <v>518100</v>
       </c>
       <c r="I57" s="3">
-        <v>433500</v>
+        <v>463400</v>
       </c>
       <c r="J57" s="3">
+        <v>435400</v>
+      </c>
+      <c r="K57" s="3">
         <v>421000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>414100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>325600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>322700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>265300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>354500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>358000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>344400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>222200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>501000</v>
+        <v>485700</v>
       </c>
       <c r="E58" s="3">
-        <v>413600</v>
+        <v>503200</v>
       </c>
       <c r="F58" s="3">
-        <v>476000</v>
+        <v>415400</v>
       </c>
       <c r="G58" s="3">
-        <v>398100</v>
+        <v>478000</v>
       </c>
       <c r="H58" s="3">
-        <v>311800</v>
+        <v>399800</v>
       </c>
       <c r="I58" s="3">
-        <v>367900</v>
+        <v>313100</v>
       </c>
       <c r="J58" s="3">
+        <v>369500</v>
+      </c>
+      <c r="K58" s="3">
         <v>325100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>259300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>204000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>186500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>234600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>181600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>136100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>159600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>758700</v>
+        <v>801800</v>
       </c>
       <c r="E59" s="3">
-        <v>734100</v>
+        <v>761900</v>
       </c>
       <c r="F59" s="3">
-        <v>701000</v>
+        <v>737300</v>
       </c>
       <c r="G59" s="3">
-        <v>693900</v>
+        <v>704100</v>
       </c>
       <c r="H59" s="3">
-        <v>656400</v>
+        <v>696900</v>
       </c>
       <c r="I59" s="3">
-        <v>627900</v>
+        <v>659200</v>
       </c>
       <c r="J59" s="3">
+        <v>630600</v>
+      </c>
+      <c r="K59" s="3">
         <v>615400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>504900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>442800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>433300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>388100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>410400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>398000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>330500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>314400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1833300</v>
+        <v>1920700</v>
       </c>
       <c r="E60" s="3">
-        <v>1639400</v>
+        <v>1841200</v>
       </c>
       <c r="F60" s="3">
-        <v>1570900</v>
+        <v>1646500</v>
       </c>
       <c r="G60" s="3">
-        <v>1607900</v>
+        <v>1577700</v>
       </c>
       <c r="H60" s="3">
-        <v>1429600</v>
+        <v>1614800</v>
       </c>
       <c r="I60" s="3">
-        <v>1429300</v>
+        <v>1435800</v>
       </c>
       <c r="J60" s="3">
+        <v>1435500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1361400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1178300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>972500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>942500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>888000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>946400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>892100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>834500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>690200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>374300</v>
+        <v>357700</v>
       </c>
       <c r="E61" s="3">
-        <v>414500</v>
+        <v>375900</v>
       </c>
       <c r="F61" s="3">
-        <v>222400</v>
+        <v>416300</v>
       </c>
       <c r="G61" s="3">
-        <v>207200</v>
+        <v>223300</v>
       </c>
       <c r="H61" s="3">
-        <v>212500</v>
+        <v>208100</v>
       </c>
       <c r="I61" s="3">
+        <v>213400</v>
+      </c>
+      <c r="J61" s="3">
         <v>10600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
-      </c>
-      <c r="K61" s="3">
-        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>515400</v>
+        <v>487400</v>
       </c>
       <c r="E62" s="3">
-        <v>533600</v>
+        <v>517600</v>
       </c>
       <c r="F62" s="3">
-        <v>539500</v>
+        <v>535900</v>
       </c>
       <c r="G62" s="3">
-        <v>554600</v>
+        <v>541900</v>
       </c>
       <c r="H62" s="3">
-        <v>533500</v>
+        <v>557000</v>
       </c>
       <c r="I62" s="3">
-        <v>531700</v>
+        <v>535900</v>
       </c>
       <c r="J62" s="3">
+        <v>534000</v>
+      </c>
+      <c r="K62" s="3">
         <v>563300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>2719800</v>
+        <v>2761900</v>
       </c>
       <c r="E66" s="3">
-        <v>2584500</v>
+        <v>2731600</v>
       </c>
       <c r="F66" s="3">
-        <v>2330700</v>
+        <v>2595700</v>
       </c>
       <c r="G66" s="3">
-        <v>2368800</v>
+        <v>2340800</v>
       </c>
       <c r="H66" s="3">
-        <v>2176000</v>
+        <v>2379100</v>
       </c>
       <c r="I66" s="3">
-        <v>1971600</v>
+        <v>2185400</v>
       </c>
       <c r="J66" s="3">
+        <v>1980100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1925600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1195000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>988200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>958600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>903700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>962700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>906000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>862000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>691800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3546,13 +3713,16 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>2351100</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>2351100</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>2351100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2597900</v>
+        <v>-2704700</v>
       </c>
       <c r="E72" s="3">
-        <v>-2501600</v>
+        <v>-2609200</v>
       </c>
       <c r="F72" s="3">
-        <v>-2497900</v>
+        <v>-2512400</v>
       </c>
       <c r="G72" s="3">
-        <v>-2376400</v>
+        <v>-2508700</v>
       </c>
       <c r="H72" s="3">
-        <v>-2384200</v>
+        <v>-2386700</v>
       </c>
       <c r="I72" s="3">
-        <v>-2383700</v>
+        <v>-2394500</v>
       </c>
       <c r="J72" s="3">
+        <v>-2394000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2380700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2239300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2154800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2201600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2188200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2209300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2189000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2119600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2089800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>359100</v>
+        <v>267500</v>
       </c>
       <c r="E76" s="3">
-        <v>469200</v>
+        <v>360700</v>
       </c>
       <c r="F76" s="3">
-        <v>476500</v>
+        <v>471300</v>
       </c>
       <c r="G76" s="3">
-        <v>596400</v>
+        <v>478600</v>
       </c>
       <c r="H76" s="3">
-        <v>587900</v>
+        <v>599000</v>
       </c>
       <c r="I76" s="3">
-        <v>599500</v>
+        <v>590400</v>
       </c>
       <c r="J76" s="3">
+        <v>602100</v>
+      </c>
+      <c r="K76" s="3">
         <v>590600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>601000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>578600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>582000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>567800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>651800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>633400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2105500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2070100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-96400</v>
+        <v>-95400</v>
       </c>
       <c r="E81" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-113000</v>
-      </c>
       <c r="G81" s="3">
-        <v>8600</v>
+        <v>-113500</v>
       </c>
       <c r="H81" s="3">
-        <v>-38600</v>
+        <v>8700</v>
       </c>
       <c r="I81" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-35100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-48700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-69400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-29800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>17500</v>
+        <v>34300</v>
       </c>
       <c r="E89" s="3">
-        <v>109900</v>
+        <v>17600</v>
       </c>
       <c r="F89" s="3">
-        <v>-196800</v>
+        <v>110400</v>
       </c>
       <c r="G89" s="3">
-        <v>74100</v>
+        <v>-197600</v>
       </c>
       <c r="H89" s="3">
-        <v>55700</v>
+        <v>74400</v>
       </c>
       <c r="I89" s="3">
-        <v>50800</v>
+        <v>55900</v>
       </c>
       <c r="J89" s="3">
+        <v>51100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-31300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>105900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>62000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-87600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>42300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4434,20 +4654,23 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>78</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R91" s="3">
         <v>-16600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-82100</v>
+        <v>-25100</v>
       </c>
       <c r="E94" s="3">
-        <v>-43100</v>
+        <v>-82400</v>
       </c>
       <c r="F94" s="3">
-        <v>17300</v>
+        <v>-43200</v>
       </c>
       <c r="G94" s="3">
-        <v>-80500</v>
+        <v>17400</v>
       </c>
       <c r="H94" s="3">
-        <v>-210500</v>
+        <v>-80800</v>
       </c>
       <c r="I94" s="3">
-        <v>-97100</v>
+        <v>-211400</v>
       </c>
       <c r="J94" s="3">
+        <v>-97500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-28700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>16300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-225400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-53000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>91300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>93900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-444500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-204600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-68900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>56500</v>
+        <v>-29000</v>
       </c>
       <c r="E100" s="3">
-        <v>115900</v>
+        <v>56700</v>
       </c>
       <c r="F100" s="3">
-        <v>92000</v>
+        <v>116400</v>
       </c>
       <c r="G100" s="3">
-        <v>68900</v>
+        <v>92400</v>
       </c>
       <c r="H100" s="3">
-        <v>237100</v>
+        <v>69200</v>
       </c>
       <c r="I100" s="3">
-        <v>46400</v>
+        <v>238100</v>
       </c>
       <c r="J100" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K100" s="3">
         <v>54300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>47500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-47600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>59000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-66600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>416100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16200</v>
+        <v>-16900</v>
       </c>
       <c r="E101" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-24300</v>
+        <v>-36800</v>
       </c>
       <c r="E102" s="3">
-        <v>182900</v>
+        <v>-24400</v>
       </c>
       <c r="F102" s="3">
-        <v>-83700</v>
+        <v>183700</v>
       </c>
       <c r="G102" s="3">
-        <v>57000</v>
+        <v>-84100</v>
       </c>
       <c r="H102" s="3">
-        <v>88700</v>
+        <v>57300</v>
       </c>
       <c r="I102" s="3">
+        <v>89100</v>
+      </c>
+      <c r="J102" s="3">
         <v>4200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>170000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-185200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-27700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>52000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>34200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-160800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-108300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>BEST</t>
   </si>
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1414000</v>
+        <v>4679500</v>
       </c>
       <c r="E8" s="3">
-        <v>1328200</v>
+        <v>1356200</v>
       </c>
       <c r="F8" s="3">
-        <v>1286100</v>
+        <v>1313300</v>
       </c>
       <c r="G8" s="3">
-        <v>835000</v>
+        <v>852700</v>
       </c>
       <c r="H8" s="3">
-        <v>1645100</v>
+        <v>5048300</v>
       </c>
       <c r="I8" s="3">
-        <v>3729100</v>
+        <v>3807900</v>
       </c>
       <c r="J8" s="3">
-        <v>1342600</v>
+        <v>1371000</v>
       </c>
       <c r="K8" s="3">
         <v>1045800</v>
@@ -801,25 +801,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1406400</v>
+        <v>4642400</v>
       </c>
       <c r="E9" s="3">
-        <v>1322400</v>
+        <v>1350400</v>
       </c>
       <c r="F9" s="3">
-        <v>1199100</v>
+        <v>1224400</v>
       </c>
       <c r="G9" s="3">
-        <v>862000</v>
+        <v>880200</v>
       </c>
       <c r="H9" s="3">
-        <v>1547500</v>
+        <v>5042100</v>
       </c>
       <c r="I9" s="3">
-        <v>3650600</v>
+        <v>3727800</v>
       </c>
       <c r="J9" s="3">
-        <v>1353200</v>
+        <v>1381900</v>
       </c>
       <c r="K9" s="3">
         <v>1001200</v>
@@ -854,25 +854,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7700</v>
+        <v>37100</v>
       </c>
       <c r="E10" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F10" s="3">
-        <v>87000</v>
+        <v>88900</v>
       </c>
       <c r="G10" s="3">
-        <v>-27000</v>
+        <v>-27500</v>
       </c>
       <c r="H10" s="3">
-        <v>97700</v>
+        <v>6100</v>
       </c>
       <c r="I10" s="3">
-        <v>78400</v>
+        <v>80100</v>
       </c>
       <c r="J10" s="3">
-        <v>-10600</v>
+        <v>-10800</v>
       </c>
       <c r="K10" s="3">
         <v>44500</v>
@@ -928,25 +928,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8200</v>
+        <v>29900</v>
       </c>
       <c r="E12" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="F12" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="G12" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="H12" s="3">
-        <v>9500</v>
+        <v>31900</v>
       </c>
       <c r="I12" s="3">
-        <v>27700</v>
+        <v>28200</v>
       </c>
       <c r="J12" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="K12" s="3">
         <v>8200</v>
@@ -1158,25 +1158,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1490800</v>
+        <v>4943700</v>
       </c>
       <c r="E17" s="3">
-        <v>1424200</v>
+        <v>1454300</v>
       </c>
       <c r="F17" s="3">
-        <v>1291700</v>
+        <v>1319000</v>
       </c>
       <c r="G17" s="3">
-        <v>950600</v>
+        <v>970700</v>
       </c>
       <c r="H17" s="3">
-        <v>1642300</v>
+        <v>5037800</v>
       </c>
       <c r="I17" s="3">
-        <v>3781700</v>
+        <v>3861600</v>
       </c>
       <c r="J17" s="3">
-        <v>1351300</v>
+        <v>1379900</v>
       </c>
       <c r="K17" s="3">
         <v>1082500</v>
@@ -1211,25 +1211,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-76800</v>
+        <v>-264200</v>
       </c>
       <c r="E18" s="3">
-        <v>-96000</v>
+        <v>-98100</v>
       </c>
       <c r="F18" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="G18" s="3">
-        <v>-115600</v>
+        <v>-118000</v>
       </c>
       <c r="H18" s="3">
-        <v>2800</v>
+        <v>10500</v>
       </c>
       <c r="I18" s="3">
-        <v>-52600</v>
+        <v>-53700</v>
       </c>
       <c r="J18" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="K18" s="3">
         <v>-36800</v>
@@ -1285,25 +1285,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>10600</v>
+        <v>32300</v>
       </c>
       <c r="E20" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="F20" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="G20" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H20" s="3">
-        <v>8900</v>
+        <v>32000</v>
       </c>
       <c r="I20" s="3">
-        <v>22400</v>
+        <v>22900</v>
       </c>
       <c r="J20" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="K20" s="3">
         <v>5800</v>
@@ -1338,25 +1338,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-65700</v>
+        <v>-151500</v>
       </c>
       <c r="E21" s="3">
-        <v>-86600</v>
+        <v>-88400</v>
       </c>
       <c r="F21" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G21" s="3">
-        <v>-90900</v>
+        <v>-92800</v>
       </c>
       <c r="H21" s="3">
-        <v>12800</v>
+        <v>60100</v>
       </c>
       <c r="I21" s="3">
-        <v>-14100</v>
+        <v>-14400</v>
       </c>
       <c r="J21" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K21" s="3">
         <v>-11700</v>
@@ -1391,25 +1391,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I22" s="3">
         <v>8200</v>
       </c>
-      <c r="E22" s="3">
-        <v>7100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>8100</v>
-      </c>
       <c r="J22" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K22" s="3">
         <v>4000</v>
@@ -1444,25 +1444,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-74300</v>
+        <v>-259100</v>
       </c>
       <c r="E23" s="3">
-        <v>-96700</v>
+        <v>-98700</v>
       </c>
       <c r="F23" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="G23" s="3">
-        <v>-114100</v>
+        <v>-116500</v>
       </c>
       <c r="H23" s="3">
-        <v>7700</v>
+        <v>30100</v>
       </c>
       <c r="I23" s="3">
-        <v>-38300</v>
+        <v>-39100</v>
       </c>
       <c r="J23" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="K23" s="3">
         <v>-34900</v>
@@ -1497,7 +1497,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="E24" s="3">
         <v>1000</v>
@@ -1509,7 +1509,7 @@
         <v>600</v>
       </c>
       <c r="H24" s="3">
-        <v>1000</v>
+        <v>3100</v>
       </c>
       <c r="I24" s="3">
         <v>1800</v>
@@ -1603,25 +1603,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-75300</v>
+        <v>-262500</v>
       </c>
       <c r="E26" s="3">
-        <v>-97700</v>
+        <v>-99800</v>
       </c>
       <c r="F26" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="G26" s="3">
-        <v>-114700</v>
+        <v>-117100</v>
       </c>
       <c r="H26" s="3">
-        <v>6700</v>
+        <v>27000</v>
       </c>
       <c r="I26" s="3">
-        <v>-40100</v>
+        <v>-40900</v>
       </c>
       <c r="J26" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="K26" s="3">
         <v>-35500</v>
@@ -1656,25 +1656,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-74500</v>
+        <v>-258600</v>
       </c>
       <c r="E27" s="3">
-        <v>-96800</v>
+        <v>-98800</v>
       </c>
       <c r="F27" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="G27" s="3">
-        <v>-113500</v>
+        <v>-115900</v>
       </c>
       <c r="H27" s="3">
-        <v>8700</v>
+        <v>29500</v>
       </c>
       <c r="I27" s="3">
-        <v>-38800</v>
+        <v>-39600</v>
       </c>
       <c r="J27" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K27" s="3">
         <v>-35100</v>
@@ -1762,7 +1762,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-21000</v>
+        <v>-57400</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>78</v>
@@ -1773,8 +1773,8 @@
       <c r="G29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>78</v>
+      <c r="H29" s="3">
+        <v>-61100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>78</v>
@@ -1921,25 +1921,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-10600</v>
+        <v>-32300</v>
       </c>
       <c r="E32" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="F32" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="G32" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="H32" s="3">
-        <v>-8900</v>
+        <v>-32000</v>
       </c>
       <c r="I32" s="3">
-        <v>-22400</v>
+        <v>-22900</v>
       </c>
       <c r="J32" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="K32" s="3">
         <v>-5800</v>
@@ -1974,25 +1974,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-95400</v>
+        <v>-316000</v>
       </c>
       <c r="E33" s="3">
-        <v>-96800</v>
+        <v>-98800</v>
       </c>
       <c r="F33" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="G33" s="3">
-        <v>-113500</v>
+        <v>-115900</v>
       </c>
       <c r="H33" s="3">
-        <v>8700</v>
+        <v>-31600</v>
       </c>
       <c r="I33" s="3">
-        <v>-38800</v>
+        <v>-39600</v>
       </c>
       <c r="J33" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K33" s="3">
         <v>-35100</v>
@@ -2080,25 +2080,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-95400</v>
+        <v>-316000</v>
       </c>
       <c r="E35" s="3">
-        <v>-96800</v>
+        <v>-98800</v>
       </c>
       <c r="F35" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="G35" s="3">
-        <v>-113500</v>
+        <v>-115900</v>
       </c>
       <c r="H35" s="3">
-        <v>8700</v>
+        <v>-31600</v>
       </c>
       <c r="I35" s="3">
-        <v>-38800</v>
+        <v>-39600</v>
       </c>
       <c r="J35" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K35" s="3">
         <v>-35100</v>
@@ -2233,25 +2233,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>211300</v>
+        <v>215800</v>
       </c>
       <c r="E41" s="3">
-        <v>277100</v>
+        <v>283000</v>
       </c>
       <c r="F41" s="3">
-        <v>364300</v>
+        <v>372000</v>
       </c>
       <c r="G41" s="3">
-        <v>192800</v>
+        <v>196900</v>
       </c>
       <c r="H41" s="3">
-        <v>304700</v>
+        <v>311200</v>
       </c>
       <c r="I41" s="3">
-        <v>326700</v>
+        <v>333600</v>
       </c>
       <c r="J41" s="3">
-        <v>240700</v>
+        <v>245800</v>
       </c>
       <c r="K41" s="3">
         <v>223600</v>
@@ -2286,25 +2286,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>41000</v>
+        <v>41900</v>
       </c>
       <c r="E42" s="3">
-        <v>46800</v>
+        <v>47800</v>
       </c>
       <c r="F42" s="3">
-        <v>81400</v>
+        <v>83100</v>
       </c>
       <c r="G42" s="3">
-        <v>126700</v>
+        <v>129400</v>
       </c>
       <c r="H42" s="3">
-        <v>161600</v>
+        <v>165000</v>
       </c>
       <c r="I42" s="3">
-        <v>182700</v>
+        <v>186600</v>
       </c>
       <c r="J42" s="3">
-        <v>165500</v>
+        <v>169000</v>
       </c>
       <c r="K42" s="3">
         <v>141000</v>
@@ -2339,25 +2339,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>266700</v>
+        <v>273800</v>
       </c>
       <c r="E43" s="3">
-        <v>246900</v>
+        <v>252200</v>
       </c>
       <c r="F43" s="3">
-        <v>255700</v>
+        <v>261100</v>
       </c>
       <c r="G43" s="3">
-        <v>248400</v>
+        <v>253700</v>
       </c>
       <c r="H43" s="3">
-        <v>324900</v>
+        <v>331800</v>
       </c>
       <c r="I43" s="3">
-        <v>291300</v>
+        <v>297400</v>
       </c>
       <c r="J43" s="3">
-        <v>289500</v>
+        <v>295700</v>
       </c>
       <c r="K43" s="3">
         <v>264400</v>
@@ -2392,25 +2392,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="E44" s="3">
-        <v>25400</v>
+        <v>26000</v>
       </c>
       <c r="F44" s="3">
-        <v>24200</v>
+        <v>24800</v>
       </c>
       <c r="G44" s="3">
-        <v>23100</v>
+        <v>23500</v>
       </c>
       <c r="H44" s="3">
-        <v>21400</v>
+        <v>21800</v>
       </c>
       <c r="I44" s="3">
-        <v>24800</v>
+        <v>25300</v>
       </c>
       <c r="J44" s="3">
-        <v>26800</v>
+        <v>27300</v>
       </c>
       <c r="K44" s="3">
         <v>25700</v>
@@ -2445,25 +2445,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>902200</v>
+        <v>923000</v>
       </c>
       <c r="E45" s="3">
-        <v>823800</v>
+        <v>841200</v>
       </c>
       <c r="F45" s="3">
-        <v>694600</v>
+        <v>709300</v>
       </c>
       <c r="G45" s="3">
-        <v>660700</v>
+        <v>674600</v>
       </c>
       <c r="H45" s="3">
-        <v>667600</v>
+        <v>681700</v>
       </c>
       <c r="I45" s="3">
-        <v>532300</v>
+        <v>543500</v>
       </c>
       <c r="J45" s="3">
-        <v>492500</v>
+        <v>503000</v>
       </c>
       <c r="K45" s="3">
         <v>491600</v>
@@ -2498,25 +2498,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1428000</v>
+        <v>1461500</v>
       </c>
       <c r="E46" s="3">
-        <v>1420100</v>
+        <v>1450200</v>
       </c>
       <c r="F46" s="3">
-        <v>1420300</v>
+        <v>1450300</v>
       </c>
       <c r="G46" s="3">
-        <v>1251700</v>
+        <v>1278200</v>
       </c>
       <c r="H46" s="3">
-        <v>1480200</v>
+        <v>1511500</v>
       </c>
       <c r="I46" s="3">
-        <v>1357600</v>
+        <v>1386300</v>
       </c>
       <c r="J46" s="3">
-        <v>1215100</v>
+        <v>1240700</v>
       </c>
       <c r="K46" s="3">
         <v>1146200</v>
@@ -2551,25 +2551,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>132800</v>
+        <v>135600</v>
       </c>
       <c r="E47" s="3">
-        <v>156500</v>
+        <v>159900</v>
       </c>
       <c r="F47" s="3">
-        <v>171600</v>
+        <v>175300</v>
       </c>
       <c r="G47" s="3">
-        <v>178300</v>
+        <v>182100</v>
       </c>
       <c r="H47" s="3">
-        <v>199900</v>
+        <v>204200</v>
       </c>
       <c r="I47" s="3">
-        <v>209000</v>
+        <v>213400</v>
       </c>
       <c r="J47" s="3">
-        <v>239400</v>
+        <v>244500</v>
       </c>
       <c r="K47" s="3">
         <v>245100</v>
@@ -2604,25 +2604,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1210200</v>
+        <v>1239100</v>
       </c>
       <c r="E48" s="3">
-        <v>1216100</v>
+        <v>1241800</v>
       </c>
       <c r="F48" s="3">
-        <v>1195700</v>
+        <v>1221000</v>
       </c>
       <c r="G48" s="3">
-        <v>1145100</v>
+        <v>1169300</v>
       </c>
       <c r="H48" s="3">
-        <v>1118100</v>
+        <v>1141700</v>
       </c>
       <c r="I48" s="3">
-        <v>1043300</v>
+        <v>1065300</v>
       </c>
       <c r="J48" s="3">
-        <v>985000</v>
+        <v>1005800</v>
       </c>
       <c r="K48" s="3">
         <v>993400</v>
@@ -2657,25 +2657,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>47000</v>
+        <v>48000</v>
       </c>
       <c r="E49" s="3">
+        <v>95400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>95400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>95200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>95600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>96000</v>
+      </c>
+      <c r="J49" s="3">
         <v>93400</v>
-      </c>
-      <c r="F49" s="3">
-        <v>93500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>93300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>93600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>94100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>91500</v>
       </c>
       <c r="K49" s="3">
         <v>92100</v>
@@ -2816,25 +2816,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>211400</v>
+        <v>215800</v>
       </c>
       <c r="E52" s="3">
-        <v>206100</v>
+        <v>210400</v>
       </c>
       <c r="F52" s="3">
-        <v>185900</v>
+        <v>189800</v>
       </c>
       <c r="G52" s="3">
-        <v>151000</v>
+        <v>154200</v>
       </c>
       <c r="H52" s="3">
-        <v>86300</v>
+        <v>88100</v>
       </c>
       <c r="I52" s="3">
-        <v>71900</v>
+        <v>73400</v>
       </c>
       <c r="J52" s="3">
-        <v>51300</v>
+        <v>52400</v>
       </c>
       <c r="K52" s="3">
         <v>39300</v>
@@ -2922,25 +2922,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3029300</v>
+        <v>3100000</v>
       </c>
       <c r="E54" s="3">
-        <v>3092300</v>
+        <v>3157600</v>
       </c>
       <c r="F54" s="3">
-        <v>3067000</v>
+        <v>3131800</v>
       </c>
       <c r="G54" s="3">
-        <v>2819400</v>
+        <v>2879000</v>
       </c>
       <c r="H54" s="3">
-        <v>2978100</v>
+        <v>3041100</v>
       </c>
       <c r="I54" s="3">
-        <v>2775900</v>
+        <v>2834500</v>
       </c>
       <c r="J54" s="3">
-        <v>2582200</v>
+        <v>2636800</v>
       </c>
       <c r="K54" s="3">
         <v>2516100</v>
@@ -3017,25 +3017,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>633200</v>
+        <v>646700</v>
       </c>
       <c r="E57" s="3">
-        <v>576100</v>
+        <v>588300</v>
       </c>
       <c r="F57" s="3">
-        <v>493800</v>
+        <v>504200</v>
       </c>
       <c r="G57" s="3">
-        <v>395600</v>
+        <v>403900</v>
       </c>
       <c r="H57" s="3">
-        <v>518100</v>
+        <v>529100</v>
       </c>
       <c r="I57" s="3">
-        <v>463400</v>
+        <v>473200</v>
       </c>
       <c r="J57" s="3">
-        <v>435400</v>
+        <v>444600</v>
       </c>
       <c r="K57" s="3">
         <v>421000</v>
@@ -3070,25 +3070,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>485700</v>
+        <v>496000</v>
       </c>
       <c r="E58" s="3">
-        <v>503200</v>
+        <v>513800</v>
       </c>
       <c r="F58" s="3">
-        <v>415400</v>
+        <v>424200</v>
       </c>
       <c r="G58" s="3">
-        <v>478000</v>
+        <v>488100</v>
       </c>
       <c r="H58" s="3">
-        <v>399800</v>
+        <v>408200</v>
       </c>
       <c r="I58" s="3">
-        <v>313100</v>
+        <v>319800</v>
       </c>
       <c r="J58" s="3">
-        <v>369500</v>
+        <v>377300</v>
       </c>
       <c r="K58" s="3">
         <v>325100</v>
@@ -3123,25 +3123,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>801800</v>
+        <v>828400</v>
       </c>
       <c r="E59" s="3">
-        <v>761900</v>
+        <v>778100</v>
       </c>
       <c r="F59" s="3">
-        <v>737300</v>
+        <v>752900</v>
       </c>
       <c r="G59" s="3">
-        <v>704100</v>
+        <v>719000</v>
       </c>
       <c r="H59" s="3">
-        <v>696900</v>
+        <v>711600</v>
       </c>
       <c r="I59" s="3">
-        <v>659200</v>
+        <v>673200</v>
       </c>
       <c r="J59" s="3">
-        <v>630600</v>
+        <v>643900</v>
       </c>
       <c r="K59" s="3">
         <v>615400</v>
@@ -3176,25 +3176,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1920700</v>
+        <v>1971100</v>
       </c>
       <c r="E60" s="3">
-        <v>1841200</v>
+        <v>1880200</v>
       </c>
       <c r="F60" s="3">
-        <v>1646500</v>
+        <v>1681300</v>
       </c>
       <c r="G60" s="3">
-        <v>1577700</v>
+        <v>1611000</v>
       </c>
       <c r="H60" s="3">
-        <v>1614800</v>
+        <v>1649000</v>
       </c>
       <c r="I60" s="3">
-        <v>1435800</v>
+        <v>1466100</v>
       </c>
       <c r="J60" s="3">
-        <v>1435500</v>
+        <v>1465900</v>
       </c>
       <c r="K60" s="3">
         <v>1361400</v>
@@ -3229,25 +3229,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>357700</v>
+        <v>365300</v>
       </c>
       <c r="E61" s="3">
-        <v>375900</v>
+        <v>383800</v>
       </c>
       <c r="F61" s="3">
-        <v>416300</v>
+        <v>425100</v>
       </c>
       <c r="G61" s="3">
-        <v>223300</v>
+        <v>228100</v>
       </c>
       <c r="H61" s="3">
-        <v>208100</v>
+        <v>212500</v>
       </c>
       <c r="I61" s="3">
-        <v>213400</v>
+        <v>217900</v>
       </c>
       <c r="J61" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
@@ -3282,25 +3282,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>487400</v>
+        <v>494700</v>
       </c>
       <c r="E62" s="3">
-        <v>517600</v>
+        <v>528600</v>
       </c>
       <c r="F62" s="3">
-        <v>535900</v>
+        <v>547200</v>
       </c>
       <c r="G62" s="3">
-        <v>541900</v>
+        <v>553300</v>
       </c>
       <c r="H62" s="3">
-        <v>557000</v>
+        <v>568800</v>
       </c>
       <c r="I62" s="3">
-        <v>535900</v>
+        <v>547200</v>
       </c>
       <c r="J62" s="3">
-        <v>534000</v>
+        <v>545300</v>
       </c>
       <c r="K62" s="3">
         <v>563300</v>
@@ -3494,25 +3494,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>2761900</v>
+        <v>2826900</v>
       </c>
       <c r="E66" s="3">
-        <v>2731600</v>
+        <v>2789300</v>
       </c>
       <c r="F66" s="3">
-        <v>2595700</v>
+        <v>2650600</v>
       </c>
       <c r="G66" s="3">
-        <v>2340800</v>
+        <v>2390300</v>
       </c>
       <c r="H66" s="3">
-        <v>2379100</v>
+        <v>2429400</v>
       </c>
       <c r="I66" s="3">
-        <v>2185400</v>
+        <v>2231600</v>
       </c>
       <c r="J66" s="3">
-        <v>1980100</v>
+        <v>2022000</v>
       </c>
       <c r="K66" s="3">
         <v>1925600</v>
@@ -3780,25 +3780,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2704700</v>
+        <v>-2761800</v>
       </c>
       <c r="E72" s="3">
-        <v>-2609200</v>
+        <v>-2664400</v>
       </c>
       <c r="F72" s="3">
-        <v>-2512400</v>
+        <v>-2565500</v>
       </c>
       <c r="G72" s="3">
-        <v>-2508700</v>
+        <v>-2561700</v>
       </c>
       <c r="H72" s="3">
-        <v>-2386700</v>
+        <v>-2437100</v>
       </c>
       <c r="I72" s="3">
-        <v>-2394500</v>
+        <v>-2445200</v>
       </c>
       <c r="J72" s="3">
-        <v>-2394000</v>
+        <v>-2444600</v>
       </c>
       <c r="K72" s="3">
         <v>-2380700</v>
@@ -3992,25 +3992,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>267500</v>
+        <v>273100</v>
       </c>
       <c r="E76" s="3">
-        <v>360700</v>
+        <v>368300</v>
       </c>
       <c r="F76" s="3">
-        <v>471300</v>
+        <v>481200</v>
       </c>
       <c r="G76" s="3">
-        <v>478600</v>
+        <v>488700</v>
       </c>
       <c r="H76" s="3">
-        <v>599000</v>
+        <v>611700</v>
       </c>
       <c r="I76" s="3">
-        <v>590400</v>
+        <v>602900</v>
       </c>
       <c r="J76" s="3">
-        <v>602100</v>
+        <v>614800</v>
       </c>
       <c r="K76" s="3">
         <v>590600</v>
@@ -4156,25 +4156,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-95400</v>
+        <v>-316000</v>
       </c>
       <c r="E81" s="3">
-        <v>-96800</v>
+        <v>-98800</v>
       </c>
       <c r="F81" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="G81" s="3">
-        <v>-113500</v>
+        <v>-115900</v>
       </c>
       <c r="H81" s="3">
-        <v>8700</v>
+        <v>-31600</v>
       </c>
       <c r="I81" s="3">
-        <v>-38800</v>
+        <v>-39600</v>
       </c>
       <c r="J81" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K81" s="3">
         <v>-35100</v>
@@ -4548,25 +4548,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>34300</v>
+        <v>-36100</v>
       </c>
       <c r="E89" s="3">
-        <v>17600</v>
+        <v>18000</v>
       </c>
       <c r="F89" s="3">
-        <v>110400</v>
+        <v>112700</v>
       </c>
       <c r="G89" s="3">
-        <v>-197600</v>
+        <v>-201800</v>
       </c>
       <c r="H89" s="3">
-        <v>74400</v>
+        <v>133100</v>
       </c>
       <c r="I89" s="3">
-        <v>55900</v>
+        <v>57100</v>
       </c>
       <c r="J89" s="3">
-        <v>51100</v>
+        <v>52100</v>
       </c>
       <c r="K89" s="3">
         <v>-31300</v>
@@ -4781,25 +4781,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-25100</v>
+        <v>-136200</v>
       </c>
       <c r="E94" s="3">
-        <v>-82400</v>
+        <v>-84200</v>
       </c>
       <c r="F94" s="3">
-        <v>-43200</v>
+        <v>-44200</v>
       </c>
       <c r="G94" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="H94" s="3">
-        <v>-80800</v>
+        <v>-298400</v>
       </c>
       <c r="I94" s="3">
-        <v>-211400</v>
+        <v>-215800</v>
       </c>
       <c r="J94" s="3">
-        <v>-97500</v>
+        <v>-99600</v>
       </c>
       <c r="K94" s="3">
         <v>-28700</v>
@@ -5067,25 +5067,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-29000</v>
+        <v>241500</v>
       </c>
       <c r="E100" s="3">
-        <v>56700</v>
+        <v>57900</v>
       </c>
       <c r="F100" s="3">
-        <v>116400</v>
+        <v>118900</v>
       </c>
       <c r="G100" s="3">
-        <v>92400</v>
+        <v>94400</v>
       </c>
       <c r="H100" s="3">
-        <v>69200</v>
+        <v>313900</v>
       </c>
       <c r="I100" s="3">
-        <v>238100</v>
+        <v>243200</v>
       </c>
       <c r="J100" s="3">
-        <v>46600</v>
+        <v>47500</v>
       </c>
       <c r="K100" s="3">
         <v>54300</v>
@@ -5120,25 +5120,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16900</v>
+        <v>-30000</v>
       </c>
       <c r="E101" s="3">
-        <v>-16300</v>
+        <v>-16600</v>
       </c>
       <c r="F101" s="3">
         <v>200</v>
       </c>
       <c r="G101" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H101" s="3">
-        <v>-5500</v>
+        <v>900</v>
       </c>
       <c r="I101" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="J101" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K101" s="3">
         <v>-4200</v>
@@ -5173,25 +5173,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-36800</v>
+        <v>39300</v>
       </c>
       <c r="E102" s="3">
-        <v>-24400</v>
+        <v>-24900</v>
       </c>
       <c r="F102" s="3">
-        <v>183700</v>
+        <v>187600</v>
       </c>
       <c r="G102" s="3">
-        <v>-84100</v>
+        <v>-85900</v>
       </c>
       <c r="H102" s="3">
-        <v>57300</v>
+        <v>149400</v>
       </c>
       <c r="I102" s="3">
-        <v>89100</v>
+        <v>91000</v>
       </c>
       <c r="J102" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K102" s="3">
         <v>-9900</v>

--- a/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>BEST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4679500</v>
+        <v>1135600</v>
       </c>
       <c r="E8" s="3">
-        <v>1356200</v>
+        <v>1000300</v>
       </c>
       <c r="F8" s="3">
-        <v>1313300</v>
+        <v>4618600</v>
       </c>
       <c r="G8" s="3">
-        <v>852700</v>
+        <v>1338600</v>
       </c>
       <c r="H8" s="3">
-        <v>5048300</v>
+        <v>1195000</v>
       </c>
       <c r="I8" s="3">
+        <v>770300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4982600</v>
+      </c>
+      <c r="K8" s="3">
         <v>3807900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1371000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1045800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1312200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1006200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>966000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>717900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>969300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>794600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>720700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>482100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4642400</v>
+        <v>1157800</v>
       </c>
       <c r="E9" s="3">
-        <v>1350400</v>
+        <v>1030100</v>
       </c>
       <c r="F9" s="3">
-        <v>1224400</v>
+        <v>4582000</v>
       </c>
       <c r="G9" s="3">
-        <v>880200</v>
+        <v>1332800</v>
       </c>
       <c r="H9" s="3">
-        <v>5042100</v>
+        <v>1283100</v>
       </c>
       <c r="I9" s="3">
+        <v>927300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4976500</v>
+      </c>
+      <c r="K9" s="3">
         <v>3727800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1381900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1001200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1236100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>951600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>906000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>702200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>926500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>764700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>700900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>502500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>37100</v>
+        <v>-22300</v>
       </c>
       <c r="E10" s="3">
-        <v>5900</v>
+        <v>-29800</v>
       </c>
       <c r="F10" s="3">
-        <v>88900</v>
+        <v>36700</v>
       </c>
       <c r="G10" s="3">
-        <v>-27500</v>
+        <v>5800</v>
       </c>
       <c r="H10" s="3">
+        <v>-88100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="J10" s="3">
         <v>6100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>80100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-10800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>44500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>76100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>54600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>59900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>15700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>42800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>29900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>19700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +948,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>29900</v>
+        <v>9400</v>
       </c>
       <c r="E12" s="3">
         <v>8300</v>
       </c>
       <c r="F12" s="3">
-        <v>7900</v>
+        <v>29500</v>
       </c>
       <c r="G12" s="3">
-        <v>9400</v>
+        <v>8200</v>
       </c>
       <c r="H12" s="3">
-        <v>31900</v>
+        <v>6500</v>
       </c>
       <c r="I12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K12" s="3">
         <v>28200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>9800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>8200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>8400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>4300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>8300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>4000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4943700</v>
+        <v>1237800</v>
       </c>
       <c r="E17" s="3">
-        <v>1454300</v>
+        <v>1102500</v>
       </c>
       <c r="F17" s="3">
-        <v>1319000</v>
+        <v>4879400</v>
       </c>
       <c r="G17" s="3">
-        <v>970700</v>
+        <v>1435400</v>
       </c>
       <c r="H17" s="3">
-        <v>5037800</v>
+        <v>1189100</v>
       </c>
       <c r="I17" s="3">
+        <v>873900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4972200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3861600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1379900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1082500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1318900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1027700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>981800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>767900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>992900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>865000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>752600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>545600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-264200</v>
+        <v>-102300</v>
       </c>
       <c r="E18" s="3">
-        <v>-98100</v>
+        <v>-102200</v>
       </c>
       <c r="F18" s="3">
-        <v>-5600</v>
+        <v>-260800</v>
       </c>
       <c r="G18" s="3">
-        <v>-118000</v>
+        <v>-96800</v>
       </c>
       <c r="H18" s="3">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="I18" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-53700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-8900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-36800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-21500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-15900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-49900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-23600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-70300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-31900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-63600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,273 +1345,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>32300</v>
+        <v>37300</v>
       </c>
       <c r="E20" s="3">
-        <v>6600</v>
+        <v>16800</v>
       </c>
       <c r="F20" s="3">
-        <v>7900</v>
+        <v>31900</v>
       </c>
       <c r="G20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I20" s="3">
         <v>6700</v>
       </c>
-      <c r="H20" s="3">
-        <v>32000</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K20" s="3">
         <v>22900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>8400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>5800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>17400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>6100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>3200</v>
       </c>
       <c r="P20" s="3">
         <v>6100</v>
       </c>
       <c r="Q20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="S20" s="3">
         <v>3500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>3800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-151500</v>
+        <v>-64500</v>
       </c>
       <c r="E21" s="3">
-        <v>-88400</v>
+        <v>-62100</v>
       </c>
       <c r="F21" s="3">
-        <v>2800</v>
+        <v>-149500</v>
       </c>
       <c r="G21" s="3">
-        <v>-92800</v>
+        <v>-87300</v>
       </c>
       <c r="H21" s="3">
-        <v>60100</v>
+        <v>14100</v>
       </c>
       <c r="I21" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>59300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-14400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-11700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-10400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-30900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>21400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-75900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-16000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-48700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>27200</v>
+        <v>7400</v>
       </c>
       <c r="E22" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="F22" s="3">
-        <v>6500</v>
+        <v>26900</v>
       </c>
       <c r="G22" s="3">
-        <v>5200</v>
+        <v>7200</v>
       </c>
       <c r="H22" s="3">
-        <v>12400</v>
+        <v>6400</v>
       </c>
       <c r="I22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K22" s="3">
         <v>8200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>2700</v>
       </c>
       <c r="N22" s="3">
         <v>3100</v>
       </c>
       <c r="O22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-259100</v>
+        <v>-72400</v>
       </c>
       <c r="E23" s="3">
-        <v>-98700</v>
+        <v>-92400</v>
       </c>
       <c r="F23" s="3">
-        <v>-4200</v>
+        <v>-255700</v>
       </c>
       <c r="G23" s="3">
-        <v>-116500</v>
+        <v>-97400</v>
       </c>
       <c r="H23" s="3">
-        <v>30100</v>
+        <v>7200</v>
       </c>
       <c r="I23" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-39100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-34900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-12900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-48600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-68700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-29600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>3500</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
+        <v>700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
-        <v>600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>600</v>
-      </c>
       <c r="H24" s="3">
+        <v>700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>700</v>
+      </c>
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>600</v>
       </c>
       <c r="L24" s="3">
         <v>700</v>
       </c>
       <c r="M24" s="3">
+        <v>600</v>
+      </c>
+      <c r="N24" s="3">
+        <v>700</v>
+      </c>
+      <c r="O24" s="3">
         <v>400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>500</v>
       </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
+        <v>500</v>
+      </c>
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-262500</v>
+        <v>-72000</v>
       </c>
       <c r="E26" s="3">
-        <v>-99800</v>
+        <v>-93100</v>
       </c>
       <c r="F26" s="3">
-        <v>-4800</v>
+        <v>-259100</v>
       </c>
       <c r="G26" s="3">
-        <v>-117100</v>
+        <v>-98500</v>
       </c>
       <c r="H26" s="3">
-        <v>27000</v>
+        <v>6600</v>
       </c>
       <c r="I26" s="3">
+        <v>-102700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-40900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-35500</v>
       </c>
       <c r="L26" s="3">
         <v>-3500</v>
       </c>
       <c r="M26" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="O26" s="3">
         <v>-7100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-13400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-48700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-69300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-30000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-258600</v>
+        <v>-71100</v>
       </c>
       <c r="E27" s="3">
-        <v>-98800</v>
+        <v>-92200</v>
       </c>
       <c r="F27" s="3">
-        <v>-3800</v>
+        <v>-255200</v>
       </c>
       <c r="G27" s="3">
-        <v>-115900</v>
+        <v>-97600</v>
       </c>
       <c r="H27" s="3">
-        <v>29500</v>
+        <v>7600</v>
       </c>
       <c r="I27" s="3">
+        <v>-101500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-39600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-35100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-13500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-48700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-69400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-29800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,38 +1872,44 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-57400</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>78</v>
+        <v>200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-56700</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>78</v>
       </c>
       <c r="H29" s="3">
-        <v>-61100</v>
-      </c>
-      <c r="I29" s="3" t="s">
+        <v>-11300</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-32300</v>
+        <v>-37300</v>
       </c>
       <c r="E32" s="3">
-        <v>-6600</v>
+        <v>-16800</v>
       </c>
       <c r="F32" s="3">
-        <v>-7900</v>
+        <v>-31900</v>
       </c>
       <c r="G32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-6700</v>
       </c>
-      <c r="H32" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-22900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-8400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-5800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-17400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-3200</v>
       </c>
       <c r="P32" s="3">
         <v>-6100</v>
       </c>
       <c r="Q32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-3500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-3800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-316000</v>
+        <v>-71000</v>
       </c>
       <c r="E33" s="3">
-        <v>-98800</v>
+        <v>-94400</v>
       </c>
       <c r="F33" s="3">
-        <v>-3800</v>
+        <v>-311900</v>
       </c>
       <c r="G33" s="3">
-        <v>-115900</v>
+        <v>-97600</v>
       </c>
       <c r="H33" s="3">
-        <v>-31600</v>
+        <v>-3700</v>
       </c>
       <c r="I33" s="3">
+        <v>-114400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-39600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-35100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-13500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-48700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-69400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-29800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-316000</v>
+        <v>-71000</v>
       </c>
       <c r="E35" s="3">
-        <v>-98800</v>
+        <v>-94400</v>
       </c>
       <c r="F35" s="3">
-        <v>-3800</v>
+        <v>-311900</v>
       </c>
       <c r="G35" s="3">
-        <v>-115900</v>
+        <v>-97600</v>
       </c>
       <c r="H35" s="3">
-        <v>-31600</v>
+        <v>-3700</v>
       </c>
       <c r="I35" s="3">
+        <v>-114400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-39600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-35100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-13500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-48700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-69400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-29800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2227,485 +2399,541 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>215800</v>
+        <v>139900</v>
       </c>
       <c r="E41" s="3">
-        <v>283000</v>
+        <v>155700</v>
       </c>
       <c r="F41" s="3">
-        <v>372000</v>
+        <v>213000</v>
       </c>
       <c r="G41" s="3">
-        <v>196900</v>
+        <v>279300</v>
       </c>
       <c r="H41" s="3">
-        <v>311200</v>
+        <v>367200</v>
       </c>
       <c r="I41" s="3">
+        <v>194400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>307100</v>
+      </c>
+      <c r="K41" s="3">
         <v>333600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>245800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>223600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>236800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>85500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>254000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>306600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>184100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>149900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>165400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>326200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>41900</v>
+        <v>100</v>
       </c>
       <c r="E42" s="3">
-        <v>47800</v>
+        <v>45700</v>
       </c>
       <c r="F42" s="3">
-        <v>83100</v>
+        <v>41400</v>
       </c>
       <c r="G42" s="3">
-        <v>129400</v>
+        <v>47200</v>
       </c>
       <c r="H42" s="3">
-        <v>165000</v>
+        <v>82000</v>
       </c>
       <c r="I42" s="3">
+        <v>127700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>162800</v>
+      </c>
+      <c r="K42" s="3">
         <v>186600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>169000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>141000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>146300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>291400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>171800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>200900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>349300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>552300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>163100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>273800</v>
+        <v>253100</v>
       </c>
       <c r="E43" s="3">
-        <v>252200</v>
+        <v>233700</v>
       </c>
       <c r="F43" s="3">
-        <v>261100</v>
+        <v>270300</v>
       </c>
       <c r="G43" s="3">
-        <v>253700</v>
+        <v>248900</v>
       </c>
       <c r="H43" s="3">
-        <v>331800</v>
+        <v>257700</v>
       </c>
       <c r="I43" s="3">
+        <v>250400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>327500</v>
+      </c>
+      <c r="K43" s="3">
         <v>297400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>295700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>264400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>269800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>189200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>166500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>133500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>162200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>94800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>82300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>6900</v>
+        <v>6000</v>
       </c>
       <c r="E44" s="3">
-        <v>26000</v>
+        <v>5300</v>
       </c>
       <c r="F44" s="3">
-        <v>24800</v>
+        <v>6800</v>
       </c>
       <c r="G44" s="3">
-        <v>23500</v>
+        <v>25600</v>
       </c>
       <c r="H44" s="3">
-        <v>21800</v>
+        <v>24400</v>
       </c>
       <c r="I44" s="3">
+        <v>23200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K44" s="3">
         <v>25300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>27300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>25700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>21900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>23000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>25800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>22400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>23300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>28200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>21700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>923000</v>
+        <v>891300</v>
       </c>
       <c r="E45" s="3">
-        <v>841200</v>
+        <v>905000</v>
       </c>
       <c r="F45" s="3">
-        <v>709300</v>
+        <v>911000</v>
       </c>
       <c r="G45" s="3">
-        <v>674600</v>
+        <v>830300</v>
       </c>
       <c r="H45" s="3">
-        <v>681700</v>
+        <v>700100</v>
       </c>
       <c r="I45" s="3">
+        <v>665800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>672800</v>
+      </c>
+      <c r="K45" s="3">
         <v>543500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>503000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>491600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>462300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>423700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>429300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>386900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>461900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>304500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>310600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>254900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1461500</v>
+        <v>1290400</v>
       </c>
       <c r="E46" s="3">
-        <v>1450200</v>
+        <v>1345400</v>
       </c>
       <c r="F46" s="3">
-        <v>1450300</v>
+        <v>1442400</v>
       </c>
       <c r="G46" s="3">
-        <v>1278200</v>
+        <v>1431300</v>
       </c>
       <c r="H46" s="3">
-        <v>1511500</v>
+        <v>1431400</v>
       </c>
       <c r="I46" s="3">
+        <v>1261500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1491800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1386300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1240700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1146200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1137100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1012900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1047300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1050300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1180800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1129600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>743100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>711900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>135600</v>
+        <v>101700</v>
       </c>
       <c r="E47" s="3">
-        <v>159900</v>
+        <v>116800</v>
       </c>
       <c r="F47" s="3">
-        <v>175300</v>
+        <v>133800</v>
       </c>
       <c r="G47" s="3">
-        <v>182100</v>
+        <v>157800</v>
       </c>
       <c r="H47" s="3">
-        <v>204200</v>
+        <v>173000</v>
       </c>
       <c r="I47" s="3">
+        <v>179700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>201500</v>
+      </c>
+      <c r="K47" s="3">
         <v>213400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>244500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>245100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>239000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>188000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>157100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>114700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>116700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>5500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>5500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1239100</v>
+        <v>1247900</v>
       </c>
       <c r="E48" s="3">
-        <v>1241800</v>
+        <v>1209600</v>
       </c>
       <c r="F48" s="3">
-        <v>1221000</v>
+        <v>1223000</v>
       </c>
       <c r="G48" s="3">
-        <v>1169300</v>
+        <v>1225700</v>
       </c>
       <c r="H48" s="3">
-        <v>1141700</v>
+        <v>1205100</v>
       </c>
       <c r="I48" s="3">
+        <v>1154100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1126900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1065300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1005800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>993400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>299900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>254500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>221600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>188200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>194000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>181800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>164000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>48000</v>
+        <v>47400</v>
       </c>
       <c r="E49" s="3">
-        <v>95400</v>
+        <v>47500</v>
       </c>
       <c r="F49" s="3">
-        <v>95400</v>
+        <v>47400</v>
       </c>
       <c r="G49" s="3">
-        <v>95200</v>
+        <v>94100</v>
       </c>
       <c r="H49" s="3">
-        <v>95600</v>
+        <v>94200</v>
       </c>
       <c r="I49" s="3">
+        <v>94000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>94300</v>
+      </c>
+      <c r="K49" s="3">
         <v>96000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>93400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>92100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>89000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>83600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>86500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>86100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>90100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>84500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>84800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2810,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>215800</v>
+        <v>143700</v>
       </c>
       <c r="E52" s="3">
-        <v>210400</v>
+        <v>166900</v>
       </c>
       <c r="F52" s="3">
-        <v>189800</v>
+        <v>213000</v>
       </c>
       <c r="G52" s="3">
-        <v>154200</v>
+        <v>207700</v>
       </c>
       <c r="H52" s="3">
-        <v>88100</v>
+        <v>187400</v>
       </c>
       <c r="I52" s="3">
+        <v>152200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>87000</v>
+      </c>
+      <c r="K52" s="3">
         <v>73400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>52400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>39300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>31000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>27800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>28000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>32200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>32800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>137900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>110300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3100000</v>
+        <v>2831100</v>
       </c>
       <c r="E54" s="3">
-        <v>3157600</v>
+        <v>2886200</v>
       </c>
       <c r="F54" s="3">
-        <v>3131800</v>
+        <v>3059700</v>
       </c>
       <c r="G54" s="3">
-        <v>2879000</v>
+        <v>3116500</v>
       </c>
       <c r="H54" s="3">
-        <v>3041100</v>
+        <v>3091100</v>
       </c>
       <c r="I54" s="3">
+        <v>2841600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3001500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2834500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2636800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2516100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1796000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1566800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1540600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1471500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1614500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1539400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1107700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>972800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3011,326 +3271,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>646700</v>
+        <v>649800</v>
       </c>
       <c r="E57" s="3">
-        <v>588300</v>
+        <v>600800</v>
       </c>
       <c r="F57" s="3">
-        <v>504200</v>
+        <v>638200</v>
       </c>
       <c r="G57" s="3">
-        <v>403900</v>
+        <v>580600</v>
       </c>
       <c r="H57" s="3">
-        <v>529100</v>
+        <v>497700</v>
       </c>
       <c r="I57" s="3">
+        <v>398700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>522200</v>
+      </c>
+      <c r="K57" s="3">
         <v>473200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>444600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>421000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>414100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>325600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>322700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>265300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>354500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>358000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>344400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>222200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>496000</v>
+        <v>398100</v>
       </c>
       <c r="E58" s="3">
-        <v>513800</v>
+        <v>491300</v>
       </c>
       <c r="F58" s="3">
-        <v>424200</v>
+        <v>489500</v>
       </c>
       <c r="G58" s="3">
-        <v>488100</v>
+        <v>507100</v>
       </c>
       <c r="H58" s="3">
-        <v>408200</v>
+        <v>418700</v>
       </c>
       <c r="I58" s="3">
+        <v>481800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>402900</v>
+      </c>
+      <c r="K58" s="3">
         <v>319800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>377300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>325100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>259300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>204000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>186500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>234600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>181600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>136100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>159600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>828400</v>
+        <v>824200</v>
       </c>
       <c r="E59" s="3">
-        <v>778100</v>
+        <v>777100</v>
       </c>
       <c r="F59" s="3">
-        <v>752900</v>
+        <v>817600</v>
       </c>
       <c r="G59" s="3">
-        <v>719000</v>
+        <v>767900</v>
       </c>
       <c r="H59" s="3">
-        <v>711600</v>
+        <v>743100</v>
       </c>
       <c r="I59" s="3">
+        <v>709600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>702400</v>
+      </c>
+      <c r="K59" s="3">
         <v>673200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>643900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>615400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>504900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>442800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>433300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>388100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>410400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>398000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>330500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>314400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1971100</v>
+        <v>1872000</v>
       </c>
       <c r="E60" s="3">
-        <v>1880200</v>
+        <v>1869200</v>
       </c>
       <c r="F60" s="3">
-        <v>1681300</v>
+        <v>1945400</v>
       </c>
       <c r="G60" s="3">
-        <v>1611000</v>
+        <v>1855700</v>
       </c>
       <c r="H60" s="3">
-        <v>1649000</v>
+        <v>1659400</v>
       </c>
       <c r="I60" s="3">
+        <v>1590100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1627500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1466100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1465900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1361400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1178300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>972500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>942500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>888000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>946400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>892100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>834500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>690200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>365300</v>
+        <v>374100</v>
       </c>
       <c r="E61" s="3">
-        <v>383800</v>
+        <v>382000</v>
       </c>
       <c r="F61" s="3">
-        <v>425100</v>
+        <v>360500</v>
       </c>
       <c r="G61" s="3">
-        <v>228100</v>
+        <v>378800</v>
       </c>
       <c r="H61" s="3">
-        <v>212500</v>
+        <v>419600</v>
       </c>
       <c r="I61" s="3">
+        <v>225100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>209800</v>
+      </c>
+      <c r="K61" s="3">
         <v>217900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>10800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
-      </c>
-      <c r="O61" s="3">
-        <v>200</v>
-      </c>
-      <c r="P61" s="3">
-        <v>300</v>
       </c>
       <c r="Q61" s="3">
         <v>200</v>
       </c>
       <c r="R61" s="3">
+        <v>300</v>
+      </c>
+      <c r="S61" s="3">
+        <v>200</v>
+      </c>
+      <c r="T61" s="3">
         <v>400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>494700</v>
+        <v>449400</v>
       </c>
       <c r="E62" s="3">
-        <v>528600</v>
+        <v>461500</v>
       </c>
       <c r="F62" s="3">
+        <v>488200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>521700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>540100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>546100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>561400</v>
+      </c>
+      <c r="K62" s="3">
         <v>547200</v>
       </c>
-      <c r="G62" s="3">
-        <v>553300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>568800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>547200</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>545300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>563300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>16200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>15200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>15700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>15500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>15900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>13600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>13700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>2826900</v>
+        <v>2719600</v>
       </c>
       <c r="E66" s="3">
-        <v>2789300</v>
+        <v>2707800</v>
       </c>
       <c r="F66" s="3">
-        <v>2650600</v>
+        <v>2790100</v>
       </c>
       <c r="G66" s="3">
-        <v>2390300</v>
+        <v>2753000</v>
       </c>
       <c r="H66" s="3">
-        <v>2429400</v>
+        <v>2616100</v>
       </c>
       <c r="I66" s="3">
+        <v>2359200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2397800</v>
+      </c>
+      <c r="K66" s="3">
         <v>2231600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2022000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1925600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1195000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>988200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>958600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>903700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>962700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>906000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>862000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>691800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3716,13 +4052,19 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>2351100</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>2351100</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2761800</v>
+        <v>-2891200</v>
       </c>
       <c r="E72" s="3">
-        <v>-2664400</v>
+        <v>-2820300</v>
       </c>
       <c r="F72" s="3">
-        <v>-2565500</v>
+        <v>-2725900</v>
       </c>
       <c r="G72" s="3">
-        <v>-2561700</v>
+        <v>-2629700</v>
       </c>
       <c r="H72" s="3">
-        <v>-2437100</v>
+        <v>-2532100</v>
       </c>
       <c r="I72" s="3">
+        <v>-2528400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-2405400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2445200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2444600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2380700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2239300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2154800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2201600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2188200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2209300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2189000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2119600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2089800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>273100</v>
+        <v>111500</v>
       </c>
       <c r="E76" s="3">
-        <v>368300</v>
+        <v>178400</v>
       </c>
       <c r="F76" s="3">
-        <v>481200</v>
+        <v>269600</v>
       </c>
       <c r="G76" s="3">
-        <v>488700</v>
+        <v>363500</v>
       </c>
       <c r="H76" s="3">
-        <v>611700</v>
+        <v>475000</v>
       </c>
       <c r="I76" s="3">
+        <v>482400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>603700</v>
+      </c>
+      <c r="K76" s="3">
         <v>602900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>614800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>590600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>601000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>578600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>582000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>567800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>651800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>633400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2105500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2070100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-316000</v>
+        <v>-71000</v>
       </c>
       <c r="E81" s="3">
-        <v>-98800</v>
+        <v>-94400</v>
       </c>
       <c r="F81" s="3">
-        <v>-3800</v>
+        <v>-311900</v>
       </c>
       <c r="G81" s="3">
-        <v>-115900</v>
+        <v>-97600</v>
       </c>
       <c r="H81" s="3">
-        <v>-31600</v>
+        <v>-3700</v>
       </c>
       <c r="I81" s="3">
+        <v>-114400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-39600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-35100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-13500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-48700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-69400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-29800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-36100</v>
+        <v>-14100</v>
       </c>
       <c r="E89" s="3">
-        <v>18000</v>
+        <v>-101300</v>
       </c>
       <c r="F89" s="3">
-        <v>112700</v>
+        <v>-35600</v>
       </c>
       <c r="G89" s="3">
-        <v>-201800</v>
+        <v>17800</v>
       </c>
       <c r="H89" s="3">
-        <v>133100</v>
+        <v>111300</v>
       </c>
       <c r="I89" s="3">
+        <v>-199200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>131300</v>
+      </c>
+      <c r="K89" s="3">
         <v>57100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>52100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-31300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>105900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>12100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>62000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-87600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>16100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>42300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4657,20 +5099,26 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-16600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-136200</v>
+        <v>50100</v>
       </c>
       <c r="E94" s="3">
-        <v>-84200</v>
+        <v>3500</v>
       </c>
       <c r="F94" s="3">
-        <v>-44200</v>
+        <v>-134400</v>
       </c>
       <c r="G94" s="3">
-        <v>17800</v>
+        <v>-83100</v>
       </c>
       <c r="H94" s="3">
-        <v>-298400</v>
+        <v>-43600</v>
       </c>
       <c r="I94" s="3">
+        <v>17500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-294500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-215800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-99600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-28700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>16300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-225400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-53000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>91300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>93900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-444500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-204600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-68900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5547,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>241500</v>
+        <v>-70700</v>
       </c>
       <c r="E100" s="3">
-        <v>57900</v>
+        <v>15600</v>
       </c>
       <c r="F100" s="3">
-        <v>118900</v>
+        <v>238400</v>
       </c>
       <c r="G100" s="3">
-        <v>94400</v>
+        <v>57200</v>
       </c>
       <c r="H100" s="3">
-        <v>313900</v>
+        <v>117300</v>
       </c>
       <c r="I100" s="3">
+        <v>93200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>309800</v>
+      </c>
+      <c r="K100" s="3">
         <v>243200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>47500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>54300</v>
       </c>
       <c r="L100" s="3">
         <v>47500</v>
       </c>
       <c r="M100" s="3">
+        <v>54300</v>
+      </c>
+      <c r="N100" s="3">
+        <v>47500</v>
+      </c>
+      <c r="O100" s="3">
         <v>21100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-47600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>59000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-66600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>416100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>8100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-30000</v>
+        <v>-5700</v>
       </c>
       <c r="E101" s="3">
-        <v>-16600</v>
+        <v>1000</v>
       </c>
       <c r="F101" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>6500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-4200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>10800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-10600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>8800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-3300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-6600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>39300</v>
+        <v>-40500</v>
       </c>
       <c r="E102" s="3">
-        <v>-24900</v>
+        <v>-81100</v>
       </c>
       <c r="F102" s="3">
-        <v>187600</v>
+        <v>38800</v>
       </c>
       <c r="G102" s="3">
-        <v>-85900</v>
+        <v>-24600</v>
       </c>
       <c r="H102" s="3">
-        <v>149400</v>
+        <v>185200</v>
       </c>
       <c r="I102" s="3">
+        <v>-84800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>147500</v>
+      </c>
+      <c r="K102" s="3">
         <v>91000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-9900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>170000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-185200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-27700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>52000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>34200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-15600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-160800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-108300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>BEST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1135600</v>
+        <v>1066500</v>
       </c>
       <c r="E8" s="3">
-        <v>1000300</v>
+        <v>1154600</v>
       </c>
       <c r="F8" s="3">
-        <v>4618600</v>
+        <v>1017100</v>
       </c>
       <c r="G8" s="3">
-        <v>1338600</v>
+        <v>4696000</v>
       </c>
       <c r="H8" s="3">
-        <v>1195000</v>
+        <v>1248700</v>
       </c>
       <c r="I8" s="3">
-        <v>770300</v>
+        <v>1215000</v>
       </c>
       <c r="J8" s="3">
+        <v>783200</v>
+      </c>
+      <c r="K8" s="3">
         <v>4982600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3807900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1371000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1045800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1312200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1006200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>966000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>717900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>969300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>794600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>720700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>482100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1157800</v>
+        <v>1145600</v>
       </c>
       <c r="E9" s="3">
-        <v>1030100</v>
+        <v>1177200</v>
       </c>
       <c r="F9" s="3">
-        <v>4582000</v>
+        <v>1047400</v>
       </c>
       <c r="G9" s="3">
-        <v>1332800</v>
+        <v>4658700</v>
       </c>
       <c r="H9" s="3">
-        <v>1283100</v>
+        <v>1498400</v>
       </c>
       <c r="I9" s="3">
-        <v>927300</v>
+        <v>1304600</v>
       </c>
       <c r="J9" s="3">
+        <v>942800</v>
+      </c>
+      <c r="K9" s="3">
         <v>4976500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3727800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1381900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1001200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1236100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>951600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>906000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>702200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>926500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>764700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>700900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>502500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-22300</v>
+        <v>-79100</v>
       </c>
       <c r="E10" s="3">
-        <v>-29800</v>
+        <v>-22600</v>
       </c>
       <c r="F10" s="3">
-        <v>36700</v>
+        <v>-30300</v>
       </c>
       <c r="G10" s="3">
-        <v>5800</v>
+        <v>37300</v>
       </c>
       <c r="H10" s="3">
-        <v>-88100</v>
+        <v>-249600</v>
       </c>
       <c r="I10" s="3">
-        <v>-157000</v>
+        <v>-89600</v>
       </c>
       <c r="J10" s="3">
+        <v>-159600</v>
+      </c>
+      <c r="K10" s="3">
         <v>6100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>80100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-10800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>44500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>76100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>54600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>59900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>15700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>42800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>29900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>19700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="E12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K12" s="3">
+        <v>31400</v>
+      </c>
+      <c r="L12" s="3">
+        <v>28200</v>
+      </c>
+      <c r="M12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="N12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="O12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="P12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="R12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="S12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T12" s="3">
         <v>8300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>29500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>7800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>31400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>28200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>9800</v>
-      </c>
-      <c r="M12" s="3">
-        <v>8200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>8400</v>
-      </c>
-      <c r="O12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>4600</v>
-      </c>
-      <c r="R12" s="3">
-        <v>4300</v>
-      </c>
-      <c r="S12" s="3">
-        <v>8300</v>
-      </c>
-      <c r="T12" s="3">
-        <v>4000</v>
       </c>
       <c r="U12" s="3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1237800</v>
+        <v>1221500</v>
       </c>
       <c r="E17" s="3">
-        <v>1102500</v>
+        <v>1258600</v>
       </c>
       <c r="F17" s="3">
-        <v>4879400</v>
+        <v>1121000</v>
       </c>
       <c r="G17" s="3">
-        <v>1435400</v>
+        <v>4961100</v>
       </c>
       <c r="H17" s="3">
-        <v>1189100</v>
+        <v>1335900</v>
       </c>
       <c r="I17" s="3">
-        <v>873900</v>
+        <v>1209000</v>
       </c>
       <c r="J17" s="3">
+        <v>888500</v>
+      </c>
+      <c r="K17" s="3">
         <v>4972200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3861600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1379900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1082500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1318900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1027700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>981800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>767900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>992900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>865000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>752600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>545600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-102300</v>
+        <v>-154900</v>
       </c>
       <c r="E18" s="3">
-        <v>-102200</v>
+        <v>-104000</v>
       </c>
       <c r="F18" s="3">
-        <v>-260800</v>
+        <v>-103900</v>
       </c>
       <c r="G18" s="3">
-        <v>-96800</v>
+        <v>-265100</v>
       </c>
       <c r="H18" s="3">
-        <v>6000</v>
+        <v>-87200</v>
       </c>
       <c r="I18" s="3">
-        <v>-103600</v>
+        <v>6100</v>
       </c>
       <c r="J18" s="3">
+        <v>-105300</v>
+      </c>
+      <c r="K18" s="3">
         <v>10400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-53700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-36800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-21500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-49900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-23600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-70300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-31900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-63600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>37300</v>
+        <v>60200</v>
       </c>
       <c r="E20" s="3">
-        <v>16800</v>
+        <v>37900</v>
       </c>
       <c r="F20" s="3">
-        <v>31900</v>
+        <v>17100</v>
       </c>
       <c r="G20" s="3">
-        <v>6500</v>
+        <v>32500</v>
       </c>
       <c r="H20" s="3">
-        <v>7700</v>
+        <v>7000</v>
       </c>
       <c r="I20" s="3">
-        <v>6700</v>
+        <v>7800</v>
       </c>
       <c r="J20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K20" s="3">
         <v>31600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>22900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>17400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-64500</v>
+        <v>-93100</v>
       </c>
       <c r="E21" s="3">
-        <v>-62100</v>
+        <v>-65600</v>
       </c>
       <c r="F21" s="3">
-        <v>-149500</v>
+        <v>-63200</v>
       </c>
       <c r="G21" s="3">
-        <v>-87300</v>
+        <v>-152000</v>
       </c>
       <c r="H21" s="3">
-        <v>14100</v>
+        <v>-77100</v>
       </c>
       <c r="I21" s="3">
-        <v>-78600</v>
+        <v>14400</v>
       </c>
       <c r="J21" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="K21" s="3">
         <v>59300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-14400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-30900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>21400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-75900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-16000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-48700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="E22" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="F22" s="3">
-        <v>26900</v>
+        <v>7200</v>
       </c>
       <c r="G22" s="3">
-        <v>7200</v>
+        <v>27300</v>
       </c>
       <c r="H22" s="3">
-        <v>6400</v>
+        <v>7300</v>
       </c>
       <c r="I22" s="3">
-        <v>5100</v>
+        <v>6500</v>
       </c>
       <c r="J22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K22" s="3">
         <v>12200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-72400</v>
+        <v>-102400</v>
       </c>
       <c r="E23" s="3">
-        <v>-92400</v>
+        <v>-73600</v>
       </c>
       <c r="F23" s="3">
-        <v>-255700</v>
+        <v>-94000</v>
       </c>
       <c r="G23" s="3">
-        <v>-97400</v>
+        <v>-260000</v>
       </c>
       <c r="H23" s="3">
-        <v>7200</v>
+        <v>-87500</v>
       </c>
       <c r="I23" s="3">
-        <v>-102000</v>
+        <v>7400</v>
       </c>
       <c r="J23" s="3">
+        <v>-103700</v>
+      </c>
+      <c r="K23" s="3">
         <v>29700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-39100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-34900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-48600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-68700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-29600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
-        <v>3400</v>
-      </c>
       <c r="G24" s="3">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="H24" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="I24" s="3">
         <v>700</v>
       </c>
       <c r="J24" s="3">
+        <v>700</v>
+      </c>
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-72000</v>
+        <v>-102500</v>
       </c>
       <c r="E26" s="3">
-        <v>-93100</v>
+        <v>-73200</v>
       </c>
       <c r="F26" s="3">
-        <v>-259100</v>
+        <v>-94600</v>
       </c>
       <c r="G26" s="3">
-        <v>-98500</v>
+        <v>-263500</v>
       </c>
       <c r="H26" s="3">
-        <v>6600</v>
+        <v>-88600</v>
       </c>
       <c r="I26" s="3">
-        <v>-102700</v>
+        <v>6700</v>
       </c>
       <c r="J26" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="K26" s="3">
         <v>26600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-40900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-35500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-48700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-69300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-30000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-71100</v>
+        <v>-100500</v>
       </c>
       <c r="E27" s="3">
-        <v>-92200</v>
+        <v>-72300</v>
       </c>
       <c r="F27" s="3">
-        <v>-255200</v>
+        <v>-93800</v>
       </c>
       <c r="G27" s="3">
-        <v>-97600</v>
+        <v>-259500</v>
       </c>
       <c r="H27" s="3">
-        <v>7600</v>
+        <v>-87700</v>
       </c>
       <c r="I27" s="3">
-        <v>-101500</v>
+        <v>7700</v>
       </c>
       <c r="J27" s="3">
+        <v>-103200</v>
+      </c>
+      <c r="K27" s="3">
         <v>29200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-39600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-35100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-48700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-69400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-29800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,40 +1936,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>600</v>
+      </c>
+      <c r="E29" s="3">
         <v>200</v>
       </c>
-      <c r="E29" s="3">
-        <v>-2100</v>
-      </c>
       <c r="F29" s="3">
-        <v>-56700</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>78</v>
+        <v>-2200</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-57600</v>
       </c>
       <c r="H29" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="I29" s="3">
-        <v>-12900</v>
+        <v>-11500</v>
       </c>
       <c r="J29" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K29" s="3">
         <v>-60300</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-37300</v>
+        <v>-60200</v>
       </c>
       <c r="E32" s="3">
-        <v>-16800</v>
+        <v>-37900</v>
       </c>
       <c r="F32" s="3">
-        <v>-31900</v>
+        <v>-17100</v>
       </c>
       <c r="G32" s="3">
-        <v>-6500</v>
+        <v>-32500</v>
       </c>
       <c r="H32" s="3">
-        <v>-7700</v>
+        <v>-7000</v>
       </c>
       <c r="I32" s="3">
-        <v>-6700</v>
+        <v>-7800</v>
       </c>
       <c r="J32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-31600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-22900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-17400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-71000</v>
+        <v>-99900</v>
       </c>
       <c r="E33" s="3">
-        <v>-94400</v>
+        <v>-72200</v>
       </c>
       <c r="F33" s="3">
-        <v>-311900</v>
+        <v>-96000</v>
       </c>
       <c r="G33" s="3">
-        <v>-97600</v>
+        <v>-317100</v>
       </c>
       <c r="H33" s="3">
-        <v>-3700</v>
+        <v>-99200</v>
       </c>
       <c r="I33" s="3">
-        <v>-114400</v>
+        <v>-3800</v>
       </c>
       <c r="J33" s="3">
+        <v>-116300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-31200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-39600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-35100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-48700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-69400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-29800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-71000</v>
+        <v>-99900</v>
       </c>
       <c r="E35" s="3">
-        <v>-94400</v>
+        <v>-72200</v>
       </c>
       <c r="F35" s="3">
-        <v>-311900</v>
+        <v>-96000</v>
       </c>
       <c r="G35" s="3">
-        <v>-97600</v>
+        <v>-317100</v>
       </c>
       <c r="H35" s="3">
-        <v>-3700</v>
+        <v>-99200</v>
       </c>
       <c r="I35" s="3">
-        <v>-114400</v>
+        <v>-3800</v>
       </c>
       <c r="J35" s="3">
+        <v>-116300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-31200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-39600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-35100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-48700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-69400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-29800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2401,539 +2487,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>139900</v>
+        <v>151200</v>
       </c>
       <c r="E41" s="3">
-        <v>155700</v>
+        <v>142200</v>
       </c>
       <c r="F41" s="3">
-        <v>213000</v>
+        <v>158300</v>
       </c>
       <c r="G41" s="3">
-        <v>279300</v>
+        <v>216600</v>
       </c>
       <c r="H41" s="3">
-        <v>367200</v>
+        <v>284000</v>
       </c>
       <c r="I41" s="3">
-        <v>194400</v>
+        <v>373300</v>
       </c>
       <c r="J41" s="3">
+        <v>197600</v>
+      </c>
+      <c r="K41" s="3">
         <v>307100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>333600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>245800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>223600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>236800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>85500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>254000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>306600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>184100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>149900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>165400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>326200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>500</v>
+      </c>
+      <c r="E42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="3">
-        <v>45700</v>
-      </c>
       <c r="F42" s="3">
-        <v>41400</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="3">
-        <v>47200</v>
+        <v>42100</v>
       </c>
       <c r="H42" s="3">
-        <v>82000</v>
+        <v>48000</v>
       </c>
       <c r="I42" s="3">
-        <v>127700</v>
+        <v>83400</v>
       </c>
       <c r="J42" s="3">
+        <v>129800</v>
+      </c>
+      <c r="K42" s="3">
         <v>162800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>186600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>169000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>141000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>146300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>291400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>171800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>200900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>349300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>552300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>163100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>253100</v>
+        <v>223800</v>
       </c>
       <c r="E43" s="3">
-        <v>233700</v>
+        <v>257300</v>
       </c>
       <c r="F43" s="3">
-        <v>270300</v>
+        <v>237600</v>
       </c>
       <c r="G43" s="3">
-        <v>248900</v>
+        <v>274800</v>
       </c>
       <c r="H43" s="3">
-        <v>257700</v>
+        <v>253000</v>
       </c>
       <c r="I43" s="3">
-        <v>250400</v>
+        <v>262100</v>
       </c>
       <c r="J43" s="3">
+        <v>254600</v>
+      </c>
+      <c r="K43" s="3">
         <v>327500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>297400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>295700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>264400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>269800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>189200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>166500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>133500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>162200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>94800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>82300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="E44" s="3">
-        <v>5300</v>
+        <v>6100</v>
       </c>
       <c r="F44" s="3">
-        <v>6800</v>
+        <v>5400</v>
       </c>
       <c r="G44" s="3">
-        <v>25600</v>
+        <v>6900</v>
       </c>
       <c r="H44" s="3">
-        <v>24400</v>
+        <v>26100</v>
       </c>
       <c r="I44" s="3">
-        <v>23200</v>
+        <v>24800</v>
       </c>
       <c r="J44" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K44" s="3">
         <v>21600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>25300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>27300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>25700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>21900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>23000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>25800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>22400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>23300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>28200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>21700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>891300</v>
+        <v>884000</v>
       </c>
       <c r="E45" s="3">
-        <v>905000</v>
+        <v>906200</v>
       </c>
       <c r="F45" s="3">
-        <v>911000</v>
+        <v>920200</v>
       </c>
       <c r="G45" s="3">
-        <v>830300</v>
+        <v>926300</v>
       </c>
       <c r="H45" s="3">
-        <v>700100</v>
+        <v>844200</v>
       </c>
       <c r="I45" s="3">
-        <v>665800</v>
+        <v>711800</v>
       </c>
       <c r="J45" s="3">
+        <v>677000</v>
+      </c>
+      <c r="K45" s="3">
         <v>672800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>543500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>503000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>491600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>462300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>423700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>429300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>386900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>461900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>304500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>310600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>254900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1290400</v>
+        <v>1264900</v>
       </c>
       <c r="E46" s="3">
-        <v>1345400</v>
+        <v>1312000</v>
       </c>
       <c r="F46" s="3">
-        <v>1442400</v>
+        <v>1367900</v>
       </c>
       <c r="G46" s="3">
-        <v>1431300</v>
+        <v>1466600</v>
       </c>
       <c r="H46" s="3">
-        <v>1431400</v>
+        <v>1455300</v>
       </c>
       <c r="I46" s="3">
-        <v>1261500</v>
+        <v>1455400</v>
       </c>
       <c r="J46" s="3">
+        <v>1282700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1491800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1386300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1240700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1146200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1137100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1012900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1047300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1050300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1180800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1129600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>743100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>711900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>101700</v>
+        <v>76000</v>
       </c>
       <c r="E47" s="3">
-        <v>116800</v>
+        <v>103400</v>
       </c>
       <c r="F47" s="3">
-        <v>133800</v>
+        <v>118800</v>
       </c>
       <c r="G47" s="3">
-        <v>157800</v>
+        <v>136100</v>
       </c>
       <c r="H47" s="3">
-        <v>173000</v>
+        <v>160400</v>
       </c>
       <c r="I47" s="3">
-        <v>179700</v>
+        <v>175900</v>
       </c>
       <c r="J47" s="3">
+        <v>182800</v>
+      </c>
+      <c r="K47" s="3">
         <v>201500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>213400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>244500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>245100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>239000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>188000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>157100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>114700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>116700</v>
-      </c>
-      <c r="S47" s="3">
-        <v>5500</v>
       </c>
       <c r="T47" s="3">
         <v>5500</v>
       </c>
       <c r="U47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="V47" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1247900</v>
+        <v>1259000</v>
       </c>
       <c r="E48" s="3">
-        <v>1209600</v>
+        <v>1268800</v>
       </c>
       <c r="F48" s="3">
-        <v>1223000</v>
+        <v>1229800</v>
       </c>
       <c r="G48" s="3">
-        <v>1225700</v>
+        <v>1243500</v>
       </c>
       <c r="H48" s="3">
-        <v>1205100</v>
+        <v>1246200</v>
       </c>
       <c r="I48" s="3">
-        <v>1154100</v>
+        <v>1225300</v>
       </c>
       <c r="J48" s="3">
+        <v>1173400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1126900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1065300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1005800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>993400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>299900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>254500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>221600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>188200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>194000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>181800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>164000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>47400</v>
+        <v>47900</v>
       </c>
       <c r="E49" s="3">
-        <v>47500</v>
+        <v>48200</v>
       </c>
       <c r="F49" s="3">
-        <v>47400</v>
+        <v>48300</v>
       </c>
       <c r="G49" s="3">
-        <v>94100</v>
+        <v>48200</v>
       </c>
       <c r="H49" s="3">
-        <v>94200</v>
+        <v>95700</v>
       </c>
       <c r="I49" s="3">
-        <v>94000</v>
+        <v>95800</v>
       </c>
       <c r="J49" s="3">
+        <v>95600</v>
+      </c>
+      <c r="K49" s="3">
         <v>94300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>96000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>93400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>92100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>89000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>83600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>86500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>86100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>90100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>84500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>84800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>143700</v>
+        <v>138900</v>
       </c>
       <c r="E52" s="3">
-        <v>166900</v>
+        <v>146100</v>
       </c>
       <c r="F52" s="3">
-        <v>213000</v>
+        <v>169700</v>
       </c>
       <c r="G52" s="3">
-        <v>207700</v>
+        <v>216600</v>
       </c>
       <c r="H52" s="3">
-        <v>187400</v>
+        <v>211200</v>
       </c>
       <c r="I52" s="3">
-        <v>152200</v>
+        <v>190500</v>
       </c>
       <c r="J52" s="3">
+        <v>154800</v>
+      </c>
+      <c r="K52" s="3">
         <v>87000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>73400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>52400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>39300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>31000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>27800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>32200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>32800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>137900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>110300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>2831100</v>
+        <v>2786600</v>
       </c>
       <c r="E54" s="3">
-        <v>2886200</v>
+        <v>2878500</v>
       </c>
       <c r="F54" s="3">
-        <v>3059700</v>
+        <v>2934600</v>
       </c>
       <c r="G54" s="3">
-        <v>3116500</v>
+        <v>3111000</v>
       </c>
       <c r="H54" s="3">
-        <v>3091100</v>
+        <v>3168800</v>
       </c>
       <c r="I54" s="3">
-        <v>2841600</v>
+        <v>3142900</v>
       </c>
       <c r="J54" s="3">
+        <v>2889200</v>
+      </c>
+      <c r="K54" s="3">
         <v>3001500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2834500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2636800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2516100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1796000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1566800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1540600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1471500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1614500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1539400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1107700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>972800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3273,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>649800</v>
+        <v>601300</v>
       </c>
       <c r="E57" s="3">
-        <v>600800</v>
+        <v>660700</v>
       </c>
       <c r="F57" s="3">
-        <v>638200</v>
+        <v>610900</v>
       </c>
       <c r="G57" s="3">
-        <v>580600</v>
+        <v>648900</v>
       </c>
       <c r="H57" s="3">
-        <v>497700</v>
+        <v>590400</v>
       </c>
       <c r="I57" s="3">
-        <v>398700</v>
+        <v>506000</v>
       </c>
       <c r="J57" s="3">
+        <v>405400</v>
+      </c>
+      <c r="K57" s="3">
         <v>522200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>473200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>444600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>421000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>414100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>325600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>322700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>265300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>354500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>358000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>344400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>222200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>398100</v>
+        <v>525400</v>
       </c>
       <c r="E58" s="3">
-        <v>491300</v>
+        <v>404800</v>
       </c>
       <c r="F58" s="3">
-        <v>489500</v>
+        <v>499500</v>
       </c>
       <c r="G58" s="3">
-        <v>507100</v>
+        <v>497700</v>
       </c>
       <c r="H58" s="3">
-        <v>418700</v>
+        <v>515600</v>
       </c>
       <c r="I58" s="3">
-        <v>481800</v>
+        <v>425700</v>
       </c>
       <c r="J58" s="3">
+        <v>489900</v>
+      </c>
+      <c r="K58" s="3">
         <v>402900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>319800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>377300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>325100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>259300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>204000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>186500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>234600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>181600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>136100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>159600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>824200</v>
+        <v>973400</v>
       </c>
       <c r="E59" s="3">
-        <v>777100</v>
+        <v>838000</v>
       </c>
       <c r="F59" s="3">
-        <v>817600</v>
+        <v>790200</v>
       </c>
       <c r="G59" s="3">
-        <v>767900</v>
+        <v>831300</v>
       </c>
       <c r="H59" s="3">
-        <v>743100</v>
+        <v>780800</v>
       </c>
       <c r="I59" s="3">
-        <v>709600</v>
+        <v>755500</v>
       </c>
       <c r="J59" s="3">
+        <v>721500</v>
+      </c>
+      <c r="K59" s="3">
         <v>702400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>673200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>643900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>615400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>504900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>442800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>433300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>388100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>410400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>398000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>330500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>314400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1872000</v>
+        <v>2100000</v>
       </c>
       <c r="E60" s="3">
-        <v>1869200</v>
+        <v>1903400</v>
       </c>
       <c r="F60" s="3">
-        <v>1945400</v>
+        <v>1900500</v>
       </c>
       <c r="G60" s="3">
-        <v>1855700</v>
+        <v>1978000</v>
       </c>
       <c r="H60" s="3">
-        <v>1659400</v>
+        <v>1886800</v>
       </c>
       <c r="I60" s="3">
-        <v>1590100</v>
+        <v>1687300</v>
       </c>
       <c r="J60" s="3">
+        <v>1616700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1627500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1466100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1465900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1361400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1178300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>972500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>942500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>888000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>946400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>892100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>834500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>690200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>374100</v>
+        <v>181300</v>
       </c>
       <c r="E61" s="3">
-        <v>382000</v>
+        <v>380300</v>
       </c>
       <c r="F61" s="3">
-        <v>360500</v>
+        <v>388400</v>
       </c>
       <c r="G61" s="3">
-        <v>378800</v>
+        <v>366500</v>
       </c>
       <c r="H61" s="3">
-        <v>419600</v>
+        <v>385200</v>
       </c>
       <c r="I61" s="3">
-        <v>225100</v>
+        <v>426600</v>
       </c>
       <c r="J61" s="3">
+        <v>228900</v>
+      </c>
+      <c r="K61" s="3">
         <v>209800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>217900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
-      </c>
-      <c r="N61" s="3">
-        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
       </c>
       <c r="P61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>449400</v>
+        <v>465300</v>
       </c>
       <c r="E62" s="3">
-        <v>461500</v>
+        <v>457000</v>
       </c>
       <c r="F62" s="3">
-        <v>488200</v>
+        <v>469200</v>
       </c>
       <c r="G62" s="3">
-        <v>521700</v>
+        <v>496400</v>
       </c>
       <c r="H62" s="3">
-        <v>540100</v>
+        <v>530400</v>
       </c>
       <c r="I62" s="3">
-        <v>546100</v>
+        <v>549200</v>
       </c>
       <c r="J62" s="3">
+        <v>555300</v>
+      </c>
+      <c r="K62" s="3">
         <v>561400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>547200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>545300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>563300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>2719600</v>
+        <v>2769300</v>
       </c>
       <c r="E66" s="3">
-        <v>2707800</v>
+        <v>2765100</v>
       </c>
       <c r="F66" s="3">
-        <v>2790100</v>
+        <v>2753200</v>
       </c>
       <c r="G66" s="3">
-        <v>2753000</v>
+        <v>2836900</v>
       </c>
       <c r="H66" s="3">
-        <v>2616100</v>
+        <v>2799200</v>
       </c>
       <c r="I66" s="3">
-        <v>2359200</v>
+        <v>2659900</v>
       </c>
       <c r="J66" s="3">
+        <v>2398700</v>
+      </c>
+      <c r="K66" s="3">
         <v>2397800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2231600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2022000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1925600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1195000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>988200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>958600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>903700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>962700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>906000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>862000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>691800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4058,13 +4226,16 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
-        <v>2351100</v>
+        <v>0</v>
       </c>
       <c r="U70" s="3">
         <v>2351100</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>2351100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2891200</v>
+        <v>-3039600</v>
       </c>
       <c r="E72" s="3">
-        <v>-2820300</v>
+        <v>-2939700</v>
       </c>
       <c r="F72" s="3">
-        <v>-2725900</v>
+        <v>-2867500</v>
       </c>
       <c r="G72" s="3">
-        <v>-2629700</v>
+        <v>-2771600</v>
       </c>
       <c r="H72" s="3">
-        <v>-2532100</v>
+        <v>-2673800</v>
       </c>
       <c r="I72" s="3">
-        <v>-2528400</v>
+        <v>-2574600</v>
       </c>
       <c r="J72" s="3">
+        <v>-2570800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2405400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2445200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2444600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2380700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2239300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2154800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2201600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2188200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2209300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2189000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2119600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2089800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>111500</v>
+        <v>17300</v>
       </c>
       <c r="E76" s="3">
-        <v>178400</v>
+        <v>113400</v>
       </c>
       <c r="F76" s="3">
-        <v>269600</v>
+        <v>181400</v>
       </c>
       <c r="G76" s="3">
-        <v>363500</v>
+        <v>274100</v>
       </c>
       <c r="H76" s="3">
-        <v>475000</v>
+        <v>369600</v>
       </c>
       <c r="I76" s="3">
-        <v>482400</v>
+        <v>482900</v>
       </c>
       <c r="J76" s="3">
+        <v>490500</v>
+      </c>
+      <c r="K76" s="3">
         <v>603700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>602900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>614800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>590600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>601000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>578600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>582000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>567800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>651800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>633400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2105500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2070100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-71000</v>
+        <v>-99900</v>
       </c>
       <c r="E81" s="3">
-        <v>-94400</v>
+        <v>-72200</v>
       </c>
       <c r="F81" s="3">
-        <v>-311900</v>
+        <v>-96000</v>
       </c>
       <c r="G81" s="3">
-        <v>-97600</v>
+        <v>-317100</v>
       </c>
       <c r="H81" s="3">
-        <v>-3700</v>
+        <v>-99200</v>
       </c>
       <c r="I81" s="3">
-        <v>-114400</v>
+        <v>-3800</v>
       </c>
       <c r="J81" s="3">
+        <v>-116300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-31200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-39600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-35100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-48700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-69400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-29800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-14100</v>
+        <v>-181300</v>
       </c>
       <c r="E89" s="3">
-        <v>-101300</v>
+        <v>-14300</v>
       </c>
       <c r="F89" s="3">
-        <v>-35600</v>
+        <v>-103000</v>
       </c>
       <c r="G89" s="3">
-        <v>17800</v>
+        <v>-36200</v>
       </c>
       <c r="H89" s="3">
-        <v>111300</v>
+        <v>18100</v>
       </c>
       <c r="I89" s="3">
-        <v>-199200</v>
+        <v>113100</v>
       </c>
       <c r="J89" s="3">
+        <v>-202500</v>
+      </c>
+      <c r="K89" s="3">
         <v>131300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>57100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>52100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-31300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>105900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>62000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-87600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>42300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5105,20 +5326,23 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>78</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="U91" s="3">
         <v>-16600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>50100</v>
+        <v>165200</v>
       </c>
       <c r="E94" s="3">
-        <v>3500</v>
+        <v>50900</v>
       </c>
       <c r="F94" s="3">
-        <v>-134400</v>
+        <v>3600</v>
       </c>
       <c r="G94" s="3">
-        <v>-83100</v>
+        <v>-136700</v>
       </c>
       <c r="H94" s="3">
-        <v>-43600</v>
+        <v>-84500</v>
       </c>
       <c r="I94" s="3">
-        <v>17500</v>
+        <v>-44300</v>
       </c>
       <c r="J94" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-294500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-215800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-99600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>16300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-225400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-53000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>91300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>93900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-444500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-204600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-68900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-70700</v>
+        <v>9300</v>
       </c>
       <c r="E100" s="3">
-        <v>15600</v>
+        <v>-71900</v>
       </c>
       <c r="F100" s="3">
-        <v>238400</v>
+        <v>15900</v>
       </c>
       <c r="G100" s="3">
-        <v>57200</v>
+        <v>242400</v>
       </c>
       <c r="H100" s="3">
-        <v>117300</v>
+        <v>58100</v>
       </c>
       <c r="I100" s="3">
-        <v>93200</v>
+        <v>119300</v>
       </c>
       <c r="J100" s="3">
+        <v>94700</v>
+      </c>
+      <c r="K100" s="3">
         <v>309800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>243200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>47500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>54300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>47500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>21100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-47600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>59000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-66600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>416100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5700</v>
+        <v>600</v>
       </c>
       <c r="E101" s="3">
-        <v>1000</v>
+        <v>-5800</v>
       </c>
       <c r="F101" s="3">
-        <v>-29600</v>
+        <v>1100</v>
       </c>
       <c r="G101" s="3">
-        <v>-16400</v>
+        <v>-30100</v>
       </c>
       <c r="H101" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
-        <v>3700</v>
-      </c>
       <c r="J101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-40500</v>
+        <v>-6300</v>
       </c>
       <c r="E102" s="3">
-        <v>-81100</v>
+        <v>-41100</v>
       </c>
       <c r="F102" s="3">
-        <v>38800</v>
+        <v>-82500</v>
       </c>
       <c r="G102" s="3">
-        <v>-24600</v>
+        <v>39400</v>
       </c>
       <c r="H102" s="3">
-        <v>185200</v>
+        <v>-25000</v>
       </c>
       <c r="I102" s="3">
-        <v>-84800</v>
+        <v>188300</v>
       </c>
       <c r="J102" s="3">
+        <v>-86200</v>
+      </c>
+      <c r="K102" s="3">
         <v>147500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>91000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>170000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-185200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>52000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>34200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-15600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-160800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-108300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1066500</v>
+        <v>429900</v>
       </c>
       <c r="E8" s="3">
-        <v>1154600</v>
+        <v>1372700</v>
       </c>
       <c r="F8" s="3">
-        <v>1017100</v>
+        <v>1163400</v>
       </c>
       <c r="G8" s="3">
-        <v>4696000</v>
+        <v>1024900</v>
       </c>
       <c r="H8" s="3">
-        <v>1248700</v>
+        <v>539600</v>
       </c>
       <c r="I8" s="3">
-        <v>1215000</v>
+        <v>1121300</v>
       </c>
       <c r="J8" s="3">
+        <v>1224400</v>
+      </c>
+      <c r="K8" s="3">
         <v>783200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4982600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3807900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1371000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1045800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1312200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1006200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>966000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>717900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>969300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>794600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>720700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>482100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1145600</v>
+        <v>465900</v>
       </c>
       <c r="E9" s="3">
-        <v>1177200</v>
+        <v>2110000</v>
       </c>
       <c r="F9" s="3">
-        <v>1047400</v>
+        <v>1186200</v>
       </c>
       <c r="G9" s="3">
-        <v>4658700</v>
+        <v>1055400</v>
       </c>
       <c r="H9" s="3">
-        <v>1498400</v>
+        <v>3987600</v>
       </c>
       <c r="I9" s="3">
-        <v>1304600</v>
+        <v>2164800</v>
       </c>
       <c r="J9" s="3">
+        <v>1314600</v>
+      </c>
+      <c r="K9" s="3">
         <v>942800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4976500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3727800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1381900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1001200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1236100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>951600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>906000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>702200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>926500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>764700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>700900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>502500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-79100</v>
+        <v>-36000</v>
       </c>
       <c r="E10" s="3">
-        <v>-22600</v>
+        <v>-737400</v>
       </c>
       <c r="F10" s="3">
-        <v>-30300</v>
+        <v>-22800</v>
       </c>
       <c r="G10" s="3">
-        <v>37300</v>
+        <v>-30500</v>
       </c>
       <c r="H10" s="3">
-        <v>-249600</v>
+        <v>-3448000</v>
       </c>
       <c r="I10" s="3">
-        <v>-89600</v>
+        <v>-1043500</v>
       </c>
       <c r="J10" s="3">
+        <v>-90300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-159600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>80100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-10800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>44500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>76100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>54600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>59900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>15700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>42800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>29900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>19700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F12" s="3">
         <v>9600</v>
       </c>
-      <c r="E12" s="3">
-        <v>9500</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L12" s="3">
+        <v>31400</v>
+      </c>
+      <c r="M12" s="3">
+        <v>28200</v>
+      </c>
+      <c r="N12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="O12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="P12" s="3">
         <v>8400</v>
       </c>
-      <c r="G12" s="3">
-        <v>30000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>7900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>31400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>28200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>9800</v>
-      </c>
-      <c r="N12" s="3">
-        <v>8200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>8400</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8300</v>
-      </c>
-      <c r="U12" s="3">
-        <v>4000</v>
       </c>
       <c r="V12" s="3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1221500</v>
+        <v>544000</v>
       </c>
       <c r="E17" s="3">
-        <v>1258600</v>
+        <v>1489300</v>
       </c>
       <c r="F17" s="3">
-        <v>1121000</v>
+        <v>1268200</v>
       </c>
       <c r="G17" s="3">
-        <v>4961100</v>
+        <v>1129600</v>
       </c>
       <c r="H17" s="3">
-        <v>1335900</v>
+        <v>577200</v>
       </c>
       <c r="I17" s="3">
-        <v>1209000</v>
+        <v>1237100</v>
       </c>
       <c r="J17" s="3">
+        <v>1218300</v>
+      </c>
+      <c r="K17" s="3">
         <v>888500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4972200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3861600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1379900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1082500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1318900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1027700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>981800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>767900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>992900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>865000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>752600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>545600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-154900</v>
+        <v>-114100</v>
       </c>
       <c r="E18" s="3">
-        <v>-104000</v>
+        <v>-116700</v>
       </c>
       <c r="F18" s="3">
-        <v>-103900</v>
+        <v>-104800</v>
       </c>
       <c r="G18" s="3">
-        <v>-265100</v>
+        <v>-104700</v>
       </c>
       <c r="H18" s="3">
-        <v>-87200</v>
+        <v>-37600</v>
       </c>
       <c r="I18" s="3">
+        <v>-115800</v>
+      </c>
+      <c r="J18" s="3">
         <v>6100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-105300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-53700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-36800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-15900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-49900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-23600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-70300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-31900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-63600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>60200</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="3">
-        <v>37900</v>
+        <v>51400</v>
       </c>
       <c r="F20" s="3">
-        <v>17100</v>
+        <v>38200</v>
       </c>
       <c r="G20" s="3">
-        <v>32500</v>
+        <v>17300</v>
       </c>
       <c r="H20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>31600</v>
+      </c>
+      <c r="M20" s="3">
+        <v>22900</v>
+      </c>
+      <c r="N20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="O20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="P20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
-        <v>7800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>6800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>31600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>22900</v>
-      </c>
-      <c r="M20" s="3">
-        <v>8400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>5800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>7000</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>17400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-93100</v>
+        <v>-127100</v>
       </c>
       <c r="E21" s="3">
-        <v>-65600</v>
+        <v>-39300</v>
       </c>
       <c r="F21" s="3">
-        <v>-63200</v>
+        <v>-66100</v>
       </c>
       <c r="G21" s="3">
-        <v>-152000</v>
+        <v>-63600</v>
       </c>
       <c r="H21" s="3">
-        <v>-77100</v>
+        <v>25400</v>
       </c>
       <c r="I21" s="3">
-        <v>14400</v>
+        <v>-84800</v>
       </c>
       <c r="J21" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-79900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>59300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-14400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-30900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-75900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-16000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-48700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F22" s="3">
         <v>7600</v>
       </c>
-      <c r="E22" s="3">
-        <v>7500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>7200</v>
-      </c>
       <c r="G22" s="3">
-        <v>27300</v>
+        <v>7300</v>
       </c>
       <c r="H22" s="3">
-        <v>7300</v>
+        <v>5400</v>
       </c>
       <c r="I22" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J22" s="3">
         <v>6500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-102400</v>
+        <v>-115700</v>
       </c>
       <c r="E23" s="3">
-        <v>-73600</v>
+        <v>-83100</v>
       </c>
       <c r="F23" s="3">
-        <v>-94000</v>
+        <v>-74200</v>
       </c>
       <c r="G23" s="3">
-        <v>-260000</v>
+        <v>-94700</v>
       </c>
       <c r="H23" s="3">
-        <v>-87500</v>
+        <v>-39000</v>
       </c>
       <c r="I23" s="3">
+        <v>-120500</v>
+      </c>
+      <c r="J23" s="3">
         <v>7400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-103700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-39100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-34900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-48600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-19700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-68700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-29600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
-        <v>3500</v>
-      </c>
       <c r="H24" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="I24" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="J24" s="3">
         <v>700</v>
       </c>
       <c r="K24" s="3">
+        <v>700</v>
+      </c>
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-102500</v>
+        <v>-115800</v>
       </c>
       <c r="E26" s="3">
-        <v>-73200</v>
+        <v>-83600</v>
       </c>
       <c r="F26" s="3">
-        <v>-94600</v>
+        <v>-73700</v>
       </c>
       <c r="G26" s="3">
-        <v>-263500</v>
+        <v>-95400</v>
       </c>
       <c r="H26" s="3">
-        <v>-88600</v>
+        <v>-39800</v>
       </c>
       <c r="I26" s="3">
+        <v>-122400</v>
+      </c>
+      <c r="J26" s="3">
         <v>6700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-104400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-40900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-35500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-48700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-20200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-69300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-30000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-100500</v>
+        <v>-111300</v>
       </c>
       <c r="E27" s="3">
-        <v>-72300</v>
+        <v>-79900</v>
       </c>
       <c r="F27" s="3">
-        <v>-93800</v>
+        <v>-72900</v>
       </c>
       <c r="G27" s="3">
-        <v>-259500</v>
+        <v>-94500</v>
       </c>
       <c r="H27" s="3">
-        <v>-87700</v>
+        <v>-38900</v>
       </c>
       <c r="I27" s="3">
-        <v>7700</v>
+        <v>-119200</v>
       </c>
       <c r="J27" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-103200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>29200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-39600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-35100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-48700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-20300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-69400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-29800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1939,43 +1996,46 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>600</v>
+        <v>422700</v>
       </c>
       <c r="E29" s="3">
+        <v>-190200</v>
+      </c>
+      <c r="F29" s="3">
         <v>200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-2200</v>
       </c>
-      <c r="G29" s="3">
-        <v>-57600</v>
-      </c>
       <c r="H29" s="3">
-        <v>-11500</v>
+        <v>-59600</v>
       </c>
       <c r="I29" s="3">
-        <v>-11500</v>
+        <v>-101700</v>
       </c>
       <c r="J29" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-13100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-60300</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-60200</v>
+        <v>-3000</v>
       </c>
       <c r="E32" s="3">
-        <v>-37900</v>
+        <v>-51400</v>
       </c>
       <c r="F32" s="3">
-        <v>-17100</v>
+        <v>-38200</v>
       </c>
       <c r="G32" s="3">
-        <v>-32500</v>
+        <v>-17300</v>
       </c>
       <c r="H32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="P32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-31600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-22900</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-99900</v>
+        <v>311400</v>
       </c>
       <c r="E33" s="3">
-        <v>-72200</v>
+        <v>-270100</v>
       </c>
       <c r="F33" s="3">
-        <v>-96000</v>
+        <v>-72700</v>
       </c>
       <c r="G33" s="3">
-        <v>-317100</v>
+        <v>-96700</v>
       </c>
       <c r="H33" s="3">
-        <v>-99200</v>
+        <v>-98600</v>
       </c>
       <c r="I33" s="3">
+        <v>-221000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-116300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-39600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-35100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-48700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-20300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-69400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-29800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-99900</v>
+        <v>311400</v>
       </c>
       <c r="E35" s="3">
-        <v>-72200</v>
+        <v>-270100</v>
       </c>
       <c r="F35" s="3">
-        <v>-96000</v>
+        <v>-72700</v>
       </c>
       <c r="G35" s="3">
-        <v>-317100</v>
+        <v>-96700</v>
       </c>
       <c r="H35" s="3">
-        <v>-99200</v>
+        <v>-98600</v>
       </c>
       <c r="I35" s="3">
+        <v>-221000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-116300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-39600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-35100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-48700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-20300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-69400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-29800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2488,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>151200</v>
+        <v>562500</v>
       </c>
       <c r="E41" s="3">
-        <v>142200</v>
+        <v>152400</v>
       </c>
       <c r="F41" s="3">
-        <v>158300</v>
+        <v>143300</v>
       </c>
       <c r="G41" s="3">
-        <v>216600</v>
+        <v>159500</v>
       </c>
       <c r="H41" s="3">
-        <v>284000</v>
+        <v>218200</v>
       </c>
       <c r="I41" s="3">
-        <v>373300</v>
+        <v>286200</v>
       </c>
       <c r="J41" s="3">
+        <v>376200</v>
+      </c>
+      <c r="K41" s="3">
         <v>197600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>307100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>333600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>245800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>223600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>236800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>85500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>254000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>306600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>184100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>149900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>165400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>326200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E42" s="3">
         <v>500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>100</v>
       </c>
-      <c r="F42" s="3">
-        <v>46400</v>
-      </c>
       <c r="G42" s="3">
-        <v>42100</v>
+        <v>46800</v>
       </c>
       <c r="H42" s="3">
-        <v>48000</v>
+        <v>42400</v>
       </c>
       <c r="I42" s="3">
-        <v>83400</v>
+        <v>48400</v>
       </c>
       <c r="J42" s="3">
+        <v>84000</v>
+      </c>
+      <c r="K42" s="3">
         <v>129800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>162800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>186600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>169000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>141000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>146300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>291400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>171800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>200900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>349300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>552300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>163100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>223800</v>
+        <v>192800</v>
       </c>
       <c r="E43" s="3">
-        <v>257300</v>
+        <v>225500</v>
       </c>
       <c r="F43" s="3">
-        <v>237600</v>
+        <v>259300</v>
       </c>
       <c r="G43" s="3">
-        <v>274800</v>
+        <v>239400</v>
       </c>
       <c r="H43" s="3">
-        <v>253000</v>
+        <v>276900</v>
       </c>
       <c r="I43" s="3">
-        <v>262100</v>
+        <v>255000</v>
       </c>
       <c r="J43" s="3">
+        <v>264100</v>
+      </c>
+      <c r="K43" s="3">
         <v>254600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>327500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>297400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>295700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>264400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>269800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>189200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>166500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>133500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>162200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>94800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>82300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>5300</v>
+        <v>4000</v>
       </c>
       <c r="E44" s="3">
-        <v>6100</v>
+        <v>5400</v>
       </c>
       <c r="F44" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G44" s="3">
         <v>5400</v>
       </c>
-      <c r="G44" s="3">
-        <v>6900</v>
-      </c>
       <c r="H44" s="3">
-        <v>26100</v>
+        <v>7000</v>
       </c>
       <c r="I44" s="3">
-        <v>24800</v>
+        <v>26300</v>
       </c>
       <c r="J44" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K44" s="3">
         <v>23600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>25300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>27300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>25700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>21900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>23000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>25800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>22400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>23300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>28200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>21700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>884000</v>
+        <v>291800</v>
       </c>
       <c r="E45" s="3">
-        <v>906200</v>
+        <v>890800</v>
       </c>
       <c r="F45" s="3">
-        <v>920200</v>
+        <v>913200</v>
       </c>
       <c r="G45" s="3">
-        <v>926300</v>
+        <v>927200</v>
       </c>
       <c r="H45" s="3">
-        <v>844200</v>
+        <v>933400</v>
       </c>
       <c r="I45" s="3">
-        <v>711800</v>
+        <v>850700</v>
       </c>
       <c r="J45" s="3">
+        <v>717200</v>
+      </c>
+      <c r="K45" s="3">
         <v>677000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>672800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>543500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>503000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>491600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>462300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>423700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>429300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>386900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>461900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>304500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>310600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>254900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1264900</v>
+        <v>1074400</v>
       </c>
       <c r="E46" s="3">
-        <v>1312000</v>
+        <v>1274600</v>
       </c>
       <c r="F46" s="3">
-        <v>1367900</v>
+        <v>1322100</v>
       </c>
       <c r="G46" s="3">
+        <v>1378400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1477900</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1466400</v>
+      </c>
+      <c r="J46" s="3">
         <v>1466600</v>
       </c>
-      <c r="H46" s="3">
-        <v>1455300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1455400</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1282700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1491800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1386300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1240700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1146200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1137100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1012900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1047300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1050300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1180800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1129600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>743100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>711900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>76000</v>
+        <v>71700</v>
       </c>
       <c r="E47" s="3">
-        <v>103400</v>
+        <v>76500</v>
       </c>
       <c r="F47" s="3">
-        <v>118800</v>
+        <v>104200</v>
       </c>
       <c r="G47" s="3">
-        <v>136100</v>
+        <v>119700</v>
       </c>
       <c r="H47" s="3">
-        <v>160400</v>
+        <v>137100</v>
       </c>
       <c r="I47" s="3">
-        <v>175900</v>
+        <v>161600</v>
       </c>
       <c r="J47" s="3">
+        <v>177200</v>
+      </c>
+      <c r="K47" s="3">
         <v>182800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>201500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>213400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>244500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>245100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>239000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>188000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>157100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>114700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>116700</v>
-      </c>
-      <c r="T47" s="3">
-        <v>5500</v>
       </c>
       <c r="U47" s="3">
         <v>5500</v>
       </c>
       <c r="V47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="W47" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1259000</v>
+        <v>420000</v>
       </c>
       <c r="E48" s="3">
-        <v>1268800</v>
+        <v>1268600</v>
       </c>
       <c r="F48" s="3">
-        <v>1229800</v>
+        <v>1278500</v>
       </c>
       <c r="G48" s="3">
-        <v>1243500</v>
+        <v>1239300</v>
       </c>
       <c r="H48" s="3">
-        <v>1246200</v>
+        <v>1253000</v>
       </c>
       <c r="I48" s="3">
-        <v>1225300</v>
+        <v>1255800</v>
       </c>
       <c r="J48" s="3">
+        <v>1234700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1173400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1126900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1065300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1005800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>993400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>299900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>254500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>221600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>188200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>194000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>181800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>164000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>47900</v>
+        <v>17300</v>
       </c>
       <c r="E49" s="3">
-        <v>48200</v>
+        <v>48300</v>
       </c>
       <c r="F49" s="3">
-        <v>48300</v>
+        <v>48600</v>
       </c>
       <c r="G49" s="3">
-        <v>48200</v>
+        <v>48700</v>
       </c>
       <c r="H49" s="3">
-        <v>95700</v>
+        <v>48600</v>
       </c>
       <c r="I49" s="3">
-        <v>95800</v>
+        <v>96400</v>
       </c>
       <c r="J49" s="3">
+        <v>96500</v>
+      </c>
+      <c r="K49" s="3">
         <v>95600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>94300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>96000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>93400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>92100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>89000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>83600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>86500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>86100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>90100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>84500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>84800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3170,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>138900</v>
+        <v>200900</v>
       </c>
       <c r="E52" s="3">
-        <v>146100</v>
+        <v>139900</v>
       </c>
       <c r="F52" s="3">
-        <v>169700</v>
+        <v>147200</v>
       </c>
       <c r="G52" s="3">
-        <v>216600</v>
+        <v>171000</v>
       </c>
       <c r="H52" s="3">
-        <v>211200</v>
+        <v>218300</v>
       </c>
       <c r="I52" s="3">
-        <v>190500</v>
+        <v>212800</v>
       </c>
       <c r="J52" s="3">
+        <v>192000</v>
+      </c>
+      <c r="K52" s="3">
         <v>154800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>87000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>52400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>31000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>27800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>28000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>32200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>32800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>137900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>110300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>2786600</v>
+        <v>1784400</v>
       </c>
       <c r="E54" s="3">
-        <v>2878500</v>
+        <v>2807900</v>
       </c>
       <c r="F54" s="3">
-        <v>2934600</v>
+        <v>2900600</v>
       </c>
       <c r="G54" s="3">
-        <v>3111000</v>
+        <v>2957100</v>
       </c>
       <c r="H54" s="3">
-        <v>3168800</v>
+        <v>3134800</v>
       </c>
       <c r="I54" s="3">
-        <v>3142900</v>
+        <v>3193100</v>
       </c>
       <c r="J54" s="3">
+        <v>3166900</v>
+      </c>
+      <c r="K54" s="3">
         <v>2889200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3001500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2834500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2636800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2516100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1796000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1566800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1540600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1471500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1614500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1539400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1107700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>972800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3404,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>601300</v>
+        <v>209200</v>
       </c>
       <c r="E57" s="3">
-        <v>660700</v>
+        <v>605900</v>
       </c>
       <c r="F57" s="3">
-        <v>610900</v>
+        <v>665700</v>
       </c>
       <c r="G57" s="3">
-        <v>648900</v>
+        <v>615600</v>
       </c>
       <c r="H57" s="3">
-        <v>590400</v>
+        <v>653900</v>
       </c>
       <c r="I57" s="3">
-        <v>506000</v>
+        <v>594900</v>
       </c>
       <c r="J57" s="3">
+        <v>509900</v>
+      </c>
+      <c r="K57" s="3">
         <v>405400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>522200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>473200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>444600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>421000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>414100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>325600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>322700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>265300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>354500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>358000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>344400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>222200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>525400</v>
+        <v>329300</v>
       </c>
       <c r="E58" s="3">
-        <v>404800</v>
+        <v>529400</v>
       </c>
       <c r="F58" s="3">
-        <v>499500</v>
+        <v>407900</v>
       </c>
       <c r="G58" s="3">
-        <v>497700</v>
+        <v>503300</v>
       </c>
       <c r="H58" s="3">
-        <v>515600</v>
+        <v>501600</v>
       </c>
       <c r="I58" s="3">
-        <v>425700</v>
+        <v>519600</v>
       </c>
       <c r="J58" s="3">
+        <v>429000</v>
+      </c>
+      <c r="K58" s="3">
         <v>489900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>402900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>319800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>377300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>325100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>259300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>204000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>186500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>234600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>181600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>136100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>159600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>973400</v>
+        <v>379500</v>
       </c>
       <c r="E59" s="3">
-        <v>838000</v>
+        <v>980800</v>
       </c>
       <c r="F59" s="3">
-        <v>790200</v>
+        <v>844400</v>
       </c>
       <c r="G59" s="3">
-        <v>831300</v>
+        <v>796200</v>
       </c>
       <c r="H59" s="3">
-        <v>780800</v>
+        <v>837700</v>
       </c>
       <c r="I59" s="3">
-        <v>755500</v>
+        <v>786800</v>
       </c>
       <c r="J59" s="3">
+        <v>761300</v>
+      </c>
+      <c r="K59" s="3">
         <v>721500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>702400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>673200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>643900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>615400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>504900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>442800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>433300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>388100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>410400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>398000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>330500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>314400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2100000</v>
+        <v>918000</v>
       </c>
       <c r="E60" s="3">
-        <v>1903400</v>
+        <v>2116100</v>
       </c>
       <c r="F60" s="3">
-        <v>1900500</v>
+        <v>1918000</v>
       </c>
       <c r="G60" s="3">
-        <v>1978000</v>
+        <v>1915100</v>
       </c>
       <c r="H60" s="3">
-        <v>1886800</v>
+        <v>1993200</v>
       </c>
       <c r="I60" s="3">
-        <v>1687300</v>
+        <v>1901300</v>
       </c>
       <c r="J60" s="3">
+        <v>1700200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1616700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1627500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1466100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1465900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1361400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1178300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>972500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>942500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>888000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>946400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>892100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>834500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>690200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>181300</v>
+        <v>283000</v>
       </c>
       <c r="E61" s="3">
-        <v>380300</v>
+        <v>182700</v>
       </c>
       <c r="F61" s="3">
-        <v>388400</v>
+        <v>383200</v>
       </c>
       <c r="G61" s="3">
-        <v>366500</v>
+        <v>391300</v>
       </c>
       <c r="H61" s="3">
-        <v>385200</v>
+        <v>369300</v>
       </c>
       <c r="I61" s="3">
-        <v>426600</v>
+        <v>388100</v>
       </c>
       <c r="J61" s="3">
+        <v>429900</v>
+      </c>
+      <c r="K61" s="3">
         <v>228900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>209800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>217900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
-      </c>
-      <c r="O61" s="3">
-        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
       </c>
       <c r="Q61" s="3">
+        <v>100</v>
+      </c>
+      <c r="R61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>465300</v>
+        <v>233700</v>
       </c>
       <c r="E62" s="3">
-        <v>457000</v>
+        <v>468900</v>
       </c>
       <c r="F62" s="3">
-        <v>469200</v>
+        <v>460500</v>
       </c>
       <c r="G62" s="3">
-        <v>496400</v>
+        <v>472800</v>
       </c>
       <c r="H62" s="3">
-        <v>530400</v>
+        <v>500200</v>
       </c>
       <c r="I62" s="3">
-        <v>549200</v>
+        <v>534500</v>
       </c>
       <c r="J62" s="3">
+        <v>553400</v>
+      </c>
+      <c r="K62" s="3">
         <v>555300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>561400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>547200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>545300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>563300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>2769300</v>
+        <v>1457700</v>
       </c>
       <c r="E66" s="3">
-        <v>2765100</v>
+        <v>2790500</v>
       </c>
       <c r="F66" s="3">
-        <v>2753200</v>
+        <v>2786300</v>
       </c>
       <c r="G66" s="3">
-        <v>2836900</v>
+        <v>2774300</v>
       </c>
       <c r="H66" s="3">
-        <v>2799200</v>
+        <v>2858600</v>
       </c>
       <c r="I66" s="3">
-        <v>2659900</v>
+        <v>2820600</v>
       </c>
       <c r="J66" s="3">
+        <v>2680300</v>
+      </c>
+      <c r="K66" s="3">
         <v>2398700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2397800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2231600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2022000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1925600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1195000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>988200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>958600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>903700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>962700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>906000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>862000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>691800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4229,13 +4396,16 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
-        <v>2351100</v>
+        <v>0</v>
       </c>
       <c r="V70" s="3">
         <v>2351100</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>2351100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-3039600</v>
+        <v>-2756300</v>
       </c>
       <c r="E72" s="3">
-        <v>-2939700</v>
+        <v>-3062900</v>
       </c>
       <c r="F72" s="3">
-        <v>-2867500</v>
+        <v>-2962200</v>
       </c>
       <c r="G72" s="3">
-        <v>-2771600</v>
+        <v>-2889500</v>
       </c>
       <c r="H72" s="3">
-        <v>-2673800</v>
+        <v>-2792800</v>
       </c>
       <c r="I72" s="3">
-        <v>-2574600</v>
+        <v>-2694300</v>
       </c>
       <c r="J72" s="3">
+        <v>-2594300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2570800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2405400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2445200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2444600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2380700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2239300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2154800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2201600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2188200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2209300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2189000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2119600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2089800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>17300</v>
+        <v>326700</v>
       </c>
       <c r="E76" s="3">
-        <v>113400</v>
+        <v>17400</v>
       </c>
       <c r="F76" s="3">
-        <v>181400</v>
+        <v>114200</v>
       </c>
       <c r="G76" s="3">
-        <v>274100</v>
+        <v>182700</v>
       </c>
       <c r="H76" s="3">
-        <v>369600</v>
+        <v>276200</v>
       </c>
       <c r="I76" s="3">
-        <v>482900</v>
+        <v>372400</v>
       </c>
       <c r="J76" s="3">
+        <v>486600</v>
+      </c>
+      <c r="K76" s="3">
         <v>490500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>603700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>602900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>614800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>590600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>601000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>578600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>582000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>567800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>651800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>633400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2105500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2070100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-99900</v>
+        <v>311400</v>
       </c>
       <c r="E81" s="3">
-        <v>-72200</v>
+        <v>-270100</v>
       </c>
       <c r="F81" s="3">
-        <v>-96000</v>
+        <v>-72700</v>
       </c>
       <c r="G81" s="3">
-        <v>-317100</v>
+        <v>-96700</v>
       </c>
       <c r="H81" s="3">
-        <v>-99200</v>
+        <v>-98600</v>
       </c>
       <c r="I81" s="3">
+        <v>-221000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-116300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-39600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-35100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-48700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-20300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-69400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-29800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-181300</v>
+        <v>-148800</v>
       </c>
       <c r="E89" s="3">
-        <v>-14300</v>
+        <v>-301000</v>
       </c>
       <c r="F89" s="3">
-        <v>-103000</v>
+        <v>-14400</v>
       </c>
       <c r="G89" s="3">
-        <v>-36200</v>
+        <v>-103800</v>
       </c>
       <c r="H89" s="3">
-        <v>18100</v>
+        <v>35400</v>
       </c>
       <c r="I89" s="3">
-        <v>113100</v>
+        <v>-71900</v>
       </c>
       <c r="J89" s="3">
+        <v>114000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-202500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>131300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>57100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>52100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-31300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>105900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>62000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-87600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>42300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5329,20 +5549,23 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>78</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V91" s="3">
         <v>-16600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>165200</v>
+        <v>495000</v>
       </c>
       <c r="E94" s="3">
-        <v>50900</v>
+        <v>221300</v>
       </c>
       <c r="F94" s="3">
+        <v>51300</v>
+      </c>
+      <c r="G94" s="3">
         <v>3600</v>
       </c>
-      <c r="G94" s="3">
-        <v>-136700</v>
-      </c>
       <c r="H94" s="3">
-        <v>-84500</v>
+        <v>-25900</v>
       </c>
       <c r="I94" s="3">
-        <v>-44300</v>
+        <v>-111800</v>
       </c>
       <c r="J94" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="K94" s="3">
         <v>17800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-294500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-215800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-99600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>16300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-225400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-53000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>91300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>93900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-444500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-204600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-68900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9300</v>
+        <v>-37000</v>
       </c>
       <c r="E100" s="3">
-        <v>-71900</v>
+        <v>-47100</v>
       </c>
       <c r="F100" s="3">
-        <v>15900</v>
+        <v>-72500</v>
       </c>
       <c r="G100" s="3">
-        <v>242400</v>
+        <v>16000</v>
       </c>
       <c r="H100" s="3">
-        <v>58100</v>
+        <v>-30000</v>
       </c>
       <c r="I100" s="3">
-        <v>119300</v>
+        <v>274200</v>
       </c>
       <c r="J100" s="3">
+        <v>120200</v>
+      </c>
+      <c r="K100" s="3">
         <v>94700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>309800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>243200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>47500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>54300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>47500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>21100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-47600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>59000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-66600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>416100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>600</v>
+        <v>-4700</v>
       </c>
       <c r="E101" s="3">
-        <v>-5800</v>
+        <v>-4200</v>
       </c>
       <c r="F101" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
-        <v>-30100</v>
-      </c>
       <c r="H101" s="3">
-        <v>-16700</v>
+        <v>-17500</v>
       </c>
       <c r="I101" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-10600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>8800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6300</v>
+        <v>304600</v>
       </c>
       <c r="E102" s="3">
-        <v>-41100</v>
+        <v>-130900</v>
       </c>
       <c r="F102" s="3">
-        <v>-82500</v>
+        <v>-41400</v>
       </c>
       <c r="G102" s="3">
-        <v>39400</v>
+        <v>-83100</v>
       </c>
       <c r="H102" s="3">
-        <v>-25000</v>
+        <v>-38000</v>
       </c>
       <c r="I102" s="3">
-        <v>188300</v>
+        <v>77700</v>
       </c>
       <c r="J102" s="3">
+        <v>189700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-86200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>147500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>91000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>170000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-185200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-27700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>52000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>34200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-15600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-160800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-108300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
@@ -763,25 +763,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>429900</v>
+        <v>1683700</v>
       </c>
       <c r="E8" s="3">
-        <v>1372700</v>
+        <v>1003900</v>
       </c>
       <c r="F8" s="3">
-        <v>1163400</v>
+        <v>1086700</v>
       </c>
       <c r="G8" s="3">
-        <v>1024900</v>
+        <v>957300</v>
       </c>
       <c r="H8" s="3">
-        <v>539600</v>
+        <v>1551400</v>
       </c>
       <c r="I8" s="3">
-        <v>1121300</v>
+        <v>1175400</v>
       </c>
       <c r="J8" s="3">
-        <v>1224400</v>
+        <v>1143600</v>
       </c>
       <c r="K8" s="3">
         <v>783200</v>
@@ -828,25 +828,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>465900</v>
+        <v>1713100</v>
       </c>
       <c r="E9" s="3">
-        <v>2110000</v>
+        <v>1078300</v>
       </c>
       <c r="F9" s="3">
-        <v>1186200</v>
+        <v>1108000</v>
       </c>
       <c r="G9" s="3">
-        <v>1055400</v>
+        <v>985800</v>
       </c>
       <c r="H9" s="3">
-        <v>3987600</v>
+        <v>4753400</v>
       </c>
       <c r="I9" s="3">
-        <v>2164800</v>
+        <v>1410300</v>
       </c>
       <c r="J9" s="3">
-        <v>1314600</v>
+        <v>1228000</v>
       </c>
       <c r="K9" s="3">
         <v>942800</v>
@@ -893,25 +893,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-36000</v>
+        <v>-29400</v>
       </c>
       <c r="E10" s="3">
-        <v>-737400</v>
+        <v>-74400</v>
       </c>
       <c r="F10" s="3">
-        <v>-22800</v>
+        <v>-21300</v>
       </c>
       <c r="G10" s="3">
-        <v>-30500</v>
+        <v>-28500</v>
       </c>
       <c r="H10" s="3">
-        <v>-3448000</v>
+        <v>-3202000</v>
       </c>
       <c r="I10" s="3">
-        <v>-1043500</v>
+        <v>-235000</v>
       </c>
       <c r="J10" s="3">
-        <v>-90300</v>
+        <v>-84300</v>
       </c>
       <c r="K10" s="3">
         <v>-159600</v>
@@ -983,25 +983,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G12" s="3">
         <v>7900</v>
       </c>
-      <c r="E12" s="3">
-        <v>20500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8500</v>
-      </c>
       <c r="H12" s="3">
-        <v>6300</v>
+        <v>20100</v>
       </c>
       <c r="I12" s="3">
-        <v>15200</v>
+        <v>6600</v>
       </c>
       <c r="J12" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="K12" s="3">
         <v>7900</v>
@@ -1265,25 +1265,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>544000</v>
+        <v>1899300</v>
       </c>
       <c r="E17" s="3">
-        <v>1489300</v>
+        <v>1149700</v>
       </c>
       <c r="F17" s="3">
-        <v>1268200</v>
+        <v>1184600</v>
       </c>
       <c r="G17" s="3">
-        <v>1129600</v>
+        <v>1055100</v>
       </c>
       <c r="H17" s="3">
-        <v>577200</v>
+        <v>1694700</v>
       </c>
       <c r="I17" s="3">
-        <v>1237100</v>
+        <v>1257400</v>
       </c>
       <c r="J17" s="3">
-        <v>1218300</v>
+        <v>1137900</v>
       </c>
       <c r="K17" s="3">
         <v>888500</v>
@@ -1330,25 +1330,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-114100</v>
+        <v>-215600</v>
       </c>
       <c r="E18" s="3">
-        <v>-116700</v>
+        <v>-145800</v>
       </c>
       <c r="F18" s="3">
-        <v>-104800</v>
+        <v>-97900</v>
       </c>
       <c r="G18" s="3">
-        <v>-104700</v>
+        <v>-97800</v>
       </c>
       <c r="H18" s="3">
-        <v>-37600</v>
+        <v>-143200</v>
       </c>
       <c r="I18" s="3">
-        <v>-115800</v>
+        <v>-82100</v>
       </c>
       <c r="J18" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="K18" s="3">
         <v>-105300</v>
@@ -1420,25 +1420,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3000</v>
+        <v>50900</v>
       </c>
       <c r="E20" s="3">
-        <v>51400</v>
+        <v>56700</v>
       </c>
       <c r="F20" s="3">
-        <v>38200</v>
+        <v>35700</v>
       </c>
       <c r="G20" s="3">
-        <v>17300</v>
+        <v>16100</v>
       </c>
       <c r="H20" s="3">
-        <v>4000</v>
+        <v>11900</v>
       </c>
       <c r="I20" s="3">
-        <v>8600</v>
+        <v>6600</v>
       </c>
       <c r="J20" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="K20" s="3">
         <v>6800</v>
@@ -1485,25 +1485,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-127100</v>
+        <v>-136500</v>
       </c>
       <c r="E21" s="3">
-        <v>-39300</v>
+        <v>-87600</v>
       </c>
       <c r="F21" s="3">
-        <v>-66100</v>
+        <v>-61700</v>
       </c>
       <c r="G21" s="3">
-        <v>-63600</v>
+        <v>-59400</v>
       </c>
       <c r="H21" s="3">
-        <v>25400</v>
+        <v>-55500</v>
       </c>
       <c r="I21" s="3">
-        <v>-84800</v>
+        <v>-72600</v>
       </c>
       <c r="J21" s="3">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="K21" s="3">
         <v>-79900</v>
@@ -1550,25 +1550,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>4600</v>
+        <v>21000</v>
       </c>
       <c r="E22" s="3">
-        <v>17900</v>
+        <v>7200</v>
       </c>
       <c r="F22" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="G22" s="3">
-        <v>7300</v>
+        <v>6800</v>
       </c>
       <c r="H22" s="3">
-        <v>5400</v>
+        <v>17600</v>
       </c>
       <c r="I22" s="3">
-        <v>13400</v>
+        <v>6900</v>
       </c>
       <c r="J22" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="K22" s="3">
         <v>5200</v>
@@ -1615,25 +1615,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-115700</v>
+        <v>-185800</v>
       </c>
       <c r="E23" s="3">
-        <v>-83100</v>
+        <v>-96300</v>
       </c>
       <c r="F23" s="3">
-        <v>-74200</v>
+        <v>-69300</v>
       </c>
       <c r="G23" s="3">
-        <v>-94700</v>
+        <v>-88400</v>
       </c>
       <c r="H23" s="3">
-        <v>-39000</v>
+        <v>-148900</v>
       </c>
       <c r="I23" s="3">
-        <v>-120500</v>
+        <v>-82400</v>
       </c>
       <c r="J23" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="K23" s="3">
         <v>-103700</v>
@@ -1680,25 +1680,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>-400</v>
       </c>
       <c r="G24" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H24" s="3">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="I24" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J24" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K24" s="3">
         <v>700</v>
@@ -1810,25 +1810,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-115800</v>
+        <v>-186200</v>
       </c>
       <c r="E26" s="3">
-        <v>-83600</v>
+        <v>-96500</v>
       </c>
       <c r="F26" s="3">
-        <v>-73700</v>
+        <v>-68900</v>
       </c>
       <c r="G26" s="3">
-        <v>-95400</v>
+        <v>-89100</v>
       </c>
       <c r="H26" s="3">
-        <v>-39800</v>
+        <v>-151500</v>
       </c>
       <c r="I26" s="3">
-        <v>-122400</v>
+        <v>-83400</v>
       </c>
       <c r="J26" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="K26" s="3">
         <v>-104400</v>
@@ -1875,25 +1875,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-111300</v>
+        <v>-178500</v>
       </c>
       <c r="E27" s="3">
-        <v>-79900</v>
+        <v>-94600</v>
       </c>
       <c r="F27" s="3">
-        <v>-72900</v>
+        <v>-68100</v>
       </c>
       <c r="G27" s="3">
-        <v>-94500</v>
+        <v>-88300</v>
       </c>
       <c r="H27" s="3">
-        <v>-38900</v>
+        <v>-147800</v>
       </c>
       <c r="I27" s="3">
-        <v>-119200</v>
+        <v>-82500</v>
       </c>
       <c r="J27" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="K27" s="3">
         <v>-103200</v>
@@ -2005,25 +2005,25 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>422700</v>
+        <v>217100</v>
       </c>
       <c r="E29" s="3">
-        <v>-190200</v>
+        <v>600</v>
       </c>
       <c r="F29" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G29" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="H29" s="3">
-        <v>-59600</v>
+        <v>-150700</v>
       </c>
       <c r="I29" s="3">
-        <v>-101700</v>
+        <v>-10800</v>
       </c>
       <c r="J29" s="3">
-        <v>-11600</v>
+        <v>-10800</v>
       </c>
       <c r="K29" s="3">
         <v>-13100</v>
@@ -2200,25 +2200,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-3000</v>
+        <v>-50900</v>
       </c>
       <c r="E32" s="3">
-        <v>-51400</v>
+        <v>-56700</v>
       </c>
       <c r="F32" s="3">
-        <v>-38200</v>
+        <v>-35700</v>
       </c>
       <c r="G32" s="3">
-        <v>-17300</v>
+        <v>-16100</v>
       </c>
       <c r="H32" s="3">
-        <v>-4000</v>
+        <v>-11900</v>
       </c>
       <c r="I32" s="3">
-        <v>-8600</v>
+        <v>-6600</v>
       </c>
       <c r="J32" s="3">
-        <v>-7800</v>
+        <v>-7300</v>
       </c>
       <c r="K32" s="3">
         <v>-6800</v>
@@ -2265,25 +2265,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>311400</v>
+        <v>38600</v>
       </c>
       <c r="E33" s="3">
-        <v>-270100</v>
+        <v>-94000</v>
       </c>
       <c r="F33" s="3">
-        <v>-72700</v>
+        <v>-67900</v>
       </c>
       <c r="G33" s="3">
-        <v>-96700</v>
+        <v>-90300</v>
       </c>
       <c r="H33" s="3">
-        <v>-98600</v>
+        <v>-298500</v>
       </c>
       <c r="I33" s="3">
-        <v>-221000</v>
+        <v>-93400</v>
       </c>
       <c r="J33" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="K33" s="3">
         <v>-116300</v>
@@ -2395,25 +2395,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>311400</v>
+        <v>38600</v>
       </c>
       <c r="E35" s="3">
-        <v>-270100</v>
+        <v>-94000</v>
       </c>
       <c r="F35" s="3">
-        <v>-72700</v>
+        <v>-67900</v>
       </c>
       <c r="G35" s="3">
-        <v>-96700</v>
+        <v>-90300</v>
       </c>
       <c r="H35" s="3">
-        <v>-98600</v>
+        <v>-298500</v>
       </c>
       <c r="I35" s="3">
-        <v>-221000</v>
+        <v>-93400</v>
       </c>
       <c r="J35" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="K35" s="3">
         <v>-116300</v>
@@ -2580,25 +2580,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>562500</v>
+        <v>526300</v>
       </c>
       <c r="E41" s="3">
-        <v>152400</v>
+        <v>142400</v>
       </c>
       <c r="F41" s="3">
-        <v>143300</v>
+        <v>133900</v>
       </c>
       <c r="G41" s="3">
-        <v>159500</v>
+        <v>149000</v>
       </c>
       <c r="H41" s="3">
-        <v>218200</v>
+        <v>203800</v>
       </c>
       <c r="I41" s="3">
-        <v>286200</v>
+        <v>267300</v>
       </c>
       <c r="J41" s="3">
-        <v>376200</v>
+        <v>351400</v>
       </c>
       <c r="K41" s="3">
         <v>197600</v>
@@ -2645,7 +2645,7 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>23200</v>
+        <v>21700</v>
       </c>
       <c r="E42" s="3">
         <v>500</v>
@@ -2654,16 +2654,16 @@
         <v>100</v>
       </c>
       <c r="G42" s="3">
-        <v>46800</v>
+        <v>43700</v>
       </c>
       <c r="H42" s="3">
-        <v>42400</v>
+        <v>39600</v>
       </c>
       <c r="I42" s="3">
-        <v>48400</v>
+        <v>45200</v>
       </c>
       <c r="J42" s="3">
-        <v>84000</v>
+        <v>78500</v>
       </c>
       <c r="K42" s="3">
         <v>129800</v>
@@ -2710,25 +2710,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>192800</v>
+        <v>184400</v>
       </c>
       <c r="E43" s="3">
-        <v>225500</v>
+        <v>210700</v>
       </c>
       <c r="F43" s="3">
-        <v>259300</v>
+        <v>242200</v>
       </c>
       <c r="G43" s="3">
-        <v>239400</v>
+        <v>223600</v>
       </c>
       <c r="H43" s="3">
-        <v>276900</v>
+        <v>258600</v>
       </c>
       <c r="I43" s="3">
-        <v>255000</v>
+        <v>238200</v>
       </c>
       <c r="J43" s="3">
-        <v>264100</v>
+        <v>246700</v>
       </c>
       <c r="K43" s="3">
         <v>254600</v>
@@ -2775,25 +2775,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="E44" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="F44" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="G44" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="H44" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="I44" s="3">
-        <v>26300</v>
+        <v>24500</v>
       </c>
       <c r="J44" s="3">
-        <v>25000</v>
+        <v>23400</v>
       </c>
       <c r="K44" s="3">
         <v>23600</v>
@@ -2840,25 +2840,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>291800</v>
+        <v>272300</v>
       </c>
       <c r="E45" s="3">
-        <v>890800</v>
+        <v>832000</v>
       </c>
       <c r="F45" s="3">
-        <v>913200</v>
+        <v>853000</v>
       </c>
       <c r="G45" s="3">
-        <v>927200</v>
+        <v>866100</v>
       </c>
       <c r="H45" s="3">
-        <v>933400</v>
+        <v>871900</v>
       </c>
       <c r="I45" s="3">
-        <v>850700</v>
+        <v>794600</v>
       </c>
       <c r="J45" s="3">
-        <v>717200</v>
+        <v>670000</v>
       </c>
       <c r="K45" s="3">
         <v>677000</v>
@@ -2905,25 +2905,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1074400</v>
+        <v>1008500</v>
       </c>
       <c r="E46" s="3">
-        <v>1274600</v>
+        <v>1190500</v>
       </c>
       <c r="F46" s="3">
-        <v>1322100</v>
+        <v>1234900</v>
       </c>
       <c r="G46" s="3">
-        <v>1378400</v>
+        <v>1287500</v>
       </c>
       <c r="H46" s="3">
-        <v>1477900</v>
+        <v>1380400</v>
       </c>
       <c r="I46" s="3">
-        <v>1466400</v>
+        <v>1369800</v>
       </c>
       <c r="J46" s="3">
-        <v>1466600</v>
+        <v>1369900</v>
       </c>
       <c r="K46" s="3">
         <v>1282700</v>
@@ -2970,25 +2970,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>71700</v>
+        <v>67000</v>
       </c>
       <c r="E47" s="3">
-        <v>76500</v>
+        <v>71500</v>
       </c>
       <c r="F47" s="3">
-        <v>104200</v>
+        <v>97300</v>
       </c>
       <c r="G47" s="3">
-        <v>119700</v>
+        <v>111800</v>
       </c>
       <c r="H47" s="3">
-        <v>137100</v>
+        <v>128100</v>
       </c>
       <c r="I47" s="3">
-        <v>161600</v>
+        <v>151000</v>
       </c>
       <c r="J47" s="3">
-        <v>177200</v>
+        <v>165500</v>
       </c>
       <c r="K47" s="3">
         <v>182800</v>
@@ -3035,25 +3035,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>420000</v>
+        <v>392300</v>
       </c>
       <c r="E48" s="3">
-        <v>1268600</v>
+        <v>1185000</v>
       </c>
       <c r="F48" s="3">
-        <v>1278500</v>
+        <v>1194200</v>
       </c>
       <c r="G48" s="3">
-        <v>1239300</v>
+        <v>1157600</v>
       </c>
       <c r="H48" s="3">
-        <v>1253000</v>
+        <v>1170400</v>
       </c>
       <c r="I48" s="3">
-        <v>1255800</v>
+        <v>1173000</v>
       </c>
       <c r="J48" s="3">
-        <v>1234700</v>
+        <v>1153300</v>
       </c>
       <c r="K48" s="3">
         <v>1173400</v>
@@ -3100,25 +3100,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>17300</v>
+        <v>16200</v>
       </c>
       <c r="E49" s="3">
-        <v>48300</v>
+        <v>45100</v>
       </c>
       <c r="F49" s="3">
-        <v>48600</v>
+        <v>45400</v>
       </c>
       <c r="G49" s="3">
-        <v>48700</v>
+        <v>45500</v>
       </c>
       <c r="H49" s="3">
-        <v>48600</v>
+        <v>45400</v>
       </c>
       <c r="I49" s="3">
-        <v>96400</v>
+        <v>90100</v>
       </c>
       <c r="J49" s="3">
-        <v>96500</v>
+        <v>90100</v>
       </c>
       <c r="K49" s="3">
         <v>95600</v>
@@ -3295,25 +3295,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>200900</v>
+        <v>187700</v>
       </c>
       <c r="E52" s="3">
-        <v>139900</v>
+        <v>130700</v>
       </c>
       <c r="F52" s="3">
-        <v>147200</v>
+        <v>137500</v>
       </c>
       <c r="G52" s="3">
-        <v>171000</v>
+        <v>159700</v>
       </c>
       <c r="H52" s="3">
-        <v>218300</v>
+        <v>203900</v>
       </c>
       <c r="I52" s="3">
-        <v>212800</v>
+        <v>198800</v>
       </c>
       <c r="J52" s="3">
-        <v>192000</v>
+        <v>179300</v>
       </c>
       <c r="K52" s="3">
         <v>154800</v>
@@ -3425,25 +3425,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>1784400</v>
+        <v>1671600</v>
       </c>
       <c r="E54" s="3">
-        <v>2807900</v>
+        <v>2622800</v>
       </c>
       <c r="F54" s="3">
-        <v>2900600</v>
+        <v>2709400</v>
       </c>
       <c r="G54" s="3">
-        <v>2957100</v>
+        <v>2762100</v>
       </c>
       <c r="H54" s="3">
-        <v>3134800</v>
+        <v>2928200</v>
       </c>
       <c r="I54" s="3">
-        <v>3193100</v>
+        <v>2982600</v>
       </c>
       <c r="J54" s="3">
-        <v>3166900</v>
+        <v>2958200</v>
       </c>
       <c r="K54" s="3">
         <v>2889200</v>
@@ -3540,25 +3540,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>209200</v>
+        <v>199400</v>
       </c>
       <c r="E57" s="3">
-        <v>605900</v>
+        <v>565900</v>
       </c>
       <c r="F57" s="3">
-        <v>665700</v>
+        <v>621800</v>
       </c>
       <c r="G57" s="3">
-        <v>615600</v>
+        <v>575000</v>
       </c>
       <c r="H57" s="3">
-        <v>653900</v>
+        <v>610800</v>
       </c>
       <c r="I57" s="3">
-        <v>594900</v>
+        <v>555700</v>
       </c>
       <c r="J57" s="3">
-        <v>509900</v>
+        <v>476300</v>
       </c>
       <c r="K57" s="3">
         <v>405400</v>
@@ -3605,25 +3605,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>329300</v>
+        <v>307600</v>
       </c>
       <c r="E58" s="3">
-        <v>529400</v>
+        <v>494500</v>
       </c>
       <c r="F58" s="3">
-        <v>407900</v>
+        <v>381000</v>
       </c>
       <c r="G58" s="3">
-        <v>503300</v>
+        <v>470100</v>
       </c>
       <c r="H58" s="3">
-        <v>501600</v>
+        <v>468500</v>
       </c>
       <c r="I58" s="3">
-        <v>519600</v>
+        <v>485300</v>
       </c>
       <c r="J58" s="3">
-        <v>429000</v>
+        <v>400700</v>
       </c>
       <c r="K58" s="3">
         <v>489900</v>
@@ -3670,25 +3670,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>379500</v>
+        <v>355400</v>
       </c>
       <c r="E59" s="3">
-        <v>980800</v>
+        <v>916200</v>
       </c>
       <c r="F59" s="3">
-        <v>844400</v>
+        <v>788700</v>
       </c>
       <c r="G59" s="3">
-        <v>796200</v>
+        <v>743700</v>
       </c>
       <c r="H59" s="3">
-        <v>837700</v>
+        <v>782500</v>
       </c>
       <c r="I59" s="3">
-        <v>786800</v>
+        <v>734900</v>
       </c>
       <c r="J59" s="3">
-        <v>761300</v>
+        <v>711100</v>
       </c>
       <c r="K59" s="3">
         <v>721500</v>
@@ -3735,25 +3735,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>918000</v>
+        <v>862300</v>
       </c>
       <c r="E60" s="3">
-        <v>2116100</v>
+        <v>1976600</v>
       </c>
       <c r="F60" s="3">
-        <v>1918000</v>
+        <v>1791500</v>
       </c>
       <c r="G60" s="3">
-        <v>1915100</v>
+        <v>1788900</v>
       </c>
       <c r="H60" s="3">
-        <v>1993200</v>
+        <v>1861800</v>
       </c>
       <c r="I60" s="3">
-        <v>1901300</v>
+        <v>1775900</v>
       </c>
       <c r="J60" s="3">
-        <v>1700200</v>
+        <v>1588100</v>
       </c>
       <c r="K60" s="3">
         <v>1616700</v>
@@ -3800,25 +3800,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>283000</v>
+        <v>264400</v>
       </c>
       <c r="E61" s="3">
-        <v>182700</v>
+        <v>170700</v>
       </c>
       <c r="F61" s="3">
-        <v>383200</v>
+        <v>358000</v>
       </c>
       <c r="G61" s="3">
-        <v>391300</v>
+        <v>365500</v>
       </c>
       <c r="H61" s="3">
-        <v>369300</v>
+        <v>345000</v>
       </c>
       <c r="I61" s="3">
-        <v>388100</v>
+        <v>362500</v>
       </c>
       <c r="J61" s="3">
-        <v>429900</v>
+        <v>401500</v>
       </c>
       <c r="K61" s="3">
         <v>228900</v>
@@ -3865,25 +3865,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>233700</v>
+        <v>218300</v>
       </c>
       <c r="E62" s="3">
-        <v>468900</v>
+        <v>438000</v>
       </c>
       <c r="F62" s="3">
-        <v>460500</v>
+        <v>430100</v>
       </c>
       <c r="G62" s="3">
-        <v>472800</v>
+        <v>441600</v>
       </c>
       <c r="H62" s="3">
-        <v>500200</v>
+        <v>467200</v>
       </c>
       <c r="I62" s="3">
-        <v>534500</v>
+        <v>499300</v>
       </c>
       <c r="J62" s="3">
-        <v>553400</v>
+        <v>516900</v>
       </c>
       <c r="K62" s="3">
         <v>555300</v>
@@ -4125,25 +4125,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1457700</v>
+        <v>1366500</v>
       </c>
       <c r="E66" s="3">
-        <v>2790500</v>
+        <v>2606500</v>
       </c>
       <c r="F66" s="3">
-        <v>2786300</v>
+        <v>2602600</v>
       </c>
       <c r="G66" s="3">
-        <v>2774300</v>
+        <v>2591400</v>
       </c>
       <c r="H66" s="3">
-        <v>2858600</v>
+        <v>2670200</v>
       </c>
       <c r="I66" s="3">
-        <v>2820600</v>
+        <v>2634700</v>
       </c>
       <c r="J66" s="3">
-        <v>2680300</v>
+        <v>2503600</v>
       </c>
       <c r="K66" s="3">
         <v>2398700</v>
@@ -4475,25 +4475,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2756300</v>
+        <v>-2574600</v>
       </c>
       <c r="E72" s="3">
-        <v>-3062900</v>
+        <v>-2861000</v>
       </c>
       <c r="F72" s="3">
-        <v>-2962200</v>
+        <v>-2766900</v>
       </c>
       <c r="G72" s="3">
-        <v>-2889500</v>
+        <v>-2699000</v>
       </c>
       <c r="H72" s="3">
-        <v>-2792800</v>
+        <v>-2608700</v>
       </c>
       <c r="I72" s="3">
-        <v>-2694300</v>
+        <v>-2516600</v>
       </c>
       <c r="J72" s="3">
-        <v>-2594300</v>
+        <v>-2423300</v>
       </c>
       <c r="K72" s="3">
         <v>-2570800</v>
@@ -4735,25 +4735,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>326700</v>
+        <v>305200</v>
       </c>
       <c r="E76" s="3">
-        <v>17400</v>
+        <v>16300</v>
       </c>
       <c r="F76" s="3">
-        <v>114200</v>
+        <v>106700</v>
       </c>
       <c r="G76" s="3">
-        <v>182700</v>
+        <v>170700</v>
       </c>
       <c r="H76" s="3">
-        <v>276200</v>
+        <v>258000</v>
       </c>
       <c r="I76" s="3">
-        <v>372400</v>
+        <v>347900</v>
       </c>
       <c r="J76" s="3">
-        <v>486600</v>
+        <v>454600</v>
       </c>
       <c r="K76" s="3">
         <v>490500</v>
@@ -4935,25 +4935,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>311400</v>
+        <v>38600</v>
       </c>
       <c r="E81" s="3">
-        <v>-270100</v>
+        <v>-94000</v>
       </c>
       <c r="F81" s="3">
-        <v>-72700</v>
+        <v>-67900</v>
       </c>
       <c r="G81" s="3">
-        <v>-96700</v>
+        <v>-90300</v>
       </c>
       <c r="H81" s="3">
-        <v>-98600</v>
+        <v>-298500</v>
       </c>
       <c r="I81" s="3">
-        <v>-221000</v>
+        <v>-93400</v>
       </c>
       <c r="J81" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="K81" s="3">
         <v>-116300</v>
@@ -5415,25 +5415,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-148800</v>
+        <v>-413200</v>
       </c>
       <c r="E89" s="3">
-        <v>-301000</v>
+        <v>-170700</v>
       </c>
       <c r="F89" s="3">
-        <v>-14400</v>
+        <v>-13500</v>
       </c>
       <c r="G89" s="3">
-        <v>-103800</v>
+        <v>-97000</v>
       </c>
       <c r="H89" s="3">
-        <v>35400</v>
+        <v>-34100</v>
       </c>
       <c r="I89" s="3">
-        <v>-71900</v>
+        <v>17000</v>
       </c>
       <c r="J89" s="3">
-        <v>114000</v>
+        <v>106500</v>
       </c>
       <c r="K89" s="3">
         <v>-202500</v>
@@ -5700,25 +5700,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>495000</v>
+        <v>669400</v>
       </c>
       <c r="E94" s="3">
-        <v>221300</v>
+        <v>155500</v>
       </c>
       <c r="F94" s="3">
-        <v>51300</v>
+        <v>47900</v>
       </c>
       <c r="G94" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="H94" s="3">
-        <v>-25900</v>
+        <v>-128600</v>
       </c>
       <c r="I94" s="3">
-        <v>-111800</v>
+        <v>-79500</v>
       </c>
       <c r="J94" s="3">
-        <v>-44700</v>
+        <v>-41700</v>
       </c>
       <c r="K94" s="3">
         <v>17800</v>
@@ -6050,25 +6050,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-37000</v>
+        <v>-84800</v>
       </c>
       <c r="E100" s="3">
-        <v>-47100</v>
+        <v>8800</v>
       </c>
       <c r="F100" s="3">
-        <v>-72500</v>
+        <v>-67700</v>
       </c>
       <c r="G100" s="3">
-        <v>16000</v>
+        <v>14900</v>
       </c>
       <c r="H100" s="3">
-        <v>-30000</v>
+        <v>228100</v>
       </c>
       <c r="I100" s="3">
-        <v>274200</v>
+        <v>54700</v>
       </c>
       <c r="J100" s="3">
-        <v>120200</v>
+        <v>112300</v>
       </c>
       <c r="K100" s="3">
         <v>94700</v>
@@ -6115,22 +6115,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4700</v>
+        <v>-8200</v>
       </c>
       <c r="E101" s="3">
-        <v>-4200</v>
+        <v>600</v>
       </c>
       <c r="F101" s="3">
-        <v>-5900</v>
+        <v>-5500</v>
       </c>
       <c r="G101" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H101" s="3">
-        <v>-17500</v>
+        <v>-28300</v>
       </c>
       <c r="I101" s="3">
-        <v>-12800</v>
+        <v>-15700</v>
       </c>
       <c r="J101" s="3">
         <v>200</v>
@@ -6180,25 +6180,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>304600</v>
+        <v>163100</v>
       </c>
       <c r="E102" s="3">
-        <v>-130900</v>
+        <v>-5900</v>
       </c>
       <c r="F102" s="3">
-        <v>-41400</v>
+        <v>-38700</v>
       </c>
       <c r="G102" s="3">
-        <v>-83100</v>
+        <v>-77700</v>
       </c>
       <c r="H102" s="3">
-        <v>-38000</v>
+        <v>37100</v>
       </c>
       <c r="I102" s="3">
-        <v>77700</v>
+        <v>-23500</v>
       </c>
       <c r="J102" s="3">
-        <v>189700</v>
+        <v>177200</v>
       </c>
       <c r="K102" s="3">
         <v>-86200</v>

--- a/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,321 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1683700</v>
+        <v>281300</v>
       </c>
       <c r="E8" s="3">
-        <v>1003900</v>
+        <v>263200</v>
       </c>
       <c r="F8" s="3">
-        <v>1086700</v>
+        <v>1668500</v>
       </c>
       <c r="G8" s="3">
-        <v>957300</v>
+        <v>994800</v>
       </c>
       <c r="H8" s="3">
-        <v>1551400</v>
+        <v>451700</v>
       </c>
       <c r="I8" s="3">
+        <v>406500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1537400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1175400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1143600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>783200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4982600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3807900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1371000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1045800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1312200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1006200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>966000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>717900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>969300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>794600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>720700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>482100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1713100</v>
+        <v>295000</v>
       </c>
       <c r="E9" s="3">
-        <v>1078300</v>
+        <v>274500</v>
       </c>
       <c r="F9" s="3">
-        <v>1108000</v>
+        <v>1697600</v>
       </c>
       <c r="G9" s="3">
-        <v>985800</v>
+        <v>1068600</v>
       </c>
       <c r="H9" s="3">
-        <v>4753400</v>
+        <v>1146000</v>
       </c>
       <c r="I9" s="3">
+        <v>1015700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4710500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1410300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1228000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>942800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4976500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3727800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1381900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1001200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1236100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>951600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>906000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>702200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>926500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>764700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>700900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>502500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-29400</v>
+        <v>-13700</v>
       </c>
       <c r="E10" s="3">
-        <v>-74400</v>
+        <v>-11200</v>
       </c>
       <c r="F10" s="3">
-        <v>-21300</v>
+        <v>-29100</v>
       </c>
       <c r="G10" s="3">
-        <v>-28500</v>
+        <v>-73800</v>
       </c>
       <c r="H10" s="3">
-        <v>-3202000</v>
+        <v>-694300</v>
       </c>
       <c r="I10" s="3">
+        <v>-609200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-3173100</v>
+      </c>
+      <c r="K10" s="3">
         <v>-235000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-84300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-159600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>80100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-10800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>44500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>76100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>54600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>59900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>15700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>42800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>29900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>19700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +1003,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>26600</v>
+        <v>6200</v>
       </c>
       <c r="E12" s="3">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="F12" s="3">
-        <v>9000</v>
+        <v>26300</v>
       </c>
       <c r="G12" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M12" s="3">
         <v>7900</v>
       </c>
-      <c r="H12" s="3">
-        <v>20100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>7900</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>31400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>28200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>9800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>8200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>8400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>6000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>7400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>4600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>4300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>8300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>4000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1172,8 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1899300</v>
+        <v>331700</v>
       </c>
       <c r="E17" s="3">
-        <v>1149700</v>
+        <v>316100</v>
       </c>
       <c r="F17" s="3">
-        <v>1184600</v>
+        <v>1882200</v>
       </c>
       <c r="G17" s="3">
-        <v>1055100</v>
+        <v>1139300</v>
       </c>
       <c r="H17" s="3">
-        <v>1694700</v>
+        <v>470000</v>
       </c>
       <c r="I17" s="3">
+        <v>435200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1679400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1257400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1137900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>888500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4972200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3861600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1379900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1082500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1318900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1027700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>981800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>767900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>992900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>865000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>752600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>545600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-215600</v>
+        <v>-50400</v>
       </c>
       <c r="E18" s="3">
-        <v>-145800</v>
+        <v>-52900</v>
       </c>
       <c r="F18" s="3">
-        <v>-97900</v>
+        <v>-213600</v>
       </c>
       <c r="G18" s="3">
-        <v>-97800</v>
+        <v>-144500</v>
       </c>
       <c r="H18" s="3">
-        <v>-143200</v>
+        <v>-18200</v>
       </c>
       <c r="I18" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-141900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-82100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-105300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>10400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-53700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-8900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-36800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-21500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-15900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-49900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-23600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-70300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-31900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-63600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,333 +1480,365 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>50900</v>
+        <v>5000</v>
       </c>
       <c r="E20" s="3">
-        <v>56700</v>
+        <v>1300</v>
       </c>
       <c r="F20" s="3">
-        <v>35700</v>
+        <v>50400</v>
       </c>
       <c r="G20" s="3">
-        <v>16100</v>
+        <v>56200</v>
       </c>
       <c r="H20" s="3">
-        <v>11900</v>
+        <v>2000</v>
       </c>
       <c r="I20" s="3">
         <v>6600</v>
       </c>
       <c r="J20" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L20" s="3">
         <v>7300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>6800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>31600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>22900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>8400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>17400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>6100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>3200</v>
       </c>
       <c r="T20" s="3">
         <v>6100</v>
       </c>
       <c r="U20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="V20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="W20" s="3">
         <v>3500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>3800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-136500</v>
+        <v>-46000</v>
       </c>
       <c r="E21" s="3">
-        <v>-87600</v>
+        <v>-43800</v>
       </c>
       <c r="F21" s="3">
-        <v>-61700</v>
+        <v>-135300</v>
       </c>
       <c r="G21" s="3">
-        <v>-59400</v>
+        <v>-86800</v>
       </c>
       <c r="H21" s="3">
-        <v>-55500</v>
+        <v>-15800</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-72600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>13500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-79900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>59300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-14400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>3400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-11700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-3300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-10400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-30900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>21400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-75900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-16000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-48700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>21000</v>
+        <v>3800</v>
       </c>
       <c r="E22" s="3">
-        <v>7200</v>
+        <v>3900</v>
       </c>
       <c r="F22" s="3">
+        <v>20800</v>
+      </c>
+      <c r="G22" s="3">
         <v>7100</v>
       </c>
-      <c r="G22" s="3">
-        <v>6800</v>
-      </c>
       <c r="H22" s="3">
-        <v>17600</v>
+        <v>5500</v>
       </c>
       <c r="I22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K22" s="3">
         <v>6900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>6100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>5200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>12200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>8200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>2700</v>
       </c>
       <c r="R22" s="3">
         <v>3100</v>
       </c>
       <c r="S22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U22" s="3">
         <v>1900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>2100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>1800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>1500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-185800</v>
+        <v>-49200</v>
       </c>
       <c r="E23" s="3">
-        <v>-96300</v>
+        <v>-55400</v>
       </c>
       <c r="F23" s="3">
-        <v>-69300</v>
+        <v>-184100</v>
       </c>
       <c r="G23" s="3">
-        <v>-88400</v>
+        <v>-95500</v>
       </c>
       <c r="H23" s="3">
-        <v>-148900</v>
+        <v>-21800</v>
       </c>
       <c r="I23" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-147600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-82400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>6900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-103700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>29700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-39100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-34900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-6700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-12900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-48600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-19700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-68700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-29600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>600</v>
       </c>
       <c r="P24" s="3">
         <v>700</v>
       </c>
       <c r="Q24" s="3">
+        <v>600</v>
+      </c>
+      <c r="R24" s="3">
+        <v>700</v>
+      </c>
+      <c r="S24" s="3">
         <v>400</v>
-      </c>
-      <c r="R24" s="3">
-        <v>500</v>
-      </c>
-      <c r="S24" s="3">
-        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>500</v>
       </c>
       <c r="U24" s="3">
+        <v>100</v>
+      </c>
+      <c r="V24" s="3">
+        <v>500</v>
+      </c>
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>400</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-186200</v>
+        <v>-49200</v>
       </c>
       <c r="E26" s="3">
-        <v>-96500</v>
+        <v>-55500</v>
       </c>
       <c r="F26" s="3">
-        <v>-68900</v>
+        <v>-184600</v>
       </c>
       <c r="G26" s="3">
-        <v>-89100</v>
+        <v>-95600</v>
       </c>
       <c r="H26" s="3">
-        <v>-151500</v>
+        <v>-21400</v>
       </c>
       <c r="I26" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-150200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-83400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-104400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>26600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-40900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-35500</v>
       </c>
       <c r="P26" s="3">
         <v>-3500</v>
       </c>
       <c r="Q26" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="S26" s="3">
         <v>-7100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-13400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-48700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-20200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-69300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-30000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-178500</v>
+        <v>-45000</v>
       </c>
       <c r="E27" s="3">
-        <v>-94600</v>
+        <v>-52400</v>
       </c>
       <c r="F27" s="3">
-        <v>-68100</v>
+        <v>-176900</v>
       </c>
       <c r="G27" s="3">
-        <v>-88300</v>
+        <v>-93800</v>
       </c>
       <c r="H27" s="3">
-        <v>-147800</v>
+        <v>-20600</v>
       </c>
       <c r="I27" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-146400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-82500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>7300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-103200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>29200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-39600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-35100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-7200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-13500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-48700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-20300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-69400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-29800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1999,50 +2115,56 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>217100</v>
+        <v>400</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>215200</v>
+      </c>
+      <c r="G29" s="3">
         <v>600</v>
       </c>
-      <c r="F29" s="3">
-        <v>100</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-2000</v>
-      </c>
       <c r="H29" s="3">
-        <v>-150700</v>
+        <v>-46700</v>
       </c>
       <c r="I29" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-149400</v>
+      </c>
+      <c r="K29" s="3">
         <v>-10800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-10800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-13100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-60300</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,138 +2328,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-50900</v>
+        <v>-5000</v>
       </c>
       <c r="E32" s="3">
-        <v>-56700</v>
+        <v>-1300</v>
       </c>
       <c r="F32" s="3">
-        <v>-35700</v>
+        <v>-50400</v>
       </c>
       <c r="G32" s="3">
-        <v>-16100</v>
+        <v>-56200</v>
       </c>
       <c r="H32" s="3">
-        <v>-11900</v>
+        <v>-2000</v>
       </c>
       <c r="I32" s="3">
         <v>-6600</v>
       </c>
       <c r="J32" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="L32" s="3">
         <v>-7300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-6800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-31600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-22900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-8400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-17400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-3200</v>
       </c>
       <c r="T32" s="3">
         <v>-6100</v>
       </c>
       <c r="U32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="W32" s="3">
         <v>-3500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-3800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>38600</v>
+        <v>-44600</v>
       </c>
       <c r="E33" s="3">
-        <v>-94000</v>
+        <v>-52500</v>
       </c>
       <c r="F33" s="3">
-        <v>-67900</v>
+        <v>38200</v>
       </c>
       <c r="G33" s="3">
-        <v>-90300</v>
+        <v>-93200</v>
       </c>
       <c r="H33" s="3">
-        <v>-298500</v>
+        <v>-67300</v>
       </c>
       <c r="I33" s="3">
+        <v>-89500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-295800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-93400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-116300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-31200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-39600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-35100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-7200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-13500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-48700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-20300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-69400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-29800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>38600</v>
+        <v>-44600</v>
       </c>
       <c r="E35" s="3">
-        <v>-94000</v>
+        <v>-52500</v>
       </c>
       <c r="F35" s="3">
-        <v>-67900</v>
+        <v>38200</v>
       </c>
       <c r="G35" s="3">
-        <v>-90300</v>
+        <v>-93200</v>
       </c>
       <c r="H35" s="3">
-        <v>-298500</v>
+        <v>-67300</v>
       </c>
       <c r="I35" s="3">
+        <v>-89500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-295800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-93400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-116300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-31200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-39600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-35100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-7200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-13500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-48700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-20300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-69400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-29800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2574,593 +2746,649 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>526300</v>
+        <v>137600</v>
       </c>
       <c r="E41" s="3">
-        <v>142400</v>
+        <v>299900</v>
       </c>
       <c r="F41" s="3">
-        <v>133900</v>
+        <v>521600</v>
       </c>
       <c r="G41" s="3">
-        <v>149000</v>
+        <v>141100</v>
       </c>
       <c r="H41" s="3">
-        <v>203800</v>
+        <v>132700</v>
       </c>
       <c r="I41" s="3">
+        <v>147700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>202000</v>
+      </c>
+      <c r="K41" s="3">
         <v>267300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>351400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>197600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>307100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>333600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>245800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>223600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>236800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>85500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>254000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>306600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>184100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>149900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>165400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>326200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>21700</v>
+        <v>235700</v>
       </c>
       <c r="E42" s="3">
+        <v>189500</v>
+      </c>
+      <c r="F42" s="3">
+        <v>21500</v>
+      </c>
+      <c r="G42" s="3">
         <v>500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>100</v>
       </c>
-      <c r="G42" s="3">
-        <v>43700</v>
-      </c>
-      <c r="H42" s="3">
-        <v>39600</v>
-      </c>
       <c r="I42" s="3">
+        <v>43300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K42" s="3">
         <v>45200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>78500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>129800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>162800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>186600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>169000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>141000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>146300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>291400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>171800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>200900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>349300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>552300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>163100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>184400</v>
+        <v>152700</v>
       </c>
       <c r="E43" s="3">
-        <v>210700</v>
+        <v>156700</v>
       </c>
       <c r="F43" s="3">
-        <v>242200</v>
+        <v>182700</v>
       </c>
       <c r="G43" s="3">
-        <v>223600</v>
+        <v>208800</v>
       </c>
       <c r="H43" s="3">
-        <v>258600</v>
+        <v>240000</v>
       </c>
       <c r="I43" s="3">
+        <v>221600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>256300</v>
+      </c>
+      <c r="K43" s="3">
         <v>238200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>246700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>254600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>327500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>297400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>295700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>264400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>269800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>189200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>166500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>133500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>162200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>94800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>82300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3800</v>
+        <v>3300</v>
       </c>
       <c r="E44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G44" s="3">
         <v>5000</v>
       </c>
-      <c r="F44" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G44" s="3">
-        <v>5100</v>
-      </c>
       <c r="H44" s="3">
-        <v>6500</v>
+        <v>5700</v>
       </c>
       <c r="I44" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K44" s="3">
         <v>24500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>23400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>23600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>21600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>25300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>27300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>25700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>21900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>23000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>25800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>22400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>23300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>28200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>21700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>272300</v>
+        <v>204200</v>
       </c>
       <c r="E45" s="3">
-        <v>832000</v>
+        <v>235700</v>
       </c>
       <c r="F45" s="3">
-        <v>853000</v>
+        <v>269800</v>
       </c>
       <c r="G45" s="3">
-        <v>866100</v>
+        <v>824500</v>
       </c>
       <c r="H45" s="3">
-        <v>871900</v>
+        <v>845300</v>
       </c>
       <c r="I45" s="3">
+        <v>858300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>864000</v>
+      </c>
+      <c r="K45" s="3">
         <v>794600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>670000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>677000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>672800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>543500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>503000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>491600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>462300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>423700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>429300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>386900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>461900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>304500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>310600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>254900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1008500</v>
+        <v>733500</v>
       </c>
       <c r="E46" s="3">
-        <v>1190500</v>
+        <v>885300</v>
       </c>
       <c r="F46" s="3">
-        <v>1234900</v>
+        <v>999400</v>
       </c>
       <c r="G46" s="3">
-        <v>1287500</v>
+        <v>1179800</v>
       </c>
       <c r="H46" s="3">
-        <v>1380400</v>
+        <v>1223800</v>
       </c>
       <c r="I46" s="3">
+        <v>1275900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1368000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1369800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1369900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1282700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1491800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1386300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1240700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1146200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1137100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1012900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1047300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1050300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1180800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1129600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>743100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>711900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>67000</v>
+        <v>43500</v>
       </c>
       <c r="E47" s="3">
-        <v>71500</v>
+        <v>52200</v>
       </c>
       <c r="F47" s="3">
-        <v>97300</v>
+        <v>66400</v>
       </c>
       <c r="G47" s="3">
-        <v>111800</v>
+        <v>70900</v>
       </c>
       <c r="H47" s="3">
-        <v>128100</v>
+        <v>96400</v>
       </c>
       <c r="I47" s="3">
+        <v>110800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K47" s="3">
         <v>151000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>165500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>182800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>201500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>213400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>244500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>245100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>239000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>188000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>157100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>114700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>116700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>5500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>5500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>392300</v>
+        <v>361700</v>
       </c>
       <c r="E48" s="3">
-        <v>1185000</v>
+        <v>370000</v>
       </c>
       <c r="F48" s="3">
-        <v>1194200</v>
+        <v>388800</v>
       </c>
       <c r="G48" s="3">
-        <v>1157600</v>
+        <v>1174300</v>
       </c>
       <c r="H48" s="3">
-        <v>1170400</v>
+        <v>1183400</v>
       </c>
       <c r="I48" s="3">
+        <v>1147100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1159900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1173000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1153300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1173400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1126900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1065300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1005800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>993400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>299900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>254500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>221600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>188200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>194000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>181800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>164000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>16200</v>
+        <v>17400</v>
       </c>
       <c r="E49" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>44700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>45000</v>
+      </c>
+      <c r="I49" s="3">
         <v>45100</v>
       </c>
-      <c r="F49" s="3">
-        <v>45400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>45500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>45400</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K49" s="3">
         <v>90100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>90100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>95600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>94300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>96000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>93400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>92100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>89000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>83600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>86500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>86100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>90100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>84500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>84800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3289,73 +3523,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>187700</v>
+        <v>212900</v>
       </c>
       <c r="E52" s="3">
-        <v>130700</v>
+        <v>215700</v>
       </c>
       <c r="F52" s="3">
-        <v>137500</v>
+        <v>186000</v>
       </c>
       <c r="G52" s="3">
-        <v>159700</v>
+        <v>129500</v>
       </c>
       <c r="H52" s="3">
-        <v>203900</v>
+        <v>136300</v>
       </c>
       <c r="I52" s="3">
+        <v>158300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>202000</v>
+      </c>
+      <c r="K52" s="3">
         <v>198800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>179300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>154800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>87000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>73400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>52400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>39300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>31000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>27800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>28000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>32200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>32800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>137900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>110300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>1671600</v>
+        <v>1369000</v>
       </c>
       <c r="E54" s="3">
-        <v>2622800</v>
+        <v>1539700</v>
       </c>
       <c r="F54" s="3">
-        <v>2709400</v>
+        <v>1656500</v>
       </c>
       <c r="G54" s="3">
-        <v>2762100</v>
+        <v>2599100</v>
       </c>
       <c r="H54" s="3">
-        <v>2928200</v>
+        <v>2684900</v>
       </c>
       <c r="I54" s="3">
+        <v>2737200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2901700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2982600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2958200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2889200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3001500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2834500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2636800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2516100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1796000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1566800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1540600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1471500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1614500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1539400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1107700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>972800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3534,398 +3794,436 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>199400</v>
+        <v>219100</v>
       </c>
       <c r="E57" s="3">
-        <v>565900</v>
+        <v>200600</v>
       </c>
       <c r="F57" s="3">
-        <v>621800</v>
+        <v>197600</v>
       </c>
       <c r="G57" s="3">
-        <v>575000</v>
+        <v>560800</v>
       </c>
       <c r="H57" s="3">
-        <v>610800</v>
+        <v>616200</v>
       </c>
       <c r="I57" s="3">
+        <v>569800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>605300</v>
+      </c>
+      <c r="K57" s="3">
         <v>555700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>476300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>405400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>522200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>473200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>444600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>421000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>414100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>325600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>322700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>265300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>354500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>358000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>344400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>222200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>307600</v>
+        <v>317800</v>
       </c>
       <c r="E58" s="3">
-        <v>494500</v>
+        <v>279800</v>
       </c>
       <c r="F58" s="3">
-        <v>381000</v>
+        <v>304800</v>
       </c>
       <c r="G58" s="3">
-        <v>470100</v>
+        <v>490100</v>
       </c>
       <c r="H58" s="3">
-        <v>468500</v>
+        <v>377500</v>
       </c>
       <c r="I58" s="3">
+        <v>465900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>464300</v>
+      </c>
+      <c r="K58" s="3">
         <v>485300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>400700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>489900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>402900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>319800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>377300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>325100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>259300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>204000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>186500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>234600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>181600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>136100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>159600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>355400</v>
+        <v>274500</v>
       </c>
       <c r="E59" s="3">
-        <v>916200</v>
+        <v>319000</v>
       </c>
       <c r="F59" s="3">
-        <v>788700</v>
+        <v>352200</v>
       </c>
       <c r="G59" s="3">
-        <v>743700</v>
+        <v>907900</v>
       </c>
       <c r="H59" s="3">
-        <v>782500</v>
+        <v>781600</v>
       </c>
       <c r="I59" s="3">
+        <v>737000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>775400</v>
+      </c>
+      <c r="K59" s="3">
         <v>734900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>711100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>721500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>702400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>673200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>643900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>615400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>504900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>442800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>433300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>388100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>410400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>398000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>330500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>314400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>862300</v>
+        <v>811500</v>
       </c>
       <c r="E60" s="3">
-        <v>1976600</v>
+        <v>799400</v>
       </c>
       <c r="F60" s="3">
-        <v>1791500</v>
+        <v>854500</v>
       </c>
       <c r="G60" s="3">
-        <v>1788900</v>
+        <v>1958800</v>
       </c>
       <c r="H60" s="3">
-        <v>1861800</v>
+        <v>1775400</v>
       </c>
       <c r="I60" s="3">
+        <v>1772700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1845000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1775900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1588100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1616700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1627500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1466100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1465900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1361400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1178300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>972500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>942500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>888000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>946400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>892100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>834500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>690200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>264400</v>
+        <v>133600</v>
       </c>
       <c r="E61" s="3">
-        <v>170700</v>
+        <v>266900</v>
       </c>
       <c r="F61" s="3">
-        <v>358000</v>
+        <v>262000</v>
       </c>
       <c r="G61" s="3">
-        <v>365500</v>
+        <v>169100</v>
       </c>
       <c r="H61" s="3">
-        <v>345000</v>
+        <v>354800</v>
       </c>
       <c r="I61" s="3">
+        <v>362300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>341900</v>
+      </c>
+      <c r="K61" s="3">
         <v>362500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>401500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>228900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>209800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>217900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>10800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>400</v>
-      </c>
-      <c r="S61" s="3">
-        <v>200</v>
-      </c>
-      <c r="T61" s="3">
-        <v>300</v>
       </c>
       <c r="U61" s="3">
         <v>200</v>
       </c>
       <c r="V61" s="3">
+        <v>300</v>
+      </c>
+      <c r="W61" s="3">
+        <v>200</v>
+      </c>
+      <c r="X61" s="3">
         <v>400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>218300</v>
+        <v>198500</v>
       </c>
       <c r="E62" s="3">
-        <v>438000</v>
+        <v>204400</v>
       </c>
       <c r="F62" s="3">
-        <v>430100</v>
+        <v>216300</v>
       </c>
       <c r="G62" s="3">
-        <v>441600</v>
+        <v>434100</v>
       </c>
       <c r="H62" s="3">
-        <v>467200</v>
+        <v>426200</v>
       </c>
       <c r="I62" s="3">
+        <v>437700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>463000</v>
+      </c>
+      <c r="K62" s="3">
         <v>499300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>516900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>555300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>561400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>547200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>545300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>563300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>16200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>15200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>15700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>15500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>15900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>13600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>13700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1366500</v>
+        <v>1162500</v>
       </c>
       <c r="E66" s="3">
-        <v>2606500</v>
+        <v>1290900</v>
       </c>
       <c r="F66" s="3">
-        <v>2602600</v>
+        <v>1354100</v>
       </c>
       <c r="G66" s="3">
-        <v>2591400</v>
+        <v>2583000</v>
       </c>
       <c r="H66" s="3">
-        <v>2670200</v>
+        <v>2579200</v>
       </c>
       <c r="I66" s="3">
+        <v>2568000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2646100</v>
+      </c>
+      <c r="K66" s="3">
         <v>2634700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2503600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2398700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2397800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2231600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2022000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1925600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1195000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>988200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>958600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>903700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>962700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>906000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>862000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>691800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4399,13 +4735,19 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>2351100</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>2351100</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2574600</v>
+        <v>-2653300</v>
       </c>
       <c r="E72" s="3">
-        <v>-2861000</v>
+        <v>-2605700</v>
       </c>
       <c r="F72" s="3">
-        <v>-2766900</v>
+        <v>-2551400</v>
       </c>
       <c r="G72" s="3">
-        <v>-2699000</v>
+        <v>-2835200</v>
       </c>
       <c r="H72" s="3">
-        <v>-2608700</v>
+        <v>-2742000</v>
       </c>
       <c r="I72" s="3">
+        <v>-2674700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-2585200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2516600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2423300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2570800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2405400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2445200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2444600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2380700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2239300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2154800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2201600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2188200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2209300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2189000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2119600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-2089800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>305200</v>
+        <v>206600</v>
       </c>
       <c r="E76" s="3">
-        <v>16300</v>
+        <v>248800</v>
       </c>
       <c r="F76" s="3">
-        <v>106700</v>
+        <v>302400</v>
       </c>
       <c r="G76" s="3">
-        <v>170700</v>
+        <v>16100</v>
       </c>
       <c r="H76" s="3">
-        <v>258000</v>
+        <v>105700</v>
       </c>
       <c r="I76" s="3">
+        <v>169200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>255600</v>
+      </c>
+      <c r="K76" s="3">
         <v>347900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>454600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>490500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>603700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>602900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>614800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>590600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>601000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>578600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>582000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>567800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>651800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>633400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2105500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-2070100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>38600</v>
+        <v>-44600</v>
       </c>
       <c r="E81" s="3">
-        <v>-94000</v>
+        <v>-52500</v>
       </c>
       <c r="F81" s="3">
-        <v>-67900</v>
+        <v>38200</v>
       </c>
       <c r="G81" s="3">
-        <v>-90300</v>
+        <v>-93200</v>
       </c>
       <c r="H81" s="3">
-        <v>-298500</v>
+        <v>-67300</v>
       </c>
       <c r="I81" s="3">
+        <v>-89500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-295800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-93400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-116300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-31200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-39600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-35100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-7200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-13500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-48700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-20300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-69400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-29800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-413200</v>
+        <v>-45800</v>
       </c>
       <c r="E89" s="3">
-        <v>-170700</v>
+        <v>-44400</v>
       </c>
       <c r="F89" s="3">
-        <v>-13500</v>
+        <v>-409500</v>
       </c>
       <c r="G89" s="3">
-        <v>-97000</v>
+        <v>-169100</v>
       </c>
       <c r="H89" s="3">
-        <v>-34100</v>
+        <v>-13400</v>
       </c>
       <c r="I89" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="K89" s="3">
         <v>17000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>106500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-202500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>131300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>57100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>52100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-31300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>105900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>12100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>62000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-87600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>16100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>42300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5552,20 +5994,26 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="W91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-16600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>669400</v>
+        <v>-14700</v>
       </c>
       <c r="E94" s="3">
-        <v>155500</v>
+        <v>-128400</v>
       </c>
       <c r="F94" s="3">
-        <v>47900</v>
+        <v>663400</v>
       </c>
       <c r="G94" s="3">
-        <v>3400</v>
+        <v>154000</v>
       </c>
       <c r="H94" s="3">
-        <v>-128600</v>
+        <v>47500</v>
       </c>
       <c r="I94" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-127500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-79500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-41700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>17800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-294500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-215800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-99600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-28700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>16300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-225400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-53000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>91300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>93900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-444500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-204600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-68900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6530,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-84800</v>
+        <v>-120000</v>
       </c>
       <c r="E100" s="3">
-        <v>8800</v>
+        <v>-21200</v>
       </c>
       <c r="F100" s="3">
-        <v>-67700</v>
+        <v>-84100</v>
       </c>
       <c r="G100" s="3">
-        <v>14900</v>
+        <v>8700</v>
       </c>
       <c r="H100" s="3">
-        <v>228100</v>
+        <v>-67100</v>
       </c>
       <c r="I100" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>226100</v>
+      </c>
+      <c r="K100" s="3">
         <v>54700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>112300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>94700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>309800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>243200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>47500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>54300</v>
       </c>
       <c r="P100" s="3">
         <v>47500</v>
       </c>
       <c r="Q100" s="3">
+        <v>54300</v>
+      </c>
+      <c r="R100" s="3">
+        <v>47500</v>
+      </c>
+      <c r="S100" s="3">
         <v>21100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-47600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>59000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-66600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>416100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>8100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-8200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
-        <v>-28300</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-15700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>3800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>6500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>4300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-4200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>7000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>10800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-10600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>8800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-3300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-6600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>163100</v>
+        <v>-170000</v>
       </c>
       <c r="E102" s="3">
-        <v>-5900</v>
+        <v>-197500</v>
       </c>
       <c r="F102" s="3">
-        <v>-38700</v>
+        <v>161700</v>
       </c>
       <c r="G102" s="3">
-        <v>-77700</v>
+        <v>-5800</v>
       </c>
       <c r="H102" s="3">
-        <v>37100</v>
+        <v>-38400</v>
       </c>
       <c r="I102" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-23500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>177200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-86200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>147500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>91000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>4300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-9900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>170000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-185200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-27700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>52000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>34200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-15600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-160800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-108300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
@@ -771,25 +771,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>281300</v>
+        <v>268200</v>
       </c>
       <c r="E8" s="3">
-        <v>263200</v>
+        <v>250900</v>
       </c>
       <c r="F8" s="3">
-        <v>1668500</v>
+        <v>1590500</v>
       </c>
       <c r="G8" s="3">
-        <v>994800</v>
+        <v>948300</v>
       </c>
       <c r="H8" s="3">
-        <v>451700</v>
+        <v>430600</v>
       </c>
       <c r="I8" s="3">
-        <v>406500</v>
+        <v>387500</v>
       </c>
       <c r="J8" s="3">
-        <v>1537400</v>
+        <v>1465500</v>
       </c>
       <c r="K8" s="3">
         <v>1175400</v>
@@ -842,25 +842,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>295000</v>
+        <v>281200</v>
       </c>
       <c r="E9" s="3">
-        <v>274500</v>
+        <v>261600</v>
       </c>
       <c r="F9" s="3">
-        <v>1697600</v>
+        <v>1618200</v>
       </c>
       <c r="G9" s="3">
-        <v>1068600</v>
+        <v>1018600</v>
       </c>
       <c r="H9" s="3">
-        <v>1146000</v>
+        <v>1092400</v>
       </c>
       <c r="I9" s="3">
-        <v>1015700</v>
+        <v>968100</v>
       </c>
       <c r="J9" s="3">
-        <v>4710500</v>
+        <v>4490200</v>
       </c>
       <c r="K9" s="3">
         <v>1410300</v>
@@ -913,25 +913,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-13700</v>
+        <v>-13100</v>
       </c>
       <c r="E10" s="3">
-        <v>-11200</v>
+        <v>-10700</v>
       </c>
       <c r="F10" s="3">
-        <v>-29100</v>
+        <v>-27800</v>
       </c>
       <c r="G10" s="3">
-        <v>-73800</v>
+        <v>-70300</v>
       </c>
       <c r="H10" s="3">
-        <v>-694300</v>
+        <v>-661800</v>
       </c>
       <c r="I10" s="3">
-        <v>-609200</v>
+        <v>-580700</v>
       </c>
       <c r="J10" s="3">
-        <v>-3173100</v>
+        <v>-3024600</v>
       </c>
       <c r="K10" s="3">
         <v>-235000</v>
@@ -1011,25 +1011,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="E12" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="F12" s="3">
-        <v>26300</v>
+        <v>25100</v>
       </c>
       <c r="G12" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="H12" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="I12" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="J12" s="3">
-        <v>19900</v>
+        <v>18900</v>
       </c>
       <c r="K12" s="3">
         <v>6600</v>
@@ -1319,25 +1319,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>331700</v>
+        <v>316200</v>
       </c>
       <c r="E17" s="3">
-        <v>316100</v>
+        <v>301400</v>
       </c>
       <c r="F17" s="3">
-        <v>1882200</v>
+        <v>1794100</v>
       </c>
       <c r="G17" s="3">
-        <v>1139300</v>
+        <v>1086000</v>
       </c>
       <c r="H17" s="3">
-        <v>470000</v>
+        <v>448000</v>
       </c>
       <c r="I17" s="3">
-        <v>435200</v>
+        <v>414800</v>
       </c>
       <c r="J17" s="3">
-        <v>1679400</v>
+        <v>1600800</v>
       </c>
       <c r="K17" s="3">
         <v>1257400</v>
@@ -1390,25 +1390,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-50400</v>
       </c>
-      <c r="E18" s="3">
-        <v>-52900</v>
-      </c>
       <c r="F18" s="3">
-        <v>-213600</v>
+        <v>-203700</v>
       </c>
       <c r="G18" s="3">
-        <v>-144500</v>
+        <v>-137800</v>
       </c>
       <c r="H18" s="3">
-        <v>-18200</v>
+        <v>-17400</v>
       </c>
       <c r="I18" s="3">
-        <v>-28700</v>
+        <v>-27300</v>
       </c>
       <c r="J18" s="3">
-        <v>-141900</v>
+        <v>-135300</v>
       </c>
       <c r="K18" s="3">
         <v>-82100</v>
@@ -1488,25 +1488,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="E20" s="3">
         <v>1300</v>
       </c>
       <c r="F20" s="3">
-        <v>50400</v>
+        <v>48000</v>
       </c>
       <c r="G20" s="3">
-        <v>56200</v>
+        <v>53500</v>
       </c>
       <c r="H20" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I20" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="J20" s="3">
-        <v>11700</v>
+        <v>11200</v>
       </c>
       <c r="K20" s="3">
         <v>6600</v>
@@ -1559,25 +1559,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-46000</v>
+        <v>-43900</v>
       </c>
       <c r="E21" s="3">
-        <v>-43800</v>
+        <v>-41700</v>
       </c>
       <c r="F21" s="3">
-        <v>-135300</v>
+        <v>-129000</v>
       </c>
       <c r="G21" s="3">
-        <v>-86800</v>
+        <v>-82800</v>
       </c>
       <c r="H21" s="3">
-        <v>-15800</v>
+        <v>-15100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-55000</v>
+        <v>-52400</v>
       </c>
       <c r="K21" s="3">
         <v>-72600</v>
@@ -1630,25 +1630,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="E22" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="F22" s="3">
-        <v>20800</v>
+        <v>19900</v>
       </c>
       <c r="G22" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="H22" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="I22" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="J22" s="3">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="K22" s="3">
         <v>6900</v>
@@ -1701,25 +1701,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-49200</v>
+        <v>-46900</v>
       </c>
       <c r="E23" s="3">
-        <v>-55400</v>
+        <v>-52900</v>
       </c>
       <c r="F23" s="3">
-        <v>-184100</v>
+        <v>-175500</v>
       </c>
       <c r="G23" s="3">
-        <v>-95500</v>
+        <v>-91000</v>
       </c>
       <c r="H23" s="3">
-        <v>-21800</v>
+        <v>-20800</v>
       </c>
       <c r="I23" s="3">
-        <v>-27300</v>
+        <v>-26000</v>
       </c>
       <c r="J23" s="3">
-        <v>-147600</v>
+        <v>-140700</v>
       </c>
       <c r="K23" s="3">
         <v>-82400</v>
@@ -1778,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>-400</v>
@@ -1790,7 +1790,7 @@
         <v>600</v>
       </c>
       <c r="J24" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K24" s="3">
         <v>1000</v>
@@ -1914,25 +1914,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-49200</v>
+        <v>-46900</v>
       </c>
       <c r="E26" s="3">
-        <v>-55500</v>
+        <v>-52900</v>
       </c>
       <c r="F26" s="3">
-        <v>-184600</v>
+        <v>-175900</v>
       </c>
       <c r="G26" s="3">
-        <v>-95600</v>
+        <v>-91200</v>
       </c>
       <c r="H26" s="3">
-        <v>-21400</v>
+        <v>-20400</v>
       </c>
       <c r="I26" s="3">
-        <v>-27900</v>
+        <v>-26600</v>
       </c>
       <c r="J26" s="3">
-        <v>-150200</v>
+        <v>-143100</v>
       </c>
       <c r="K26" s="3">
         <v>-83400</v>
@@ -1985,25 +1985,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-45000</v>
+        <v>-42900</v>
       </c>
       <c r="E27" s="3">
-        <v>-52400</v>
+        <v>-50000</v>
       </c>
       <c r="F27" s="3">
-        <v>-176900</v>
+        <v>-168700</v>
       </c>
       <c r="G27" s="3">
-        <v>-93800</v>
+        <v>-89400</v>
       </c>
       <c r="H27" s="3">
-        <v>-20600</v>
+        <v>-19700</v>
       </c>
       <c r="I27" s="3">
-        <v>-27100</v>
+        <v>-25900</v>
       </c>
       <c r="J27" s="3">
-        <v>-146400</v>
+        <v>-139600</v>
       </c>
       <c r="K27" s="3">
         <v>-82500</v>
@@ -2127,25 +2127,25 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>215200</v>
+        <v>205100</v>
       </c>
       <c r="G29" s="3">
         <v>600</v>
       </c>
       <c r="H29" s="3">
-        <v>-46700</v>
+        <v>-44500</v>
       </c>
       <c r="I29" s="3">
-        <v>-62400</v>
+        <v>-59500</v>
       </c>
       <c r="J29" s="3">
-        <v>-149400</v>
+        <v>-142400</v>
       </c>
       <c r="K29" s="3">
         <v>-10800</v>
@@ -2340,25 +2340,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-5000</v>
+        <v>-4700</v>
       </c>
       <c r="E32" s="3">
         <v>-1300</v>
       </c>
       <c r="F32" s="3">
-        <v>-50400</v>
+        <v>-48000</v>
       </c>
       <c r="G32" s="3">
-        <v>-56200</v>
+        <v>-53500</v>
       </c>
       <c r="H32" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="I32" s="3">
-        <v>-6600</v>
+        <v>-6300</v>
       </c>
       <c r="J32" s="3">
-        <v>-11700</v>
+        <v>-11200</v>
       </c>
       <c r="K32" s="3">
         <v>-6600</v>
@@ -2411,25 +2411,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-44600</v>
+        <v>-42500</v>
       </c>
       <c r="E33" s="3">
-        <v>-52500</v>
+        <v>-50000</v>
       </c>
       <c r="F33" s="3">
-        <v>38200</v>
+        <v>36500</v>
       </c>
       <c r="G33" s="3">
-        <v>-93200</v>
+        <v>-88800</v>
       </c>
       <c r="H33" s="3">
-        <v>-67300</v>
+        <v>-64200</v>
       </c>
       <c r="I33" s="3">
-        <v>-89500</v>
+        <v>-85300</v>
       </c>
       <c r="J33" s="3">
-        <v>-295800</v>
+        <v>-282000</v>
       </c>
       <c r="K33" s="3">
         <v>-93400</v>
@@ -2553,25 +2553,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-44600</v>
+        <v>-42500</v>
       </c>
       <c r="E35" s="3">
-        <v>-52500</v>
+        <v>-50000</v>
       </c>
       <c r="F35" s="3">
-        <v>38200</v>
+        <v>36500</v>
       </c>
       <c r="G35" s="3">
-        <v>-93200</v>
+        <v>-88800</v>
       </c>
       <c r="H35" s="3">
-        <v>-67300</v>
+        <v>-64200</v>
       </c>
       <c r="I35" s="3">
-        <v>-89500</v>
+        <v>-85300</v>
       </c>
       <c r="J35" s="3">
-        <v>-295800</v>
+        <v>-282000</v>
       </c>
       <c r="K35" s="3">
         <v>-93400</v>
@@ -2754,25 +2754,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>137600</v>
+        <v>131200</v>
       </c>
       <c r="E41" s="3">
-        <v>299900</v>
+        <v>285900</v>
       </c>
       <c r="F41" s="3">
-        <v>521600</v>
+        <v>497200</v>
       </c>
       <c r="G41" s="3">
-        <v>141100</v>
+        <v>134500</v>
       </c>
       <c r="H41" s="3">
-        <v>132700</v>
+        <v>126500</v>
       </c>
       <c r="I41" s="3">
-        <v>147700</v>
+        <v>140800</v>
       </c>
       <c r="J41" s="3">
-        <v>202000</v>
+        <v>192600</v>
       </c>
       <c r="K41" s="3">
         <v>267300</v>
@@ -2825,13 +2825,13 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>235700</v>
+        <v>224600</v>
       </c>
       <c r="E42" s="3">
-        <v>189500</v>
+        <v>180600</v>
       </c>
       <c r="F42" s="3">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="G42" s="3">
         <v>500</v>
@@ -2840,10 +2840,10 @@
         <v>100</v>
       </c>
       <c r="I42" s="3">
-        <v>43300</v>
+        <v>41300</v>
       </c>
       <c r="J42" s="3">
-        <v>39200</v>
+        <v>37400</v>
       </c>
       <c r="K42" s="3">
         <v>45200</v>
@@ -2896,25 +2896,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>152700</v>
+        <v>145600</v>
       </c>
       <c r="E43" s="3">
-        <v>156700</v>
+        <v>149400</v>
       </c>
       <c r="F43" s="3">
-        <v>182700</v>
+        <v>174200</v>
       </c>
       <c r="G43" s="3">
-        <v>208800</v>
+        <v>199000</v>
       </c>
       <c r="H43" s="3">
-        <v>240000</v>
+        <v>228800</v>
       </c>
       <c r="I43" s="3">
-        <v>221600</v>
+        <v>211300</v>
       </c>
       <c r="J43" s="3">
-        <v>256300</v>
+        <v>244300</v>
       </c>
       <c r="K43" s="3">
         <v>238200</v>
@@ -2967,25 +2967,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E44" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F44" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G44" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="H44" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="I44" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="J44" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="K44" s="3">
         <v>24500</v>
@@ -3038,25 +3038,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>204200</v>
+        <v>194700</v>
       </c>
       <c r="E45" s="3">
-        <v>235700</v>
+        <v>224600</v>
       </c>
       <c r="F45" s="3">
-        <v>269800</v>
+        <v>257200</v>
       </c>
       <c r="G45" s="3">
-        <v>824500</v>
+        <v>786000</v>
       </c>
       <c r="H45" s="3">
-        <v>845300</v>
+        <v>805700</v>
       </c>
       <c r="I45" s="3">
-        <v>858300</v>
+        <v>818100</v>
       </c>
       <c r="J45" s="3">
-        <v>864000</v>
+        <v>823600</v>
       </c>
       <c r="K45" s="3">
         <v>794600</v>
@@ -3109,25 +3109,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>733500</v>
+        <v>699200</v>
       </c>
       <c r="E46" s="3">
-        <v>885300</v>
+        <v>843900</v>
       </c>
       <c r="F46" s="3">
-        <v>999400</v>
+        <v>952600</v>
       </c>
       <c r="G46" s="3">
-        <v>1179800</v>
+        <v>1124600</v>
       </c>
       <c r="H46" s="3">
-        <v>1223800</v>
+        <v>1166600</v>
       </c>
       <c r="I46" s="3">
-        <v>1275900</v>
+        <v>1216200</v>
       </c>
       <c r="J46" s="3">
-        <v>1368000</v>
+        <v>1304000</v>
       </c>
       <c r="K46" s="3">
         <v>1369800</v>
@@ -3180,25 +3180,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>43500</v>
+        <v>41500</v>
       </c>
       <c r="E47" s="3">
-        <v>52200</v>
+        <v>49800</v>
       </c>
       <c r="F47" s="3">
-        <v>66400</v>
+        <v>63300</v>
       </c>
       <c r="G47" s="3">
-        <v>70900</v>
+        <v>67500</v>
       </c>
       <c r="H47" s="3">
-        <v>96400</v>
+        <v>91900</v>
       </c>
       <c r="I47" s="3">
-        <v>110800</v>
+        <v>105600</v>
       </c>
       <c r="J47" s="3">
-        <v>126900</v>
+        <v>121000</v>
       </c>
       <c r="K47" s="3">
         <v>151000</v>
@@ -3251,25 +3251,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>361700</v>
+        <v>344700</v>
       </c>
       <c r="E48" s="3">
-        <v>370000</v>
+        <v>352700</v>
       </c>
       <c r="F48" s="3">
-        <v>388800</v>
+        <v>370600</v>
       </c>
       <c r="G48" s="3">
-        <v>1174300</v>
+        <v>1119400</v>
       </c>
       <c r="H48" s="3">
-        <v>1183400</v>
+        <v>1128100</v>
       </c>
       <c r="I48" s="3">
-        <v>1147100</v>
+        <v>1093500</v>
       </c>
       <c r="J48" s="3">
-        <v>1159900</v>
+        <v>1105600</v>
       </c>
       <c r="K48" s="3">
         <v>1173000</v>
@@ -3322,25 +3322,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="E49" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="F49" s="3">
-        <v>16000</v>
+        <v>15300</v>
       </c>
       <c r="G49" s="3">
-        <v>44700</v>
+        <v>42600</v>
       </c>
       <c r="H49" s="3">
-        <v>45000</v>
+        <v>42900</v>
       </c>
       <c r="I49" s="3">
-        <v>45100</v>
+        <v>43000</v>
       </c>
       <c r="J49" s="3">
-        <v>45000</v>
+        <v>42900</v>
       </c>
       <c r="K49" s="3">
         <v>90100</v>
@@ -3535,25 +3535,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>212900</v>
+        <v>202900</v>
       </c>
       <c r="E52" s="3">
-        <v>215700</v>
+        <v>205600</v>
       </c>
       <c r="F52" s="3">
-        <v>186000</v>
+        <v>177300</v>
       </c>
       <c r="G52" s="3">
-        <v>129500</v>
+        <v>123500</v>
       </c>
       <c r="H52" s="3">
-        <v>136300</v>
+        <v>129900</v>
       </c>
       <c r="I52" s="3">
-        <v>158300</v>
+        <v>150900</v>
       </c>
       <c r="J52" s="3">
-        <v>202000</v>
+        <v>192600</v>
       </c>
       <c r="K52" s="3">
         <v>198800</v>
@@ -3677,25 +3677,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>1369000</v>
+        <v>1305000</v>
       </c>
       <c r="E54" s="3">
-        <v>1539700</v>
+        <v>1467700</v>
       </c>
       <c r="F54" s="3">
-        <v>1656500</v>
+        <v>1579100</v>
       </c>
       <c r="G54" s="3">
-        <v>2599100</v>
+        <v>2477600</v>
       </c>
       <c r="H54" s="3">
-        <v>2684900</v>
+        <v>2559300</v>
       </c>
       <c r="I54" s="3">
-        <v>2737200</v>
+        <v>2609200</v>
       </c>
       <c r="J54" s="3">
-        <v>2901700</v>
+        <v>2766000</v>
       </c>
       <c r="K54" s="3">
         <v>2982600</v>
@@ -3802,25 +3802,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>219100</v>
+        <v>208900</v>
       </c>
       <c r="E57" s="3">
-        <v>200600</v>
+        <v>191200</v>
       </c>
       <c r="F57" s="3">
-        <v>197600</v>
+        <v>188400</v>
       </c>
       <c r="G57" s="3">
-        <v>560800</v>
+        <v>534600</v>
       </c>
       <c r="H57" s="3">
-        <v>616200</v>
+        <v>587400</v>
       </c>
       <c r="I57" s="3">
-        <v>569800</v>
+        <v>543200</v>
       </c>
       <c r="J57" s="3">
-        <v>605300</v>
+        <v>577000</v>
       </c>
       <c r="K57" s="3">
         <v>555700</v>
@@ -3873,25 +3873,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>317800</v>
+        <v>302900</v>
       </c>
       <c r="E58" s="3">
-        <v>279800</v>
+        <v>266700</v>
       </c>
       <c r="F58" s="3">
-        <v>304800</v>
+        <v>290500</v>
       </c>
       <c r="G58" s="3">
-        <v>490100</v>
+        <v>467200</v>
       </c>
       <c r="H58" s="3">
-        <v>377500</v>
+        <v>359900</v>
       </c>
       <c r="I58" s="3">
-        <v>465900</v>
+        <v>444100</v>
       </c>
       <c r="J58" s="3">
-        <v>464300</v>
+        <v>442600</v>
       </c>
       <c r="K58" s="3">
         <v>485300</v>
@@ -3944,25 +3944,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>274500</v>
+        <v>261700</v>
       </c>
       <c r="E59" s="3">
-        <v>319000</v>
+        <v>304100</v>
       </c>
       <c r="F59" s="3">
-        <v>352200</v>
+        <v>335700</v>
       </c>
       <c r="G59" s="3">
-        <v>907900</v>
+        <v>865400</v>
       </c>
       <c r="H59" s="3">
-        <v>781600</v>
+        <v>745100</v>
       </c>
       <c r="I59" s="3">
-        <v>737000</v>
+        <v>702500</v>
       </c>
       <c r="J59" s="3">
-        <v>775400</v>
+        <v>739200</v>
       </c>
       <c r="K59" s="3">
         <v>734900</v>
@@ -4015,25 +4015,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>811500</v>
+        <v>773500</v>
       </c>
       <c r="E60" s="3">
-        <v>799400</v>
+        <v>762000</v>
       </c>
       <c r="F60" s="3">
-        <v>854500</v>
+        <v>814600</v>
       </c>
       <c r="G60" s="3">
-        <v>1958800</v>
+        <v>1867200</v>
       </c>
       <c r="H60" s="3">
-        <v>1775400</v>
+        <v>1692300</v>
       </c>
       <c r="I60" s="3">
-        <v>1772700</v>
+        <v>1689800</v>
       </c>
       <c r="J60" s="3">
-        <v>1845000</v>
+        <v>1758700</v>
       </c>
       <c r="K60" s="3">
         <v>1775900</v>
@@ -4086,25 +4086,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>133600</v>
+        <v>127300</v>
       </c>
       <c r="E61" s="3">
-        <v>266900</v>
+        <v>254400</v>
       </c>
       <c r="F61" s="3">
-        <v>262000</v>
+        <v>249700</v>
       </c>
       <c r="G61" s="3">
-        <v>169100</v>
+        <v>161200</v>
       </c>
       <c r="H61" s="3">
-        <v>354800</v>
+        <v>338200</v>
       </c>
       <c r="I61" s="3">
-        <v>362300</v>
+        <v>345300</v>
       </c>
       <c r="J61" s="3">
-        <v>341900</v>
+        <v>325900</v>
       </c>
       <c r="K61" s="3">
         <v>362500</v>
@@ -4157,25 +4157,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>198500</v>
+        <v>189200</v>
       </c>
       <c r="E62" s="3">
-        <v>204400</v>
+        <v>194900</v>
       </c>
       <c r="F62" s="3">
-        <v>216300</v>
+        <v>206200</v>
       </c>
       <c r="G62" s="3">
-        <v>434100</v>
+        <v>413700</v>
       </c>
       <c r="H62" s="3">
-        <v>426200</v>
+        <v>406300</v>
       </c>
       <c r="I62" s="3">
-        <v>437700</v>
+        <v>417200</v>
       </c>
       <c r="J62" s="3">
-        <v>463000</v>
+        <v>441400</v>
       </c>
       <c r="K62" s="3">
         <v>499300</v>
@@ -4441,25 +4441,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1162500</v>
+        <v>1108100</v>
       </c>
       <c r="E66" s="3">
-        <v>1290900</v>
+        <v>1230500</v>
       </c>
       <c r="F66" s="3">
-        <v>1354100</v>
+        <v>1290800</v>
       </c>
       <c r="G66" s="3">
-        <v>2583000</v>
+        <v>2462200</v>
       </c>
       <c r="H66" s="3">
-        <v>2579200</v>
+        <v>2458500</v>
       </c>
       <c r="I66" s="3">
-        <v>2568000</v>
+        <v>2447900</v>
       </c>
       <c r="J66" s="3">
-        <v>2646100</v>
+        <v>2522300</v>
       </c>
       <c r="K66" s="3">
         <v>2634700</v>
@@ -4823,25 +4823,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2653300</v>
+        <v>-2529200</v>
       </c>
       <c r="E72" s="3">
-        <v>-2605700</v>
+        <v>-2483800</v>
       </c>
       <c r="F72" s="3">
-        <v>-2551400</v>
+        <v>-2432000</v>
       </c>
       <c r="G72" s="3">
-        <v>-2835200</v>
+        <v>-2702600</v>
       </c>
       <c r="H72" s="3">
-        <v>-2742000</v>
+        <v>-2613700</v>
       </c>
       <c r="I72" s="3">
-        <v>-2674700</v>
+        <v>-2549600</v>
       </c>
       <c r="J72" s="3">
-        <v>-2585200</v>
+        <v>-2464200</v>
       </c>
       <c r="K72" s="3">
         <v>-2516600</v>
@@ -5107,25 +5107,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>206600</v>
+        <v>196900</v>
       </c>
       <c r="E76" s="3">
-        <v>248800</v>
+        <v>237100</v>
       </c>
       <c r="F76" s="3">
-        <v>302400</v>
+        <v>288300</v>
       </c>
       <c r="G76" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="H76" s="3">
-        <v>105700</v>
+        <v>100800</v>
       </c>
       <c r="I76" s="3">
-        <v>169200</v>
+        <v>161200</v>
       </c>
       <c r="J76" s="3">
-        <v>255600</v>
+        <v>243700</v>
       </c>
       <c r="K76" s="3">
         <v>347900</v>
@@ -5325,25 +5325,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-44600</v>
+        <v>-42500</v>
       </c>
       <c r="E81" s="3">
-        <v>-52500</v>
+        <v>-50000</v>
       </c>
       <c r="F81" s="3">
-        <v>38200</v>
+        <v>36500</v>
       </c>
       <c r="G81" s="3">
-        <v>-93200</v>
+        <v>-88800</v>
       </c>
       <c r="H81" s="3">
-        <v>-67300</v>
+        <v>-64200</v>
       </c>
       <c r="I81" s="3">
-        <v>-89500</v>
+        <v>-85300</v>
       </c>
       <c r="J81" s="3">
-        <v>-295800</v>
+        <v>-282000</v>
       </c>
       <c r="K81" s="3">
         <v>-93400</v>
@@ -5849,25 +5849,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-45800</v>
+        <v>-43600</v>
       </c>
       <c r="E89" s="3">
-        <v>-44400</v>
+        <v>-42300</v>
       </c>
       <c r="F89" s="3">
-        <v>-409500</v>
+        <v>-390300</v>
       </c>
       <c r="G89" s="3">
-        <v>-169100</v>
+        <v>-161200</v>
       </c>
       <c r="H89" s="3">
-        <v>-13400</v>
+        <v>-12700</v>
       </c>
       <c r="I89" s="3">
-        <v>-96100</v>
+        <v>-91600</v>
       </c>
       <c r="J89" s="3">
-        <v>-33800</v>
+        <v>-32200</v>
       </c>
       <c r="K89" s="3">
         <v>17000</v>
@@ -6160,25 +6160,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14700</v>
+        <v>-14100</v>
       </c>
       <c r="E94" s="3">
-        <v>-128400</v>
+        <v>-122400</v>
       </c>
       <c r="F94" s="3">
-        <v>663400</v>
+        <v>632300</v>
       </c>
       <c r="G94" s="3">
-        <v>154000</v>
+        <v>146800</v>
       </c>
       <c r="H94" s="3">
-        <v>47500</v>
+        <v>45300</v>
       </c>
       <c r="I94" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J94" s="3">
-        <v>-127500</v>
+        <v>-121500</v>
       </c>
       <c r="K94" s="3">
         <v>-79500</v>
@@ -6542,25 +6542,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-120000</v>
+        <v>-114400</v>
       </c>
       <c r="E100" s="3">
-        <v>-21200</v>
+        <v>-20200</v>
       </c>
       <c r="F100" s="3">
-        <v>-84100</v>
+        <v>-80100</v>
       </c>
       <c r="G100" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="H100" s="3">
-        <v>-67100</v>
+        <v>-63900</v>
       </c>
       <c r="I100" s="3">
-        <v>14800</v>
+        <v>14100</v>
       </c>
       <c r="J100" s="3">
-        <v>226100</v>
+        <v>215500</v>
       </c>
       <c r="K100" s="3">
         <v>54700</v>
@@ -6613,25 +6613,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="E101" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="F101" s="3">
-        <v>-8200</v>
+        <v>-7800</v>
       </c>
       <c r="G101" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H101" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="I101" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J101" s="3">
-        <v>-28100</v>
+        <v>-26700</v>
       </c>
       <c r="K101" s="3">
         <v>-15700</v>
@@ -6684,25 +6684,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-170000</v>
+        <v>-162100</v>
       </c>
       <c r="E102" s="3">
-        <v>-197500</v>
+        <v>-188300</v>
       </c>
       <c r="F102" s="3">
-        <v>161700</v>
+        <v>154100</v>
       </c>
       <c r="G102" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="H102" s="3">
-        <v>-38400</v>
+        <v>-36600</v>
       </c>
       <c r="I102" s="3">
-        <v>-77000</v>
+        <v>-73400</v>
       </c>
       <c r="J102" s="3">
-        <v>36800</v>
+        <v>35100</v>
       </c>
       <c r="K102" s="3">
         <v>-23500</v>

--- a/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>268200</v>
+        <v>291400</v>
       </c>
       <c r="E8" s="3">
-        <v>250900</v>
+        <v>536200</v>
       </c>
       <c r="F8" s="3">
-        <v>1590500</v>
+        <v>258900</v>
       </c>
       <c r="G8" s="3">
-        <v>948300</v>
+        <v>1641000</v>
       </c>
       <c r="H8" s="3">
-        <v>430600</v>
+        <v>405600</v>
       </c>
       <c r="I8" s="3">
-        <v>387500</v>
+        <v>444300</v>
       </c>
       <c r="J8" s="3">
+        <v>399800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1465500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1175400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1143600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>783200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4982600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3807900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1371000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1045800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1312200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1006200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>966000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>717900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>969300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>794600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>720700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>482100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>281200</v>
+        <v>297000</v>
       </c>
       <c r="E9" s="3">
-        <v>261600</v>
+        <v>560100</v>
       </c>
       <c r="F9" s="3">
-        <v>1618200</v>
+        <v>269900</v>
       </c>
       <c r="G9" s="3">
-        <v>1018600</v>
+        <v>1669600</v>
       </c>
       <c r="H9" s="3">
-        <v>1092400</v>
+        <v>1096700</v>
       </c>
       <c r="I9" s="3">
-        <v>968100</v>
+        <v>1127100</v>
       </c>
       <c r="J9" s="3">
+        <v>998900</v>
+      </c>
+      <c r="K9" s="3">
         <v>4490200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1410300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1228000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>942800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4976500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3727800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1381900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1001200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1236100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>951600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>906000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>702200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>926500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>764700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>700900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>502500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-13100</v>
+        <v>-5600</v>
       </c>
       <c r="E10" s="3">
-        <v>-10700</v>
+        <v>-23900</v>
       </c>
       <c r="F10" s="3">
-        <v>-27800</v>
+        <v>-11000</v>
       </c>
       <c r="G10" s="3">
-        <v>-70300</v>
+        <v>-28600</v>
       </c>
       <c r="H10" s="3">
-        <v>-661800</v>
+        <v>-691100</v>
       </c>
       <c r="I10" s="3">
-        <v>-580700</v>
+        <v>-682900</v>
       </c>
       <c r="J10" s="3">
+        <v>-599100</v>
+      </c>
+      <c r="K10" s="3">
         <v>-3024600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-235000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-84300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-159600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>80100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>44500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>76100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>54600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>59900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>15700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>42800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>29900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>19700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="E12" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>25900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K12" s="3">
+        <v>18900</v>
+      </c>
+      <c r="L12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="N12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="O12" s="3">
+        <v>31400</v>
+      </c>
+      <c r="P12" s="3">
+        <v>28200</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="R12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="S12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="T12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="U12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="V12" s="3">
         <v>4600</v>
       </c>
-      <c r="F12" s="3">
-        <v>25100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>6600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>18900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>6600</v>
-      </c>
-      <c r="L12" s="3">
-        <v>6200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>7900</v>
-      </c>
-      <c r="N12" s="3">
-        <v>31400</v>
-      </c>
-      <c r="O12" s="3">
-        <v>28200</v>
-      </c>
-      <c r="P12" s="3">
-        <v>9800</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>8200</v>
-      </c>
-      <c r="R12" s="3">
-        <v>8400</v>
-      </c>
-      <c r="S12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="T12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="U12" s="3">
-        <v>4600</v>
-      </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>8300</v>
-      </c>
-      <c r="X12" s="3">
-        <v>4000</v>
       </c>
       <c r="Y12" s="3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>316200</v>
+        <v>344300</v>
       </c>
       <c r="E17" s="3">
-        <v>301400</v>
+        <v>638300</v>
       </c>
       <c r="F17" s="3">
-        <v>1794100</v>
+        <v>310900</v>
       </c>
       <c r="G17" s="3">
-        <v>1086000</v>
+        <v>1851100</v>
       </c>
       <c r="H17" s="3">
-        <v>448000</v>
+        <v>465700</v>
       </c>
       <c r="I17" s="3">
-        <v>414800</v>
+        <v>462200</v>
       </c>
       <c r="J17" s="3">
+        <v>428000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1600800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1257400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1137900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>888500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4972200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3861600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1379900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1082500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1318900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1027700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>981800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>767900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>992900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>865000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>752600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>545600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-48100</v>
+        <v>-52800</v>
       </c>
       <c r="E18" s="3">
-        <v>-50400</v>
+        <v>-102000</v>
       </c>
       <c r="F18" s="3">
-        <v>-203700</v>
+        <v>-52000</v>
       </c>
       <c r="G18" s="3">
-        <v>-137800</v>
+        <v>-210100</v>
       </c>
       <c r="H18" s="3">
-        <v>-17400</v>
+        <v>-60100</v>
       </c>
       <c r="I18" s="3">
-        <v>-27300</v>
+        <v>-17900</v>
       </c>
       <c r="J18" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-135300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-82100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-105300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-53700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-36800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-21500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-15900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-49900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-23600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-70300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-31900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-63600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,292 +1515,305 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>4700</v>
+        <v>1400</v>
       </c>
       <c r="E20" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
-        <v>48000</v>
-      </c>
       <c r="G20" s="3">
-        <v>53500</v>
+        <v>49600</v>
       </c>
       <c r="H20" s="3">
+        <v>38400</v>
+      </c>
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
-        <v>6300</v>
-      </c>
       <c r="J20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K20" s="3">
         <v>11200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>31600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>22900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>17400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-43900</v>
+        <v>-52500</v>
       </c>
       <c r="E21" s="3">
-        <v>-41700</v>
+        <v>-88800</v>
       </c>
       <c r="F21" s="3">
-        <v>-129000</v>
+        <v>-43000</v>
       </c>
       <c r="G21" s="3">
-        <v>-82800</v>
+        <v>-133100</v>
       </c>
       <c r="H21" s="3">
-        <v>-15100</v>
+        <v>-20100</v>
       </c>
       <c r="I21" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-52400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-72600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-79900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>59300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-14400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-10400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-30900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>21400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-75900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-48700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="3">
-        <v>3700</v>
+        <v>7500</v>
       </c>
       <c r="F22" s="3">
-        <v>19900</v>
+        <v>3800</v>
       </c>
       <c r="G22" s="3">
-        <v>6800</v>
+        <v>20500</v>
       </c>
       <c r="H22" s="3">
-        <v>5300</v>
+        <v>5700</v>
       </c>
       <c r="I22" s="3">
-        <v>4900</v>
+        <v>5500</v>
       </c>
       <c r="J22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K22" s="3">
         <v>16600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-46900</v>
+        <v>-54400</v>
       </c>
       <c r="E23" s="3">
-        <v>-52900</v>
+        <v>-103400</v>
       </c>
       <c r="F23" s="3">
-        <v>-175500</v>
+        <v>-54500</v>
       </c>
       <c r="G23" s="3">
-        <v>-91000</v>
+        <v>-181000</v>
       </c>
       <c r="H23" s="3">
-        <v>-20800</v>
+        <v>-27400</v>
       </c>
       <c r="I23" s="3">
-        <v>-26000</v>
+        <v>-21500</v>
       </c>
       <c r="J23" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-140700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-82400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-103700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>29700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-39100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-34900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-12900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-48600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-19700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-68700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-29600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1778,67 +1824,70 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>600</v>
+      </c>
+      <c r="N24" s="3">
+        <v>700</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>700</v>
+      </c>
+      <c r="R24" s="3">
+        <v>600</v>
+      </c>
+      <c r="S24" s="3">
+        <v>700</v>
+      </c>
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="U24" s="3">
+        <v>500</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="W24" s="3">
+        <v>500</v>
+      </c>
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>3100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P24" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>600</v>
-      </c>
-      <c r="R24" s="3">
-        <v>700</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="Y24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
-        <v>500</v>
-      </c>
-      <c r="U24" s="3">
-        <v>100</v>
-      </c>
-      <c r="V24" s="3">
-        <v>500</v>
-      </c>
-      <c r="W24" s="3">
-        <v>600</v>
-      </c>
-      <c r="X24" s="3">
-        <v>400</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-46900</v>
+        <v>-54400</v>
       </c>
       <c r="E26" s="3">
-        <v>-52900</v>
+        <v>-103400</v>
       </c>
       <c r="F26" s="3">
-        <v>-175900</v>
+        <v>-54600</v>
       </c>
       <c r="G26" s="3">
-        <v>-91200</v>
+        <v>-181500</v>
       </c>
       <c r="H26" s="3">
-        <v>-20400</v>
+        <v>-27500</v>
       </c>
       <c r="I26" s="3">
-        <v>-26600</v>
+        <v>-21100</v>
       </c>
       <c r="J26" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-143100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-83400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-104400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-40900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-35500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-13400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-48700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-20200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-69300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-30000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-42900</v>
+        <v>-49600</v>
       </c>
       <c r="E27" s="3">
-        <v>-50000</v>
+        <v>-96200</v>
       </c>
       <c r="F27" s="3">
-        <v>-168700</v>
+        <v>-51600</v>
       </c>
       <c r="G27" s="3">
-        <v>-89400</v>
+        <v>-174000</v>
       </c>
       <c r="H27" s="3">
-        <v>-19700</v>
+        <v>-25700</v>
       </c>
       <c r="I27" s="3">
-        <v>-25900</v>
+        <v>-20300</v>
       </c>
       <c r="J27" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-139600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-82500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-103200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>29200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-39600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-35100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-13500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-48700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-20300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-69400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-29800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2121,52 +2179,55 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E29" s="3">
         <v>300</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
-        <v>205100</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>600</v>
+        <v>211600</v>
       </c>
       <c r="H29" s="3">
-        <v>-44500</v>
+        <v>-65900</v>
       </c>
       <c r="I29" s="3">
-        <v>-59500</v>
+        <v>-45900</v>
       </c>
       <c r="J29" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="K29" s="3">
         <v>-142400</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-10800</v>
       </c>
       <c r="L29" s="3">
         <v>-10800</v>
       </c>
       <c r="M29" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="N29" s="3">
         <v>-13100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-60300</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-4700</v>
+        <v>-1400</v>
       </c>
       <c r="E32" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
-        <v>-48000</v>
-      </c>
       <c r="G32" s="3">
-        <v>-53500</v>
+        <v>-49600</v>
       </c>
       <c r="H32" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
-        <v>-6300</v>
-      </c>
       <c r="J32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-31600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-22900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-17400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-42500</v>
+        <v>-50900</v>
       </c>
       <c r="E33" s="3">
-        <v>-50000</v>
+        <v>-95900</v>
       </c>
       <c r="F33" s="3">
-        <v>36500</v>
+        <v>-51600</v>
       </c>
       <c r="G33" s="3">
-        <v>-88800</v>
+        <v>37600</v>
       </c>
       <c r="H33" s="3">
-        <v>-64200</v>
+        <v>-91700</v>
       </c>
       <c r="I33" s="3">
-        <v>-85300</v>
+        <v>-66200</v>
       </c>
       <c r="J33" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-282000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-93400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-116300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-39600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-35100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-13500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-48700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-20300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-69400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-29800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-42500</v>
+        <v>-50900</v>
       </c>
       <c r="E35" s="3">
-        <v>-50000</v>
+        <v>-95900</v>
       </c>
       <c r="F35" s="3">
-        <v>36500</v>
+        <v>-51600</v>
       </c>
       <c r="G35" s="3">
-        <v>-88800</v>
+        <v>37600</v>
       </c>
       <c r="H35" s="3">
-        <v>-64200</v>
+        <v>-91700</v>
       </c>
       <c r="I35" s="3">
-        <v>-85300</v>
+        <v>-66200</v>
       </c>
       <c r="J35" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-282000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-93400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-116300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-39600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-35100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-13500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-48700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-20300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-69400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-29800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2748,647 +2834,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>131200</v>
+        <v>110200</v>
       </c>
       <c r="E41" s="3">
-        <v>285900</v>
+        <v>135300</v>
       </c>
       <c r="F41" s="3">
-        <v>497200</v>
+        <v>294900</v>
       </c>
       <c r="G41" s="3">
-        <v>134500</v>
+        <v>513000</v>
       </c>
       <c r="H41" s="3">
-        <v>126500</v>
+        <v>138700</v>
       </c>
       <c r="I41" s="3">
-        <v>140800</v>
+        <v>130500</v>
       </c>
       <c r="J41" s="3">
+        <v>145200</v>
+      </c>
+      <c r="K41" s="3">
         <v>192600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>267300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>351400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>197600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>307100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>333600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>245800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>223600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>236800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>85500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>254000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>306600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>184100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>149900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>165400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>326200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>224600</v>
+        <v>120200</v>
       </c>
       <c r="E42" s="3">
-        <v>180600</v>
+        <v>231800</v>
       </c>
       <c r="F42" s="3">
-        <v>20500</v>
+        <v>186300</v>
       </c>
       <c r="G42" s="3">
+        <v>21200</v>
+      </c>
+      <c r="H42" s="3">
         <v>500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>100</v>
       </c>
-      <c r="I42" s="3">
-        <v>41300</v>
-      </c>
       <c r="J42" s="3">
+        <v>42600</v>
+      </c>
+      <c r="K42" s="3">
         <v>37400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>45200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>78500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>129800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>162800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>186600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>169000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>141000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>146300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>291400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>171800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>200900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>349300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>552300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>163100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>145600</v>
+        <v>137200</v>
       </c>
       <c r="E43" s="3">
-        <v>149400</v>
+        <v>150200</v>
       </c>
       <c r="F43" s="3">
-        <v>174200</v>
+        <v>154100</v>
       </c>
       <c r="G43" s="3">
-        <v>199000</v>
+        <v>179700</v>
       </c>
       <c r="H43" s="3">
-        <v>228800</v>
+        <v>205300</v>
       </c>
       <c r="I43" s="3">
-        <v>211300</v>
+        <v>236100</v>
       </c>
       <c r="J43" s="3">
+        <v>218000</v>
+      </c>
+      <c r="K43" s="3">
         <v>244300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>238200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>246700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>254600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>327500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>297400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>295700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>264400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>269800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>189200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>166500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>133500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>162200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>94800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>82300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="E44" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F44" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G44" s="3">
-        <v>4700</v>
+        <v>3700</v>
       </c>
       <c r="H44" s="3">
-        <v>5500</v>
+        <v>4900</v>
       </c>
       <c r="I44" s="3">
-        <v>4800</v>
+        <v>5600</v>
       </c>
       <c r="J44" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K44" s="3">
         <v>6100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>24500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>23400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>23600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>21600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>25300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>27300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>25700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>21900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>23000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>25800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>22400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>23300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>28200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>21700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>194700</v>
+        <v>168600</v>
       </c>
       <c r="E45" s="3">
-        <v>224600</v>
+        <v>200900</v>
       </c>
       <c r="F45" s="3">
-        <v>257200</v>
+        <v>231800</v>
       </c>
       <c r="G45" s="3">
-        <v>786000</v>
+        <v>265400</v>
       </c>
       <c r="H45" s="3">
-        <v>805700</v>
+        <v>810900</v>
       </c>
       <c r="I45" s="3">
-        <v>818100</v>
+        <v>831300</v>
       </c>
       <c r="J45" s="3">
+        <v>844100</v>
+      </c>
+      <c r="K45" s="3">
         <v>823600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>794600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>670000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>677000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>672800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>543500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>503000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>491600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>462300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>423700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>429300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>386900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>461900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>304500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>310600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>254900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>699200</v>
+        <v>539200</v>
       </c>
       <c r="E46" s="3">
-        <v>843900</v>
+        <v>721400</v>
       </c>
       <c r="F46" s="3">
-        <v>952600</v>
+        <v>870700</v>
       </c>
       <c r="G46" s="3">
-        <v>1124600</v>
+        <v>982900</v>
       </c>
       <c r="H46" s="3">
-        <v>1166600</v>
+        <v>1160300</v>
       </c>
       <c r="I46" s="3">
-        <v>1216200</v>
+        <v>1203600</v>
       </c>
       <c r="J46" s="3">
+        <v>1254900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1304000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1369800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1369900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1282700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1491800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1386300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1240700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1146200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1137100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1012900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1047300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1050300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1180800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1129600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>743100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>711900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>41500</v>
+        <v>37400</v>
       </c>
       <c r="E47" s="3">
-        <v>49800</v>
+        <v>42800</v>
       </c>
       <c r="F47" s="3">
-        <v>63300</v>
+        <v>51400</v>
       </c>
       <c r="G47" s="3">
-        <v>67500</v>
+        <v>65300</v>
       </c>
       <c r="H47" s="3">
-        <v>91900</v>
+        <v>69700</v>
       </c>
       <c r="I47" s="3">
-        <v>105600</v>
+        <v>94800</v>
       </c>
       <c r="J47" s="3">
+        <v>109000</v>
+      </c>
+      <c r="K47" s="3">
         <v>121000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>151000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>165500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>182800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>201500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>213400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>244500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>245100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>239000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>188000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>157100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>114700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>116700</v>
-      </c>
-      <c r="W47" s="3">
-        <v>5500</v>
       </c>
       <c r="X47" s="3">
         <v>5500</v>
       </c>
       <c r="Y47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Z47" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>344700</v>
+        <v>354300</v>
       </c>
       <c r="E48" s="3">
-        <v>352700</v>
+        <v>355700</v>
       </c>
       <c r="F48" s="3">
-        <v>370600</v>
+        <v>363900</v>
       </c>
       <c r="G48" s="3">
-        <v>1119400</v>
+        <v>382300</v>
       </c>
       <c r="H48" s="3">
-        <v>1128100</v>
+        <v>1154900</v>
       </c>
       <c r="I48" s="3">
-        <v>1093500</v>
+        <v>1163900</v>
       </c>
       <c r="J48" s="3">
+        <v>1128200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1105600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1173000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1153300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1173400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1126900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1065300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1005800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>993400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>299900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>254500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>221600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>188200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>194000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>181800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>164000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>16600</v>
+        <v>17900</v>
       </c>
       <c r="E49" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>16300</v>
+      </c>
+      <c r="G49" s="3">
         <v>15800</v>
       </c>
-      <c r="F49" s="3">
-        <v>15300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>42600</v>
-      </c>
       <c r="H49" s="3">
+        <v>43900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>44200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K49" s="3">
         <v>42900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>43000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>42900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>90100</v>
       </c>
       <c r="L49" s="3">
         <v>90100</v>
       </c>
       <c r="M49" s="3">
+        <v>90100</v>
+      </c>
+      <c r="N49" s="3">
         <v>95600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>94300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>96000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>93400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>92100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>89000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>83600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>86500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>86100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>90100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>84500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>84800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>202900</v>
+        <v>228900</v>
       </c>
       <c r="E52" s="3">
-        <v>205600</v>
+        <v>209400</v>
       </c>
       <c r="F52" s="3">
-        <v>177300</v>
+        <v>212100</v>
       </c>
       <c r="G52" s="3">
-        <v>123500</v>
+        <v>182900</v>
       </c>
       <c r="H52" s="3">
-        <v>129900</v>
+        <v>127400</v>
       </c>
       <c r="I52" s="3">
-        <v>150900</v>
+        <v>134000</v>
       </c>
       <c r="J52" s="3">
+        <v>155700</v>
+      </c>
+      <c r="K52" s="3">
         <v>192600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>198800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>179300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>154800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>87000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>73400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>52400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>39300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>31000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>27800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>28000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>32200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>32800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>137900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>110300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>1305000</v>
+        <v>1177700</v>
       </c>
       <c r="E54" s="3">
-        <v>1467700</v>
+        <v>1346400</v>
       </c>
       <c r="F54" s="3">
-        <v>1579100</v>
+        <v>1514300</v>
       </c>
       <c r="G54" s="3">
-        <v>2477600</v>
+        <v>1629200</v>
       </c>
       <c r="H54" s="3">
-        <v>2559300</v>
+        <v>2556300</v>
       </c>
       <c r="I54" s="3">
-        <v>2609200</v>
+        <v>2640600</v>
       </c>
       <c r="J54" s="3">
+        <v>2692000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2766000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2982600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2958200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2889200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3001500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2834500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2636800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2516100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1796000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1566800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1540600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1471500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1614500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1539400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1107700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>972800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3796,434 +3926,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>208900</v>
+        <v>220200</v>
       </c>
       <c r="E57" s="3">
-        <v>191200</v>
+        <v>215500</v>
       </c>
       <c r="F57" s="3">
-        <v>188400</v>
+        <v>197200</v>
       </c>
       <c r="G57" s="3">
-        <v>534600</v>
+        <v>194300</v>
       </c>
       <c r="H57" s="3">
-        <v>587400</v>
+        <v>551600</v>
       </c>
       <c r="I57" s="3">
-        <v>543200</v>
+        <v>606100</v>
       </c>
       <c r="J57" s="3">
+        <v>560400</v>
+      </c>
+      <c r="K57" s="3">
         <v>577000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>555700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>476300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>405400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>522200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>473200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>444600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>421000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>414100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>325600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>322700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>265300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>354500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>358000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>344400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>222200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>302900</v>
+        <v>187300</v>
       </c>
       <c r="E58" s="3">
-        <v>266700</v>
+        <v>312600</v>
       </c>
       <c r="F58" s="3">
-        <v>290500</v>
+        <v>275100</v>
       </c>
       <c r="G58" s="3">
-        <v>467200</v>
+        <v>299800</v>
       </c>
       <c r="H58" s="3">
-        <v>359900</v>
+        <v>482000</v>
       </c>
       <c r="I58" s="3">
-        <v>444100</v>
+        <v>371300</v>
       </c>
       <c r="J58" s="3">
+        <v>458200</v>
+      </c>
+      <c r="K58" s="3">
         <v>442600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>485300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>489900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>402900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>319800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>377300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>325100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>259300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>204000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>186500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>234600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>181600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>136100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>159600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>261700</v>
+        <v>275500</v>
       </c>
       <c r="E59" s="3">
-        <v>304100</v>
+        <v>270000</v>
       </c>
       <c r="F59" s="3">
-        <v>335700</v>
+        <v>313800</v>
       </c>
       <c r="G59" s="3">
-        <v>865400</v>
+        <v>346400</v>
       </c>
       <c r="H59" s="3">
-        <v>745100</v>
+        <v>892900</v>
       </c>
       <c r="I59" s="3">
-        <v>702500</v>
+        <v>768700</v>
       </c>
       <c r="J59" s="3">
+        <v>724800</v>
+      </c>
+      <c r="K59" s="3">
         <v>739200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>734900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>711100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>721500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>702400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>673200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>643900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>615400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>504900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>442800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>433300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>388100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>410400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>398000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>330500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>314400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>773500</v>
+        <v>683100</v>
       </c>
       <c r="E60" s="3">
-        <v>762000</v>
+        <v>798100</v>
       </c>
       <c r="F60" s="3">
-        <v>814600</v>
+        <v>786200</v>
       </c>
       <c r="G60" s="3">
-        <v>1867200</v>
+        <v>840400</v>
       </c>
       <c r="H60" s="3">
-        <v>1692300</v>
+        <v>1926500</v>
       </c>
       <c r="I60" s="3">
-        <v>1689800</v>
+        <v>1746100</v>
       </c>
       <c r="J60" s="3">
+        <v>1743500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1758700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1775900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1588100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1616700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1627500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1466100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1465900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1361400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1178300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>972500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>942500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>888000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>946400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>892100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>834500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>690200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>127300</v>
+        <v>138200</v>
       </c>
       <c r="E61" s="3">
-        <v>254400</v>
+        <v>131400</v>
       </c>
       <c r="F61" s="3">
-        <v>249700</v>
+        <v>262500</v>
       </c>
       <c r="G61" s="3">
-        <v>161200</v>
+        <v>257700</v>
       </c>
       <c r="H61" s="3">
-        <v>338200</v>
+        <v>166300</v>
       </c>
       <c r="I61" s="3">
-        <v>345300</v>
+        <v>348900</v>
       </c>
       <c r="J61" s="3">
+        <v>356300</v>
+      </c>
+      <c r="K61" s="3">
         <v>325900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>362500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>401500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>228900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>209800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>217900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>300</v>
-      </c>
-      <c r="R61" s="3">
-        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>100</v>
       </c>
       <c r="T61" s="3">
+        <v>100</v>
+      </c>
+      <c r="U61" s="3">
         <v>400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>189200</v>
+        <v>187000</v>
       </c>
       <c r="E62" s="3">
-        <v>194900</v>
+        <v>195200</v>
       </c>
       <c r="F62" s="3">
-        <v>206200</v>
+        <v>201100</v>
       </c>
       <c r="G62" s="3">
-        <v>413700</v>
+        <v>212700</v>
       </c>
       <c r="H62" s="3">
-        <v>406300</v>
+        <v>426900</v>
       </c>
       <c r="I62" s="3">
-        <v>417200</v>
+        <v>419200</v>
       </c>
       <c r="J62" s="3">
+        <v>430400</v>
+      </c>
+      <c r="K62" s="3">
         <v>441400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>499300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>516900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>555300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>561400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>547200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>545300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>563300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1108100</v>
+        <v>1025400</v>
       </c>
       <c r="E66" s="3">
-        <v>1230500</v>
+        <v>1143300</v>
       </c>
       <c r="F66" s="3">
-        <v>1290800</v>
+        <v>1269600</v>
       </c>
       <c r="G66" s="3">
-        <v>2462200</v>
+        <v>1331800</v>
       </c>
       <c r="H66" s="3">
-        <v>2458500</v>
+        <v>2540400</v>
       </c>
       <c r="I66" s="3">
-        <v>2447900</v>
+        <v>2536600</v>
       </c>
       <c r="J66" s="3">
+        <v>2525700</v>
+      </c>
+      <c r="K66" s="3">
         <v>2522300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2634700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2503600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2398700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2397800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2231600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2022000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1925600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1195000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>988200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>958600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>903700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>962700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>906000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>862000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>691800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4741,13 +4909,16 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
-        <v>2351100</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="3">
         <v>2351100</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>2351100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2529200</v>
+        <v>-2664200</v>
       </c>
       <c r="E72" s="3">
-        <v>-2483800</v>
+        <v>-2609500</v>
       </c>
       <c r="F72" s="3">
-        <v>-2432000</v>
+        <v>-2562700</v>
       </c>
       <c r="G72" s="3">
-        <v>-2702600</v>
+        <v>-2509300</v>
       </c>
       <c r="H72" s="3">
-        <v>-2613700</v>
+        <v>-2788400</v>
       </c>
       <c r="I72" s="3">
-        <v>-2549600</v>
+        <v>-2696700</v>
       </c>
       <c r="J72" s="3">
+        <v>-2630500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2464200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2516600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2423300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2570800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2405400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2445200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2444600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2380700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2239300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2154800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2201600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2188200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2209300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2189000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2119600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2089800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>196900</v>
+        <v>152300</v>
       </c>
       <c r="E76" s="3">
-        <v>237100</v>
+        <v>203100</v>
       </c>
       <c r="F76" s="3">
-        <v>288300</v>
+        <v>244700</v>
       </c>
       <c r="G76" s="3">
-        <v>15400</v>
+        <v>297400</v>
       </c>
       <c r="H76" s="3">
-        <v>100800</v>
+        <v>15900</v>
       </c>
       <c r="I76" s="3">
-        <v>161200</v>
+        <v>104000</v>
       </c>
       <c r="J76" s="3">
+        <v>166400</v>
+      </c>
+      <c r="K76" s="3">
         <v>243700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>347900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>454600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>490500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>603700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>602900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>614800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>590600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>601000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>578600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>582000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>567800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>651800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>633400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2105500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2070100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-42500</v>
+        <v>-50900</v>
       </c>
       <c r="E81" s="3">
-        <v>-50000</v>
+        <v>-95900</v>
       </c>
       <c r="F81" s="3">
-        <v>36500</v>
+        <v>-51600</v>
       </c>
       <c r="G81" s="3">
-        <v>-88800</v>
+        <v>37600</v>
       </c>
       <c r="H81" s="3">
-        <v>-64200</v>
+        <v>-91700</v>
       </c>
       <c r="I81" s="3">
-        <v>-85300</v>
+        <v>-66200</v>
       </c>
       <c r="J81" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-282000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-93400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-116300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-39600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-35100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-13500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-48700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-20300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-69400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-29800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-43600</v>
+        <v>-37100</v>
       </c>
       <c r="E89" s="3">
-        <v>-42300</v>
+        <v>-88700</v>
       </c>
       <c r="F89" s="3">
-        <v>-390300</v>
+        <v>-43700</v>
       </c>
       <c r="G89" s="3">
-        <v>-161200</v>
+        <v>-402700</v>
       </c>
       <c r="H89" s="3">
-        <v>-12700</v>
+        <v>-166300</v>
       </c>
       <c r="I89" s="3">
-        <v>-91600</v>
+        <v>-13200</v>
       </c>
       <c r="J89" s="3">
+        <v>-94500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-32200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>106500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-202500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>131300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>57100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>52100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-31300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>105900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>62000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-87600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>16100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>42300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6000,20 +6221,23 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>78</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-16600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14100</v>
+        <v>128100</v>
       </c>
       <c r="E94" s="3">
-        <v>-122400</v>
+        <v>-140800</v>
       </c>
       <c r="F94" s="3">
-        <v>632300</v>
+        <v>-126300</v>
       </c>
       <c r="G94" s="3">
-        <v>146800</v>
+        <v>652400</v>
       </c>
       <c r="H94" s="3">
-        <v>45300</v>
+        <v>151500</v>
       </c>
       <c r="I94" s="3">
-        <v>3200</v>
+        <v>46700</v>
       </c>
       <c r="J94" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-121500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-79500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>17800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-294500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-215800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-99600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>16300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-225400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-53000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>91300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>93900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-444500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-204600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-68900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6779,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-114400</v>
+        <v>-141000</v>
       </c>
       <c r="E100" s="3">
-        <v>-20200</v>
+        <v>-138900</v>
       </c>
       <c r="F100" s="3">
-        <v>-80100</v>
+        <v>-20900</v>
       </c>
       <c r="G100" s="3">
-        <v>8300</v>
+        <v>-82700</v>
       </c>
       <c r="H100" s="3">
-        <v>-63900</v>
+        <v>8500</v>
       </c>
       <c r="I100" s="3">
-        <v>14100</v>
+        <v>-66000</v>
       </c>
       <c r="J100" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K100" s="3">
         <v>215500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>54700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>112300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>94700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>309800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>243200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>47500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>54300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>47500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>21100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-47600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>59000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-66600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>416100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>8100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10000</v>
+        <v>6400</v>
       </c>
       <c r="E101" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="M101" s="3">
+        <v>200</v>
+      </c>
+      <c r="N101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O101" s="3">
+        <v>900</v>
+      </c>
+      <c r="P101" s="3">
+        <v>6500</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>4300</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="S101" s="3">
+        <v>300</v>
+      </c>
+      <c r="T101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="U101" s="3">
+        <v>10800</v>
+      </c>
+      <c r="V101" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="W101" s="3">
+        <v>8800</v>
+      </c>
+      <c r="X101" s="3">
         <v>-3300</v>
       </c>
-      <c r="F101" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="G101" s="3">
-        <v>500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>900</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-15700</v>
-      </c>
-      <c r="L101" s="3">
-        <v>200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>3800</v>
-      </c>
-      <c r="N101" s="3">
-        <v>900</v>
-      </c>
-      <c r="O101" s="3">
-        <v>6500</v>
-      </c>
-      <c r="P101" s="3">
-        <v>4300</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="R101" s="3">
-        <v>300</v>
-      </c>
-      <c r="S101" s="3">
-        <v>7000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>10800</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="V101" s="3">
-        <v>8800</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-162100</v>
+        <v>-43700</v>
       </c>
       <c r="E102" s="3">
-        <v>-188300</v>
+        <v>-361500</v>
       </c>
       <c r="F102" s="3">
-        <v>154100</v>
+        <v>-194200</v>
       </c>
       <c r="G102" s="3">
-        <v>-5600</v>
+        <v>159000</v>
       </c>
       <c r="H102" s="3">
-        <v>-36600</v>
+        <v>-5800</v>
       </c>
       <c r="I102" s="3">
-        <v>-73400</v>
+        <v>-37700</v>
       </c>
       <c r="J102" s="3">
+        <v>-75700</v>
+      </c>
+      <c r="K102" s="3">
         <v>35100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>177200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-86200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>147500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>91000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>170000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-185200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-27700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>52000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>34200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-15600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-160800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-108300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,346 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>291400</v>
+        <v>281700</v>
       </c>
       <c r="E8" s="3">
-        <v>536200</v>
+        <v>288400</v>
       </c>
       <c r="F8" s="3">
-        <v>258900</v>
+        <v>530700</v>
       </c>
       <c r="G8" s="3">
-        <v>1641000</v>
+        <v>256200</v>
       </c>
       <c r="H8" s="3">
-        <v>405600</v>
+        <v>1624200</v>
       </c>
       <c r="I8" s="3">
-        <v>444300</v>
+        <v>401400</v>
       </c>
       <c r="J8" s="3">
+        <v>439700</v>
+      </c>
+      <c r="K8" s="3">
         <v>399800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1465500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1175400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1143600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>783200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4982600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3807900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1371000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1045800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1312200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1006200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>966000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>717900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>969300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>794600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>720700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>482100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>297000</v>
+        <v>290000</v>
       </c>
       <c r="E9" s="3">
-        <v>560100</v>
+        <v>294000</v>
       </c>
       <c r="F9" s="3">
-        <v>269900</v>
+        <v>554300</v>
       </c>
       <c r="G9" s="3">
-        <v>1669600</v>
+        <v>267200</v>
       </c>
       <c r="H9" s="3">
-        <v>1096700</v>
+        <v>1652500</v>
       </c>
       <c r="I9" s="3">
-        <v>1127100</v>
+        <v>1085400</v>
       </c>
       <c r="J9" s="3">
+        <v>1115600</v>
+      </c>
+      <c r="K9" s="3">
         <v>998900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4490200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1410300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1228000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>942800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4976500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3727800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1381900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1001200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1236100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>951600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>906000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>702200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>926500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>764700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>700900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>502500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-5600</v>
+        <v>-8300</v>
       </c>
       <c r="E10" s="3">
-        <v>-23900</v>
+        <v>-5500</v>
       </c>
       <c r="F10" s="3">
-        <v>-11000</v>
+        <v>-23600</v>
       </c>
       <c r="G10" s="3">
-        <v>-28600</v>
+        <v>-10900</v>
       </c>
       <c r="H10" s="3">
-        <v>-691100</v>
+        <v>-28300</v>
       </c>
       <c r="I10" s="3">
-        <v>-682900</v>
+        <v>-684000</v>
       </c>
       <c r="J10" s="3">
+        <v>-675900</v>
+      </c>
+      <c r="K10" s="3">
         <v>-599100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-3024600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-235000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-84300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-159600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>80100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-10800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>44500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>76100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>54600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>59900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>15700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>42800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>29900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>19700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5700</v>
+        <v>4200</v>
       </c>
       <c r="E12" s="3">
-        <v>10800</v>
+        <v>5600</v>
       </c>
       <c r="F12" s="3">
-        <v>4800</v>
+        <v>10700</v>
       </c>
       <c r="G12" s="3">
-        <v>25900</v>
+        <v>4700</v>
       </c>
       <c r="H12" s="3">
-        <v>6100</v>
+        <v>25600</v>
       </c>
       <c r="I12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J12" s="3">
         <v>6800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>18900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>31400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>28200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>4300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8300</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>4000</v>
       </c>
       <c r="Z12" s="3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>344300</v>
+        <v>331100</v>
       </c>
       <c r="E17" s="3">
-        <v>638300</v>
+        <v>340700</v>
       </c>
       <c r="F17" s="3">
-        <v>310900</v>
+        <v>631700</v>
       </c>
       <c r="G17" s="3">
-        <v>1851100</v>
+        <v>307700</v>
       </c>
       <c r="H17" s="3">
-        <v>465700</v>
+        <v>1832100</v>
       </c>
       <c r="I17" s="3">
-        <v>462200</v>
+        <v>460900</v>
       </c>
       <c r="J17" s="3">
+        <v>457500</v>
+      </c>
+      <c r="K17" s="3">
         <v>428000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1257400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1137900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>888500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4972200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3861600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1379900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1082500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1318900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1027700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>981800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>767900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>992900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>865000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>752600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>545600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-52800</v>
+        <v>-49400</v>
       </c>
       <c r="E18" s="3">
-        <v>-102000</v>
+        <v>-52300</v>
       </c>
       <c r="F18" s="3">
-        <v>-52000</v>
+        <v>-101000</v>
       </c>
       <c r="G18" s="3">
-        <v>-210100</v>
+        <v>-51500</v>
       </c>
       <c r="H18" s="3">
-        <v>-60100</v>
+        <v>-208000</v>
       </c>
       <c r="I18" s="3">
-        <v>-17900</v>
+        <v>-59500</v>
       </c>
       <c r="J18" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-28200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-135300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-82100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-105300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-53700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-36800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-21500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-15900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-49900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-23600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-70300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-31900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-63600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1516,304 +1548,317 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
-        <v>6200</v>
-      </c>
       <c r="F20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
-        <v>49600</v>
-      </c>
       <c r="H20" s="3">
-        <v>38400</v>
+        <v>49100</v>
       </c>
       <c r="I20" s="3">
+        <v>38000</v>
+      </c>
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>31600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>22900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>17400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-52500</v>
+        <v>-49500</v>
       </c>
       <c r="E21" s="3">
-        <v>-88800</v>
+        <v>-52000</v>
       </c>
       <c r="F21" s="3">
-        <v>-43000</v>
+        <v>-87800</v>
       </c>
       <c r="G21" s="3">
-        <v>-133100</v>
+        <v>-42600</v>
       </c>
       <c r="H21" s="3">
-        <v>-20100</v>
+        <v>-131700</v>
       </c>
       <c r="I21" s="3">
-        <v>-15600</v>
+        <v>-19900</v>
       </c>
       <c r="J21" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-52400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-72600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-79900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>59300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-11700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-10400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-30900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>21400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-75900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-48700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="E22" s="3">
-        <v>7500</v>
+        <v>2900</v>
       </c>
       <c r="F22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G22" s="3">
         <v>3800</v>
       </c>
-      <c r="G22" s="3">
-        <v>20500</v>
-      </c>
       <c r="H22" s="3">
+        <v>20300</v>
+      </c>
+      <c r="I22" s="3">
         <v>5700</v>
       </c>
-      <c r="I22" s="3">
-        <v>5500</v>
-      </c>
       <c r="J22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K22" s="3">
         <v>5100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-54400</v>
+        <v>-52000</v>
       </c>
       <c r="E23" s="3">
-        <v>-103400</v>
+        <v>-53900</v>
       </c>
       <c r="F23" s="3">
-        <v>-54500</v>
+        <v>-102300</v>
       </c>
       <c r="G23" s="3">
-        <v>-181000</v>
+        <v>-54000</v>
       </c>
       <c r="H23" s="3">
-        <v>-27400</v>
+        <v>-179200</v>
       </c>
       <c r="I23" s="3">
-        <v>-21500</v>
+        <v>-27100</v>
       </c>
       <c r="J23" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-26800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-140700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-82400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-103700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>29700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-39100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-34900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-12900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-48600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-19700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-68700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-29600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1827,67 +1872,70 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
-        <v>200</v>
-      </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>400</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-54400</v>
+        <v>-52000</v>
       </c>
       <c r="E26" s="3">
-        <v>-103400</v>
+        <v>-53900</v>
       </c>
       <c r="F26" s="3">
-        <v>-54600</v>
+        <v>-102400</v>
       </c>
       <c r="G26" s="3">
-        <v>-181500</v>
+        <v>-54000</v>
       </c>
       <c r="H26" s="3">
+        <v>-179600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-27500</v>
       </c>
-      <c r="I26" s="3">
-        <v>-21100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-27500</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-143100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-83400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-104400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-40900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-35500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-13400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-48700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-20200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-69300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-30000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-49600</v>
+        <v>-58200</v>
       </c>
       <c r="E27" s="3">
-        <v>-96200</v>
+        <v>-49100</v>
       </c>
       <c r="F27" s="3">
-        <v>-51600</v>
+        <v>-95200</v>
       </c>
       <c r="G27" s="3">
-        <v>-174000</v>
+        <v>-51000</v>
       </c>
       <c r="H27" s="3">
-        <v>-25700</v>
+        <v>-172200</v>
       </c>
       <c r="I27" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-139600</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-82500</v>
+      </c>
+      <c r="N27" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-103200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>29200</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="X27" s="3">
         <v>-20300</v>
       </c>
-      <c r="J27" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-139600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-82500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>7300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-103200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>29200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-39600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-35100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-48700</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-69400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-29800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2182,55 +2239,58 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>300</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
-        <v>211600</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-65900</v>
+        <v>209500</v>
       </c>
       <c r="I29" s="3">
-        <v>-45900</v>
+        <v>-65300</v>
       </c>
       <c r="J29" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="K29" s="3">
         <v>-61300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-142400</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-10800</v>
       </c>
       <c r="M29" s="3">
         <v>-10800</v>
       </c>
       <c r="N29" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="O29" s="3">
         <v>-13100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-60300</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2404,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
-        <v>-6200</v>
-      </c>
       <c r="F32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-49600</v>
-      </c>
       <c r="H32" s="3">
-        <v>-38400</v>
+        <v>-49100</v>
       </c>
       <c r="I32" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-31600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-17400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-50900</v>
+        <v>-62700</v>
       </c>
       <c r="E33" s="3">
-        <v>-95900</v>
+        <v>-50400</v>
       </c>
       <c r="F33" s="3">
-        <v>-51600</v>
+        <v>-94900</v>
       </c>
       <c r="G33" s="3">
-        <v>37600</v>
+        <v>-51100</v>
       </c>
       <c r="H33" s="3">
-        <v>-91700</v>
+        <v>37200</v>
       </c>
       <c r="I33" s="3">
-        <v>-66200</v>
+        <v>-90700</v>
       </c>
       <c r="J33" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-88000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-282000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-93400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-116300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-31200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-39600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-35100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-13500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-48700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-20300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-69400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-29800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-50900</v>
+        <v>-62700</v>
       </c>
       <c r="E35" s="3">
-        <v>-95900</v>
+        <v>-50400</v>
       </c>
       <c r="F35" s="3">
-        <v>-51600</v>
+        <v>-94900</v>
       </c>
       <c r="G35" s="3">
-        <v>37600</v>
+        <v>-51100</v>
       </c>
       <c r="H35" s="3">
-        <v>-91700</v>
+        <v>37200</v>
       </c>
       <c r="I35" s="3">
-        <v>-66200</v>
+        <v>-90700</v>
       </c>
       <c r="J35" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-88000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-282000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-93400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-116300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-31200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-39600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-35100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-13500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-48700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-20300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-69400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-29800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2835,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>110200</v>
+        <v>75800</v>
       </c>
       <c r="E41" s="3">
-        <v>135300</v>
+        <v>109100</v>
       </c>
       <c r="F41" s="3">
-        <v>294900</v>
+        <v>134000</v>
       </c>
       <c r="G41" s="3">
-        <v>513000</v>
+        <v>291900</v>
       </c>
       <c r="H41" s="3">
-        <v>138700</v>
+        <v>507700</v>
       </c>
       <c r="I41" s="3">
-        <v>130500</v>
+        <v>137300</v>
       </c>
       <c r="J41" s="3">
+        <v>129100</v>
+      </c>
+      <c r="K41" s="3">
         <v>145200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>192600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>267300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>351400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>197600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>307100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>333600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>245800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>223600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>236800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>85500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>254000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>306600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>184100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>149900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>165400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>326200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>120200</v>
+        <v>103100</v>
       </c>
       <c r="E42" s="3">
-        <v>231800</v>
+        <v>119000</v>
       </c>
       <c r="F42" s="3">
-        <v>186300</v>
+        <v>229400</v>
       </c>
       <c r="G42" s="3">
-        <v>21200</v>
+        <v>184400</v>
       </c>
       <c r="H42" s="3">
+        <v>20900</v>
+      </c>
+      <c r="I42" s="3">
         <v>500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>42600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>37400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>45200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>78500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>129800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>162800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>186600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>169000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>141000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>146300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>291400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>171800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>200900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>349300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>552300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>163100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>137200</v>
+        <v>115200</v>
       </c>
       <c r="E43" s="3">
-        <v>150200</v>
+        <v>135800</v>
       </c>
       <c r="F43" s="3">
-        <v>154100</v>
+        <v>148700</v>
       </c>
       <c r="G43" s="3">
-        <v>179700</v>
+        <v>152500</v>
       </c>
       <c r="H43" s="3">
-        <v>205300</v>
+        <v>177900</v>
       </c>
       <c r="I43" s="3">
-        <v>236100</v>
+        <v>203200</v>
       </c>
       <c r="J43" s="3">
+        <v>233700</v>
+      </c>
+      <c r="K43" s="3">
         <v>218000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>244300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>238200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>246700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>254600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>327500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>297400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>295700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>264400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>269800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>189200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>166500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>133500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>162200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>94800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>82300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E44" s="3">
         <v>3000</v>
       </c>
-      <c r="E44" s="3">
-        <v>3300</v>
-      </c>
       <c r="F44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G44" s="3">
         <v>3500</v>
       </c>
-      <c r="G44" s="3">
-        <v>3700</v>
-      </c>
       <c r="H44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K44" s="3">
         <v>4900</v>
       </c>
-      <c r="I44" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>4900</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>24500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>23400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>23600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>21600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>25300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>27300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>25700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>21900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>23000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>25800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>22400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>23300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>28200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>21700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>168600</v>
+        <v>167300</v>
       </c>
       <c r="E45" s="3">
-        <v>200900</v>
+        <v>166900</v>
       </c>
       <c r="F45" s="3">
-        <v>231800</v>
+        <v>198800</v>
       </c>
       <c r="G45" s="3">
-        <v>265400</v>
+        <v>229400</v>
       </c>
       <c r="H45" s="3">
-        <v>810900</v>
+        <v>262600</v>
       </c>
       <c r="I45" s="3">
-        <v>831300</v>
+        <v>802600</v>
       </c>
       <c r="J45" s="3">
+        <v>822800</v>
+      </c>
+      <c r="K45" s="3">
         <v>844100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>823600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>794600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>670000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>677000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>672800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>543500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>503000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>491600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>462300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>423700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>429300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>386900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>461900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>304500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>310600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>254900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>539200</v>
+        <v>463800</v>
       </c>
       <c r="E46" s="3">
-        <v>721400</v>
+        <v>533700</v>
       </c>
       <c r="F46" s="3">
-        <v>870700</v>
+        <v>714100</v>
       </c>
       <c r="G46" s="3">
-        <v>982900</v>
+        <v>861700</v>
       </c>
       <c r="H46" s="3">
-        <v>1160300</v>
+        <v>972800</v>
       </c>
       <c r="I46" s="3">
-        <v>1203600</v>
+        <v>1148400</v>
       </c>
       <c r="J46" s="3">
+        <v>1191300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1254900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1304000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1369800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1369900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1282700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1491800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1386300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1240700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1146200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1137100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1012900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1047300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1050300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1180800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1129600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>743100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>711900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>37400</v>
+        <v>28000</v>
       </c>
       <c r="E47" s="3">
-        <v>42800</v>
+        <v>37100</v>
       </c>
       <c r="F47" s="3">
-        <v>51400</v>
+        <v>42400</v>
       </c>
       <c r="G47" s="3">
-        <v>65300</v>
+        <v>50800</v>
       </c>
       <c r="H47" s="3">
-        <v>69700</v>
+        <v>64600</v>
       </c>
       <c r="I47" s="3">
-        <v>94800</v>
+        <v>69000</v>
       </c>
       <c r="J47" s="3">
+        <v>93900</v>
+      </c>
+      <c r="K47" s="3">
         <v>109000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>121000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>151000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>165500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>182800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>201500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>213400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>244500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>245100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>239000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>188000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>157100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>114700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>116700</v>
-      </c>
-      <c r="X47" s="3">
-        <v>5500</v>
       </c>
       <c r="Y47" s="3">
         <v>5500</v>
       </c>
       <c r="Z47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="AA47" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>354300</v>
+        <v>359400</v>
       </c>
       <c r="E48" s="3">
-        <v>355700</v>
+        <v>350600</v>
       </c>
       <c r="F48" s="3">
-        <v>363900</v>
+        <v>352100</v>
       </c>
       <c r="G48" s="3">
-        <v>382300</v>
+        <v>360200</v>
       </c>
       <c r="H48" s="3">
-        <v>1154900</v>
+        <v>378400</v>
       </c>
       <c r="I48" s="3">
-        <v>1163900</v>
+        <v>1143100</v>
       </c>
       <c r="J48" s="3">
+        <v>1152000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1128200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1105600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1173000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1153300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1173400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1126900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1065300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1005800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>993400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>299900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>254500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>221600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>188200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>194000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>181800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>164000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>17900</v>
+        <v>18400</v>
       </c>
       <c r="E49" s="3">
-        <v>17100</v>
+        <v>17700</v>
       </c>
       <c r="F49" s="3">
-        <v>16300</v>
+        <v>17000</v>
       </c>
       <c r="G49" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="H49" s="3">
-        <v>43900</v>
+        <v>15600</v>
       </c>
       <c r="I49" s="3">
-        <v>44200</v>
+        <v>43500</v>
       </c>
       <c r="J49" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K49" s="3">
         <v>44300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>90100</v>
       </c>
       <c r="M49" s="3">
         <v>90100</v>
       </c>
       <c r="N49" s="3">
+        <v>90100</v>
+      </c>
+      <c r="O49" s="3">
         <v>95600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>94300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>96000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>93400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>92100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>89000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>83600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>86500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>86100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>90100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>84500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>84800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3649,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>228900</v>
+        <v>237700</v>
       </c>
       <c r="E52" s="3">
-        <v>209400</v>
+        <v>226600</v>
       </c>
       <c r="F52" s="3">
-        <v>212100</v>
+        <v>207200</v>
       </c>
       <c r="G52" s="3">
-        <v>182900</v>
+        <v>209900</v>
       </c>
       <c r="H52" s="3">
-        <v>127400</v>
+        <v>181100</v>
       </c>
       <c r="I52" s="3">
-        <v>134000</v>
+        <v>126100</v>
       </c>
       <c r="J52" s="3">
+        <v>132700</v>
+      </c>
+      <c r="K52" s="3">
         <v>155700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>192600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>198800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>179300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>154800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>87000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>73400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>52400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>39300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>31000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>27800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>28000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>32200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>32800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>137900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>110300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3797,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>1177700</v>
+        <v>1107400</v>
       </c>
       <c r="E54" s="3">
-        <v>1346400</v>
+        <v>1165600</v>
       </c>
       <c r="F54" s="3">
-        <v>1514300</v>
+        <v>1332700</v>
       </c>
       <c r="G54" s="3">
-        <v>1629200</v>
+        <v>1498800</v>
       </c>
       <c r="H54" s="3">
-        <v>2556300</v>
+        <v>1612500</v>
       </c>
       <c r="I54" s="3">
-        <v>2640600</v>
+        <v>2530100</v>
       </c>
       <c r="J54" s="3">
+        <v>2613600</v>
+      </c>
+      <c r="K54" s="3">
         <v>2692000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2766000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2982600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2958200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2889200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3001500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2834500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2636800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2516100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1796000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1566800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1540600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1471500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1614500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1539400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1107700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>972800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3927,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>220200</v>
+        <v>203300</v>
       </c>
       <c r="E57" s="3">
-        <v>215500</v>
+        <v>218000</v>
       </c>
       <c r="F57" s="3">
-        <v>197200</v>
+        <v>213300</v>
       </c>
       <c r="G57" s="3">
-        <v>194300</v>
+        <v>195200</v>
       </c>
       <c r="H57" s="3">
-        <v>551600</v>
+        <v>192400</v>
       </c>
       <c r="I57" s="3">
-        <v>606100</v>
+        <v>545900</v>
       </c>
       <c r="J57" s="3">
+        <v>599900</v>
+      </c>
+      <c r="K57" s="3">
         <v>560400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>577000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>555700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>476300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>405400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>522200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>473200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>444600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>421000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>414100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>325600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>322700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>265300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>354500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>358000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>344400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>222200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>187300</v>
+        <v>113300</v>
       </c>
       <c r="E58" s="3">
-        <v>312600</v>
+        <v>185400</v>
       </c>
       <c r="F58" s="3">
-        <v>275100</v>
+        <v>309400</v>
       </c>
       <c r="G58" s="3">
-        <v>299800</v>
+        <v>272300</v>
       </c>
       <c r="H58" s="3">
-        <v>482000</v>
+        <v>296700</v>
       </c>
       <c r="I58" s="3">
-        <v>371300</v>
+        <v>477100</v>
       </c>
       <c r="J58" s="3">
+        <v>367500</v>
+      </c>
+      <c r="K58" s="3">
         <v>458200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>442600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>485300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>489900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>402900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>319800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>377300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>325100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>259300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>204000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>186500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>234600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>181600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>136100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>159600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>275500</v>
+        <v>280100</v>
       </c>
       <c r="E59" s="3">
-        <v>270000</v>
+        <v>272700</v>
       </c>
       <c r="F59" s="3">
-        <v>313800</v>
+        <v>267200</v>
       </c>
       <c r="G59" s="3">
-        <v>346400</v>
+        <v>310600</v>
       </c>
       <c r="H59" s="3">
-        <v>892900</v>
+        <v>342800</v>
       </c>
       <c r="I59" s="3">
-        <v>768700</v>
+        <v>883800</v>
       </c>
       <c r="J59" s="3">
+        <v>760900</v>
+      </c>
+      <c r="K59" s="3">
         <v>724800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>739200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>734900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>711100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>721500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>702400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>673200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>643900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>615400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>504900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>442800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>433300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>388100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>410400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>398000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>330500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>314400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>683100</v>
+        <v>596700</v>
       </c>
       <c r="E60" s="3">
-        <v>798100</v>
+        <v>676100</v>
       </c>
       <c r="F60" s="3">
-        <v>786200</v>
+        <v>789900</v>
       </c>
       <c r="G60" s="3">
-        <v>840400</v>
+        <v>778100</v>
       </c>
       <c r="H60" s="3">
-        <v>1926500</v>
+        <v>831800</v>
       </c>
       <c r="I60" s="3">
-        <v>1746100</v>
+        <v>1906700</v>
       </c>
       <c r="J60" s="3">
+        <v>1728200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1743500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1758700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1775900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1588100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1616700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1627500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1466100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1465900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1361400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1178300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>972500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>942500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>888000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>946400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>892100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>834500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>690200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>138200</v>
+        <v>210100</v>
       </c>
       <c r="E61" s="3">
-        <v>131400</v>
+        <v>136800</v>
       </c>
       <c r="F61" s="3">
-        <v>262500</v>
+        <v>130000</v>
       </c>
       <c r="G61" s="3">
-        <v>257700</v>
+        <v>259800</v>
       </c>
       <c r="H61" s="3">
-        <v>166300</v>
+        <v>255000</v>
       </c>
       <c r="I61" s="3">
-        <v>348900</v>
+        <v>164600</v>
       </c>
       <c r="J61" s="3">
+        <v>345300</v>
+      </c>
+      <c r="K61" s="3">
         <v>356300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>325900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>362500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>401500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>228900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>209800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>217900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>300</v>
-      </c>
-      <c r="S61" s="3">
-        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
       </c>
       <c r="U61" s="3">
+        <v>100</v>
+      </c>
+      <c r="V61" s="3">
         <v>400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>187000</v>
+        <v>186300</v>
       </c>
       <c r="E62" s="3">
-        <v>195200</v>
+        <v>185100</v>
       </c>
       <c r="F62" s="3">
-        <v>201100</v>
+        <v>193200</v>
       </c>
       <c r="G62" s="3">
-        <v>212700</v>
+        <v>199000</v>
       </c>
       <c r="H62" s="3">
-        <v>426900</v>
+        <v>210500</v>
       </c>
       <c r="I62" s="3">
-        <v>419200</v>
+        <v>422500</v>
       </c>
       <c r="J62" s="3">
+        <v>414900</v>
+      </c>
+      <c r="K62" s="3">
         <v>430400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>441400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>499300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>516900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>555300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>561400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>547200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>545300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>563300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>15900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>13700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4593,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1025400</v>
+        <v>1008300</v>
       </c>
       <c r="E66" s="3">
-        <v>1143300</v>
+        <v>1014900</v>
       </c>
       <c r="F66" s="3">
-        <v>1269600</v>
+        <v>1131600</v>
       </c>
       <c r="G66" s="3">
-        <v>1331800</v>
+        <v>1256600</v>
       </c>
       <c r="H66" s="3">
-        <v>2540400</v>
+        <v>1318100</v>
       </c>
       <c r="I66" s="3">
-        <v>2536600</v>
+        <v>2514400</v>
       </c>
       <c r="J66" s="3">
+        <v>2510600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2525700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2522300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2634700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2503600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2398700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2397800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2231600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2022000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1925600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1195000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>988200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>958600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>903700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>962700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>906000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>862000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>691800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4912,13 +5079,16 @@
         <v>0</v>
       </c>
       <c r="Y70" s="3">
-        <v>2351100</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="3">
         <v>2351100</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>2351100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4991,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2664200</v>
+        <v>-2691600</v>
       </c>
       <c r="E72" s="3">
-        <v>-2609500</v>
+        <v>-2636900</v>
       </c>
       <c r="F72" s="3">
-        <v>-2562700</v>
+        <v>-2582800</v>
       </c>
       <c r="G72" s="3">
-        <v>-2509300</v>
+        <v>-2536500</v>
       </c>
       <c r="H72" s="3">
-        <v>-2788400</v>
+        <v>-2483600</v>
       </c>
       <c r="I72" s="3">
-        <v>-2696700</v>
+        <v>-2759800</v>
       </c>
       <c r="J72" s="3">
+        <v>-2669100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2630500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2464200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2516600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2423300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2570800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2405400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2445200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2444600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2380700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2239300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2154800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2201600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2188200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2209300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2189000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2119600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2089800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5287,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>152300</v>
+        <v>99100</v>
       </c>
       <c r="E76" s="3">
-        <v>203100</v>
+        <v>150700</v>
       </c>
       <c r="F76" s="3">
-        <v>244700</v>
+        <v>201100</v>
       </c>
       <c r="G76" s="3">
-        <v>297400</v>
+        <v>242200</v>
       </c>
       <c r="H76" s="3">
-        <v>15900</v>
+        <v>294400</v>
       </c>
       <c r="I76" s="3">
-        <v>104000</v>
+        <v>15700</v>
       </c>
       <c r="J76" s="3">
+        <v>102900</v>
+      </c>
+      <c r="K76" s="3">
         <v>166400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>243700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>347900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>454600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>490500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>603700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>602900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>614800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>590600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>601000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>578600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>582000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>567800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>651800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>633400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2105500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2070100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-50900</v>
+        <v>-62700</v>
       </c>
       <c r="E81" s="3">
-        <v>-95900</v>
+        <v>-50400</v>
       </c>
       <c r="F81" s="3">
-        <v>-51600</v>
+        <v>-94900</v>
       </c>
       <c r="G81" s="3">
-        <v>37600</v>
+        <v>-51100</v>
       </c>
       <c r="H81" s="3">
-        <v>-91700</v>
+        <v>37200</v>
       </c>
       <c r="I81" s="3">
-        <v>-66200</v>
+        <v>-90700</v>
       </c>
       <c r="J81" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-88000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-282000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-93400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-116300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-31200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-39600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-35100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-13500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-48700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-20300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-69400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-29800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5690,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-37100</v>
+        <v>-34400</v>
       </c>
       <c r="E89" s="3">
-        <v>-88700</v>
+        <v>-36700</v>
       </c>
       <c r="F89" s="3">
-        <v>-43700</v>
+        <v>-87800</v>
       </c>
       <c r="G89" s="3">
-        <v>-402700</v>
+        <v>-43200</v>
       </c>
       <c r="H89" s="3">
-        <v>-166300</v>
+        <v>-398600</v>
       </c>
       <c r="I89" s="3">
-        <v>-13200</v>
+        <v>-164600</v>
       </c>
       <c r="J89" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-94500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-32200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>106500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-202500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>131300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>57100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>52100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-31300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>105900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>12100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>62000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-87600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>16100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>42300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6224,20 +6444,23 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>78</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-16600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>128100</v>
+        <v>34100</v>
       </c>
       <c r="E94" s="3">
-        <v>-140800</v>
+        <v>126800</v>
       </c>
       <c r="F94" s="3">
-        <v>-126300</v>
+        <v>-139400</v>
       </c>
       <c r="G94" s="3">
-        <v>652400</v>
+        <v>-125000</v>
       </c>
       <c r="H94" s="3">
-        <v>151500</v>
+        <v>645700</v>
       </c>
       <c r="I94" s="3">
-        <v>46700</v>
+        <v>150000</v>
       </c>
       <c r="J94" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K94" s="3">
         <v>3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-121500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-79500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-41700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>17800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-294500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-215800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-99600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-28700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>16300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-225400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-53000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>91300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>93900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-444500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-204600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-68900</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-141000</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>-138900</v>
+        <v>-139600</v>
       </c>
       <c r="F100" s="3">
-        <v>-20900</v>
+        <v>-137400</v>
       </c>
       <c r="G100" s="3">
-        <v>-82700</v>
+        <v>-20700</v>
       </c>
       <c r="H100" s="3">
-        <v>8500</v>
+        <v>-81800</v>
       </c>
       <c r="I100" s="3">
-        <v>-66000</v>
+        <v>8400</v>
       </c>
       <c r="J100" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="K100" s="3">
         <v>14600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>215500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>54700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>112300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>94700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>309800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>243200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>47500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>54300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>47500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>21100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-47600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>59000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-66600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>416100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>8100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6400</v>
+        <v>-2100</v>
       </c>
       <c r="E101" s="3">
-        <v>6900</v>
+        <v>6300</v>
       </c>
       <c r="F101" s="3">
-        <v>-3400</v>
+        <v>6800</v>
       </c>
       <c r="G101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-26700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-15700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>7000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-10600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>8800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-43700</v>
+        <v>-2400</v>
       </c>
       <c r="E102" s="3">
-        <v>-361500</v>
+        <v>-43200</v>
       </c>
       <c r="F102" s="3">
-        <v>-194200</v>
+        <v>-357800</v>
       </c>
       <c r="G102" s="3">
-        <v>159000</v>
+        <v>-192300</v>
       </c>
       <c r="H102" s="3">
-        <v>-5800</v>
+        <v>157400</v>
       </c>
       <c r="I102" s="3">
-        <v>-37700</v>
+        <v>-5700</v>
       </c>
       <c r="J102" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-75700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>35100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>177200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-86200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>147500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>91000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>170000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-185200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-27700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>52000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>34200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-15600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-160800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-108300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,372 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>281700</v>
+        <v>294500</v>
       </c>
       <c r="E8" s="3">
-        <v>288400</v>
+        <v>236300</v>
       </c>
       <c r="F8" s="3">
-        <v>530700</v>
+        <v>273000</v>
       </c>
       <c r="G8" s="3">
-        <v>256200</v>
+        <v>279600</v>
       </c>
       <c r="H8" s="3">
-        <v>1624200</v>
+        <v>266100</v>
       </c>
       <c r="I8" s="3">
+        <v>248400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1574200</v>
+      </c>
+      <c r="K8" s="3">
         <v>401400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>439700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>399800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1465500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1175400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1143600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>783200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4982600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3807900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1371000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1045800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1312200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1006200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>966000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>717900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>969300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>794600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>720700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>482100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>290000</v>
+        <v>282300</v>
       </c>
       <c r="E9" s="3">
-        <v>294000</v>
+        <v>237500</v>
       </c>
       <c r="F9" s="3">
-        <v>554300</v>
+        <v>281100</v>
       </c>
       <c r="G9" s="3">
-        <v>267200</v>
+        <v>284900</v>
       </c>
       <c r="H9" s="3">
-        <v>1652500</v>
+        <v>278400</v>
       </c>
       <c r="I9" s="3">
+        <v>258900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1601700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1085400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1115600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>998900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4490200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1410300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1228000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>942800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4976500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3727800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1381900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1001200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1236100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>951600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>906000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>702200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>926500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>764700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>700900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>502500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-8300</v>
+        <v>12200</v>
       </c>
       <c r="E10" s="3">
-        <v>-5500</v>
+        <v>-1200</v>
       </c>
       <c r="F10" s="3">
-        <v>-23600</v>
+        <v>-8100</v>
       </c>
       <c r="G10" s="3">
-        <v>-10900</v>
+        <v>-5400</v>
       </c>
       <c r="H10" s="3">
-        <v>-28300</v>
+        <v>-12300</v>
       </c>
       <c r="I10" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="K10" s="3">
         <v>-684000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-675900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-599100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-3024600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-235000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-84300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-159600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>80100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-10800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>44500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>76100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>54600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>59900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>15700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>42800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>29900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>19700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1058,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E12" s="3">
-        <v>5600</v>
+        <v>4000</v>
       </c>
       <c r="F12" s="3">
-        <v>10700</v>
+        <v>4000</v>
       </c>
       <c r="G12" s="3">
-        <v>4700</v>
+        <v>5500</v>
       </c>
       <c r="H12" s="3">
-        <v>25600</v>
+        <v>5800</v>
       </c>
       <c r="I12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>18900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>6200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>7900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>31400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>28200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>9800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>8200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>8400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>6000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>7400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>4600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>4300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>8300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>4000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1220,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,8 +1303,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1418,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>331100</v>
+        <v>317900</v>
       </c>
       <c r="E17" s="3">
-        <v>340700</v>
+        <v>275800</v>
       </c>
       <c r="F17" s="3">
-        <v>631700</v>
+        <v>320900</v>
       </c>
       <c r="G17" s="3">
-        <v>307700</v>
+        <v>330300</v>
       </c>
       <c r="H17" s="3">
-        <v>1832100</v>
+        <v>314000</v>
       </c>
       <c r="I17" s="3">
+        <v>298300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1775800</v>
+      </c>
+      <c r="K17" s="3">
         <v>460900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>457500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>428000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1257400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1137900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>888500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4972200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3861600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1379900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1082500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1318900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1027700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>981800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>767900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>992900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>865000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>752600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>545600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-49400</v>
+        <v>-23400</v>
       </c>
       <c r="E18" s="3">
-        <v>-52300</v>
+        <v>-39400</v>
       </c>
       <c r="F18" s="3">
-        <v>-101000</v>
+        <v>-47900</v>
       </c>
       <c r="G18" s="3">
-        <v>-51500</v>
+        <v>-50700</v>
       </c>
       <c r="H18" s="3">
-        <v>-208000</v>
+        <v>-48000</v>
       </c>
       <c r="I18" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-201600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-59500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-17800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-28200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-135300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-82100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>5700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-105300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>10400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-53700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-8900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-36800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-6600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-21500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-15900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-49900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-23600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-70300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-31900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-63600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,162 +1615,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6100</v>
       </c>
       <c r="G20" s="3">
         <v>1300</v>
       </c>
       <c r="H20" s="3">
-        <v>49100</v>
+        <v>4700</v>
       </c>
       <c r="I20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K20" s="3">
         <v>38000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>6500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>11200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>6600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>7300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>6800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>31600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>22900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>8400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>5800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>7000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>17400</v>
-      </c>
-      <c r="V20" s="3">
-        <v>6100</v>
-      </c>
-      <c r="W20" s="3">
-        <v>3200</v>
       </c>
       <c r="X20" s="3">
         <v>6100</v>
       </c>
       <c r="Y20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>3500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>3800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-49500</v>
+        <v>-21300</v>
       </c>
       <c r="E21" s="3">
-        <v>-52000</v>
+        <v>-27200</v>
       </c>
       <c r="F21" s="3">
-        <v>-87800</v>
+        <v>-47900</v>
       </c>
       <c r="G21" s="3">
-        <v>-42600</v>
+        <v>-50400</v>
       </c>
       <c r="H21" s="3">
-        <v>-131700</v>
+        <v>-43900</v>
       </c>
       <c r="I21" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-19900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-15400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-52400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-72600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>13500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-79900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>59300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-14400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>3400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-11700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>3300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-3300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-10400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-30900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>21400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-75900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-16000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-48700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1712,153 +1792,165 @@
         <v>2300</v>
       </c>
       <c r="E22" s="3">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="F22" s="3">
-        <v>7400</v>
+        <v>2200</v>
       </c>
       <c r="G22" s="3">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="H22" s="3">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="I22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K22" s="3">
         <v>5700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>5100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>16600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>6900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>6100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>5200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>12200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>8200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>2300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>4000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>2700</v>
       </c>
       <c r="V22" s="3">
         <v>3100</v>
       </c>
       <c r="W22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="X22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Y22" s="3">
         <v>1900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>2100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>1800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>1500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-52000</v>
+        <v>-24000</v>
       </c>
       <c r="E23" s="3">
-        <v>-53900</v>
+        <v>-35500</v>
       </c>
       <c r="F23" s="3">
-        <v>-102300</v>
+        <v>-50400</v>
       </c>
       <c r="G23" s="3">
-        <v>-54000</v>
+        <v>-52200</v>
       </c>
       <c r="H23" s="3">
-        <v>-179200</v>
+        <v>-46900</v>
       </c>
       <c r="I23" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-173700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-27100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-21200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-26800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-140700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-82400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>6900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-103700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>29700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-39100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-34900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-6700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-12900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-48600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-19700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-68700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-29600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1875,67 +1967,73 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
-      </c>
-      <c r="R24" s="3">
-        <v>700</v>
-      </c>
-      <c r="S24" s="3">
-        <v>600</v>
       </c>
       <c r="T24" s="3">
         <v>700</v>
       </c>
       <c r="U24" s="3">
+        <v>600</v>
+      </c>
+      <c r="V24" s="3">
+        <v>700</v>
+      </c>
+      <c r="W24" s="3">
         <v>400</v>
-      </c>
-      <c r="V24" s="3">
-        <v>500</v>
-      </c>
-      <c r="W24" s="3">
-        <v>100</v>
       </c>
       <c r="X24" s="3">
         <v>500</v>
       </c>
       <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA24" s="3">
         <v>600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>400</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-52000</v>
+        <v>-24000</v>
       </c>
       <c r="E26" s="3">
-        <v>-53900</v>
+        <v>-35500</v>
       </c>
       <c r="F26" s="3">
-        <v>-102400</v>
+        <v>-50400</v>
       </c>
       <c r="G26" s="3">
-        <v>-54000</v>
+        <v>-52200</v>
       </c>
       <c r="H26" s="3">
-        <v>-179600</v>
+        <v>-46900</v>
       </c>
       <c r="I26" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-174100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-27200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-20900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-27500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-143100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-83400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>6300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-104400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>26600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-40900</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-35500</v>
       </c>
       <c r="T26" s="3">
         <v>-3500</v>
       </c>
       <c r="U26" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="W26" s="3">
         <v>-7100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-13400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-48700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-20200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-69300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-30000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-58200</v>
+        <v>-22100</v>
       </c>
       <c r="E27" s="3">
-        <v>-49100</v>
+        <v>-33600</v>
       </c>
       <c r="F27" s="3">
-        <v>-95200</v>
+        <v>-56400</v>
       </c>
       <c r="G27" s="3">
-        <v>-51000</v>
+        <v>-47600</v>
       </c>
       <c r="H27" s="3">
-        <v>-172200</v>
+        <v>-45600</v>
       </c>
       <c r="I27" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-166900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-25400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-20100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-26700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-139600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-82500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>7300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-103200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>29200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-39600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-35100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-7200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-13500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-48700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-20300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-69400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-29800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-62700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,62 +2358,68 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-4500</v>
+        <v>2100</v>
       </c>
       <c r="E29" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H29" s="3">
         <v>300</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>209500</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>203000</v>
+      </c>
+      <c r="K29" s="3">
         <v>-65300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-45400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-61300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-142400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-10800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-10800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-13100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-60300</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2319,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2473,162 +2607,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-6100</v>
       </c>
       <c r="G32" s="3">
         <v>-1300</v>
       </c>
       <c r="H32" s="3">
-        <v>-49100</v>
+        <v>-4700</v>
       </c>
       <c r="I32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-38000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-6500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-11200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-6600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-7300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-6800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-22900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-8400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-5800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-7000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-17400</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-3200</v>
       </c>
       <c r="X32" s="3">
         <v>-6100</v>
       </c>
       <c r="Y32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-90700</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-282000</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-93400</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-116300</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-62700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-50400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-94900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-51100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>37200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-90700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-65500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-88000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-282000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-93400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-116300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-31200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-39600</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-35100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-48700</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-69400</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-29800</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-62700</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-90700</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-282000</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-93400</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-116300</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-62700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-50400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-94900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-51100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>37200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-90700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-65500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-88000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-282000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-93400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-116300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-31200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-39600</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-35100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-48700</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-69400</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-29800</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-62700</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2921,701 +3093,757 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>75800</v>
+        <v>169300</v>
       </c>
       <c r="E41" s="3">
-        <v>109100</v>
+        <v>166800</v>
       </c>
       <c r="F41" s="3">
-        <v>134000</v>
+        <v>73500</v>
       </c>
       <c r="G41" s="3">
-        <v>291900</v>
+        <v>105700</v>
       </c>
       <c r="H41" s="3">
-        <v>507700</v>
+        <v>129800</v>
       </c>
       <c r="I41" s="3">
+        <v>282900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>492100</v>
+      </c>
+      <c r="K41" s="3">
         <v>137300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>129100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>145200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>192600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>267300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>351400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>197600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>307100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>333600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>245800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>223600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>236800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>85500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>254000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>306600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>184100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>149900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>165400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>326200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>103100</v>
+        <v>15000</v>
       </c>
       <c r="E42" s="3">
-        <v>119000</v>
+        <v>9500</v>
       </c>
       <c r="F42" s="3">
-        <v>229400</v>
+        <v>99900</v>
       </c>
       <c r="G42" s="3">
-        <v>184400</v>
+        <v>115300</v>
       </c>
       <c r="H42" s="3">
-        <v>20900</v>
+        <v>222300</v>
       </c>
       <c r="I42" s="3">
+        <v>178800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K42" s="3">
         <v>500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>42600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>37400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>45200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>78500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>129800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>162800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>186600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>169000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>141000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>146300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>291400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>171800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>200900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>349300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>552300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>163100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>115200</v>
+        <v>124600</v>
       </c>
       <c r="E43" s="3">
-        <v>135800</v>
+        <v>109000</v>
       </c>
       <c r="F43" s="3">
-        <v>148700</v>
+        <v>111700</v>
       </c>
       <c r="G43" s="3">
-        <v>152500</v>
+        <v>131600</v>
       </c>
       <c r="H43" s="3">
-        <v>177900</v>
+        <v>144100</v>
       </c>
       <c r="I43" s="3">
+        <v>147800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>172400</v>
+      </c>
+      <c r="K43" s="3">
         <v>203200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>233700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>218000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>244300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>238200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>246700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>254600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>327500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>297400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>295700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>264400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>269800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>189200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>166500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>133500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>162200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>94800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>82300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>66900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F44" s="3">
         <v>2300</v>
       </c>
-      <c r="E44" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3200</v>
-      </c>
       <c r="G44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J44" s="3">
         <v>3500</v>
       </c>
-      <c r="H44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>4800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>5600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>4900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>6100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>24500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>23400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>23600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>21600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>25300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>27300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>25700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>21900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>23000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>25800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>22400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>23300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>28200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>21700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>167300</v>
+        <v>129100</v>
       </c>
       <c r="E45" s="3">
-        <v>166900</v>
+        <v>151200</v>
       </c>
       <c r="F45" s="3">
-        <v>198800</v>
+        <v>162200</v>
       </c>
       <c r="G45" s="3">
-        <v>229400</v>
+        <v>161800</v>
       </c>
       <c r="H45" s="3">
-        <v>262600</v>
+        <v>192700</v>
       </c>
       <c r="I45" s="3">
+        <v>222300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>254600</v>
+      </c>
+      <c r="K45" s="3">
         <v>802600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>822800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>844100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>823600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>794600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>670000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>677000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>672800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>543500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>503000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>491600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>462300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>423700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>429300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>386900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>461900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>304500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>310600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>254900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>463800</v>
+        <v>439600</v>
       </c>
       <c r="E46" s="3">
-        <v>533700</v>
+        <v>438300</v>
       </c>
       <c r="F46" s="3">
-        <v>714100</v>
+        <v>449600</v>
       </c>
       <c r="G46" s="3">
-        <v>861700</v>
+        <v>517300</v>
       </c>
       <c r="H46" s="3">
-        <v>972800</v>
+        <v>692100</v>
       </c>
       <c r="I46" s="3">
+        <v>835200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>942900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1148400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1191300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1254900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1304000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1369800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1369900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1282700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1491800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1386300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1240700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1146200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1137100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1012900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1047300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1050300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1180800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1129600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>743100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>711900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>28000</v>
+        <v>21800</v>
       </c>
       <c r="E47" s="3">
-        <v>37100</v>
+        <v>31000</v>
       </c>
       <c r="F47" s="3">
-        <v>42400</v>
+        <v>27100</v>
       </c>
       <c r="G47" s="3">
-        <v>50800</v>
+        <v>35900</v>
       </c>
       <c r="H47" s="3">
-        <v>64600</v>
+        <v>41100</v>
       </c>
       <c r="I47" s="3">
+        <v>49300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K47" s="3">
         <v>69000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>93900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>109000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>121000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>151000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>165500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>182800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>201500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>213400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>244500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>245100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>239000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>188000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>157100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>114700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>116700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>5500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>5500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>359400</v>
+        <v>307200</v>
       </c>
       <c r="E48" s="3">
-        <v>350600</v>
+        <v>323000</v>
       </c>
       <c r="F48" s="3">
-        <v>352100</v>
+        <v>348400</v>
       </c>
       <c r="G48" s="3">
-        <v>360200</v>
+        <v>339900</v>
       </c>
       <c r="H48" s="3">
-        <v>378400</v>
+        <v>341200</v>
       </c>
       <c r="I48" s="3">
+        <v>349100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>366800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1143100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1152000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1128200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1105600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1173000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1153300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1173400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1126900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1065300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1005800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>993400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>299900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>254500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>221600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>188200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>194000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>181800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>164000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>18400</v>
+        <v>19300</v>
       </c>
       <c r="E49" s="3">
-        <v>17700</v>
+        <v>18600</v>
       </c>
       <c r="F49" s="3">
-        <v>17000</v>
+        <v>17900</v>
       </c>
       <c r="G49" s="3">
-        <v>16100</v>
+        <v>17100</v>
       </c>
       <c r="H49" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I49" s="3">
         <v>15600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K49" s="3">
         <v>43500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>43800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>44300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>42900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>90100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>90100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>95600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>94300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>96000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>93400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>92100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>89000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>83600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>86500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>86100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>90100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>84500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>84800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3768,85 +4002,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>237700</v>
+        <v>241300</v>
       </c>
       <c r="E52" s="3">
-        <v>226600</v>
+        <v>223000</v>
       </c>
       <c r="F52" s="3">
-        <v>207200</v>
+        <v>230400</v>
       </c>
       <c r="G52" s="3">
-        <v>209900</v>
+        <v>219600</v>
       </c>
       <c r="H52" s="3">
-        <v>181100</v>
+        <v>200900</v>
       </c>
       <c r="I52" s="3">
+        <v>203500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>175500</v>
+      </c>
+      <c r="K52" s="3">
         <v>126100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>132700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>155700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>192600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>198800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>179300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>154800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>87000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>73400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>52400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>39300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>31000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>27800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>28000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>32200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>32800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>137900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>110300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>79400</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3922,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>1107400</v>
+        <v>1029200</v>
       </c>
       <c r="E54" s="3">
-        <v>1165600</v>
+        <v>1033800</v>
       </c>
       <c r="F54" s="3">
-        <v>1332700</v>
+        <v>1073300</v>
       </c>
       <c r="G54" s="3">
-        <v>1498800</v>
+        <v>1129800</v>
       </c>
       <c r="H54" s="3">
-        <v>1612500</v>
+        <v>1291700</v>
       </c>
       <c r="I54" s="3">
+        <v>1452700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1563000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2530100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2613600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2692000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2766000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2982600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2958200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2889200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3001500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2834500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2636800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2516100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1796000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1566800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1540600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1471500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1614500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1539400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1107700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>972800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4057,470 +4317,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>203300</v>
+        <v>210600</v>
       </c>
       <c r="E57" s="3">
-        <v>218000</v>
+        <v>206400</v>
       </c>
       <c r="F57" s="3">
-        <v>213300</v>
+        <v>197000</v>
       </c>
       <c r="G57" s="3">
-        <v>195200</v>
+        <v>211300</v>
       </c>
       <c r="H57" s="3">
-        <v>192400</v>
+        <v>206800</v>
       </c>
       <c r="I57" s="3">
+        <v>189200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>186400</v>
+      </c>
+      <c r="K57" s="3">
         <v>545900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>599900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>560400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>577000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>555700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>476300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>405400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>522200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>473200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>444600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>421000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>414100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>325600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>322700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>265300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>354500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>358000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>344400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>222200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>113300</v>
+        <v>146400</v>
       </c>
       <c r="E58" s="3">
-        <v>185400</v>
+        <v>124000</v>
       </c>
       <c r="F58" s="3">
-        <v>309400</v>
+        <v>109800</v>
       </c>
       <c r="G58" s="3">
-        <v>272300</v>
+        <v>179700</v>
       </c>
       <c r="H58" s="3">
-        <v>296700</v>
+        <v>299900</v>
       </c>
       <c r="I58" s="3">
+        <v>264000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>287600</v>
+      </c>
+      <c r="K58" s="3">
         <v>477100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>367500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>458200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>442600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>485300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>400700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>489900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>402900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>319800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>377300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>325100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>259300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>204000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>186500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>234600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>181600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>136100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>159600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>153600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>280100</v>
+        <v>259500</v>
       </c>
       <c r="E59" s="3">
-        <v>272700</v>
+        <v>264900</v>
       </c>
       <c r="F59" s="3">
-        <v>267200</v>
+        <v>271500</v>
       </c>
       <c r="G59" s="3">
-        <v>310600</v>
+        <v>264300</v>
       </c>
       <c r="H59" s="3">
-        <v>342800</v>
+        <v>259000</v>
       </c>
       <c r="I59" s="3">
+        <v>301000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>332300</v>
+      </c>
+      <c r="K59" s="3">
         <v>883800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>760900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>724800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>739200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>734900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>711100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>721500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>702400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>673200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>643900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>615400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>504900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>442800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>433300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>388100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>410400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>398000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>330500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>314400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>596700</v>
+        <v>616500</v>
       </c>
       <c r="E60" s="3">
-        <v>676100</v>
+        <v>595300</v>
       </c>
       <c r="F60" s="3">
-        <v>789900</v>
+        <v>578400</v>
       </c>
       <c r="G60" s="3">
-        <v>778100</v>
+        <v>655300</v>
       </c>
       <c r="H60" s="3">
-        <v>831800</v>
+        <v>765600</v>
       </c>
       <c r="I60" s="3">
+        <v>754200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>806300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1906700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1728200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1743500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1758700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1775900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1588100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1616700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1627500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1466100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1465900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1361400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1178300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>972500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>942500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>888000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>946400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>892100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>834500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>690200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>210100</v>
+        <v>208200</v>
       </c>
       <c r="E61" s="3">
-        <v>136800</v>
+        <v>197900</v>
       </c>
       <c r="F61" s="3">
-        <v>130000</v>
+        <v>203600</v>
       </c>
       <c r="G61" s="3">
-        <v>259800</v>
+        <v>132600</v>
       </c>
       <c r="H61" s="3">
-        <v>255000</v>
+        <v>126000</v>
       </c>
       <c r="I61" s="3">
+        <v>251800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>247200</v>
+      </c>
+      <c r="K61" s="3">
         <v>164600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>345300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>356300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>325900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>362500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>401500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>228900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>209800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>217900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>10800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>400</v>
-      </c>
-      <c r="W61" s="3">
-        <v>200</v>
-      </c>
-      <c r="X61" s="3">
-        <v>300</v>
       </c>
       <c r="Y61" s="3">
         <v>200</v>
       </c>
       <c r="Z61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB61" s="3">
         <v>400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>186300</v>
+        <v>150700</v>
       </c>
       <c r="E62" s="3">
-        <v>185100</v>
+        <v>165100</v>
       </c>
       <c r="F62" s="3">
-        <v>193200</v>
+        <v>180600</v>
       </c>
       <c r="G62" s="3">
-        <v>199000</v>
+        <v>179400</v>
       </c>
       <c r="H62" s="3">
-        <v>210500</v>
+        <v>187300</v>
       </c>
       <c r="I62" s="3">
+        <v>192900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>204100</v>
+      </c>
+      <c r="K62" s="3">
         <v>422500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>414900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>430400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>441400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>499300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>516900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>555300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>561400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>547200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>545300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>563300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>16200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>15200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>15700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>15500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>15900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>13600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>13700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1008300</v>
+        <v>986500</v>
       </c>
       <c r="E66" s="3">
-        <v>1014900</v>
+        <v>971200</v>
       </c>
       <c r="F66" s="3">
-        <v>1131600</v>
+        <v>977300</v>
       </c>
       <c r="G66" s="3">
-        <v>1256600</v>
+        <v>983700</v>
       </c>
       <c r="H66" s="3">
-        <v>1318100</v>
+        <v>1096800</v>
       </c>
       <c r="I66" s="3">
+        <v>1218000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1277600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2514400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2510600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2525700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2522300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2634700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2503600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2398700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2397800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2231600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2022000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1925600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1195000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>988200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>958600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>903700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>962700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>906000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>862000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>691800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5082,13 +5418,19 @@
         <v>0</v>
       </c>
       <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
         <v>2351100</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AC70" s="3">
         <v>2351100</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5164,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2691600</v>
+        <v>-2662500</v>
       </c>
       <c r="E72" s="3">
-        <v>-2636900</v>
+        <v>-2642500</v>
       </c>
       <c r="F72" s="3">
-        <v>-2582800</v>
+        <v>-2608800</v>
       </c>
       <c r="G72" s="3">
-        <v>-2536500</v>
+        <v>-2555900</v>
       </c>
       <c r="H72" s="3">
-        <v>-2483600</v>
+        <v>-2503400</v>
       </c>
       <c r="I72" s="3">
+        <v>-2458500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-2407200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2759800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2669100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2630500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2464200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2516600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2423300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2570800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2405400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2445200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2444600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2380700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2239300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2154800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2201600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-2188200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-2209300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-2189000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-2119600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-2089800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5472,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>99100</v>
+        <v>42700</v>
       </c>
       <c r="E76" s="3">
-        <v>150700</v>
+        <v>62700</v>
       </c>
       <c r="F76" s="3">
-        <v>201100</v>
+        <v>96000</v>
       </c>
       <c r="G76" s="3">
-        <v>242200</v>
+        <v>146100</v>
       </c>
       <c r="H76" s="3">
-        <v>294400</v>
+        <v>194900</v>
       </c>
       <c r="I76" s="3">
+        <v>234700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>285300</v>
+      </c>
+      <c r="K76" s="3">
         <v>15700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>102900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>166400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>243700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>347900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>454600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>490500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>603700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>602900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>614800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>590600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>601000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>578600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>582000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>567800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>651800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>633400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-2105500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-2070100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5626,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-90700</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-282000</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-93400</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-116300</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-62700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-50400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-94900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-51100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>37200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-90700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-65500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-88000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-282000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-93400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-116300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-31200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-39600</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-35100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-48700</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-69400</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-29800</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-62700</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5814,8 +6210,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5891,8 +6289,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6276,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-34400</v>
+        <v>-21800</v>
       </c>
       <c r="E89" s="3">
-        <v>-36700</v>
+        <v>-22500</v>
       </c>
       <c r="F89" s="3">
-        <v>-87800</v>
+        <v>-33300</v>
       </c>
       <c r="G89" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="H89" s="3">
         <v>-43200</v>
       </c>
-      <c r="H89" s="3">
-        <v>-398600</v>
-      </c>
       <c r="I89" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-386300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-164600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-13000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-94500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-32200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>17000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>106500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-202500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>131300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>57100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>52100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-31300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>105900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>12100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>62000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-87600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>16100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>42300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-39300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6822,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6447,20 +6889,26 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Y91" s="3" t="s">
+      <c r="AA91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-16600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7067,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>34100</v>
+        <v>-6400</v>
       </c>
       <c r="E94" s="3">
-        <v>126800</v>
+        <v>94100</v>
       </c>
       <c r="F94" s="3">
-        <v>-139400</v>
+        <v>33000</v>
       </c>
       <c r="G94" s="3">
-        <v>-125000</v>
+        <v>122900</v>
       </c>
       <c r="H94" s="3">
-        <v>645700</v>
+        <v>-13900</v>
       </c>
       <c r="I94" s="3">
+        <v>-121200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>625900</v>
+      </c>
+      <c r="K94" s="3">
         <v>150000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>46200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>3300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-121500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-79500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-41700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>17800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-294500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-215800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-99600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-28700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>16300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-225400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-53000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>91300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>93900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-444500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-204600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-68900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7513,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>-139600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-137400</v>
-      </c>
       <c r="G100" s="3">
-        <v>-20700</v>
+        <v>-135300</v>
       </c>
       <c r="H100" s="3">
-        <v>-81800</v>
+        <v>-113200</v>
       </c>
       <c r="I100" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-79300</v>
+      </c>
+      <c r="K100" s="3">
         <v>8400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-65300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>14600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>215500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>54700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>112300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>94700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>309800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>243200</v>
-      </c>
-      <c r="R100" s="3">
-        <v>47500</v>
-      </c>
-      <c r="S100" s="3">
-        <v>54300</v>
       </c>
       <c r="T100" s="3">
         <v>47500</v>
       </c>
       <c r="U100" s="3">
+        <v>54300</v>
+      </c>
+      <c r="V100" s="3">
+        <v>47500</v>
+      </c>
+      <c r="W100" s="3">
         <v>21100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-47600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>59000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-66600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>416100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>8100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2100</v>
+        <v>8400</v>
       </c>
       <c r="E101" s="3">
-        <v>6300</v>
+        <v>-1800</v>
       </c>
       <c r="F101" s="3">
-        <v>6800</v>
+        <v>-2000</v>
       </c>
       <c r="G101" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K101" s="3">
+        <v>600</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="M101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="P101" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R101" s="3">
+        <v>900</v>
+      </c>
+      <c r="S101" s="3">
+        <v>6500</v>
+      </c>
+      <c r="T101" s="3">
+        <v>4300</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="V101" s="3">
+        <v>300</v>
+      </c>
+      <c r="W101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="X101" s="3">
+        <v>10800</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>8800</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-3300</v>
       </c>
-      <c r="H101" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>600</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-15700</v>
-      </c>
-      <c r="N101" s="3">
-        <v>200</v>
-      </c>
-      <c r="O101" s="3">
-        <v>3800</v>
-      </c>
-      <c r="P101" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>6500</v>
-      </c>
-      <c r="R101" s="3">
-        <v>4300</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="T101" s="3">
-        <v>300</v>
-      </c>
-      <c r="U101" s="3">
-        <v>7000</v>
-      </c>
-      <c r="V101" s="3">
-        <v>10800</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="X101" s="3">
-        <v>8800</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-6600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2400</v>
+        <v>-4700</v>
       </c>
       <c r="E102" s="3">
-        <v>-43200</v>
+        <v>86000</v>
       </c>
       <c r="F102" s="3">
-        <v>-357800</v>
+        <v>-2300</v>
       </c>
       <c r="G102" s="3">
-        <v>-192300</v>
+        <v>-41900</v>
       </c>
       <c r="H102" s="3">
-        <v>157400</v>
+        <v>-160400</v>
       </c>
       <c r="I102" s="3">
+        <v>-186300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>152500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-37300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-75700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>35100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-23500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>177200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-86200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>147500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>91000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>4300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-9900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>170000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-185200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-27700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>52000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>34200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-15600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-160800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-108300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BEST_QTR_FIN.xlsx
@@ -786,25 +786,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>294500</v>
+        <v>295200</v>
       </c>
       <c r="E8" s="3">
-        <v>236300</v>
+        <v>236800</v>
       </c>
       <c r="F8" s="3">
-        <v>273000</v>
+        <v>273600</v>
       </c>
       <c r="G8" s="3">
-        <v>279600</v>
+        <v>280200</v>
       </c>
       <c r="H8" s="3">
-        <v>266100</v>
+        <v>266600</v>
       </c>
       <c r="I8" s="3">
-        <v>248400</v>
+        <v>248900</v>
       </c>
       <c r="J8" s="3">
-        <v>1574200</v>
+        <v>1577700</v>
       </c>
       <c r="K8" s="3">
         <v>401400</v>
@@ -869,25 +869,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>282300</v>
+        <v>282900</v>
       </c>
       <c r="E9" s="3">
-        <v>237500</v>
+        <v>238000</v>
       </c>
       <c r="F9" s="3">
-        <v>281100</v>
+        <v>281700</v>
       </c>
       <c r="G9" s="3">
-        <v>284900</v>
+        <v>285600</v>
       </c>
       <c r="H9" s="3">
-        <v>278400</v>
+        <v>279000</v>
       </c>
       <c r="I9" s="3">
-        <v>258900</v>
+        <v>259500</v>
       </c>
       <c r="J9" s="3">
-        <v>1601700</v>
+        <v>1605200</v>
       </c>
       <c r="K9" s="3">
         <v>1085400</v>
@@ -952,7 +952,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="E10" s="3">
         <v>-1200</v>
@@ -1084,7 +1084,7 @@
         <v>4600</v>
       </c>
       <c r="J12" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="K12" s="3">
         <v>6000</v>
@@ -1426,25 +1426,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>317900</v>
+        <v>318600</v>
       </c>
       <c r="E17" s="3">
-        <v>275800</v>
+        <v>276400</v>
       </c>
       <c r="F17" s="3">
-        <v>320900</v>
+        <v>321600</v>
       </c>
       <c r="G17" s="3">
-        <v>330300</v>
+        <v>331000</v>
       </c>
       <c r="H17" s="3">
-        <v>314000</v>
+        <v>314700</v>
       </c>
       <c r="I17" s="3">
-        <v>298300</v>
+        <v>298900</v>
       </c>
       <c r="J17" s="3">
-        <v>1775800</v>
+        <v>1779700</v>
       </c>
       <c r="K17" s="3">
         <v>460900</v>
@@ -1512,22 +1512,22 @@
         <v>-23400</v>
       </c>
       <c r="E18" s="3">
-        <v>-39400</v>
+        <v>-39500</v>
       </c>
       <c r="F18" s="3">
-        <v>-47900</v>
+        <v>-48000</v>
       </c>
       <c r="G18" s="3">
-        <v>-50700</v>
+        <v>-50800</v>
       </c>
       <c r="H18" s="3">
-        <v>-48000</v>
+        <v>-48100</v>
       </c>
       <c r="I18" s="3">
-        <v>-49900</v>
+        <v>-50000</v>
       </c>
       <c r="J18" s="3">
-        <v>-201600</v>
+        <v>-202000</v>
       </c>
       <c r="K18" s="3">
         <v>-59500</v>
@@ -1641,7 +1641,7 @@
         <v>1300</v>
       </c>
       <c r="J20" s="3">
-        <v>47600</v>
+        <v>47700</v>
       </c>
       <c r="K20" s="3">
         <v>38000</v>
@@ -1706,25 +1706,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-21300</v>
+        <v>-21400</v>
       </c>
       <c r="E21" s="3">
         <v>-27200</v>
       </c>
       <c r="F21" s="3">
-        <v>-47900</v>
+        <v>-48000</v>
       </c>
       <c r="G21" s="3">
-        <v>-50400</v>
+        <v>-50500</v>
       </c>
       <c r="H21" s="3">
         <v>-43900</v>
       </c>
       <c r="I21" s="3">
-        <v>-41300</v>
+        <v>-41400</v>
       </c>
       <c r="J21" s="3">
-        <v>-127700</v>
+        <v>-127900</v>
       </c>
       <c r="K21" s="3">
         <v>-19900</v>
@@ -1795,13 +1795,13 @@
         <v>2400</v>
       </c>
       <c r="F22" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G22" s="3">
         <v>2800</v>
       </c>
       <c r="H22" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I22" s="3">
         <v>3600</v>
@@ -1872,25 +1872,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-24000</v>
+        <v>-24100</v>
       </c>
       <c r="E23" s="3">
-        <v>-35500</v>
+        <v>-35600</v>
       </c>
       <c r="F23" s="3">
-        <v>-50400</v>
+        <v>-50500</v>
       </c>
       <c r="G23" s="3">
-        <v>-52200</v>
+        <v>-52300</v>
       </c>
       <c r="H23" s="3">
-        <v>-46900</v>
+        <v>-47000</v>
       </c>
       <c r="I23" s="3">
-        <v>-52300</v>
+        <v>-52400</v>
       </c>
       <c r="J23" s="3">
-        <v>-173700</v>
+        <v>-174100</v>
       </c>
       <c r="K23" s="3">
         <v>-27100</v>
@@ -2121,25 +2121,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-24000</v>
+        <v>-24100</v>
       </c>
       <c r="E26" s="3">
-        <v>-35500</v>
+        <v>-35600</v>
       </c>
       <c r="F26" s="3">
-        <v>-50400</v>
+        <v>-50500</v>
       </c>
       <c r="G26" s="3">
-        <v>-52200</v>
+        <v>-52300</v>
       </c>
       <c r="H26" s="3">
-        <v>-46900</v>
+        <v>-47000</v>
       </c>
       <c r="I26" s="3">
-        <v>-52300</v>
+        <v>-52500</v>
       </c>
       <c r="J26" s="3">
-        <v>-174100</v>
+        <v>-174500</v>
       </c>
       <c r="K26" s="3">
         <v>-27200</v>
@@ -2204,25 +2204,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-22100</v>
+        <v>-22200</v>
       </c>
       <c r="E27" s="3">
-        <v>-33600</v>
+        <v>-33700</v>
       </c>
       <c r="F27" s="3">
-        <v>-56400</v>
+        <v>-56500</v>
       </c>
       <c r="G27" s="3">
-        <v>-47600</v>
+        <v>-47700</v>
       </c>
       <c r="H27" s="3">
-        <v>-45600</v>
+        <v>-45700</v>
       </c>
       <c r="I27" s="3">
-        <v>-51200</v>
+        <v>-51300</v>
       </c>
       <c r="J27" s="3">
-        <v>-166900</v>
+        <v>-167300</v>
       </c>
       <c r="K27" s="3">
         <v>-25400</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>203000</v>
+        <v>203500</v>
       </c>
       <c r="K29" s="3">
         <v>-65300</v>
@@ -2637,7 +2637,7 @@
         <v>-1300</v>
       </c>
       <c r="J32" s="3">
-        <v>-47600</v>
+        <v>-47700</v>
       </c>
       <c r="K32" s="3">
         <v>-38000</v>
@@ -2702,25 +2702,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-20000</v>
+        <v>-20100</v>
       </c>
       <c r="E33" s="3">
-        <v>-33600</v>
+        <v>-33700</v>
       </c>
       <c r="F33" s="3">
-        <v>-60800</v>
+        <v>-60900</v>
       </c>
       <c r="G33" s="3">
-        <v>-48900</v>
+        <v>-49000</v>
       </c>
       <c r="H33" s="3">
-        <v>-45300</v>
+        <v>-45400</v>
       </c>
       <c r="I33" s="3">
-        <v>-51300</v>
+        <v>-51400</v>
       </c>
       <c r="J33" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="K33" s="3">
         <v>-90700</v>
@@ -2868,25 +2868,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-20000</v>
+        <v>-20100</v>
       </c>
       <c r="E35" s="3">
-        <v>-33600</v>
+        <v>-33700</v>
       </c>
       <c r="F35" s="3">
-        <v>-60800</v>
+        <v>-60900</v>
       </c>
       <c r="G35" s="3">
-        <v>-48900</v>
+        <v>-49000</v>
       </c>
       <c r="H35" s="3">
-        <v>-45300</v>
+        <v>-45400</v>
       </c>
       <c r="I35" s="3">
-        <v>-51300</v>
+        <v>-51400</v>
       </c>
       <c r="J35" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="K35" s="3">
         <v>-90700</v>
@@ -3101,25 +3101,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>169300</v>
+        <v>169600</v>
       </c>
       <c r="E41" s="3">
-        <v>166800</v>
+        <v>167200</v>
       </c>
       <c r="F41" s="3">
-        <v>73500</v>
+        <v>73700</v>
       </c>
       <c r="G41" s="3">
-        <v>105700</v>
+        <v>106000</v>
       </c>
       <c r="H41" s="3">
-        <v>129800</v>
+        <v>130100</v>
       </c>
       <c r="I41" s="3">
-        <v>282900</v>
+        <v>283600</v>
       </c>
       <c r="J41" s="3">
-        <v>492100</v>
+        <v>493200</v>
       </c>
       <c r="K41" s="3">
         <v>137300</v>
@@ -3187,19 +3187,19 @@
         <v>15000</v>
       </c>
       <c r="E42" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="F42" s="3">
-        <v>99900</v>
+        <v>100100</v>
       </c>
       <c r="G42" s="3">
-        <v>115300</v>
+        <v>115500</v>
       </c>
       <c r="H42" s="3">
-        <v>222300</v>
+        <v>222800</v>
       </c>
       <c r="I42" s="3">
-        <v>178800</v>
+        <v>179200</v>
       </c>
       <c r="J42" s="3">
         <v>20300</v>
@@ -3267,25 +3267,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>124600</v>
+        <v>124900</v>
       </c>
       <c r="E43" s="3">
-        <v>109000</v>
+        <v>109200</v>
       </c>
       <c r="F43" s="3">
-        <v>111700</v>
+        <v>111900</v>
       </c>
       <c r="G43" s="3">
-        <v>131600</v>
+        <v>131900</v>
       </c>
       <c r="H43" s="3">
-        <v>144100</v>
+        <v>144400</v>
       </c>
       <c r="I43" s="3">
-        <v>147800</v>
+        <v>148200</v>
       </c>
       <c r="J43" s="3">
-        <v>172400</v>
+        <v>172800</v>
       </c>
       <c r="K43" s="3">
         <v>203200</v>
@@ -3365,7 +3365,7 @@
         <v>3100</v>
       </c>
       <c r="I44" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J44" s="3">
         <v>3500</v>
@@ -3433,25 +3433,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>129100</v>
+        <v>129400</v>
       </c>
       <c r="E45" s="3">
-        <v>151200</v>
+        <v>151500</v>
       </c>
       <c r="F45" s="3">
-        <v>162200</v>
+        <v>162500</v>
       </c>
       <c r="G45" s="3">
-        <v>161800</v>
+        <v>162100</v>
       </c>
       <c r="H45" s="3">
-        <v>192700</v>
+        <v>193100</v>
       </c>
       <c r="I45" s="3">
-        <v>222300</v>
+        <v>222800</v>
       </c>
       <c r="J45" s="3">
-        <v>254600</v>
+        <v>255100</v>
       </c>
       <c r="K45" s="3">
         <v>802600</v>
@@ -3516,25 +3516,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>439600</v>
+        <v>440600</v>
       </c>
       <c r="E46" s="3">
-        <v>438300</v>
+        <v>439300</v>
       </c>
       <c r="F46" s="3">
-        <v>449600</v>
+        <v>450500</v>
       </c>
       <c r="G46" s="3">
-        <v>517300</v>
+        <v>518400</v>
       </c>
       <c r="H46" s="3">
-        <v>692100</v>
+        <v>693600</v>
       </c>
       <c r="I46" s="3">
-        <v>835200</v>
+        <v>837100</v>
       </c>
       <c r="J46" s="3">
-        <v>942900</v>
+        <v>945000</v>
       </c>
       <c r="K46" s="3">
         <v>1148400</v>
@@ -3599,25 +3599,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>21800</v>
+        <v>21900</v>
       </c>
       <c r="E47" s="3">
         <v>31000</v>
       </c>
       <c r="F47" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="G47" s="3">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="H47" s="3">
         <v>41100</v>
       </c>
       <c r="I47" s="3">
-        <v>49300</v>
+        <v>49400</v>
       </c>
       <c r="J47" s="3">
-        <v>62600</v>
+        <v>62800</v>
       </c>
       <c r="K47" s="3">
         <v>69000</v>
@@ -3682,25 +3682,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>307200</v>
+        <v>307800</v>
       </c>
       <c r="E48" s="3">
-        <v>323000</v>
+        <v>323800</v>
       </c>
       <c r="F48" s="3">
-        <v>348400</v>
+        <v>349100</v>
       </c>
       <c r="G48" s="3">
-        <v>339900</v>
+        <v>340600</v>
       </c>
       <c r="H48" s="3">
-        <v>341200</v>
+        <v>342000</v>
       </c>
       <c r="I48" s="3">
-        <v>349100</v>
+        <v>349800</v>
       </c>
       <c r="J48" s="3">
-        <v>366800</v>
+        <v>367600</v>
       </c>
       <c r="K48" s="3">
         <v>1143100</v>
@@ -3774,16 +3774,16 @@
         <v>17900</v>
       </c>
       <c r="G49" s="3">
-        <v>17100</v>
+        <v>17200</v>
       </c>
       <c r="H49" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="I49" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="J49" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="K49" s="3">
         <v>43500</v>
@@ -4014,25 +4014,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>241300</v>
+        <v>241800</v>
       </c>
       <c r="E52" s="3">
-        <v>223000</v>
+        <v>223400</v>
       </c>
       <c r="F52" s="3">
-        <v>230400</v>
+        <v>230900</v>
       </c>
       <c r="G52" s="3">
-        <v>219600</v>
+        <v>220100</v>
       </c>
       <c r="H52" s="3">
-        <v>200900</v>
+        <v>201300</v>
       </c>
       <c r="I52" s="3">
-        <v>203500</v>
+        <v>203900</v>
       </c>
       <c r="J52" s="3">
-        <v>175500</v>
+        <v>175900</v>
       </c>
       <c r="K52" s="3">
         <v>126100</v>
@@ -4180,25 +4180,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>1029200</v>
+        <v>1031400</v>
       </c>
       <c r="E54" s="3">
-        <v>1033800</v>
+        <v>1036100</v>
       </c>
       <c r="F54" s="3">
-        <v>1073300</v>
+        <v>1075700</v>
       </c>
       <c r="G54" s="3">
-        <v>1129800</v>
+        <v>1132300</v>
       </c>
       <c r="H54" s="3">
-        <v>1291700</v>
+        <v>1294500</v>
       </c>
       <c r="I54" s="3">
-        <v>1452700</v>
+        <v>1455900</v>
       </c>
       <c r="J54" s="3">
-        <v>1563000</v>
+        <v>1566400</v>
       </c>
       <c r="K54" s="3">
         <v>2530100</v>
@@ -4325,25 +4325,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>210600</v>
+        <v>211100</v>
       </c>
       <c r="E57" s="3">
-        <v>206400</v>
+        <v>206800</v>
       </c>
       <c r="F57" s="3">
-        <v>197000</v>
+        <v>197500</v>
       </c>
       <c r="G57" s="3">
-        <v>211300</v>
+        <v>211700</v>
       </c>
       <c r="H57" s="3">
-        <v>206800</v>
+        <v>207200</v>
       </c>
       <c r="I57" s="3">
-        <v>189200</v>
+        <v>189600</v>
       </c>
       <c r="J57" s="3">
-        <v>186400</v>
+        <v>186800</v>
       </c>
       <c r="K57" s="3">
         <v>545900</v>
@@ -4408,25 +4408,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>146400</v>
+        <v>146700</v>
       </c>
       <c r="E58" s="3">
-        <v>124000</v>
+        <v>124200</v>
       </c>
       <c r="F58" s="3">
-        <v>109800</v>
+        <v>110100</v>
       </c>
       <c r="G58" s="3">
-        <v>179700</v>
+        <v>180100</v>
       </c>
       <c r="H58" s="3">
-        <v>299900</v>
+        <v>300500</v>
       </c>
       <c r="I58" s="3">
-        <v>264000</v>
+        <v>264500</v>
       </c>
       <c r="J58" s="3">
-        <v>287600</v>
+        <v>288200</v>
       </c>
       <c r="K58" s="3">
         <v>477100</v>
@@ -4491,25 +4491,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>259500</v>
+        <v>260100</v>
       </c>
       <c r="E59" s="3">
+        <v>265500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>272100</v>
+      </c>
+      <c r="G59" s="3">
         <v>264900</v>
       </c>
-      <c r="F59" s="3">
-        <v>271500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>264300</v>
-      </c>
       <c r="H59" s="3">
-        <v>259000</v>
+        <v>259600</v>
       </c>
       <c r="I59" s="3">
-        <v>301000</v>
+        <v>301700</v>
       </c>
       <c r="J59" s="3">
-        <v>332300</v>
+        <v>333000</v>
       </c>
       <c r="K59" s="3">
         <v>883800</v>
@@ -4574,25 +4574,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>616500</v>
+        <v>617900</v>
       </c>
       <c r="E60" s="3">
-        <v>595300</v>
+        <v>596500</v>
       </c>
       <c r="F60" s="3">
-        <v>578400</v>
+        <v>579600</v>
       </c>
       <c r="G60" s="3">
-        <v>655300</v>
+        <v>656700</v>
       </c>
       <c r="H60" s="3">
-        <v>765600</v>
+        <v>767300</v>
       </c>
       <c r="I60" s="3">
-        <v>754200</v>
+        <v>755800</v>
       </c>
       <c r="J60" s="3">
-        <v>806300</v>
+        <v>808000</v>
       </c>
       <c r="K60" s="3">
         <v>1906700</v>
@@ -4657,25 +4657,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>208200</v>
+        <v>208700</v>
       </c>
       <c r="E61" s="3">
-        <v>197900</v>
+        <v>198300</v>
       </c>
       <c r="F61" s="3">
-        <v>203600</v>
+        <v>204100</v>
       </c>
       <c r="G61" s="3">
-        <v>132600</v>
+        <v>132800</v>
       </c>
       <c r="H61" s="3">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="I61" s="3">
-        <v>251800</v>
+        <v>252300</v>
       </c>
       <c r="J61" s="3">
-        <v>247200</v>
+        <v>247700</v>
       </c>
       <c r="K61" s="3">
         <v>164600</v>
@@ -4740,25 +4740,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>150700</v>
+        <v>151000</v>
       </c>
       <c r="E62" s="3">
-        <v>165100</v>
+        <v>165500</v>
       </c>
       <c r="F62" s="3">
-        <v>180600</v>
+        <v>181000</v>
       </c>
       <c r="G62" s="3">
-        <v>179400</v>
+        <v>179800</v>
       </c>
       <c r="H62" s="3">
-        <v>187300</v>
+        <v>187700</v>
       </c>
       <c r="I62" s="3">
-        <v>192900</v>
+        <v>193300</v>
       </c>
       <c r="J62" s="3">
-        <v>204100</v>
+        <v>204500</v>
       </c>
       <c r="K62" s="3">
         <v>422500</v>
@@ -5072,25 +5072,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>986500</v>
+        <v>988600</v>
       </c>
       <c r="E66" s="3">
-        <v>971200</v>
+        <v>973300</v>
       </c>
       <c r="F66" s="3">
-        <v>977300</v>
+        <v>979400</v>
       </c>
       <c r="G66" s="3">
-        <v>983700</v>
+        <v>985900</v>
       </c>
       <c r="H66" s="3">
-        <v>1096800</v>
+        <v>1099200</v>
       </c>
       <c r="I66" s="3">
-        <v>1218000</v>
+        <v>1220600</v>
       </c>
       <c r="J66" s="3">
-        <v>1277600</v>
+        <v>1280400</v>
       </c>
       <c r="K66" s="3">
         <v>2514400</v>
@@ -5518,25 +5518,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-2662500</v>
+        <v>-2668300</v>
       </c>
       <c r="E72" s="3">
-        <v>-2642500</v>
+        <v>-2648200</v>
       </c>
       <c r="F72" s="3">
-        <v>-2608800</v>
+        <v>-2614500</v>
       </c>
       <c r="G72" s="3">
-        <v>-2555900</v>
+        <v>-2561400</v>
       </c>
       <c r="H72" s="3">
-        <v>-2503400</v>
+        <v>-2508800</v>
       </c>
       <c r="I72" s="3">
-        <v>-2458500</v>
+        <v>-2463900</v>
       </c>
       <c r="J72" s="3">
-        <v>-2407200</v>
+        <v>-2412500</v>
       </c>
       <c r="K72" s="3">
         <v>-2759800</v>
@@ -5850,25 +5850,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>42700</v>
+        <v>42800</v>
       </c>
       <c r="E76" s="3">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="F76" s="3">
-        <v>96000</v>
+        <v>96200</v>
       </c>
       <c r="G76" s="3">
-        <v>146100</v>
+        <v>146400</v>
       </c>
       <c r="H76" s="3">
-        <v>194900</v>
+        <v>195300</v>
       </c>
       <c r="I76" s="3">
-        <v>234700</v>
+        <v>235200</v>
       </c>
       <c r="J76" s="3">
-        <v>285300</v>
+        <v>286000</v>
       </c>
       <c r="K76" s="3">
         <v>15700</v>
@@ -6104,25 +6104,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-20000</v>
+        <v>-20100</v>
       </c>
       <c r="E81" s="3">
-        <v>-33600</v>
+        <v>-33700</v>
       </c>
       <c r="F81" s="3">
-        <v>-60800</v>
+        <v>-60900</v>
       </c>
       <c r="G81" s="3">
-        <v>-48900</v>
+        <v>-49000</v>
       </c>
       <c r="H81" s="3">
-        <v>-45300</v>
+        <v>-45400</v>
       </c>
       <c r="I81" s="3">
-        <v>-51300</v>
+        <v>-51400</v>
       </c>
       <c r="J81" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="K81" s="3">
         <v>-90700</v>
@@ -6722,19 +6722,19 @@
         <v>-22500</v>
       </c>
       <c r="F89" s="3">
-        <v>-33300</v>
+        <v>-33400</v>
       </c>
       <c r="G89" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="H89" s="3">
-        <v>-43200</v>
+        <v>-43300</v>
       </c>
       <c r="I89" s="3">
-        <v>-41900</v>
+        <v>-42000</v>
       </c>
       <c r="J89" s="3">
-        <v>-386300</v>
+        <v>-387200</v>
       </c>
       <c r="K89" s="3">
         <v>-164600</v>
@@ -7082,22 +7082,22 @@
         <v>-6400</v>
       </c>
       <c r="E94" s="3">
-        <v>94100</v>
+        <v>94300</v>
       </c>
       <c r="F94" s="3">
-        <v>33000</v>
+        <v>33100</v>
       </c>
       <c r="G94" s="3">
-        <v>122900</v>
+        <v>123100</v>
       </c>
       <c r="H94" s="3">
         <v>-13900</v>
       </c>
       <c r="I94" s="3">
-        <v>-121200</v>
+        <v>-121400</v>
       </c>
       <c r="J94" s="3">
-        <v>625900</v>
+        <v>627300</v>
       </c>
       <c r="K94" s="3">
         <v>150000</v>
@@ -7534,16 +7534,16 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>-135300</v>
+        <v>-135600</v>
       </c>
       <c r="H100" s="3">
-        <v>-113200</v>
+        <v>-113400</v>
       </c>
       <c r="I100" s="3">
-        <v>-20000</v>
+        <v>-20100</v>
       </c>
       <c r="J100" s="3">
-        <v>-79300</v>
+        <v>-79500</v>
       </c>
       <c r="K100" s="3">
         <v>8400</v>
@@ -7614,7 +7614,7 @@
         <v>-1800</v>
       </c>
       <c r="F101" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="G101" s="3">
         <v>6100</v>
@@ -7623,7 +7623,7 @@
         <v>9900</v>
       </c>
       <c r="I101" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J101" s="3">
         <v>-7700</v>
@@ -7694,22 +7694,22 @@
         <v>-4700</v>
       </c>
       <c r="E102" s="3">
-        <v>86000</v>
+        <v>86200</v>
       </c>
       <c r="F102" s="3">
         <v>-2300</v>
       </c>
       <c r="G102" s="3">
-        <v>-41900</v>
+        <v>-42000</v>
       </c>
       <c r="H102" s="3">
-        <v>-160400</v>
+        <v>-160800</v>
       </c>
       <c r="I102" s="3">
-        <v>-186300</v>
+        <v>-186800</v>
       </c>
       <c r="J102" s="3">
-        <v>152500</v>
+        <v>152900</v>
       </c>
       <c r="K102" s="3">
         <v>-5700</v>
